--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -22,10 +22,10 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>止损线情况</t>
+    <t>止损线状态</t>
   </si>
   <si>
-    <t>是否走向不利指标</t>
+    <t>是否向预期相反方向发展指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -378,7 +378,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -400,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -608,19 +620,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -729,85 +728,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,7 +815,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,25 +827,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,82 +854,106 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1254,11 +1277,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1300,28 +1323,28 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="10" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -1337,58 +1360,58 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1401,22 +1424,22 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="1"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="11"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23">
@@ -1428,22 +1451,22 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="1"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="11"/>
       <c r="W4" s="6"/>
     </row>
     <row r="5" spans="1:23">
@@ -1455,22 +1478,22 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="1"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="11"/>
       <c r="W5" s="6"/>
     </row>
     <row r="6" spans="1:23">
@@ -1482,22 +1505,22 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="1"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="11"/>
       <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23">
@@ -1509,21 +1532,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="6"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
@@ -1534,21 +1559,23 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="6"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
@@ -1559,21 +1586,23 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="6"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
@@ -1584,21 +1613,23 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="6"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
@@ -1609,21 +1640,23 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="6"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
@@ -1634,21 +1667,23 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="6"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
@@ -1659,21 +1694,23 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="6"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
@@ -1684,21 +1721,23 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="6"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
@@ -1709,21 +1748,23 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="6"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
@@ -1734,21 +1775,23 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="6"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
@@ -1759,21 +1802,23 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="6"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
@@ -1784,21 +1829,23 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="6"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
@@ -1809,21 +1856,23 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="6"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
@@ -1834,21 +1883,23 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="6"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
@@ -1859,21 +1910,23 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="6"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
@@ -1884,21 +1937,23 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
       <c r="R22" s="6"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
@@ -1909,21 +1964,23 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="6"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
@@ -1933,23 +1990,26 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="6"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -1957,22 +2017,26 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -1980,22 +2044,26 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2003,22 +2071,26 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2026,22 +2098,26 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2049,22 +2125,26 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="26"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2072,22 +2152,26 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="26"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2095,22 +2179,26 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="26"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2118,22 +2206,26 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="26"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2141,22 +2233,26 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="26"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2164,22 +2260,26 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="26"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2187,22 +2287,26 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="26"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2210,22 +2314,26 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="26"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2233,22 +2341,26 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="26"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2256,20 +2368,24 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="26"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -127,6 +127,9 @@
   <si>
     <t>市盈率是否翻倍
 (超过2倍要考虑卖出)</t>
+  </si>
+  <si>
+    <t>3.23%</t>
   </si>
   <si>
     <t>否</t>
@@ -2871,11 +2874,11 @@
   <dimension ref="A1:W501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6:W7"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3030,7 +3033,9 @@
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I3" s="17">
         <f>(B3-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10001,48,FALSE)</f>
         <v>0.0275229357798165</v>
@@ -3051,23 +3056,23 @@
         <v>36.17</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="21" t="str">
-        <f>IF(G3&gt;(I3-(I3-H3)/3),"上部",IF(G3&gt;(J3+(I3-H3)/3),"中部","下部"))</f>
+        <f>IF(B3&gt;=(D3-(D3-E3)/3),"上部",IF(B3&gt;=(E3+(D3-E3)/3),"中部","下部"))</f>
         <v>上部</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="7">
@@ -3075,7 +3080,7 @@
         <v>1.41</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W3" s="26">
         <f>F3/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10001,45,FALSE)</f>
@@ -3128,23 +3133,23 @@
         <v>36.17</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="21" t="str">
-        <f>IF(G4&gt;(I4-(I4-H4)/3),"上部",IF(G4&gt;(J4+(I4-H4)/3),"中部","下部"))</f>
-        <v>上部</v>
+        <f>IF(B4&gt;=(D4-(D4-E4)/3),"上部",IF(B4&gt;=(E4+(D4-E4)/3),"中部","下部"))</f>
+        <v>中部</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="7">
@@ -3205,23 +3210,23 @@
         <v>36.17</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="21" t="str">
-        <f>IF(G5&gt;(I5-(I5-H5)/3),"上部",IF(G5&gt;(J5+(I5-H5)/3),"中部","下部"))</f>
-        <v>上部</v>
+        <v>28</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f>IF(B5&gt;=(D5-(D5-E5)/3),"上部",IF(B5&gt;=(E5+(D5-E5)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="7">
@@ -3282,23 +3287,23 @@
         <v>36.17</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="21" t="str">
-        <f>IF(G6&gt;(I6-(I6-H6)/3),"上部",IF(G6&gt;(J6+(I6-H6)/3),"中部","下部"))</f>
-        <v>上部</v>
+        <v>28</v>
+      </c>
+      <c r="R6" s="23" t="str">
+        <f>IF(B6&gt;=(D6-(D6-E6)/3),"上部",IF(B6&gt;=(E6+(D6-E6)/3),"中部","下部"))</f>
+        <v>下部</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="7">
@@ -3359,26 +3364,26 @@
         <v>36.17</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R7" s="21" t="str">
-        <f>IF(G7&gt;(I7-(I7-H7)/3),"上部",IF(G7&gt;(J7+(I7-H7)/3),"中部","下部"))</f>
-        <v>上部</v>
+        <f>IF(B7&gt;=(D7-(D7-E7)/3),"上部",IF(B7&gt;=(E7+(D7-E7)/3),"中部","下部"))</f>
+        <v>中部</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U7" s="7">
         <f>D7-E7</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -146,11 +146,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -190,30 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,9 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +220,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,17 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,38 +324,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,13 +397,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,61 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,19 +475,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,37 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,18 +616,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,21 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -691,147 +680,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2874,11 +2874,11 @@
   <dimension ref="A1:W501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3052,8 +3052,8 @@
         <v>32.65</v>
       </c>
       <c r="M3" s="7">
-        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)*2</f>
-        <v>36.17</v>
+        <f>L3+L3*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1000,43,FALSE)</f>
+        <v>34.41</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>28</v>
@@ -3129,8 +3129,8 @@
         <v>32.65</v>
       </c>
       <c r="M4" s="7">
-        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)*2</f>
-        <v>36.17</v>
+        <f>L4+L4*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1001,43,FALSE)</f>
+        <v>34.41</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>28</v>
@@ -3206,8 +3206,8 @@
         <v>32.65</v>
       </c>
       <c r="M5" s="7">
-        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)*2</f>
-        <v>36.17</v>
+        <f>L5+L5*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1002,43,FALSE)</f>
+        <v>34.41</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>28</v>
@@ -3283,8 +3283,8 @@
         <v>32.65</v>
       </c>
       <c r="M6" s="7">
-        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)*2</f>
-        <v>36.17</v>
+        <f>L6+L6*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1003,43,FALSE)</f>
+        <v>34.41</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>28</v>
@@ -3360,8 +3360,8 @@
         <v>32.65</v>
       </c>
       <c r="M7" s="7">
-        <f>L7+L7*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1004,43,FALSE)*2</f>
-        <v>36.17</v>
+        <f>L7+L7*VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL1004,43,FALSE)</f>
+        <v>34.41</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>28</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -2874,11 +2874,11 @@
   <dimension ref="A1:W501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -205,6 +208,12 @@
   <si>
     <t>3周内涨幅
 (超过50%，则靠近，考虑卖出)</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>否</t>
@@ -968,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,6 +1020,12 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,6 +1034,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1048,9 +1066,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1136,6 +1151,1629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>000001</v>
+          </cell>
+          <cell r="B4">
+            <v>44517</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040(楚天龙)</v>
+          </cell>
+          <cell r="D4">
+            <v>22.15</v>
+          </cell>
+          <cell r="E4">
+            <v>23.55</v>
+          </cell>
+          <cell r="F4">
+            <v>24.52</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H4">
+            <v>25.7</v>
+          </cell>
+          <cell r="I4">
+            <v>5.46</v>
+          </cell>
+          <cell r="J4">
+            <v>46.33</v>
+          </cell>
+          <cell r="K4">
+            <v>3.70695970695971</v>
+          </cell>
+          <cell r="L4">
+            <v>0.445283833369307</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>20.79</v>
+          </cell>
+          <cell r="O4">
+            <v>29.8</v>
+          </cell>
+          <cell r="P4">
+            <v>21.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>26.5</v>
+          </cell>
+          <cell r="R4">
+            <v>22.1</v>
+          </cell>
+          <cell r="S4">
+            <v>26.4</v>
+          </cell>
+          <cell r="T4">
+            <v>24</v>
+          </cell>
+          <cell r="U4">
+            <v>26.2</v>
+          </cell>
+          <cell r="V4">
+            <v>24.52</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.551262680768401</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.265771812080537</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.166037735849057</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0909090909090909</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.0641221374045801</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AF4" t="str">
+            <v>5T</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH4">
+            <v>28.15</v>
+          </cell>
+          <cell r="AI4">
+            <v>21.87</v>
+          </cell>
+          <cell r="AJ4">
+            <v>6.28</v>
+          </cell>
+          <cell r="AK4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AL4">
+            <v>24.68</v>
+          </cell>
+          <cell r="AM4">
+            <v>32.49</v>
+          </cell>
+          <cell r="AN4">
+            <v>152</v>
+          </cell>
+          <cell r="AO4">
+            <v>100</v>
+          </cell>
+          <cell r="AP4">
+            <v>4.13815789473685</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.0580152671755725</v>
+          </cell>
+          <cell r="AR4">
+            <v>0.240076335877863</v>
+          </cell>
+          <cell r="AS4">
+            <v>150.88</v>
+          </cell>
+          <cell r="AT4" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU4">
+            <v>44523</v>
+          </cell>
+          <cell r="AV4">
+            <v>26.2</v>
+          </cell>
+          <cell r="AW4">
+            <v>200</v>
+          </cell>
+          <cell r="AX4">
+            <v>5</v>
+          </cell>
+          <cell r="AY4">
+            <v>0.1048</v>
+          </cell>
+          <cell r="AZ4">
+            <v>5245.1048</v>
+          </cell>
+          <cell r="BA4">
+            <v>309.1048</v>
+          </cell>
+          <cell r="BB4">
+            <v>26.5</v>
+          </cell>
+          <cell r="BC4">
+            <v>25.21</v>
+          </cell>
+          <cell r="BD4">
+            <v>0.232558139534884</v>
+          </cell>
+          <cell r="BE4">
+            <v>44526</v>
+          </cell>
+          <cell r="BF4">
+            <v>24.89</v>
+          </cell>
+          <cell r="BG4">
+            <v>100</v>
+          </cell>
+          <cell r="BH4">
+            <v>5</v>
+          </cell>
+          <cell r="BI4">
+            <v>2.489</v>
+          </cell>
+          <cell r="BJ4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="BK4">
+            <v>27.43</v>
+          </cell>
+          <cell r="BL4">
+            <v>24.74</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>000002</v>
+          </cell>
+          <cell r="B6">
+            <v>44517</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>600085(同仁堂)</v>
+          </cell>
+          <cell r="D6">
+            <v>31.92</v>
+          </cell>
+          <cell r="E6">
+            <v>32.63</v>
+          </cell>
+          <cell r="F6">
+            <v>33.17</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H6">
+            <v>33.73</v>
+          </cell>
+          <cell r="I6">
+            <v>22.98</v>
+          </cell>
+          <cell r="J6">
+            <v>44.42</v>
+          </cell>
+          <cell r="K6">
+            <v>0.467798085291558</v>
+          </cell>
+          <cell r="L6">
+            <v>0.240657361548852</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>30.78</v>
+          </cell>
+          <cell r="O6">
+            <v>35</v>
+          </cell>
+          <cell r="P6">
+            <v>31.27</v>
+          </cell>
+          <cell r="Q6">
+            <v>34.82</v>
+          </cell>
+          <cell r="R6">
+            <v>32.12</v>
+          </cell>
+          <cell r="S6">
+            <v>34.11</v>
+          </cell>
+          <cell r="T6">
+            <v>32.53</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z6">
+            <v>0.307068887888339</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.106571428571429</v>
+          </cell>
+          <cell r="AB6">
+            <v>0.077541642734061</v>
+          </cell>
+          <cell r="AC6">
+            <v>0.0463207270595133</v>
+          </cell>
+          <cell r="AD6" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AF6" t="str">
+            <v>4T</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
+          </cell>
+          <cell r="AH6">
+            <v>35.48</v>
+          </cell>
+          <cell r="AI6">
+            <v>31.36</v>
+          </cell>
+          <cell r="AJ6">
+            <v>4.12</v>
+          </cell>
+          <cell r="AK6">
+            <v>34.12</v>
+          </cell>
+          <cell r="AL6">
+            <v>32.53</v>
+          </cell>
+          <cell r="AM6">
+            <v>39.33</v>
+          </cell>
+          <cell r="AN6">
+            <v>159</v>
+          </cell>
+          <cell r="AO6">
+            <v>100</v>
+          </cell>
+          <cell r="AP6">
+            <v>3.27672955974844</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.0466002344665884</v>
+          </cell>
+          <cell r="AR6">
+            <v>0.152696365767878</v>
+          </cell>
+          <cell r="AS6">
+            <v>37.41</v>
+          </cell>
+          <cell r="AT6" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU6">
+            <v>44523</v>
+          </cell>
+          <cell r="AV6">
+            <v>33.73</v>
+          </cell>
+          <cell r="AW6">
+            <v>100</v>
+          </cell>
+          <cell r="AX6">
+            <v>5</v>
+          </cell>
+          <cell r="AY6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="AZ6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="BA6">
+            <v>125.06746</v>
+          </cell>
+          <cell r="BB6">
+            <v>35.36</v>
+          </cell>
+          <cell r="BC6">
+            <v>33.1</v>
+          </cell>
+          <cell r="BD6">
+            <v>0.721238938053099</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>000003</v>
+          </cell>
+          <cell r="B7">
+            <v>44519</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>603867(新化股份)</v>
+          </cell>
+          <cell r="D7">
+            <v>28.2</v>
+          </cell>
+          <cell r="E7">
+            <v>29.15</v>
+          </cell>
+          <cell r="F7">
+            <v>31.53</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H7">
+            <v>32.57</v>
+          </cell>
+          <cell r="I7">
+            <v>20.61</v>
+          </cell>
+          <cell r="J7">
+            <v>41.5</v>
+          </cell>
+          <cell r="K7">
+            <v>0.58030082484231</v>
+          </cell>
+          <cell r="L7">
+            <v>0.215180722891566</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>28.42</v>
+          </cell>
+          <cell r="O7">
+            <v>34.7</v>
+          </cell>
+          <cell r="P7">
+            <v>29</v>
+          </cell>
+          <cell r="Q7">
+            <v>35.27</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.315180722891566</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.164265129682997</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.124184859654097</v>
+          </cell>
+          <cell r="AC7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD7" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AF7" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
+          </cell>
+          <cell r="AH7">
+            <v>36.21</v>
+          </cell>
+          <cell r="AI7">
+            <v>27.35</v>
+          </cell>
+          <cell r="AJ7">
+            <v>8.86</v>
+          </cell>
+          <cell r="AK7">
+            <v>32.65</v>
+          </cell>
+          <cell r="AL7">
+            <v>30.89</v>
+          </cell>
+          <cell r="AM7">
+            <v>36.22</v>
+          </cell>
+          <cell r="AN7">
+            <v>176</v>
+          </cell>
+          <cell r="AO7">
+            <v>100</v>
+          </cell>
+          <cell r="AP7">
+            <v>2.02840909090909</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.0539050535987748</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.109341500765697</v>
+          </cell>
+          <cell r="AS7">
+            <v>28.82</v>
+          </cell>
+          <cell r="AT7" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU7">
+            <v>44522</v>
+          </cell>
+          <cell r="AV7">
+            <v>32.7</v>
+          </cell>
+          <cell r="AW7">
+            <v>100</v>
+          </cell>
+          <cell r="AX7">
+            <v>5</v>
+          </cell>
+          <cell r="AY7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="AZ7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="BA7">
+            <v>186.0654</v>
+          </cell>
+          <cell r="BB7">
+            <v>33.9</v>
+          </cell>
+          <cell r="BC7">
+            <v>32.49</v>
+          </cell>
+          <cell r="BD7">
+            <v>0.851063829787233</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>000004</v>
+          </cell>
+          <cell r="B8">
+            <v>44525</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932(明德生物)</v>
+          </cell>
+          <cell r="D8">
+            <v>64.32</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>65，56</v>
+          </cell>
+          <cell r="F8">
+            <v>68.37</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>200日均线：向上
+150日均线：向上
+  50日均线：向上</v>
+          </cell>
+          <cell r="H8">
+            <v>69.16</v>
+          </cell>
+          <cell r="I8">
+            <v>40.64</v>
+          </cell>
+          <cell r="J8">
+            <v>90.29</v>
+          </cell>
+          <cell r="K8">
+            <v>0.701771653543307</v>
+          </cell>
+          <cell r="L8">
+            <v>0.234023701406579</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>60.05</v>
+          </cell>
+          <cell r="O8">
+            <v>74.75</v>
+          </cell>
+          <cell r="P8">
+            <v>65.5</v>
+          </cell>
+          <cell r="Q8">
+            <v>70.98</v>
+          </cell>
+          <cell r="R8">
+            <v>66.88</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z8">
+            <v>0.33492081072101</v>
+          </cell>
+          <cell r="AA8">
+            <v>0.123745819397993</v>
+          </cell>
+          <cell r="AB8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AC8" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AF8" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
+          </cell>
+          <cell r="AH8">
+            <v>75.02</v>
+          </cell>
+          <cell r="AI8">
+            <v>62.33</v>
+          </cell>
+          <cell r="AJ8">
+            <v>12.69</v>
+          </cell>
+          <cell r="AK8">
+            <v>70.98</v>
+          </cell>
+          <cell r="AL8">
+            <v>66.88</v>
+          </cell>
+          <cell r="AM8">
+            <v>84.94</v>
+          </cell>
+          <cell r="AN8">
+            <v>410.000000000001</v>
+          </cell>
+          <cell r="AO8">
+            <v>0</v>
+          </cell>
+          <cell r="AP8">
+            <v>3.40487804878048</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.0577627500704425</v>
+          </cell>
+          <cell r="AR8">
+            <v>0.196675119752043</v>
+          </cell>
+          <cell r="AS8">
+            <v>6.49</v>
+          </cell>
+          <cell r="AT8" t="str">
+            <v>可以</v>
+          </cell>
+          <cell r="AU8">
+            <v>44526</v>
+          </cell>
+          <cell r="AV8">
+            <v>72.07</v>
+          </cell>
+          <cell r="AW8">
+            <v>100</v>
+          </cell>
+          <cell r="AX8">
+            <v>5</v>
+          </cell>
+          <cell r="AY8">
+            <v>0.14414</v>
+          </cell>
+          <cell r="AZ8">
+            <v>7212.14414</v>
+          </cell>
+          <cell r="BA8">
+            <v>524.14414</v>
+          </cell>
+          <cell r="BB8">
+            <v>74.5</v>
+          </cell>
+          <cell r="BC8">
+            <v>70.4</v>
+          </cell>
+          <cell r="BD8">
+            <v>0.592682926829271</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>000005</v>
+          </cell>
+          <cell r="B9">
+            <v>44522</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>605016(百龙创园)</v>
+          </cell>
+          <cell r="D9">
+            <v>28.37</v>
+          </cell>
+          <cell r="E9">
+            <v>29.06</v>
+          </cell>
+          <cell r="F9">
+            <v>29.49</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>29.69</v>
+          </cell>
+          <cell r="I9">
+            <v>17.54</v>
+          </cell>
+          <cell r="J9">
+            <v>48.5</v>
+          </cell>
+          <cell r="K9">
+            <v>0.692702394526796</v>
+          </cell>
+          <cell r="L9">
+            <v>0.387835051546392</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>24.11</v>
+          </cell>
+          <cell r="O9">
+            <v>38.16</v>
+          </cell>
+          <cell r="P9">
+            <v>25.12</v>
+          </cell>
+          <cell r="Q9">
+            <v>30.9</v>
+          </cell>
+          <cell r="R9">
+            <v>29.2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>24w</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.502886597938144</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.341719077568134</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.0550161812297734</v>
+          </cell>
+          <cell r="AC9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AD9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
+          </cell>
+          <cell r="AH9">
+            <v>32.43</v>
+          </cell>
+          <cell r="AI9">
+            <v>26.16</v>
+          </cell>
+          <cell r="AJ9">
+            <v>6.27</v>
+          </cell>
+          <cell r="AK9">
+            <v>30.66</v>
+          </cell>
+          <cell r="AL9">
+            <v>29.35</v>
+          </cell>
+          <cell r="AM9">
+            <v>38.71</v>
+          </cell>
+          <cell r="AN9">
+            <v>131</v>
+          </cell>
+          <cell r="AO9">
+            <v>200</v>
+          </cell>
+          <cell r="AP9">
+            <v>6.14503816793894</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.042726679712981</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.262557077625571</v>
+          </cell>
+          <cell r="AS9">
+            <v>38.46</v>
+          </cell>
+          <cell r="AT9" t="str">
+            <v>不宜入场</v>
+          </cell>
+          <cell r="AU9">
+            <v>44524</v>
+          </cell>
+          <cell r="AV9">
+            <v>30.54</v>
+          </cell>
+          <cell r="AW9">
+            <v>100</v>
+          </cell>
+          <cell r="AX9">
+            <v>5</v>
+          </cell>
+          <cell r="AY9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="AZ9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="BA9">
+            <v>124.06108</v>
+          </cell>
+          <cell r="BB9">
+            <v>30.72</v>
+          </cell>
+          <cell r="BC9">
+            <v>29.33</v>
+          </cell>
+          <cell r="BD9">
+            <v>0.129496402877698</v>
+          </cell>
+          <cell r="BE9">
+            <v>44525</v>
+          </cell>
+          <cell r="BF9">
+            <v>30.15</v>
+          </cell>
+          <cell r="BG9">
+            <v>100</v>
+          </cell>
+          <cell r="BH9">
+            <v>5</v>
+          </cell>
+          <cell r="BI9">
+            <v>3.075</v>
+          </cell>
+          <cell r="BJ9">
+            <v>3006.925</v>
+          </cell>
+          <cell r="BK9">
+            <v>30.69</v>
+          </cell>
+          <cell r="BL9">
+            <v>30.01</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>000010</v>
+          </cell>
+          <cell r="B10">
+            <v>44524</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>603663(三祥新材)</v>
+          </cell>
+          <cell r="D10">
+            <v>18.26</v>
+          </cell>
+          <cell r="E10">
+            <v>19.01</v>
+          </cell>
+          <cell r="F10">
+            <v>21.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>23.2</v>
+          </cell>
+          <cell r="I10">
+            <v>13.04</v>
+          </cell>
+          <cell r="J10">
+            <v>26.64</v>
+          </cell>
+          <cell r="K10">
+            <v>0.779141104294479</v>
+          </cell>
+          <cell r="L10">
+            <v>0.129129129129129</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18.5</v>
+          </cell>
+          <cell r="O10">
+            <v>22.39</v>
+          </cell>
+          <cell r="P10">
+            <v>18.85</v>
+          </cell>
+          <cell r="Q10">
+            <v>23.56</v>
+          </cell>
+          <cell r="R10">
+            <v>20.89</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.305555555555556</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.158106297454221</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.113327674023769</v>
+          </cell>
+          <cell r="AC10" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+          <cell r="AH10">
+            <v>25.19</v>
+          </cell>
+          <cell r="AI10">
+            <v>17.73</v>
+          </cell>
+          <cell r="AJ10">
+            <v>7.46</v>
+          </cell>
+          <cell r="AK10">
+            <v>23.56</v>
+          </cell>
+          <cell r="AL10">
+            <v>22.12</v>
+          </cell>
+          <cell r="AM10">
+            <v>26.91</v>
+          </cell>
+          <cell r="AN10">
+            <v>144</v>
+          </cell>
+          <cell r="AO10">
+            <v>200</v>
+          </cell>
+          <cell r="AP10">
+            <v>2.32638888888889</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.0611205432937181</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.142190152801358</v>
+          </cell>
+          <cell r="AS10">
+            <v>53.49</v>
+          </cell>
+          <cell r="AT10" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>000014</v>
+          </cell>
+          <cell r="B11">
+            <v>44524</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>600392(盛和资源)</v>
+          </cell>
+          <cell r="D11">
+            <v>20.14</v>
+          </cell>
+          <cell r="E11">
+            <v>20.65</v>
+          </cell>
+          <cell r="F11">
+            <v>20.97</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>21.52</v>
+          </cell>
+          <cell r="I11">
+            <v>7.07</v>
+          </cell>
+          <cell r="J11">
+            <v>29.28</v>
+          </cell>
+          <cell r="K11">
+            <v>2.04384724186704</v>
+          </cell>
+          <cell r="L11">
+            <v>0.265027322404372</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>18.34</v>
+          </cell>
+          <cell r="O11">
+            <v>21.65</v>
+          </cell>
+          <cell r="P11">
+            <v>18.61</v>
+          </cell>
+          <cell r="Q11">
+            <v>21.14</v>
+          </cell>
+          <cell r="R11">
+            <v>18.86</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.373633879781421</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.140415704387991</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.107852412488174</v>
+          </cell>
+          <cell r="AC11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AN11">
+            <v>0</v>
+          </cell>
+          <cell r="AO11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="AP11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>000015</v>
+          </cell>
+          <cell r="B12">
+            <v>44524</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>600399(抚顺特钢)</v>
+          </cell>
+          <cell r="D12">
+            <v>19.9</v>
+          </cell>
+          <cell r="E12">
+            <v>20.73</v>
+          </cell>
+          <cell r="F12">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>23.53</v>
+          </cell>
+          <cell r="I12">
+            <v>7.25</v>
+          </cell>
+          <cell r="J12">
+            <v>29.3</v>
+          </cell>
+          <cell r="K12">
+            <v>2.24551724137931</v>
+          </cell>
+          <cell r="L12">
+            <v>0.196928327645051</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>19.05</v>
+          </cell>
+          <cell r="O12">
+            <v>22.91</v>
+          </cell>
+          <cell r="P12">
+            <v>19.73</v>
+          </cell>
+          <cell r="Q12">
+            <v>25.5</v>
+          </cell>
+          <cell r="R12">
+            <v>23.12</v>
+          </cell>
+          <cell r="S12">
+            <v>26.45</v>
+          </cell>
+          <cell r="T12">
+            <v>23.48</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>12w</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.349829351535836</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.138804015713662</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.0933333333333333</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.112287334593573</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AF12" t="str">
+            <v>3T</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AK12">
+            <v>25.15</v>
+          </cell>
+          <cell r="AL12">
+            <v>23.48</v>
+          </cell>
+          <cell r="AM12">
+            <v>27.83</v>
+          </cell>
+          <cell r="AN12">
+            <v>167</v>
+          </cell>
+          <cell r="AO12">
+            <v>100</v>
+          </cell>
+          <cell r="AP12">
+            <v>1.60479041916168</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>000017</v>
+          </cell>
+          <cell r="B13">
+            <v>44524</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>601677(明泰铝业)</v>
+          </cell>
+          <cell r="D13">
+            <v>26.7</v>
+          </cell>
+          <cell r="E13">
+            <v>28.65</v>
+          </cell>
+          <cell r="F13">
+            <v>33.16</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>36.11</v>
+          </cell>
+          <cell r="I13">
+            <v>11.38</v>
+          </cell>
+          <cell r="J13">
+            <v>41.75</v>
+          </cell>
+          <cell r="K13">
+            <v>2.17311072056239</v>
+          </cell>
+          <cell r="L13">
+            <v>0.135089820359281</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>28.85</v>
+          </cell>
+          <cell r="O13">
+            <v>35.46</v>
+          </cell>
+          <cell r="P13">
+            <v>29.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>34.35</v>
+          </cell>
+          <cell r="R13">
+            <v>31.5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>8w</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.308982035928144</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.180767061477721</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.0829694323144105</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AF13" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG13" t="str">
+            <v>减少明显，空头几乎被榨干</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AK13">
+            <v>37.13</v>
+          </cell>
+          <cell r="AL13">
+            <v>35.6</v>
+          </cell>
+          <cell r="AM13">
+            <v>38.61</v>
+          </cell>
+          <cell r="AN13">
+            <v>153</v>
+          </cell>
+          <cell r="AO13">
+            <v>100</v>
+          </cell>
+          <cell r="AP13">
+            <v>0.967320261437906</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>000018</v>
+          </cell>
+          <cell r="B14">
+            <v>44524</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>002223(鱼跃医疗)</v>
+          </cell>
+          <cell r="D14">
+            <v>32.91</v>
+          </cell>
+          <cell r="E14">
+            <v>33.52</v>
+          </cell>
+          <cell r="F14">
+            <v>34.71</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>36.09</v>
+          </cell>
+          <cell r="I14">
+            <v>25.12</v>
+          </cell>
+          <cell r="J14">
+            <v>41.77</v>
+          </cell>
+          <cell r="K14">
+            <v>0.436703821656051</v>
+          </cell>
+          <cell r="L14">
+            <v>0.135982762748384</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30.46</v>
+          </cell>
+          <cell r="O14">
+            <v>36.94</v>
+          </cell>
+          <cell r="P14">
+            <v>33.59</v>
+          </cell>
+          <cell r="Q14">
+            <v>37.1</v>
+          </cell>
+          <cell r="R14">
+            <v>34.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>16w</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.270768494134546</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.0906876015159717</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.0716981132075473</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AF14" t="str">
+            <v>3T</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>不是很明显</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AK14">
+            <v>37.09</v>
+          </cell>
+          <cell r="AL14">
+            <v>35.25</v>
+          </cell>
+          <cell r="AM14">
+            <v>38.8</v>
+          </cell>
+          <cell r="AN14">
+            <v>184</v>
+          </cell>
+          <cell r="AO14">
+            <v>100</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.929347826086951</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14" t="str">
+            <v>不宜入场</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>000019</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>000020</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>000021</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>000022</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>000023</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>000024</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>000025</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>000026</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>000027</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>000028</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>000029</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>000030</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>000031</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>000032</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>000033</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>000034</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>000035</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>000036</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>000037</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>000038</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>000039</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>000040</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>000041</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>000042</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>000043</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>000044</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>000045</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>000046</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>000047</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>000048</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>000049</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>000050</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>000051</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>000052</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>000053</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>000054</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>000055</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>000056</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>000057</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>000058</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>000059</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>000060</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>000061</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>000062</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>000063</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>000064</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>000065</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>000066</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>000067</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>000068</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>000069</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1399,11 +3037,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5:N8"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1453,30 +3091,30 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="18" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="34" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1493,28 +3131,28 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="33" t="s">
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -1551,56 +3189,56 @@
       <c r="L3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="29" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="29" t="s">
+      <c r="Z3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="35" t="s">
+      <c r="AC3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="34"/>
+      <c r="AD3" s="36"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -1615,30 +3253,30 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="30" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
+    </row>
+    <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
         <v>44522</v>
       </c>
@@ -1654,42 +3292,60 @@
       <c r="E5" s="6">
         <v>32.49</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="17" t="s">
+      <c r="F5" s="7">
+        <v>31.97</v>
+      </c>
+      <c r="G5" s="7">
+        <v>31.62</v>
+      </c>
+      <c r="H5" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>37</v>
+      <c r="K5" s="14">
+        <f>(B5-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10003,48,FALSE)</f>
+        <v>0.0275229357798165</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>37</v>
+      <c r="L5" s="15">
+        <f>I5/(ROW()-4)</f>
+        <v>1</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>37</v>
+      <c r="M5" s="19" t="s">
+        <v>38</v>
       </c>
-      <c r="R5" s="17" t="str">
+      <c r="N5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="20" t="str">
         <f>IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5">
@@ -1707,42 +3363,61 @@
       <c r="E6" s="6">
         <v>33.33</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="17" t="s">
-        <v>37</v>
+      <c r="F6" s="7">
+        <v>32.15</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>37</v>
+      <c r="G6" s="7">
+        <v>31.7</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>37</v>
+      <c r="H6" s="7">
+        <v>29.73</v>
       </c>
-      <c r="Q6" s="17" t="s">
-        <v>37</v>
+      <c r="I6" s="8">
+        <v>2</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="J6" s="16">
+        <f>(B6-B5)/B5</f>
+        <v>0.0071428571428572</v>
+      </c>
+      <c r="K6" s="14">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <v>0.0348623853211009</v>
+      </c>
+      <c r="L6" s="15">
+        <f>I6/(ROW()-4)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="20" t="str">
         <f>IF(B6&gt;(D6-(D6-E6)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="5">
@@ -1760,42 +3435,61 @@
       <c r="E7" s="6">
         <v>33.26</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="17" t="s">
-        <v>37</v>
+      <c r="F7" s="7">
+        <v>32.27</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>37</v>
+      <c r="G7" s="7">
+        <v>31.77</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>37</v>
+      <c r="H7" s="7">
+        <v>29.94</v>
       </c>
-      <c r="Q7" s="17" t="s">
-        <v>37</v>
+      <c r="I7" s="8">
+        <v>2</v>
       </c>
-      <c r="R7" s="27" t="str">
+      <c r="J7" s="16">
+        <f>(B7-B6)/B6</f>
+        <v>-0.0121158392434989</v>
+      </c>
+      <c r="K7" s="14">
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <v>0.0223241590214066</v>
+      </c>
+      <c r="L7" s="15">
+        <f>I7/(ROW()-4)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="19" t="str">
         <f>IF(B7&gt;(D7-(D7-E7)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5">
@@ -1813,114 +3507,209 @@
       <c r="E8" s="6">
         <v>32.59</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="17" t="s">
-        <v>37</v>
+      <c r="F8" s="7">
+        <v>32.33</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>37</v>
+      <c r="G8" s="7">
+        <v>31.81</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>37</v>
+      <c r="H8" s="7">
+        <v>29.58</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>37</v>
+      <c r="I8" s="8">
+        <v>2</v>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="J8" s="16">
+        <f>(B8-B7)/B7</f>
+        <v>-0.0173496859108585</v>
+      </c>
+      <c r="K8" s="14">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <v>0.00458715596330271</v>
+      </c>
+      <c r="L8" s="15">
+        <f>I8/(ROW()-4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="19" t="str">
         <f>IF(B8&gt;(D8-(D8-E8)/2),"上部","下部")</f>
         <v>下部</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">
         <v>44526</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="B9" s="7">
+        <v>34.35</v>
+      </c>
+      <c r="C9" s="7">
+        <v>32.99</v>
+      </c>
+      <c r="D9" s="7">
+        <v>35.29</v>
+      </c>
+      <c r="E9" s="7">
+        <v>32.88</v>
+      </c>
+      <c r="F9" s="7">
+        <v>32.52</v>
+      </c>
+      <c r="G9" s="7">
+        <v>31.91</v>
+      </c>
+      <c r="H9" s="7">
+        <v>29.06</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3</v>
+      </c>
+      <c r="J9" s="16">
+        <f>(B9-B8)/B8</f>
+        <v>0.045662100456621</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <v>0.0504587155963302</v>
+      </c>
+      <c r="L9" s="15">
+        <f>I9/(ROW()-4)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="20" t="str">
+        <f>IF(B9&gt;(D9-(D9-E9)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
-        <v>44527</v>
+        <v>44529</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="B10" s="7">
+        <v>34.05</v>
+      </c>
+      <c r="C10" s="7">
+        <v>33.98</v>
+      </c>
+      <c r="D10" s="7">
+        <v>34.61</v>
+      </c>
+      <c r="E10" s="7">
+        <v>33.54</v>
+      </c>
+      <c r="F10" s="7">
+        <v>32.67</v>
+      </c>
+      <c r="G10" s="7">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7">
+        <v>30.39</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="16">
+        <f>(B10-B9)/B9</f>
+        <v>-0.0087336244541486</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <v>0.0412844036697246</v>
+      </c>
+      <c r="L10" s="15">
+        <f>I10/(ROW()-4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="19" t="str">
+        <f>IF(B10&gt;(D10-(D10-E10)/2),"上部","下部")</f>
+        <v>下部</v>
+      </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">
-        <v>44528</v>
+        <v>44530</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1942,19 +3731,19 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
-        <v>44529</v>
+        <v>44531</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1976,19 +3765,19 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
-        <v>44530</v>
+        <v>44532</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2010,20 +3799,18 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="5">
-        <v>44531</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2044,20 +3831,18 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="5">
-        <v>44532</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2078,20 +3863,18 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="5">
-        <v>44533</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2112,20 +3895,18 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="5">
-        <v>44534</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2146,20 +3927,18 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="5">
-        <v>44535</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2180,20 +3959,18 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="5">
-        <v>44536</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2214,20 +3991,18 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="5">
-        <v>44537</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2248,20 +4023,18 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="5">
-        <v>44538</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2282,20 +4055,18 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="5">
-        <v>44539</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2316,20 +4087,18 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="5">
-        <v>44540</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2350,20 +4119,18 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="5">
-        <v>44541</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2384,20 +4151,18 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="5">
-        <v>44542</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2418,20 +4183,18 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="5">
-        <v>44543</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2452,20 +4215,18 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="5">
-        <v>44544</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2483,23 +4244,21 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="28"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="5">
-        <v>44545</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2517,23 +4276,21 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="28"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="5">
-        <v>44546</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2551,23 +4308,21 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="28"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="5">
-        <v>44547</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2585,23 +4340,21 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="28"/>
+      <c r="S30" s="30"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="5">
-        <v>44548</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2619,23 +4372,21 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="28"/>
+      <c r="S31" s="30"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="5">
-        <v>44549</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2653,23 +4404,21 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="28"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="5">
-        <v>44550</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2687,23 +4436,21 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="28"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="5">
-        <v>44551</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2721,23 +4468,21 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="28"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="5">
-        <v>44552</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2755,23 +4500,21 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="28"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="5">
-        <v>44553</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2789,23 +4532,21 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="28"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="5">
-        <v>44554</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2823,23 +4564,21 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="28"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="5">
-        <v>44555</v>
-      </c>
+      <c r="A38" s="5"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2857,23 +4596,21 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="28"/>
+      <c r="S38" s="30"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="5">
-        <v>44556</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2891,23 +4628,21 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="28"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="5">
-        <v>44557</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2925,23 +4660,21 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
-      <c r="S40" s="28"/>
+      <c r="S40" s="30"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="5">
-        <v>44558</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -2959,23 +4692,21 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="28"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="5">
-        <v>44559</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2993,23 +4724,21 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="28"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="5">
-        <v>44560</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -3027,23 +4756,21 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="28"/>
+      <c r="S43" s="30"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="5">
-        <v>44561</v>
-      </c>
+      <c r="A44" s="5"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3061,23 +4788,21 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="28"/>
+      <c r="S44" s="30"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="5">
-        <v>44562</v>
-      </c>
+      <c r="A45" s="5"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3095,23 +4820,21 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="28"/>
+      <c r="S45" s="30"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="5">
-        <v>44563</v>
-      </c>
+      <c r="A46" s="5"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -3129,23 +4852,21 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="28"/>
+      <c r="S46" s="30"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="5">
-        <v>44564</v>
-      </c>
+      <c r="A47" s="5"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -3163,23 +4884,21 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="28"/>
+      <c r="S47" s="30"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="5">
-        <v>44565</v>
-      </c>
+      <c r="A48" s="5"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3197,23 +4916,21 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="28"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="5">
-        <v>44566</v>
-      </c>
+      <c r="A49" s="5"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -3231,23 +4948,21 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="28"/>
+      <c r="S49" s="30"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="5">
-        <v>44567</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -3265,23 +4980,21 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="28"/>
+      <c r="S50" s="30"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="5">
-        <v>44568</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -3299,23 +5012,21 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="28"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
     </row>
     <row r="52" spans="1:30">
-      <c r="A52" s="5">
-        <v>44569</v>
-      </c>
+      <c r="A52" s="5"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -3333,23 +5044,21 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="28"/>
+      <c r="S52" s="30"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
     </row>
     <row r="53" spans="1:30">
-      <c r="A53" s="5">
-        <v>44570</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -3367,23 +5076,21 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="28"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
     </row>
     <row r="54" spans="1:30">
-      <c r="A54" s="5">
-        <v>44571</v>
-      </c>
+      <c r="A54" s="5"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -3401,23 +5108,21 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="28"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
     </row>
     <row r="55" spans="1:30">
-      <c r="A55" s="5">
-        <v>44572</v>
-      </c>
+      <c r="A55" s="5"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -3435,23 +5140,21 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="28"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
     </row>
     <row r="56" spans="1:30">
-      <c r="A56" s="5">
-        <v>44573</v>
-      </c>
+      <c r="A56" s="5"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
@@ -3469,23 +5172,21 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="28"/>
+      <c r="S56" s="30"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
     </row>
     <row r="57" spans="1:30">
-      <c r="A57" s="5">
-        <v>44574</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -3503,23 +5204,21 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="28"/>
+      <c r="S57" s="30"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
     </row>
     <row r="58" spans="1:30">
-      <c r="A58" s="5">
-        <v>44575</v>
-      </c>
+      <c r="A58" s="5"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -3537,23 +5236,21 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="28"/>
+      <c r="S58" s="30"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
-      <c r="X58" s="28"/>
-      <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
-      <c r="AA58" s="28"/>
-      <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
+      <c r="V58" s="30"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
     </row>
     <row r="59" spans="1:30">
-      <c r="A59" s="5">
-        <v>44576</v>
-      </c>
+      <c r="A59" s="5"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -3571,23 +5268,21 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="28"/>
+      <c r="S59" s="30"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="5">
-        <v>44577</v>
-      </c>
+      <c r="A60" s="5"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
@@ -3605,23 +5300,21 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="28"/>
+      <c r="S60" s="30"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
     </row>
     <row r="61" spans="1:30">
-      <c r="A61" s="5">
-        <v>44578</v>
-      </c>
+      <c r="A61" s="5"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3639,23 +5332,21 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="28"/>
+      <c r="S61" s="30"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="28"/>
-      <c r="X61" s="28"/>
-      <c r="Y61" s="28"/>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
     </row>
     <row r="62" spans="1:30">
-      <c r="A62" s="5">
-        <v>44579</v>
-      </c>
+      <c r="A62" s="5"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
@@ -3673,23 +5364,21 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="28"/>
+      <c r="S62" s="30"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="28"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
     </row>
     <row r="63" spans="1:30">
-      <c r="A63" s="5">
-        <v>44580</v>
-      </c>
+      <c r="A63" s="5"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3707,23 +5396,21 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="28"/>
+      <c r="S63" s="30"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="28"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
     </row>
     <row r="64" spans="1:30">
-      <c r="A64" s="5">
-        <v>44581</v>
-      </c>
+      <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3741,23 +5428,21 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="28"/>
+      <c r="S64" s="30"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28"/>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
     </row>
     <row r="65" spans="1:30">
-      <c r="A65" s="5">
-        <v>44582</v>
-      </c>
+      <c r="A65" s="5"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3775,23 +5460,21 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="28"/>
+      <c r="S65" s="30"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="28"/>
-      <c r="X65" s="28"/>
-      <c r="Y65" s="28"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="5">
-        <v>44583</v>
-      </c>
+      <c r="A66" s="5"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3809,23 +5492,21 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="28"/>
+      <c r="S66" s="30"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="28"/>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28"/>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28"/>
-      <c r="AD66" s="28"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
     </row>
     <row r="67" spans="1:30">
-      <c r="A67" s="5">
-        <v>44584</v>
-      </c>
+      <c r="A67" s="5"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3843,23 +5524,21 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="28"/>
+      <c r="S67" s="30"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="28"/>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28"/>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28"/>
-      <c r="AC67" s="28"/>
-      <c r="AD67" s="28"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
     </row>
     <row r="68" spans="1:30">
-      <c r="A68" s="5">
-        <v>44585</v>
-      </c>
+      <c r="A68" s="5"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3877,23 +5556,21 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="28"/>
+      <c r="S68" s="30"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
     </row>
     <row r="69" spans="1:30">
-      <c r="A69" s="5">
-        <v>44586</v>
-      </c>
+      <c r="A69" s="5"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3911,23 +5588,21 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="28"/>
+      <c r="S69" s="30"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="28"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28"/>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28"/>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
     </row>
     <row r="70" spans="1:30">
-      <c r="A70" s="5">
-        <v>44587</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -3945,23 +5620,21 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="28"/>
+      <c r="S70" s="30"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="28"/>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28"/>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
     </row>
     <row r="71" spans="1:30">
-      <c r="A71" s="5">
-        <v>44588</v>
-      </c>
+      <c r="A71" s="5"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3979,23 +5652,21 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="28"/>
+      <c r="S71" s="30"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="28"/>
-      <c r="Y71" s="28"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
     </row>
     <row r="72" spans="1:30">
-      <c r="A72" s="5">
-        <v>44589</v>
-      </c>
+      <c r="A72" s="5"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -4013,23 +5684,21 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="28"/>
+      <c r="S72" s="30"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="28"/>
+      <c r="V72" s="30"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
     </row>
     <row r="73" spans="1:30">
-      <c r="A73" s="5">
-        <v>44590</v>
-      </c>
+      <c r="A73" s="5"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4047,23 +5716,21 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="28"/>
+      <c r="S73" s="30"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="28"/>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28"/>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28"/>
-      <c r="AD73" s="28"/>
+      <c r="V73" s="30"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
     </row>
     <row r="74" spans="1:30">
-      <c r="A74" s="5">
-        <v>44591</v>
-      </c>
+      <c r="A74" s="5"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -4081,23 +5748,21 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="28"/>
+      <c r="S74" s="30"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="28"/>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28"/>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28"/>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
+      <c r="V74" s="30"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
     </row>
     <row r="75" spans="1:30">
-      <c r="A75" s="5">
-        <v>44592</v>
-      </c>
+      <c r="A75" s="5"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -4115,23 +5780,21 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="28"/>
+      <c r="S75" s="30"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="28"/>
-      <c r="X75" s="28"/>
-      <c r="Y75" s="28"/>
-      <c r="Z75" s="28"/>
-      <c r="AA75" s="28"/>
-      <c r="AB75" s="28"/>
-      <c r="AC75" s="28"/>
-      <c r="AD75" s="28"/>
+      <c r="V75" s="30"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
     </row>
     <row r="76" spans="1:30">
-      <c r="A76" s="5">
-        <v>44593</v>
-      </c>
+      <c r="A76" s="5"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -4149,23 +5812,21 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="28"/>
+      <c r="S76" s="30"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
     </row>
     <row r="77" spans="1:30">
-      <c r="A77" s="5">
-        <v>44594</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -4183,23 +5844,21 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="28"/>
+      <c r="S77" s="30"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28"/>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28"/>
-      <c r="Z77" s="28"/>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28"/>
-      <c r="AD77" s="28"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
     </row>
     <row r="78" spans="1:30">
-      <c r="A78" s="5">
-        <v>44595</v>
-      </c>
+      <c r="A78" s="5"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -4217,23 +5876,21 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="28"/>
+      <c r="S78" s="30"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="28"/>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28"/>
-      <c r="Z78" s="28"/>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
+      <c r="V78" s="30"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
     </row>
     <row r="79" spans="1:30">
-      <c r="A79" s="5">
-        <v>44596</v>
-      </c>
+      <c r="A79" s="5"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -4251,23 +5908,21 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="28"/>
+      <c r="S79" s="30"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28"/>
-      <c r="Z79" s="28"/>
-      <c r="AA79" s="28"/>
-      <c r="AB79" s="28"/>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
     </row>
     <row r="80" spans="1:30">
-      <c r="A80" s="5">
-        <v>44597</v>
-      </c>
+      <c r="A80" s="5"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -4285,23 +5940,21 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="28"/>
+      <c r="S80" s="30"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
+      <c r="V80" s="30"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
     </row>
     <row r="81" spans="1:30">
-      <c r="A81" s="5">
-        <v>44598</v>
-      </c>
+      <c r="A81" s="5"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -4319,23 +5972,21 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="28"/>
+      <c r="S81" s="30"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
     </row>
     <row r="82" spans="1:30">
-      <c r="A82" s="5">
-        <v>44599</v>
-      </c>
+      <c r="A82" s="5"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -4353,23 +6004,21 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="28"/>
+      <c r="S82" s="30"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28"/>
-      <c r="Z82" s="28"/>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="5">
-        <v>44600</v>
-      </c>
+      <c r="A83" s="5"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -4387,23 +6036,21 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="28"/>
+      <c r="S83" s="30"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28"/>
-      <c r="Z83" s="28"/>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
     </row>
     <row r="84" spans="1:30">
-      <c r="A84" s="5">
-        <v>44601</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -4421,23 +6068,21 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="28"/>
+      <c r="S84" s="30"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
     </row>
     <row r="85" spans="1:30">
-      <c r="A85" s="5">
-        <v>44602</v>
-      </c>
+      <c r="A85" s="5"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -4455,23 +6100,21 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="28"/>
+      <c r="S85" s="30"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="28"/>
-      <c r="X85" s="28"/>
-      <c r="Y85" s="28"/>
-      <c r="Z85" s="28"/>
-      <c r="AA85" s="28"/>
-      <c r="AB85" s="28"/>
-      <c r="AC85" s="28"/>
-      <c r="AD85" s="28"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
     </row>
     <row r="86" spans="1:30">
-      <c r="A86" s="5">
-        <v>44603</v>
-      </c>
+      <c r="A86" s="5"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -4489,23 +6132,21 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="28"/>
+      <c r="S86" s="30"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="28"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="28"/>
-      <c r="Z86" s="28"/>
-      <c r="AA86" s="28"/>
-      <c r="AB86" s="28"/>
-      <c r="AC86" s="28"/>
-      <c r="AD86" s="28"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
     </row>
     <row r="87" spans="1:30">
-      <c r="A87" s="5">
-        <v>44604</v>
-      </c>
+      <c r="A87" s="5"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -4523,23 +6164,21 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="28"/>
+      <c r="S87" s="30"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="28"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="28"/>
-      <c r="Z87" s="28"/>
-      <c r="AA87" s="28"/>
-      <c r="AB87" s="28"/>
-      <c r="AC87" s="28"/>
-      <c r="AD87" s="28"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
     </row>
     <row r="88" spans="1:30">
-      <c r="A88" s="5">
-        <v>44605</v>
-      </c>
+      <c r="A88" s="5"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -4557,23 +6196,21 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="28"/>
+      <c r="S88" s="30"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
     </row>
     <row r="89" spans="1:30">
-      <c r="A89" s="5">
-        <v>44606</v>
-      </c>
+      <c r="A89" s="5"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -4591,23 +6228,21 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="28"/>
+      <c r="S89" s="30"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="28"/>
-      <c r="X89" s="28"/>
-      <c r="Y89" s="28"/>
-      <c r="Z89" s="28"/>
-      <c r="AA89" s="28"/>
-      <c r="AB89" s="28"/>
-      <c r="AC89" s="28"/>
-      <c r="AD89" s="28"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
     </row>
     <row r="90" spans="1:30">
-      <c r="A90" s="5">
-        <v>44607</v>
-      </c>
+      <c r="A90" s="5"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -4625,23 +6260,21 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="28"/>
+      <c r="S90" s="30"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="28"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="28"/>
-      <c r="Z90" s="28"/>
-      <c r="AA90" s="28"/>
-      <c r="AB90" s="28"/>
-      <c r="AC90" s="28"/>
-      <c r="AD90" s="28"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
     </row>
     <row r="91" spans="1:30">
-      <c r="A91" s="5">
-        <v>44608</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -4659,23 +6292,21 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="28"/>
+      <c r="S91" s="30"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="28"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="28"/>
-      <c r="Z91" s="28"/>
-      <c r="AA91" s="28"/>
-      <c r="AB91" s="28"/>
-      <c r="AC91" s="28"/>
-      <c r="AD91" s="28"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
     </row>
     <row r="92" spans="1:30">
-      <c r="A92" s="5">
-        <v>44609</v>
-      </c>
+      <c r="A92" s="5"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -4693,23 +6324,21 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="28"/>
+      <c r="S92" s="30"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="28"/>
-      <c r="X92" s="28"/>
-      <c r="Y92" s="28"/>
-      <c r="Z92" s="28"/>
-      <c r="AA92" s="28"/>
-      <c r="AB92" s="28"/>
-      <c r="AC92" s="28"/>
-      <c r="AD92" s="28"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
     </row>
     <row r="93" spans="1:30">
-      <c r="A93" s="5">
-        <v>44610</v>
-      </c>
+      <c r="A93" s="5"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -4727,23 +6356,21 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="28"/>
+      <c r="S93" s="30"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="28"/>
-      <c r="X93" s="28"/>
-      <c r="Y93" s="28"/>
-      <c r="Z93" s="28"/>
-      <c r="AA93" s="28"/>
-      <c r="AB93" s="28"/>
-      <c r="AC93" s="28"/>
-      <c r="AD93" s="28"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
     </row>
     <row r="94" spans="1:30">
-      <c r="A94" s="5">
-        <v>44611</v>
-      </c>
+      <c r="A94" s="5"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -4761,23 +6388,21 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="28"/>
+      <c r="S94" s="30"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="28"/>
-      <c r="X94" s="28"/>
-      <c r="Y94" s="28"/>
-      <c r="Z94" s="28"/>
-      <c r="AA94" s="28"/>
-      <c r="AB94" s="28"/>
-      <c r="AC94" s="28"/>
-      <c r="AD94" s="28"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30"/>
+      <c r="AD94" s="30"/>
     </row>
     <row r="95" spans="1:30">
-      <c r="A95" s="5">
-        <v>44612</v>
-      </c>
+      <c r="A95" s="5"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -4795,23 +6420,21 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="28"/>
+      <c r="S95" s="30"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="28"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="28"/>
-      <c r="Z95" s="28"/>
-      <c r="AA95" s="28"/>
-      <c r="AB95" s="28"/>
-      <c r="AC95" s="28"/>
-      <c r="AD95" s="28"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="30"/>
+      <c r="AD95" s="30"/>
     </row>
     <row r="96" spans="1:30">
-      <c r="A96" s="5">
-        <v>44613</v>
-      </c>
+      <c r="A96" s="5"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -4829,23 +6452,21 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="28"/>
+      <c r="S96" s="30"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30"/>
     </row>
     <row r="97" spans="1:30">
-      <c r="A97" s="5">
-        <v>44614</v>
-      </c>
+      <c r="A97" s="5"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -4863,23 +6484,21 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="28"/>
+      <c r="S97" s="30"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="28"/>
-      <c r="X97" s="28"/>
-      <c r="Y97" s="28"/>
-      <c r="Z97" s="28"/>
-      <c r="AA97" s="28"/>
-      <c r="AB97" s="28"/>
-      <c r="AC97" s="28"/>
-      <c r="AD97" s="28"/>
+      <c r="V97" s="30"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="30"/>
+      <c r="AD97" s="30"/>
     </row>
     <row r="98" spans="1:30">
-      <c r="A98" s="5">
-        <v>44615</v>
-      </c>
+      <c r="A98" s="5"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -4897,23 +6516,21 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="28"/>
+      <c r="S98" s="30"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="28"/>
-      <c r="X98" s="28"/>
-      <c r="Y98" s="28"/>
-      <c r="Z98" s="28"/>
-      <c r="AA98" s="28"/>
-      <c r="AB98" s="28"/>
-      <c r="AC98" s="28"/>
-      <c r="AD98" s="28"/>
+      <c r="V98" s="30"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
     </row>
     <row r="99" spans="1:30">
-      <c r="A99" s="5">
-        <v>44616</v>
-      </c>
+      <c r="A99" s="5"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -4931,23 +6548,21 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="28"/>
+      <c r="S99" s="30"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="28"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="28"/>
-      <c r="Z99" s="28"/>
-      <c r="AA99" s="28"/>
-      <c r="AB99" s="28"/>
-      <c r="AC99" s="28"/>
-      <c r="AD99" s="28"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
     </row>
     <row r="100" spans="1:30">
-      <c r="A100" s="5">
-        <v>44617</v>
-      </c>
+      <c r="A100" s="5"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -4965,23 +6580,21 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="28"/>
+      <c r="S100" s="30"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
     </row>
     <row r="101" spans="1:30">
-      <c r="A101" s="5">
-        <v>44618</v>
-      </c>
+      <c r="A101" s="5"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -4999,23 +6612,21 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
-      <c r="S101" s="28"/>
+      <c r="S101" s="30"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
-      <c r="V101" s="28"/>
-      <c r="W101" s="28"/>
-      <c r="X101" s="28"/>
-      <c r="Y101" s="28"/>
-      <c r="Z101" s="28"/>
-      <c r="AA101" s="28"/>
-      <c r="AB101" s="28"/>
-      <c r="AC101" s="28"/>
-      <c r="AD101" s="28"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
     </row>
     <row r="102" spans="1:30">
-      <c r="A102" s="5">
-        <v>44619</v>
-      </c>
+      <c r="A102" s="5"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -5033,23 +6644,21 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="28"/>
+      <c r="S102" s="30"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
-      <c r="V102" s="28"/>
-      <c r="W102" s="28"/>
-      <c r="X102" s="28"/>
-      <c r="Y102" s="28"/>
-      <c r="Z102" s="28"/>
-      <c r="AA102" s="28"/>
-      <c r="AB102" s="28"/>
-      <c r="AC102" s="28"/>
-      <c r="AD102" s="28"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
     </row>
     <row r="103" spans="1:30">
-      <c r="A103" s="5">
-        <v>44620</v>
-      </c>
+      <c r="A103" s="5"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -5067,23 +6676,21 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
-      <c r="S103" s="28"/>
+      <c r="S103" s="30"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
-      <c r="V103" s="28"/>
-      <c r="W103" s="28"/>
-      <c r="X103" s="28"/>
-      <c r="Y103" s="28"/>
-      <c r="Z103" s="28"/>
-      <c r="AA103" s="28"/>
-      <c r="AB103" s="28"/>
-      <c r="AC103" s="28"/>
-      <c r="AD103" s="28"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
     </row>
     <row r="104" spans="1:30">
-      <c r="A104" s="5">
-        <v>44621</v>
-      </c>
+      <c r="A104" s="5"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -5101,23 +6708,21 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="28"/>
+      <c r="S104" s="30"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
-      <c r="V104" s="28"/>
-      <c r="W104" s="28"/>
-      <c r="X104" s="28"/>
-      <c r="Y104" s="28"/>
-      <c r="Z104" s="28"/>
-      <c r="AA104" s="28"/>
-      <c r="AB104" s="28"/>
-      <c r="AC104" s="28"/>
-      <c r="AD104" s="28"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="30"/>
     </row>
     <row r="105" spans="1:30">
-      <c r="A105" s="5">
-        <v>44622</v>
-      </c>
+      <c r="A105" s="5"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -5135,23 +6740,21 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="28"/>
+      <c r="S105" s="30"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
-      <c r="V105" s="28"/>
-      <c r="W105" s="28"/>
-      <c r="X105" s="28"/>
-      <c r="Y105" s="28"/>
-      <c r="Z105" s="28"/>
-      <c r="AA105" s="28"/>
-      <c r="AB105" s="28"/>
-      <c r="AC105" s="28"/>
-      <c r="AD105" s="28"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
     </row>
     <row r="106" spans="1:30">
-      <c r="A106" s="5">
-        <v>44623</v>
-      </c>
+      <c r="A106" s="5"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -5169,23 +6772,21 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
-      <c r="S106" s="28"/>
+      <c r="S106" s="30"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
-      <c r="V106" s="28"/>
-      <c r="W106" s="28"/>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="28"/>
-      <c r="Z106" s="28"/>
-      <c r="AA106" s="28"/>
-      <c r="AB106" s="28"/>
-      <c r="AC106" s="28"/>
-      <c r="AD106" s="28"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="30"/>
+      <c r="AD106" s="30"/>
     </row>
     <row r="107" spans="1:30">
-      <c r="A107" s="5">
-        <v>44624</v>
-      </c>
+      <c r="A107" s="5"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -5203,23 +6804,21 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
-      <c r="S107" s="28"/>
+      <c r="S107" s="30"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
-      <c r="V107" s="28"/>
-      <c r="W107" s="28"/>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
     </row>
     <row r="108" spans="1:30">
-      <c r="A108" s="5">
-        <v>44625</v>
-      </c>
+      <c r="A108" s="5"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -5237,23 +6836,21 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="28"/>
+      <c r="S108" s="30"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
-      <c r="V108" s="28"/>
-      <c r="W108" s="28"/>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="28"/>
-      <c r="Z108" s="28"/>
-      <c r="AA108" s="28"/>
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="30"/>
+      <c r="AD108" s="30"/>
     </row>
     <row r="109" spans="1:30">
-      <c r="A109" s="5">
-        <v>44626</v>
-      </c>
+      <c r="A109" s="5"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -5271,23 +6868,21 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="28"/>
+      <c r="S109" s="30"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
-      <c r="V109" s="28"/>
-      <c r="W109" s="28"/>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="28"/>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
     </row>
     <row r="110" spans="1:30">
-      <c r="A110" s="5">
-        <v>44627</v>
-      </c>
+      <c r="A110" s="5"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -5305,23 +6900,21 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
-      <c r="S110" s="28"/>
+      <c r="S110" s="30"/>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
-      <c r="V110" s="28"/>
-      <c r="W110" s="28"/>
-      <c r="X110" s="28"/>
-      <c r="Y110" s="28"/>
-      <c r="Z110" s="28"/>
-      <c r="AA110" s="28"/>
-      <c r="AB110" s="28"/>
-      <c r="AC110" s="28"/>
-      <c r="AD110" s="28"/>
+      <c r="V110" s="30"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="30"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
     </row>
     <row r="111" spans="1:30">
-      <c r="A111" s="5">
-        <v>44628</v>
-      </c>
+      <c r="A111" s="5"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -5339,23 +6932,21 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="28"/>
+      <c r="S111" s="30"/>
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
-      <c r="V111" s="28"/>
-      <c r="W111" s="28"/>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
     </row>
     <row r="112" spans="1:30">
-      <c r="A112" s="5">
-        <v>44629</v>
-      </c>
+      <c r="A112" s="5"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -5373,23 +6964,21 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
-      <c r="S112" s="28"/>
+      <c r="S112" s="30"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
-      <c r="V112" s="28"/>
-      <c r="W112" s="28"/>
-      <c r="X112" s="28"/>
-      <c r="Y112" s="28"/>
-      <c r="Z112" s="28"/>
-      <c r="AA112" s="28"/>
-      <c r="AB112" s="28"/>
-      <c r="AC112" s="28"/>
-      <c r="AD112" s="28"/>
+      <c r="V112" s="30"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="30"/>
     </row>
     <row r="113" spans="1:30">
-      <c r="A113" s="5">
-        <v>44630</v>
-      </c>
+      <c r="A113" s="5"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -5407,23 +6996,21 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="28"/>
+      <c r="S113" s="30"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
-      <c r="V113" s="28"/>
-      <c r="W113" s="28"/>
-      <c r="X113" s="28"/>
-      <c r="Y113" s="28"/>
-      <c r="Z113" s="28"/>
-      <c r="AA113" s="28"/>
-      <c r="AB113" s="28"/>
-      <c r="AC113" s="28"/>
-      <c r="AD113" s="28"/>
+      <c r="V113" s="30"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
     </row>
     <row r="114" spans="1:30">
-      <c r="A114" s="5">
-        <v>44631</v>
-      </c>
+      <c r="A114" s="5"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -5441,23 +7028,21 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
-      <c r="S114" s="28"/>
+      <c r="S114" s="30"/>
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
-      <c r="V114" s="28"/>
-      <c r="W114" s="28"/>
-      <c r="X114" s="28"/>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-      <c r="AC114" s="28"/>
-      <c r="AD114" s="28"/>
+      <c r="V114" s="30"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="30"/>
     </row>
     <row r="115" spans="1:30">
-      <c r="A115" s="5">
-        <v>44632</v>
-      </c>
+      <c r="A115" s="5"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -5475,23 +7060,21 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
-      <c r="S115" s="28"/>
+      <c r="S115" s="30"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
-      <c r="V115" s="28"/>
-      <c r="W115" s="28"/>
-      <c r="X115" s="28"/>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-      <c r="AC115" s="28"/>
-      <c r="AD115" s="28"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="30"/>
     </row>
     <row r="116" spans="1:30">
-      <c r="A116" s="5">
-        <v>44633</v>
-      </c>
+      <c r="A116" s="5"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -5509,23 +7092,21 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
-      <c r="S116" s="28"/>
+      <c r="S116" s="30"/>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
-      <c r="V116" s="28"/>
-      <c r="W116" s="28"/>
-      <c r="X116" s="28"/>
-      <c r="Y116" s="28"/>
-      <c r="Z116" s="28"/>
-      <c r="AA116" s="28"/>
-      <c r="AB116" s="28"/>
-      <c r="AC116" s="28"/>
-      <c r="AD116" s="28"/>
+      <c r="V116" s="30"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
     </row>
     <row r="117" spans="1:30">
-      <c r="A117" s="5">
-        <v>44634</v>
-      </c>
+      <c r="A117" s="5"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -5543,23 +7124,21 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
-      <c r="S117" s="28"/>
+      <c r="S117" s="30"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="28"/>
-      <c r="W117" s="28"/>
-      <c r="X117" s="28"/>
-      <c r="Y117" s="28"/>
-      <c r="Z117" s="28"/>
-      <c r="AA117" s="28"/>
-      <c r="AB117" s="28"/>
-      <c r="AC117" s="28"/>
-      <c r="AD117" s="28"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
     </row>
     <row r="118" spans="1:30">
-      <c r="A118" s="5">
-        <v>44635</v>
-      </c>
+      <c r="A118" s="5"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -5577,23 +7156,21 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="28"/>
+      <c r="S118" s="30"/>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
-      <c r="V118" s="28"/>
-      <c r="W118" s="28"/>
-      <c r="X118" s="28"/>
-      <c r="Y118" s="28"/>
-      <c r="Z118" s="28"/>
-      <c r="AA118" s="28"/>
-      <c r="AB118" s="28"/>
-      <c r="AC118" s="28"/>
-      <c r="AD118" s="28"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
     </row>
     <row r="119" spans="1:30">
-      <c r="A119" s="5">
-        <v>44636</v>
-      </c>
+      <c r="A119" s="5"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -5611,23 +7188,21 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="28"/>
+      <c r="S119" s="30"/>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
-      <c r="V119" s="28"/>
-      <c r="W119" s="28"/>
-      <c r="X119" s="28"/>
-      <c r="Y119" s="28"/>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
     </row>
     <row r="120" spans="1:30">
-      <c r="A120" s="5">
-        <v>44637</v>
-      </c>
+      <c r="A120" s="5"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -5645,23 +7220,21 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="28"/>
+      <c r="S120" s="30"/>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-      <c r="V120" s="28"/>
-      <c r="W120" s="28"/>
-      <c r="X120" s="28"/>
-      <c r="Y120" s="28"/>
-      <c r="Z120" s="28"/>
-      <c r="AA120" s="28"/>
-      <c r="AB120" s="28"/>
-      <c r="AC120" s="28"/>
-      <c r="AD120" s="28"/>
+      <c r="V120" s="30"/>
+      <c r="W120" s="30"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="30"/>
     </row>
     <row r="121" spans="1:30">
-      <c r="A121" s="5">
-        <v>44638</v>
-      </c>
+      <c r="A121" s="5"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -5679,23 +7252,21 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="28"/>
+      <c r="S121" s="30"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
-      <c r="V121" s="28"/>
-      <c r="W121" s="28"/>
-      <c r="X121" s="28"/>
-      <c r="Y121" s="28"/>
-      <c r="Z121" s="28"/>
-      <c r="AA121" s="28"/>
-      <c r="AB121" s="28"/>
-      <c r="AC121" s="28"/>
-      <c r="AD121" s="28"/>
+      <c r="V121" s="30"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
     </row>
     <row r="122" spans="1:30">
-      <c r="A122" s="5">
-        <v>44639</v>
-      </c>
+      <c r="A122" s="5"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -5713,23 +7284,21 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
-      <c r="S122" s="28"/>
+      <c r="S122" s="30"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
-      <c r="V122" s="28"/>
-      <c r="W122" s="28"/>
-      <c r="X122" s="28"/>
-      <c r="Y122" s="28"/>
-      <c r="Z122" s="28"/>
-      <c r="AA122" s="28"/>
-      <c r="AB122" s="28"/>
-      <c r="AC122" s="28"/>
-      <c r="AD122" s="28"/>
+      <c r="V122" s="30"/>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="30"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="30"/>
     </row>
     <row r="123" spans="1:30">
-      <c r="A123" s="5">
-        <v>44640</v>
-      </c>
+      <c r="A123" s="5"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -5747,23 +7316,21 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
-      <c r="S123" s="28"/>
+      <c r="S123" s="30"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
-      <c r="V123" s="28"/>
-      <c r="W123" s="28"/>
-      <c r="X123" s="28"/>
-      <c r="Y123" s="28"/>
-      <c r="Z123" s="28"/>
-      <c r="AA123" s="28"/>
-      <c r="AB123" s="28"/>
-      <c r="AC123" s="28"/>
-      <c r="AD123" s="28"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="30"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
     </row>
     <row r="124" spans="1:30">
-      <c r="A124" s="5">
-        <v>44641</v>
-      </c>
+      <c r="A124" s="5"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -5781,23 +7348,21 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
-      <c r="S124" s="28"/>
+      <c r="S124" s="30"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
-      <c r="V124" s="28"/>
-      <c r="W124" s="28"/>
-      <c r="X124" s="28"/>
-      <c r="Y124" s="28"/>
-      <c r="Z124" s="28"/>
-      <c r="AA124" s="28"/>
-      <c r="AB124" s="28"/>
-      <c r="AC124" s="28"/>
-      <c r="AD124" s="28"/>
+      <c r="V124" s="30"/>
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30"/>
     </row>
     <row r="125" spans="1:30">
-      <c r="A125" s="5">
-        <v>44642</v>
-      </c>
+      <c r="A125" s="5"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -5815,23 +7380,21 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
-      <c r="S125" s="28"/>
+      <c r="S125" s="30"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
-      <c r="V125" s="28"/>
-      <c r="W125" s="28"/>
-      <c r="X125" s="28"/>
-      <c r="Y125" s="28"/>
-      <c r="Z125" s="28"/>
-      <c r="AA125" s="28"/>
-      <c r="AB125" s="28"/>
-      <c r="AC125" s="28"/>
-      <c r="AD125" s="28"/>
+      <c r="V125" s="30"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="30"/>
+      <c r="AC125" s="30"/>
+      <c r="AD125" s="30"/>
     </row>
     <row r="126" spans="1:30">
-      <c r="A126" s="5">
-        <v>44643</v>
-      </c>
+      <c r="A126" s="5"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -5849,23 +7412,21 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
-      <c r="S126" s="28"/>
+      <c r="S126" s="30"/>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
-      <c r="V126" s="28"/>
-      <c r="W126" s="28"/>
-      <c r="X126" s="28"/>
-      <c r="Y126" s="28"/>
-      <c r="Z126" s="28"/>
-      <c r="AA126" s="28"/>
-      <c r="AB126" s="28"/>
-      <c r="AC126" s="28"/>
-      <c r="AD126" s="28"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="30"/>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
     </row>
     <row r="127" spans="1:30">
-      <c r="A127" s="5">
-        <v>44644</v>
-      </c>
+      <c r="A127" s="5"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -5883,23 +7444,21 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
-      <c r="S127" s="28"/>
+      <c r="S127" s="30"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
-      <c r="V127" s="28"/>
-      <c r="W127" s="28"/>
-      <c r="X127" s="28"/>
-      <c r="Y127" s="28"/>
-      <c r="Z127" s="28"/>
-      <c r="AA127" s="28"/>
-      <c r="AB127" s="28"/>
-      <c r="AC127" s="28"/>
-      <c r="AD127" s="28"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="30"/>
+      <c r="AC127" s="30"/>
+      <c r="AD127" s="30"/>
     </row>
     <row r="128" spans="1:30">
-      <c r="A128" s="5">
-        <v>44645</v>
-      </c>
+      <c r="A128" s="5"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -5917,23 +7476,21 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
-      <c r="S128" s="28"/>
+      <c r="S128" s="30"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
-      <c r="V128" s="28"/>
-      <c r="W128" s="28"/>
-      <c r="X128" s="28"/>
-      <c r="Y128" s="28"/>
-      <c r="Z128" s="28"/>
-      <c r="AA128" s="28"/>
-      <c r="AB128" s="28"/>
-      <c r="AC128" s="28"/>
-      <c r="AD128" s="28"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="30"/>
     </row>
     <row r="129" spans="1:30">
-      <c r="A129" s="5">
-        <v>44646</v>
-      </c>
+      <c r="A129" s="5"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -5951,23 +7508,21 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
-      <c r="S129" s="28"/>
+      <c r="S129" s="30"/>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
-      <c r="V129" s="28"/>
-      <c r="W129" s="28"/>
-      <c r="X129" s="28"/>
-      <c r="Y129" s="28"/>
-      <c r="Z129" s="28"/>
-      <c r="AA129" s="28"/>
-      <c r="AB129" s="28"/>
-      <c r="AC129" s="28"/>
-      <c r="AD129" s="28"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="30"/>
     </row>
     <row r="130" spans="1:30">
-      <c r="A130" s="5">
-        <v>44647</v>
-      </c>
+      <c r="A130" s="5"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -5985,23 +7540,21 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
-      <c r="S130" s="28"/>
+      <c r="S130" s="30"/>
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
-      <c r="V130" s="28"/>
-      <c r="W130" s="28"/>
-      <c r="X130" s="28"/>
-      <c r="Y130" s="28"/>
-      <c r="Z130" s="28"/>
-      <c r="AA130" s="28"/>
-      <c r="AB130" s="28"/>
-      <c r="AC130" s="28"/>
-      <c r="AD130" s="28"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="30"/>
+      <c r="AC130" s="30"/>
+      <c r="AD130" s="30"/>
     </row>
     <row r="131" spans="1:30">
-      <c r="A131" s="5">
-        <v>44648</v>
-      </c>
+      <c r="A131" s="5"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -6019,23 +7572,21 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
-      <c r="S131" s="28"/>
+      <c r="S131" s="30"/>
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
-      <c r="V131" s="28"/>
-      <c r="W131" s="28"/>
-      <c r="X131" s="28"/>
-      <c r="Y131" s="28"/>
-      <c r="Z131" s="28"/>
-      <c r="AA131" s="28"/>
-      <c r="AB131" s="28"/>
-      <c r="AC131" s="28"/>
-      <c r="AD131" s="28"/>
+      <c r="V131" s="30"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="30"/>
+      <c r="Y131" s="30"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="30"/>
+      <c r="AC131" s="30"/>
+      <c r="AD131" s="30"/>
     </row>
     <row r="132" spans="1:21">
-      <c r="A132" s="5">
-        <v>44649</v>
-      </c>
+      <c r="A132" s="5"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -6055,9 +7606,7 @@
       <c r="U132" s="1"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="5">
-        <v>44650</v>
-      </c>
+      <c r="A133" s="5"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -6077,9 +7626,7 @@
       <c r="U133" s="1"/>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="5">
-        <v>44651</v>
-      </c>
+      <c r="A134" s="5"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -6099,9 +7646,7 @@
       <c r="U134" s="1"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="5">
-        <v>44652</v>
-      </c>
+      <c r="A135" s="5"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -6121,9 +7666,7 @@
       <c r="U135" s="1"/>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="5">
-        <v>44653</v>
-      </c>
+      <c r="A136" s="5"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -6143,9 +7686,7 @@
       <c r="U136" s="1"/>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="5">
-        <v>44654</v>
-      </c>
+      <c r="A137" s="5"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -6165,9 +7706,7 @@
       <c r="U137" s="1"/>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="5">
-        <v>44655</v>
-      </c>
+      <c r="A138" s="5"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -6187,9 +7726,7 @@
       <c r="U138" s="1"/>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="5">
-        <v>44656</v>
-      </c>
+      <c r="A139" s="5"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3037,11 +3037,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3345,7 +3345,9 @@
       <c r="AA5" s="30"/>
       <c r="AB5" s="30"/>
       <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
+      <c r="AD5" s="30">
+        <v>30.89</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="5">
@@ -3417,7 +3419,10 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
+      <c r="AD6" s="30">
+        <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="5">
@@ -3489,7 +3494,10 @@
       <c r="AA7" s="30"/>
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
+      <c r="AD7" s="30">
+        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="5">
@@ -3561,7 +3569,10 @@
       <c r="AA8" s="30"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
+      <c r="AD8" s="30">
+        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="5">
@@ -3633,7 +3644,10 @@
       <c r="AA9" s="30"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
+      <c r="AD9" s="30">
+        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="5">
@@ -3705,7 +3719,10 @@
       <c r="AA10" s="30"/>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
+      <c r="AD10" s="30">
+        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,11 +227,11 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +270,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,6 +290,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -291,8 +352,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,82 +407,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -391,31 +414,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -513,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +538,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +604,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,55 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,73 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,32 +743,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,11 +791,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,177 +840,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3037,11 +3050,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD6" sqref="AD6:AD10"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3327,11 +3340,12 @@
       <c r="P5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="20" t="s">
-        <v>39</v>
+      <c r="Q5" s="20" t="str">
+        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R5" s="20" t="str">
-        <f>IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R10" si="0">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="27"/>
@@ -3386,7 +3400,7 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L6" s="15">
-        <f>I6/(ROW()-4)</f>
+        <f t="shared" ref="L5:L10" si="1">I6/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3401,11 +3415,12 @@
       <c r="P6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="20" t="s">
-        <v>39</v>
+      <c r="Q6" s="20" t="str">
+        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R6" s="20" t="str">
-        <f>IF(B6&gt;(D6-(D6-E6)/2),"上部","下部")</f>
+        <f t="shared" si="0"/>
         <v>上部</v>
       </c>
       <c r="S6" s="7"/>
@@ -3461,7 +3476,7 @@
         <v>0.0223241590214066</v>
       </c>
       <c r="L7" s="15">
-        <f>I7/(ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v>0.666666666666667</v>
       </c>
       <c r="M7" s="19" t="s">
@@ -3476,11 +3491,12 @@
       <c r="P7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="20" t="s">
-        <v>39</v>
+      <c r="Q7" s="20" t="str">
+        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R7" s="19" t="str">
-        <f>IF(B7&gt;(D7-(D7-E7)/2),"上部","下部")</f>
+        <f t="shared" si="0"/>
         <v>下部</v>
       </c>
       <c r="S7" s="7"/>
@@ -3536,7 +3552,7 @@
         <v>0.00458715596330271</v>
       </c>
       <c r="L8" s="15">
-        <f>I8/(ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M8" s="19" t="s">
@@ -3551,11 +3567,12 @@
       <c r="P8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="20" t="s">
-        <v>39</v>
+      <c r="Q8" s="20" t="str">
+        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R8" s="19" t="str">
-        <f>IF(B8&gt;(D8-(D8-E8)/2),"上部","下部")</f>
+        <f t="shared" si="0"/>
         <v>下部</v>
       </c>
       <c r="S8" s="7"/>
@@ -3611,7 +3628,7 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L9" s="15">
-        <f>I9/(ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -3626,11 +3643,12 @@
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>39</v>
+      <c r="Q9" s="20" t="str">
+        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R9" s="20" t="str">
-        <f>IF(B9&gt;(D9-(D9-E9)/2),"上部","下部")</f>
+        <f t="shared" si="0"/>
         <v>上部</v>
       </c>
       <c r="S9" s="8"/>
@@ -3686,7 +3704,7 @@
         <v>0.0412844036697246</v>
       </c>
       <c r="L10" s="15">
-        <f>I10/(ROW()-4)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="19" t="s">
@@ -3701,11 +3719,12 @@
       <c r="P10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>39</v>
+      <c r="Q10" s="20" t="str">
+        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="R10" s="19" t="str">
-        <f>IF(B10&gt;(D10-(D10-E10)/2),"上部","下部")</f>
+        <f t="shared" si="0"/>
         <v>下部</v>
       </c>
       <c r="S10" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -226,10 +226,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,14 +270,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +294,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,17 +354,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,56 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,32 +392,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +514,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +598,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,127 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,11 +743,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,7 +776,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -814,183 +840,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1079,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1323,13 +1326,13 @@
             <v>5</v>
           </cell>
           <cell r="AY4">
-            <v>0.1048</v>
+            <v>0</v>
           </cell>
           <cell r="AZ4">
-            <v>5245.1048</v>
+            <v>5245</v>
           </cell>
           <cell r="BA4">
-            <v>309.1048</v>
+            <v>309</v>
           </cell>
           <cell r="BB4">
             <v>26.5</v>
@@ -1812,13 +1815,13 @@
             <v>5</v>
           </cell>
           <cell r="AY8">
-            <v>0.14414</v>
+            <v>0</v>
           </cell>
           <cell r="AZ8">
-            <v>7212.14414</v>
+            <v>7212</v>
           </cell>
           <cell r="BA8">
-            <v>524.14414</v>
+            <v>524</v>
           </cell>
           <cell r="BB8">
             <v>74.5</v>
@@ -2007,778 +2010,405 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>000010</v>
+            <v>000006</v>
           </cell>
           <cell r="B10">
-            <v>44524</v>
+            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
-            <v>603663(三祥新材)</v>
+            <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>18.26</v>
+            <v>22.26</v>
           </cell>
           <cell r="E10">
-            <v>19.01</v>
+            <v>22.69</v>
           </cell>
           <cell r="F10">
-            <v>21.05</v>
+            <v>24.83</v>
           </cell>
         </row>
         <row r="10">
           <cell r="H10">
-            <v>23.2</v>
+            <v>28.99</v>
           </cell>
           <cell r="I10">
-            <v>13.04</v>
+            <v>14.46</v>
           </cell>
           <cell r="J10">
-            <v>26.64</v>
+            <v>31.94</v>
           </cell>
           <cell r="K10">
-            <v>0.779141104294479</v>
+            <v>1.00484094052559</v>
           </cell>
           <cell r="L10">
-            <v>0.129129129129129</v>
+            <v>0.0923606762680026</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>18.5</v>
+            <v>20.63</v>
           </cell>
           <cell r="O10">
-            <v>22.39</v>
+            <v>25.66</v>
           </cell>
           <cell r="P10">
-            <v>18.85</v>
+            <v>21.46</v>
           </cell>
           <cell r="Q10">
-            <v>23.56</v>
+            <v>28.89</v>
           </cell>
           <cell r="R10">
-            <v>20.89</v>
+            <v>24.22</v>
+          </cell>
+          <cell r="S10">
+            <v>29.7</v>
+          </cell>
+          <cell r="T10">
+            <v>27.72</v>
           </cell>
         </row>
         <row r="10">
           <cell r="Y10" t="str">
-            <v>12w</v>
+            <v>8w</v>
           </cell>
           <cell r="Z10">
-            <v>0.305555555555556</v>
+            <v>0.354101440200376</v>
           </cell>
           <cell r="AA10">
-            <v>0.158106297454221</v>
+            <v>0.163678877630553</v>
           </cell>
           <cell r="AB10">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC10" t="e">
-            <v>#DIV/0!</v>
+            <v>0.161647628937349</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.0666666666666667</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AF10" t="str">
-            <v>3T</v>
+            <v>4T</v>
           </cell>
           <cell r="AG10" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
+            <v>减少明显，空头几乎被榨干</v>
           </cell>
           <cell r="AH10">
-            <v>25.19</v>
+            <v>31.18</v>
           </cell>
           <cell r="AI10">
-            <v>17.73</v>
+            <v>21.1</v>
           </cell>
           <cell r="AJ10">
-            <v>7.46</v>
+            <v>10.08</v>
           </cell>
           <cell r="AK10">
-            <v>23.56</v>
+            <v>29.77</v>
           </cell>
           <cell r="AL10">
-            <v>22.12</v>
+            <v>27.72</v>
           </cell>
           <cell r="AM10">
-            <v>26.91</v>
+            <v>34.93</v>
           </cell>
           <cell r="AN10">
-            <v>144</v>
+            <v>205</v>
           </cell>
           <cell r="AO10">
-            <v>200</v>
+            <v>100</v>
           </cell>
           <cell r="AP10">
-            <v>2.32638888888889</v>
+            <v>2.51707317073171</v>
           </cell>
           <cell r="AQ10">
-            <v>0.0611205432937181</v>
+            <v>0.0688612697346322</v>
           </cell>
           <cell r="AR10">
-            <v>0.142190152801358</v>
+            <v>0.173328854551562</v>
           </cell>
           <cell r="AS10">
-            <v>53.49</v>
+            <v>17.95</v>
           </cell>
           <cell r="AT10" t="str">
-            <v>不宜入场</v>
+            <v>可以</v>
+          </cell>
+          <cell r="AU10">
+            <v>44530</v>
+          </cell>
+          <cell r="AV10">
+            <v>29.81</v>
+          </cell>
+          <cell r="AW10">
+            <v>100</v>
+          </cell>
+          <cell r="AX10">
+            <v>5</v>
+          </cell>
+          <cell r="AY10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="AZ10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="BA10">
+            <v>214.05962</v>
+          </cell>
+          <cell r="BB10">
+            <v>30.32</v>
+          </cell>
+          <cell r="BC10">
+            <v>28.81</v>
+          </cell>
+          <cell r="BD10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000014</v>
-          </cell>
-          <cell r="B11">
-            <v>44524</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>600392(盛和资源)</v>
-          </cell>
-          <cell r="D11">
-            <v>20.14</v>
-          </cell>
-          <cell r="E11">
-            <v>20.65</v>
-          </cell>
-          <cell r="F11">
-            <v>20.97</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>21.52</v>
-          </cell>
-          <cell r="I11">
-            <v>7.07</v>
-          </cell>
-          <cell r="J11">
-            <v>29.28</v>
-          </cell>
-          <cell r="K11">
-            <v>2.04384724186704</v>
-          </cell>
-          <cell r="L11">
-            <v>0.265027322404372</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="N11">
-            <v>18.34</v>
-          </cell>
-          <cell r="O11">
-            <v>21.65</v>
-          </cell>
-          <cell r="P11">
-            <v>18.61</v>
-          </cell>
-          <cell r="Q11">
-            <v>21.14</v>
-          </cell>
-          <cell r="R11">
-            <v>18.86</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.373633879781421</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.140415704387991</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.107852412488174</v>
-          </cell>
-          <cell r="AC11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AN11">
-            <v>0</v>
-          </cell>
-          <cell r="AO11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AP11" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AT11" t="str">
-            <v>不宜入场</v>
+            <v>000020</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>000015</v>
-          </cell>
-          <cell r="B12">
-            <v>44524</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>600399(抚顺特钢)</v>
-          </cell>
-          <cell r="D12">
-            <v>19.9</v>
-          </cell>
-          <cell r="E12">
-            <v>20.73</v>
-          </cell>
-          <cell r="F12">
-            <v>22.88</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>23.53</v>
-          </cell>
-          <cell r="I12">
-            <v>7.25</v>
-          </cell>
-          <cell r="J12">
-            <v>29.3</v>
-          </cell>
-          <cell r="K12">
-            <v>2.24551724137931</v>
-          </cell>
-          <cell r="L12">
-            <v>0.196928327645051</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.05</v>
-          </cell>
-          <cell r="O12">
-            <v>22.91</v>
-          </cell>
-          <cell r="P12">
-            <v>19.73</v>
-          </cell>
-          <cell r="Q12">
-            <v>25.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.12</v>
-          </cell>
-          <cell r="S12">
-            <v>26.45</v>
-          </cell>
-          <cell r="T12">
-            <v>23.48</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.349829351535836</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.138804015713662</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.0933333333333333</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.112287334593573</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AF12" t="str">
-            <v>3T</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AK12">
-            <v>25.15</v>
-          </cell>
-          <cell r="AL12">
-            <v>23.48</v>
-          </cell>
-          <cell r="AM12">
-            <v>27.83</v>
-          </cell>
-          <cell r="AN12">
-            <v>167</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>1.60479041916168</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="AT12" t="str">
-            <v>不宜入场</v>
+            <v>000021</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>000017</v>
-          </cell>
-          <cell r="B13">
-            <v>44524</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>601677(明泰铝业)</v>
-          </cell>
-          <cell r="D13">
-            <v>26.7</v>
-          </cell>
-          <cell r="E13">
-            <v>28.65</v>
-          </cell>
-          <cell r="F13">
-            <v>33.16</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>36.11</v>
-          </cell>
-          <cell r="I13">
-            <v>11.38</v>
-          </cell>
-          <cell r="J13">
-            <v>41.75</v>
-          </cell>
-          <cell r="K13">
-            <v>2.17311072056239</v>
-          </cell>
-          <cell r="L13">
-            <v>0.135089820359281</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>28.85</v>
-          </cell>
-          <cell r="O13">
-            <v>35.46</v>
-          </cell>
-          <cell r="P13">
-            <v>29.05</v>
-          </cell>
-          <cell r="Q13">
-            <v>34.35</v>
-          </cell>
-          <cell r="R13">
-            <v>31.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z13">
-            <v>0.308982035928144</v>
-          </cell>
-          <cell r="AA13">
-            <v>0.180767061477721</v>
-          </cell>
-          <cell r="AB13">
-            <v>0.0829694323144105</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AF13" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG13" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AK13">
-            <v>37.13</v>
-          </cell>
-          <cell r="AL13">
-            <v>35.6</v>
-          </cell>
-          <cell r="AM13">
-            <v>38.61</v>
-          </cell>
-          <cell r="AN13">
-            <v>153</v>
-          </cell>
-          <cell r="AO13">
-            <v>100</v>
-          </cell>
-          <cell r="AP13">
-            <v>0.967320261437906</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="AT13" t="str">
-            <v>不宜入场</v>
+            <v>000022</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>000018</v>
-          </cell>
-          <cell r="B14">
-            <v>44524</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>002223(鱼跃医疗)</v>
-          </cell>
-          <cell r="D14">
-            <v>32.91</v>
-          </cell>
-          <cell r="E14">
-            <v>33.52</v>
-          </cell>
-          <cell r="F14">
-            <v>34.71</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>36.09</v>
-          </cell>
-          <cell r="I14">
-            <v>25.12</v>
-          </cell>
-          <cell r="J14">
-            <v>41.77</v>
-          </cell>
-          <cell r="K14">
-            <v>0.436703821656051</v>
-          </cell>
-          <cell r="L14">
-            <v>0.135982762748384</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>30.46</v>
-          </cell>
-          <cell r="O14">
-            <v>36.94</v>
-          </cell>
-          <cell r="P14">
-            <v>33.59</v>
-          </cell>
-          <cell r="Q14">
-            <v>37.1</v>
-          </cell>
-          <cell r="R14">
-            <v>34.44</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Y14" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z14">
-            <v>0.270768494134546</v>
-          </cell>
-          <cell r="AA14">
-            <v>0.0906876015159717</v>
-          </cell>
-          <cell r="AB14">
-            <v>0.0716981132075473</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AF14" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG14" t="str">
-            <v>不是很明显</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AK14">
-            <v>37.09</v>
-          </cell>
-          <cell r="AL14">
-            <v>35.25</v>
-          </cell>
-          <cell r="AM14">
-            <v>38.8</v>
-          </cell>
-          <cell r="AN14">
-            <v>184</v>
-          </cell>
-          <cell r="AO14">
-            <v>100</v>
-          </cell>
-          <cell r="AP14">
-            <v>0.929347826086951</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="AT14" t="str">
-            <v>不宜入场</v>
+            <v>000023</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>000019</v>
+            <v>000024</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>000020</v>
+            <v>000025</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>000021</v>
+            <v>000026</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>000022</v>
+            <v>000027</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>000023</v>
+            <v>000028</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>000024</v>
+            <v>000029</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>000025</v>
+            <v>000030</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>000026</v>
+            <v>000031</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>000027</v>
+            <v>000032</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>000028</v>
+            <v>000033</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>000029</v>
+            <v>000034</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>000030</v>
+            <v>000035</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>000031</v>
+            <v>000036</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>000032</v>
+            <v>000037</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>000033</v>
+            <v>000038</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>000034</v>
+            <v>000039</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>000035</v>
+            <v>000040</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>000036</v>
+            <v>000041</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>000037</v>
+            <v>000042</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>000038</v>
+            <v>000043</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>000039</v>
+            <v>000044</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>000040</v>
+            <v>000045</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>000041</v>
+            <v>000046</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>000042</v>
+            <v>000047</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>000043</v>
+            <v>000048</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>000044</v>
+            <v>000049</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>000045</v>
+            <v>000050</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>000046</v>
+            <v>000051</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>000047</v>
+            <v>000052</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>000048</v>
+            <v>000053</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>000049</v>
+            <v>000054</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>000050</v>
+            <v>000055</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>000051</v>
+            <v>000056</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>000052</v>
+            <v>000057</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>000053</v>
+            <v>000058</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>000054</v>
+            <v>000059</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>000055</v>
+            <v>000060</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>000056</v>
+            <v>000061</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>000057</v>
+            <v>000062</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>000058</v>
+            <v>000063</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>000059</v>
+            <v>000064</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>000060</v>
+            <v>000065</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>000061</v>
+            <v>000066</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>000062</v>
+            <v>000067</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>000063</v>
+            <v>000068</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
             <v>000069</v>
           </cell>
         </row>
@@ -3050,11 +2680,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:Q10"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3127,7 +2757,7 @@
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
-      <c r="AD1" s="36" t="s">
+      <c r="AD1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3161,11 +2791,11 @@
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
-      <c r="AB2" s="35" t="s">
+      <c r="AB2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2"/>
@@ -3233,25 +2863,25 @@
         <v>28</v>
       </c>
       <c r="W3" s="24"/>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="32" t="s">
         <v>29</v>
       </c>
       <c r="Y3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="35" t="s">
+      <c r="AB3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="36"/>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
@@ -3275,19 +2905,19 @@
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="33" t="s">
         <v>36</v>
       </c>
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="24"/>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="37"/>
     </row>
     <row r="5" ht="18" spans="1:30">
       <c r="A5" s="5">
@@ -3334,32 +2964,33 @@
       <c r="N5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>39</v>
+      <c r="O5" s="20" t="str">
+        <f>IF(B5&lt;F5,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="20" t="str">
-        <f>IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q10" si="0">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="20" t="str">
-        <f t="shared" ref="R5:R10" si="0">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R10" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30">
+      <c r="U5" s="34"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31">
         <v>30.89</v>
       </c>
     </row>
@@ -3400,7 +3031,7 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" ref="L5:L10" si="1">I6/(ROW()-4)</f>
+        <f t="shared" ref="L5:L10" si="2">I6/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3409,32 +3040,33 @@
       <c r="N6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>39</v>
+      <c r="O6" s="20" t="str">
+        <f t="shared" ref="O6:O11" si="3">IF(B6&lt;F6,"是","否")</f>
+        <v>否</v>
       </c>
       <c r="P6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="20" t="str">
-        <f>IF(I6/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R6" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>上部</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30">
+      <c r="U6" s="35"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31">
         <f>IF(G6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G6,AD5)</f>
         <v>30.89</v>
       </c>
@@ -3476,7 +3108,7 @@
         <v>0.0223241590214066</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.666666666666667</v>
       </c>
       <c r="M7" s="19" t="s">
@@ -3485,32 +3117,33 @@
       <c r="N7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="20" t="s">
-        <v>39</v>
+      <c r="O7" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>否</v>
       </c>
       <c r="P7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="20" t="str">
-        <f>IF(I7/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R7" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>下部</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="29"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30">
+      <c r="U7" s="35"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G7,AD6)</f>
         <v>30.89</v>
       </c>
@@ -3552,7 +3185,7 @@
         <v>0.00458715596330271</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M8" s="19" t="s">
@@ -3561,32 +3194,33 @@
       <c r="N8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>39</v>
+      <c r="O8" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>否</v>
       </c>
       <c r="P8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="20" t="str">
-        <f>IF(I8/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R8" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>下部</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="29"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30">
+      <c r="U8" s="35"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G8,AD7)</f>
         <v>30.89</v>
       </c>
@@ -3628,7 +3262,7 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -3637,32 +3271,33 @@
       <c r="N9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>39</v>
+      <c r="O9" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>否</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="20" t="str">
-        <f>IF(I9/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R9" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>上部</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="7"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G9,AD8)</f>
         <v>30.89</v>
       </c>
@@ -3704,7 +3339,7 @@
         <v>0.0412844036697246</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="19" t="s">
@@ -3713,32 +3348,33 @@
       <c r="N10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>39</v>
+      <c r="O10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>否</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="20" t="str">
-        <f>IF(I10/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R10" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>下部</v>
       </c>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30">
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G10,AD9)</f>
         <v>30.89</v>
       </c>
@@ -3747,35 +3383,75 @@
       <c r="A11" s="5">
         <v>44530</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="B11" s="7">
+        <v>34.35</v>
+      </c>
+      <c r="C11" s="7">
+        <v>34.11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>34.76</v>
+      </c>
+      <c r="E11" s="7">
+        <v>33.81</v>
+      </c>
+      <c r="F11" s="7">
+        <v>32.83</v>
+      </c>
+      <c r="G11" s="7">
+        <v>32.09</v>
+      </c>
+      <c r="H11" s="7">
+        <v>30.13</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="J11" s="16">
+        <f>(B11-B10)/B10</f>
+        <v>0.0088105726872248</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <v>0.0504587155963302</v>
+      </c>
+      <c r="L11" s="15">
+        <f>I11/(ROW()-4)</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>否</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="20" t="str">
+        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R11" s="30" t="str">
+        <f>IF(B11&gt;(D11-(D11-E11)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">
@@ -3801,15 +3477,15 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">
@@ -3835,15 +3511,15 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="5"/>
@@ -3867,15 +3543,15 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="5"/>
@@ -3899,15 +3575,15 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="5"/>
@@ -3931,15 +3607,15 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="5"/>
@@ -3963,15 +3639,15 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="5"/>
@@ -3995,15 +3671,15 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="5"/>
@@ -4027,15 +3703,15 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="5"/>
@@ -4059,15 +3735,15 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="5"/>
@@ -4091,15 +3767,15 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5"/>
@@ -4123,15 +3799,15 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5"/>
@@ -4155,15 +3831,15 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5"/>
@@ -4187,15 +3863,15 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5"/>
@@ -4219,15 +3895,15 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5"/>
@@ -4251,15 +3927,15 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5"/>
@@ -4280,18 +3956,18 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="30"/>
+      <c r="S27" s="31"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5"/>
@@ -4312,18 +3988,18 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="30"/>
+      <c r="S28" s="31"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5"/>
@@ -4344,18 +4020,18 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="30"/>
+      <c r="S29" s="31"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5"/>
@@ -4376,18 +4052,18 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="30"/>
+      <c r="S30" s="31"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5"/>
@@ -4408,18 +4084,18 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
-      <c r="S31" s="30"/>
+      <c r="S31" s="31"/>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5"/>
@@ -4440,18 +4116,18 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="30"/>
+      <c r="S32" s="31"/>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5"/>
@@ -4472,18 +4148,18 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
-      <c r="S33" s="30"/>
+      <c r="S33" s="31"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="5"/>
@@ -4504,18 +4180,18 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="30"/>
+      <c r="S34" s="31"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5"/>
@@ -4536,18 +4212,18 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="30"/>
+      <c r="S35" s="31"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5"/>
@@ -4568,18 +4244,18 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="30"/>
+      <c r="S36" s="31"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="5"/>
@@ -4600,18 +4276,18 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
-      <c r="S37" s="30"/>
+      <c r="S37" s="31"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5"/>
@@ -4632,18 +4308,18 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="30"/>
+      <c r="S38" s="31"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5"/>
@@ -4664,18 +4340,18 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="30"/>
+      <c r="S39" s="31"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="5"/>
@@ -4696,18 +4372,18 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8"/>
-      <c r="S40" s="30"/>
+      <c r="S40" s="31"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5"/>
@@ -4728,18 +4404,18 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="30"/>
+      <c r="S41" s="31"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="31"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5"/>
@@ -4760,18 +4436,18 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="30"/>
+      <c r="S42" s="31"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="5"/>
@@ -4792,18 +4468,18 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="30"/>
+      <c r="S43" s="31"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5"/>
@@ -4824,18 +4500,18 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="30"/>
+      <c r="S44" s="31"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5"/>
@@ -4856,18 +4532,18 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="30"/>
+      <c r="S45" s="31"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="5"/>
@@ -4888,18 +4564,18 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="30"/>
+      <c r="S46" s="31"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5"/>
@@ -4920,18 +4596,18 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="30"/>
+      <c r="S47" s="31"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5"/>
@@ -4952,18 +4628,18 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="30"/>
+      <c r="S48" s="31"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="5"/>
@@ -4984,18 +4660,18 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="30"/>
+      <c r="S49" s="31"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="31"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="5"/>
@@ -5016,18 +4692,18 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="30"/>
+      <c r="S50" s="31"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="5"/>
@@ -5048,18 +4724,18 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="30"/>
+      <c r="S51" s="31"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="5"/>
@@ -5080,18 +4756,18 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="30"/>
+      <c r="S52" s="31"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
+      <c r="V52" s="31"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="31"/>
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="5"/>
@@ -5112,18 +4788,18 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="30"/>
+      <c r="S53" s="31"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="30"/>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
+      <c r="V53" s="31"/>
+      <c r="W53" s="31"/>
+      <c r="X53" s="31"/>
+      <c r="Y53" s="31"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="5"/>
@@ -5144,18 +4820,18 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="30"/>
+      <c r="S54" s="31"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="30"/>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="5"/>
@@ -5176,18 +4852,18 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="30"/>
+      <c r="S55" s="31"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="31"/>
+      <c r="Y55" s="31"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
+      <c r="AB55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="31"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="5"/>
@@ -5208,18 +4884,18 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="30"/>
+      <c r="S56" s="31"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="30"/>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="31"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="31"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="5"/>
@@ -5240,18 +4916,18 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="30"/>
+      <c r="S57" s="31"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="30"/>
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="31"/>
+      <c r="Y57" s="31"/>
+      <c r="Z57" s="31"/>
+      <c r="AA57" s="31"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
+      <c r="AD57" s="31"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="5"/>
@@ -5272,18 +4948,18 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="30"/>
+      <c r="S58" s="31"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
+      <c r="AD58" s="31"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="5"/>
@@ -5304,18 +4980,18 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="30"/>
+      <c r="S59" s="31"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="30"/>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="30"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="31"/>
+      <c r="Y59" s="31"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="31"/>
+      <c r="AB59" s="31"/>
+      <c r="AC59" s="31"/>
+      <c r="AD59" s="31"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="5"/>
@@ -5336,18 +5012,18 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="30"/>
+      <c r="S60" s="31"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="30"/>
-      <c r="Y60" s="30"/>
-      <c r="Z60" s="30"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="30"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="31"/>
+      <c r="X60" s="31"/>
+      <c r="Y60" s="31"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="31"/>
+      <c r="AB60" s="31"/>
+      <c r="AC60" s="31"/>
+      <c r="AD60" s="31"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="5"/>
@@ -5368,18 +5044,18 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="30"/>
+      <c r="S61" s="31"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AD61" s="30"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31"/>
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="31"/>
+      <c r="AB61" s="31"/>
+      <c r="AC61" s="31"/>
+      <c r="AD61" s="31"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="5"/>
@@ -5400,18 +5076,18 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="30"/>
+      <c r="S62" s="31"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="31"/>
+      <c r="AA62" s="31"/>
+      <c r="AB62" s="31"/>
+      <c r="AC62" s="31"/>
+      <c r="AD62" s="31"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="5"/>
@@ -5432,18 +5108,18 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="30"/>
+      <c r="S63" s="31"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
+      <c r="V63" s="31"/>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="31"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="5"/>
@@ -5464,18 +5140,18 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="30"/>
+      <c r="S64" s="31"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="30"/>
-      <c r="Y64" s="30"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="30"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="31"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="31"/>
+      <c r="AA64" s="31"/>
+      <c r="AB64" s="31"/>
+      <c r="AC64" s="31"/>
+      <c r="AD64" s="31"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="5"/>
@@ -5496,18 +5172,18 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="30"/>
+      <c r="S65" s="31"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="30"/>
-      <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="31"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="31"/>
+      <c r="AB65" s="31"/>
+      <c r="AC65" s="31"/>
+      <c r="AD65" s="31"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="5"/>
@@ -5528,18 +5204,18 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="30"/>
+      <c r="S66" s="31"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="30"/>
-      <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="30"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="30"/>
+      <c r="V66" s="31"/>
+      <c r="W66" s="31"/>
+      <c r="X66" s="31"/>
+      <c r="Y66" s="31"/>
+      <c r="Z66" s="31"/>
+      <c r="AA66" s="31"/>
+      <c r="AB66" s="31"/>
+      <c r="AC66" s="31"/>
+      <c r="AD66" s="31"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="5"/>
@@ -5560,18 +5236,18 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="30"/>
+      <c r="S67" s="31"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="31"/>
+      <c r="X67" s="31"/>
+      <c r="Y67" s="31"/>
+      <c r="Z67" s="31"/>
+      <c r="AA67" s="31"/>
+      <c r="AB67" s="31"/>
+      <c r="AC67" s="31"/>
+      <c r="AD67" s="31"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="5"/>
@@ -5592,18 +5268,18 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="30"/>
+      <c r="S68" s="31"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="30"/>
-      <c r="Y68" s="30"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="30"/>
-      <c r="AB68" s="30"/>
-      <c r="AC68" s="30"/>
-      <c r="AD68" s="30"/>
+      <c r="V68" s="31"/>
+      <c r="W68" s="31"/>
+      <c r="X68" s="31"/>
+      <c r="Y68" s="31"/>
+      <c r="Z68" s="31"/>
+      <c r="AA68" s="31"/>
+      <c r="AB68" s="31"/>
+      <c r="AC68" s="31"/>
+      <c r="AD68" s="31"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="5"/>
@@ -5624,18 +5300,18 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="30"/>
+      <c r="S69" s="31"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="31"/>
+      <c r="Y69" s="31"/>
+      <c r="Z69" s="31"/>
+      <c r="AA69" s="31"/>
+      <c r="AB69" s="31"/>
+      <c r="AC69" s="31"/>
+      <c r="AD69" s="31"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="5"/>
@@ -5656,18 +5332,18 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="30"/>
+      <c r="S70" s="31"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="31"/>
+      <c r="Y70" s="31"/>
+      <c r="Z70" s="31"/>
+      <c r="AA70" s="31"/>
+      <c r="AB70" s="31"/>
+      <c r="AC70" s="31"/>
+      <c r="AD70" s="31"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="5"/>
@@ -5688,18 +5364,18 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="30"/>
+      <c r="S71" s="31"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="30"/>
-      <c r="Y71" s="30"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="30"/>
-      <c r="AB71" s="30"/>
-      <c r="AC71" s="30"/>
-      <c r="AD71" s="30"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="31"/>
+      <c r="Y71" s="31"/>
+      <c r="Z71" s="31"/>
+      <c r="AA71" s="31"/>
+      <c r="AB71" s="31"/>
+      <c r="AC71" s="31"/>
+      <c r="AD71" s="31"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="5"/>
@@ -5720,18 +5396,18 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="30"/>
+      <c r="S72" s="31"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="30"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="31"/>
+      <c r="AA72" s="31"/>
+      <c r="AB72" s="31"/>
+      <c r="AC72" s="31"/>
+      <c r="AD72" s="31"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="5"/>
@@ -5752,18 +5428,18 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="30"/>
+      <c r="S73" s="31"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="30"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
-      <c r="AD73" s="30"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="31"/>
+      <c r="X73" s="31"/>
+      <c r="Y73" s="31"/>
+      <c r="Z73" s="31"/>
+      <c r="AA73" s="31"/>
+      <c r="AB73" s="31"/>
+      <c r="AC73" s="31"/>
+      <c r="AD73" s="31"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="5"/>
@@ -5784,18 +5460,18 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="30"/>
+      <c r="S74" s="31"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
+      <c r="X74" s="31"/>
+      <c r="Y74" s="31"/>
+      <c r="Z74" s="31"/>
+      <c r="AA74" s="31"/>
+      <c r="AB74" s="31"/>
+      <c r="AC74" s="31"/>
+      <c r="AD74" s="31"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="5"/>
@@ -5816,18 +5492,18 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="30"/>
+      <c r="S75" s="31"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
-      <c r="V75" s="30"/>
-      <c r="W75" s="30"/>
-      <c r="X75" s="30"/>
-      <c r="Y75" s="30"/>
-      <c r="Z75" s="30"/>
-      <c r="AA75" s="30"/>
-      <c r="AB75" s="30"/>
-      <c r="AC75" s="30"/>
-      <c r="AD75" s="30"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="31"/>
+      <c r="X75" s="31"/>
+      <c r="Y75" s="31"/>
+      <c r="Z75" s="31"/>
+      <c r="AA75" s="31"/>
+      <c r="AB75" s="31"/>
+      <c r="AC75" s="31"/>
+      <c r="AD75" s="31"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="5"/>
@@ -5848,18 +5524,18 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="30"/>
+      <c r="S76" s="31"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-      <c r="V76" s="30"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="30"/>
-      <c r="Y76" s="30"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="30"/>
-      <c r="AB76" s="30"/>
-      <c r="AC76" s="30"/>
-      <c r="AD76" s="30"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="31"/>
+      <c r="X76" s="31"/>
+      <c r="Y76" s="31"/>
+      <c r="Z76" s="31"/>
+      <c r="AA76" s="31"/>
+      <c r="AB76" s="31"/>
+      <c r="AC76" s="31"/>
+      <c r="AD76" s="31"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="5"/>
@@ -5880,18 +5556,18 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="30"/>
+      <c r="S77" s="31"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="30"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="30"/>
-      <c r="Y77" s="30"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="30"/>
-      <c r="AB77" s="30"/>
-      <c r="AC77" s="30"/>
-      <c r="AD77" s="30"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="31"/>
+      <c r="Y77" s="31"/>
+      <c r="Z77" s="31"/>
+      <c r="AA77" s="31"/>
+      <c r="AB77" s="31"/>
+      <c r="AC77" s="31"/>
+      <c r="AD77" s="31"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="5"/>
@@ -5912,18 +5588,18 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="30"/>
+      <c r="S78" s="31"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="30"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="30"/>
-      <c r="Y78" s="30"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="30"/>
-      <c r="AB78" s="30"/>
-      <c r="AC78" s="30"/>
-      <c r="AD78" s="30"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="31"/>
+      <c r="Y78" s="31"/>
+      <c r="Z78" s="31"/>
+      <c r="AA78" s="31"/>
+      <c r="AB78" s="31"/>
+      <c r="AC78" s="31"/>
+      <c r="AD78" s="31"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="5"/>
@@ -5944,18 +5620,18 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="30"/>
+      <c r="S79" s="31"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="30"/>
-      <c r="Z79" s="30"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="30"/>
-      <c r="AC79" s="30"/>
-      <c r="AD79" s="30"/>
+      <c r="V79" s="31"/>
+      <c r="W79" s="31"/>
+      <c r="X79" s="31"/>
+      <c r="Y79" s="31"/>
+      <c r="Z79" s="31"/>
+      <c r="AA79" s="31"/>
+      <c r="AB79" s="31"/>
+      <c r="AC79" s="31"/>
+      <c r="AD79" s="31"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="5"/>
@@ -5976,18 +5652,18 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="30"/>
+      <c r="S80" s="31"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-      <c r="AC80" s="30"/>
-      <c r="AD80" s="30"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="31"/>
+      <c r="X80" s="31"/>
+      <c r="Y80" s="31"/>
+      <c r="Z80" s="31"/>
+      <c r="AA80" s="31"/>
+      <c r="AB80" s="31"/>
+      <c r="AC80" s="31"/>
+      <c r="AD80" s="31"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="5"/>
@@ -6008,18 +5684,18 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="30"/>
+      <c r="S81" s="31"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-      <c r="V81" s="30"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="30"/>
-      <c r="Y81" s="30"/>
-      <c r="Z81" s="30"/>
-      <c r="AA81" s="30"/>
-      <c r="AB81" s="30"/>
-      <c r="AC81" s="30"/>
-      <c r="AD81" s="30"/>
+      <c r="V81" s="31"/>
+      <c r="W81" s="31"/>
+      <c r="X81" s="31"/>
+      <c r="Y81" s="31"/>
+      <c r="Z81" s="31"/>
+      <c r="AA81" s="31"/>
+      <c r="AB81" s="31"/>
+      <c r="AC81" s="31"/>
+      <c r="AD81" s="31"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="5"/>
@@ -6040,18 +5716,18 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="30"/>
+      <c r="S82" s="31"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-      <c r="AC82" s="30"/>
-      <c r="AD82" s="30"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="31"/>
+      <c r="Z82" s="31"/>
+      <c r="AA82" s="31"/>
+      <c r="AB82" s="31"/>
+      <c r="AC82" s="31"/>
+      <c r="AD82" s="31"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="5"/>
@@ -6072,18 +5748,18 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="30"/>
+      <c r="S83" s="31"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="30"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="30"/>
-      <c r="Y83" s="30"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="30"/>
-      <c r="AB83" s="30"/>
-      <c r="AC83" s="30"/>
-      <c r="AD83" s="30"/>
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+      <c r="X83" s="31"/>
+      <c r="Y83" s="31"/>
+      <c r="Z83" s="31"/>
+      <c r="AA83" s="31"/>
+      <c r="AB83" s="31"/>
+      <c r="AC83" s="31"/>
+      <c r="AD83" s="31"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="5"/>
@@ -6104,18 +5780,18 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="30"/>
+      <c r="S84" s="31"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="30"/>
-      <c r="AB84" s="30"/>
-      <c r="AC84" s="30"/>
-      <c r="AD84" s="30"/>
+      <c r="V84" s="31"/>
+      <c r="W84" s="31"/>
+      <c r="X84" s="31"/>
+      <c r="Y84" s="31"/>
+      <c r="Z84" s="31"/>
+      <c r="AA84" s="31"/>
+      <c r="AB84" s="31"/>
+      <c r="AC84" s="31"/>
+      <c r="AD84" s="31"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="5"/>
@@ -6136,18 +5812,18 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="30"/>
+      <c r="S85" s="31"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
-      <c r="AA85" s="30"/>
-      <c r="AB85" s="30"/>
-      <c r="AC85" s="30"/>
-      <c r="AD85" s="30"/>
+      <c r="V85" s="31"/>
+      <c r="W85" s="31"/>
+      <c r="X85" s="31"/>
+      <c r="Y85" s="31"/>
+      <c r="Z85" s="31"/>
+      <c r="AA85" s="31"/>
+      <c r="AB85" s="31"/>
+      <c r="AC85" s="31"/>
+      <c r="AD85" s="31"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="5"/>
@@ -6168,18 +5844,18 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="30"/>
+      <c r="S86" s="31"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="30"/>
-      <c r="AB86" s="30"/>
-      <c r="AC86" s="30"/>
-      <c r="AD86" s="30"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="31"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="31"/>
+      <c r="AA86" s="31"/>
+      <c r="AB86" s="31"/>
+      <c r="AC86" s="31"/>
+      <c r="AD86" s="31"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="5"/>
@@ -6200,18 +5876,18 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="30"/>
+      <c r="S87" s="31"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="30"/>
-      <c r="X87" s="30"/>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="30"/>
-      <c r="AA87" s="30"/>
-      <c r="AB87" s="30"/>
-      <c r="AC87" s="30"/>
-      <c r="AD87" s="30"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+      <c r="X87" s="31"/>
+      <c r="Y87" s="31"/>
+      <c r="Z87" s="31"/>
+      <c r="AA87" s="31"/>
+      <c r="AB87" s="31"/>
+      <c r="AC87" s="31"/>
+      <c r="AD87" s="31"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="5"/>
@@ -6232,18 +5908,18 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="30"/>
+      <c r="S88" s="31"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="30"/>
-      <c r="X88" s="30"/>
-      <c r="Y88" s="30"/>
-      <c r="Z88" s="30"/>
-      <c r="AA88" s="30"/>
-      <c r="AB88" s="30"/>
-      <c r="AC88" s="30"/>
-      <c r="AD88" s="30"/>
+      <c r="V88" s="31"/>
+      <c r="W88" s="31"/>
+      <c r="X88" s="31"/>
+      <c r="Y88" s="31"/>
+      <c r="Z88" s="31"/>
+      <c r="AA88" s="31"/>
+      <c r="AB88" s="31"/>
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="31"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="5"/>
@@ -6264,18 +5940,18 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="30"/>
+      <c r="S89" s="31"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="30"/>
-      <c r="AD89" s="30"/>
+      <c r="V89" s="31"/>
+      <c r="W89" s="31"/>
+      <c r="X89" s="31"/>
+      <c r="Y89" s="31"/>
+      <c r="Z89" s="31"/>
+      <c r="AA89" s="31"/>
+      <c r="AB89" s="31"/>
+      <c r="AC89" s="31"/>
+      <c r="AD89" s="31"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="5"/>
@@ -6296,18 +5972,18 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="30"/>
+      <c r="S90" s="31"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="30"/>
-      <c r="X90" s="30"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
-      <c r="AD90" s="30"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="31"/>
+      <c r="X90" s="31"/>
+      <c r="Y90" s="31"/>
+      <c r="Z90" s="31"/>
+      <c r="AA90" s="31"/>
+      <c r="AB90" s="31"/>
+      <c r="AC90" s="31"/>
+      <c r="AD90" s="31"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="5"/>
@@ -6328,18 +6004,18 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="30"/>
+      <c r="S91" s="31"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="30"/>
+      <c r="V91" s="31"/>
+      <c r="W91" s="31"/>
+      <c r="X91" s="31"/>
+      <c r="Y91" s="31"/>
+      <c r="Z91" s="31"/>
+      <c r="AA91" s="31"/>
+      <c r="AB91" s="31"/>
+      <c r="AC91" s="31"/>
+      <c r="AD91" s="31"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="5"/>
@@ -6360,18 +6036,18 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="30"/>
+      <c r="S92" s="31"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="30"/>
-      <c r="X92" s="30"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="30"/>
-      <c r="AC92" s="30"/>
-      <c r="AD92" s="30"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="31"/>
+      <c r="AA92" s="31"/>
+      <c r="AB92" s="31"/>
+      <c r="AC92" s="31"/>
+      <c r="AD92" s="31"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="5"/>
@@ -6392,18 +6068,18 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="30"/>
+      <c r="S93" s="31"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
-      <c r="V93" s="30"/>
-      <c r="W93" s="30"/>
-      <c r="X93" s="30"/>
-      <c r="Y93" s="30"/>
-      <c r="Z93" s="30"/>
-      <c r="AA93" s="30"/>
-      <c r="AB93" s="30"/>
-      <c r="AC93" s="30"/>
-      <c r="AD93" s="30"/>
+      <c r="V93" s="31"/>
+      <c r="W93" s="31"/>
+      <c r="X93" s="31"/>
+      <c r="Y93" s="31"/>
+      <c r="Z93" s="31"/>
+      <c r="AA93" s="31"/>
+      <c r="AB93" s="31"/>
+      <c r="AC93" s="31"/>
+      <c r="AD93" s="31"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="5"/>
@@ -6424,18 +6100,18 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="30"/>
+      <c r="S94" s="31"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-      <c r="V94" s="30"/>
-      <c r="W94" s="30"/>
-      <c r="X94" s="30"/>
-      <c r="Y94" s="30"/>
-      <c r="Z94" s="30"/>
-      <c r="AA94" s="30"/>
-      <c r="AB94" s="30"/>
-      <c r="AC94" s="30"/>
-      <c r="AD94" s="30"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="31"/>
+      <c r="X94" s="31"/>
+      <c r="Y94" s="31"/>
+      <c r="Z94" s="31"/>
+      <c r="AA94" s="31"/>
+      <c r="AB94" s="31"/>
+      <c r="AC94" s="31"/>
+      <c r="AD94" s="31"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="5"/>
@@ -6456,18 +6132,18 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="30"/>
+      <c r="S95" s="31"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
-      <c r="V95" s="30"/>
-      <c r="W95" s="30"/>
-      <c r="X95" s="30"/>
-      <c r="Y95" s="30"/>
-      <c r="Z95" s="30"/>
-      <c r="AA95" s="30"/>
-      <c r="AB95" s="30"/>
-      <c r="AC95" s="30"/>
-      <c r="AD95" s="30"/>
+      <c r="V95" s="31"/>
+      <c r="W95" s="31"/>
+      <c r="X95" s="31"/>
+      <c r="Y95" s="31"/>
+      <c r="Z95" s="31"/>
+      <c r="AA95" s="31"/>
+      <c r="AB95" s="31"/>
+      <c r="AC95" s="31"/>
+      <c r="AD95" s="31"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="5"/>
@@ -6488,18 +6164,18 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="30"/>
+      <c r="S96" s="31"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
-      <c r="V96" s="30"/>
-      <c r="W96" s="30"/>
-      <c r="X96" s="30"/>
-      <c r="Y96" s="30"/>
-      <c r="Z96" s="30"/>
-      <c r="AA96" s="30"/>
-      <c r="AB96" s="30"/>
-      <c r="AC96" s="30"/>
-      <c r="AD96" s="30"/>
+      <c r="V96" s="31"/>
+      <c r="W96" s="31"/>
+      <c r="X96" s="31"/>
+      <c r="Y96" s="31"/>
+      <c r="Z96" s="31"/>
+      <c r="AA96" s="31"/>
+      <c r="AB96" s="31"/>
+      <c r="AC96" s="31"/>
+      <c r="AD96" s="31"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="5"/>
@@ -6520,18 +6196,18 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="30"/>
+      <c r="S97" s="31"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
-      <c r="V97" s="30"/>
-      <c r="W97" s="30"/>
-      <c r="X97" s="30"/>
-      <c r="Y97" s="30"/>
-      <c r="Z97" s="30"/>
-      <c r="AA97" s="30"/>
-      <c r="AB97" s="30"/>
-      <c r="AC97" s="30"/>
-      <c r="AD97" s="30"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="31"/>
+      <c r="Z97" s="31"/>
+      <c r="AA97" s="31"/>
+      <c r="AB97" s="31"/>
+      <c r="AC97" s="31"/>
+      <c r="AD97" s="31"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="5"/>
@@ -6552,18 +6228,18 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="30"/>
+      <c r="S98" s="31"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-      <c r="V98" s="30"/>
-      <c r="W98" s="30"/>
-      <c r="X98" s="30"/>
-      <c r="Y98" s="30"/>
-      <c r="Z98" s="30"/>
-      <c r="AA98" s="30"/>
-      <c r="AB98" s="30"/>
-      <c r="AC98" s="30"/>
-      <c r="AD98" s="30"/>
+      <c r="V98" s="31"/>
+      <c r="W98" s="31"/>
+      <c r="X98" s="31"/>
+      <c r="Y98" s="31"/>
+      <c r="Z98" s="31"/>
+      <c r="AA98" s="31"/>
+      <c r="AB98" s="31"/>
+      <c r="AC98" s="31"/>
+      <c r="AD98" s="31"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="5"/>
@@ -6584,18 +6260,18 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="30"/>
+      <c r="S99" s="31"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
-      <c r="V99" s="30"/>
-      <c r="W99" s="30"/>
-      <c r="X99" s="30"/>
-      <c r="Y99" s="30"/>
-      <c r="Z99" s="30"/>
-      <c r="AA99" s="30"/>
-      <c r="AB99" s="30"/>
-      <c r="AC99" s="30"/>
-      <c r="AD99" s="30"/>
+      <c r="V99" s="31"/>
+      <c r="W99" s="31"/>
+      <c r="X99" s="31"/>
+      <c r="Y99" s="31"/>
+      <c r="Z99" s="31"/>
+      <c r="AA99" s="31"/>
+      <c r="AB99" s="31"/>
+      <c r="AC99" s="31"/>
+      <c r="AD99" s="31"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="5"/>
@@ -6616,18 +6292,18 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="30"/>
+      <c r="S100" s="31"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
-      <c r="V100" s="30"/>
-      <c r="W100" s="30"/>
-      <c r="X100" s="30"/>
-      <c r="Y100" s="30"/>
-      <c r="Z100" s="30"/>
-      <c r="AA100" s="30"/>
-      <c r="AB100" s="30"/>
-      <c r="AC100" s="30"/>
-      <c r="AD100" s="30"/>
+      <c r="V100" s="31"/>
+      <c r="W100" s="31"/>
+      <c r="X100" s="31"/>
+      <c r="Y100" s="31"/>
+      <c r="Z100" s="31"/>
+      <c r="AA100" s="31"/>
+      <c r="AB100" s="31"/>
+      <c r="AC100" s="31"/>
+      <c r="AD100" s="31"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="5"/>
@@ -6648,18 +6324,18 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
-      <c r="S101" s="30"/>
+      <c r="S101" s="31"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="30"/>
-      <c r="X101" s="30"/>
-      <c r="Y101" s="30"/>
-      <c r="Z101" s="30"/>
-      <c r="AA101" s="30"/>
-      <c r="AB101" s="30"/>
-      <c r="AC101" s="30"/>
-      <c r="AD101" s="30"/>
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+      <c r="X101" s="31"/>
+      <c r="Y101" s="31"/>
+      <c r="Z101" s="31"/>
+      <c r="AA101" s="31"/>
+      <c r="AB101" s="31"/>
+      <c r="AC101" s="31"/>
+      <c r="AD101" s="31"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="5"/>
@@ -6680,18 +6356,18 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="30"/>
+      <c r="S102" s="31"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
-      <c r="V102" s="30"/>
-      <c r="W102" s="30"/>
-      <c r="X102" s="30"/>
-      <c r="Y102" s="30"/>
-      <c r="Z102" s="30"/>
-      <c r="AA102" s="30"/>
-      <c r="AB102" s="30"/>
-      <c r="AC102" s="30"/>
-      <c r="AD102" s="30"/>
+      <c r="V102" s="31"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="31"/>
+      <c r="Y102" s="31"/>
+      <c r="Z102" s="31"/>
+      <c r="AA102" s="31"/>
+      <c r="AB102" s="31"/>
+      <c r="AC102" s="31"/>
+      <c r="AD102" s="31"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="5"/>
@@ -6712,18 +6388,18 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
-      <c r="S103" s="30"/>
+      <c r="S103" s="31"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="30"/>
-      <c r="AA103" s="30"/>
-      <c r="AB103" s="30"/>
-      <c r="AC103" s="30"/>
-      <c r="AD103" s="30"/>
+      <c r="V103" s="31"/>
+      <c r="W103" s="31"/>
+      <c r="X103" s="31"/>
+      <c r="Y103" s="31"/>
+      <c r="Z103" s="31"/>
+      <c r="AA103" s="31"/>
+      <c r="AB103" s="31"/>
+      <c r="AC103" s="31"/>
+      <c r="AD103" s="31"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="5"/>
@@ -6744,18 +6420,18 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="30"/>
+      <c r="S104" s="31"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
-      <c r="V104" s="30"/>
-      <c r="W104" s="30"/>
-      <c r="X104" s="30"/>
-      <c r="Y104" s="30"/>
-      <c r="Z104" s="30"/>
-      <c r="AA104" s="30"/>
-      <c r="AB104" s="30"/>
-      <c r="AC104" s="30"/>
-      <c r="AD104" s="30"/>
+      <c r="V104" s="31"/>
+      <c r="W104" s="31"/>
+      <c r="X104" s="31"/>
+      <c r="Y104" s="31"/>
+      <c r="Z104" s="31"/>
+      <c r="AA104" s="31"/>
+      <c r="AB104" s="31"/>
+      <c r="AC104" s="31"/>
+      <c r="AD104" s="31"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="5"/>
@@ -6776,18 +6452,18 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="30"/>
+      <c r="S105" s="31"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
-      <c r="V105" s="30"/>
-      <c r="W105" s="30"/>
-      <c r="X105" s="30"/>
-      <c r="Y105" s="30"/>
-      <c r="Z105" s="30"/>
-      <c r="AA105" s="30"/>
-      <c r="AB105" s="30"/>
-      <c r="AC105" s="30"/>
-      <c r="AD105" s="30"/>
+      <c r="V105" s="31"/>
+      <c r="W105" s="31"/>
+      <c r="X105" s="31"/>
+      <c r="Y105" s="31"/>
+      <c r="Z105" s="31"/>
+      <c r="AA105" s="31"/>
+      <c r="AB105" s="31"/>
+      <c r="AC105" s="31"/>
+      <c r="AD105" s="31"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="5"/>
@@ -6808,18 +6484,18 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
-      <c r="S106" s="30"/>
+      <c r="S106" s="31"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
-      <c r="V106" s="30"/>
-      <c r="W106" s="30"/>
-      <c r="X106" s="30"/>
-      <c r="Y106" s="30"/>
-      <c r="Z106" s="30"/>
-      <c r="AA106" s="30"/>
-      <c r="AB106" s="30"/>
-      <c r="AC106" s="30"/>
-      <c r="AD106" s="30"/>
+      <c r="V106" s="31"/>
+      <c r="W106" s="31"/>
+      <c r="X106" s="31"/>
+      <c r="Y106" s="31"/>
+      <c r="Z106" s="31"/>
+      <c r="AA106" s="31"/>
+      <c r="AB106" s="31"/>
+      <c r="AC106" s="31"/>
+      <c r="AD106" s="31"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="5"/>
@@ -6840,18 +6516,18 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
-      <c r="S107" s="30"/>
+      <c r="S107" s="31"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
-      <c r="V107" s="30"/>
-      <c r="W107" s="30"/>
-      <c r="X107" s="30"/>
-      <c r="Y107" s="30"/>
-      <c r="Z107" s="30"/>
-      <c r="AA107" s="30"/>
-      <c r="AB107" s="30"/>
-      <c r="AC107" s="30"/>
-      <c r="AD107" s="30"/>
+      <c r="V107" s="31"/>
+      <c r="W107" s="31"/>
+      <c r="X107" s="31"/>
+      <c r="Y107" s="31"/>
+      <c r="Z107" s="31"/>
+      <c r="AA107" s="31"/>
+      <c r="AB107" s="31"/>
+      <c r="AC107" s="31"/>
+      <c r="AD107" s="31"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="5"/>
@@ -6872,18 +6548,18 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="30"/>
+      <c r="S108" s="31"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
-      <c r="V108" s="30"/>
-      <c r="W108" s="30"/>
-      <c r="X108" s="30"/>
-      <c r="Y108" s="30"/>
-      <c r="Z108" s="30"/>
-      <c r="AA108" s="30"/>
-      <c r="AB108" s="30"/>
-      <c r="AC108" s="30"/>
-      <c r="AD108" s="30"/>
+      <c r="V108" s="31"/>
+      <c r="W108" s="31"/>
+      <c r="X108" s="31"/>
+      <c r="Y108" s="31"/>
+      <c r="Z108" s="31"/>
+      <c r="AA108" s="31"/>
+      <c r="AB108" s="31"/>
+      <c r="AC108" s="31"/>
+      <c r="AD108" s="31"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="5"/>
@@ -6904,18 +6580,18 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="30"/>
+      <c r="S109" s="31"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
-      <c r="V109" s="30"/>
-      <c r="W109" s="30"/>
-      <c r="X109" s="30"/>
-      <c r="Y109" s="30"/>
-      <c r="Z109" s="30"/>
-      <c r="AA109" s="30"/>
-      <c r="AB109" s="30"/>
-      <c r="AC109" s="30"/>
-      <c r="AD109" s="30"/>
+      <c r="V109" s="31"/>
+      <c r="W109" s="31"/>
+      <c r="X109" s="31"/>
+      <c r="Y109" s="31"/>
+      <c r="Z109" s="31"/>
+      <c r="AA109" s="31"/>
+      <c r="AB109" s="31"/>
+      <c r="AC109" s="31"/>
+      <c r="AD109" s="31"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="5"/>
@@ -6936,18 +6612,18 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
-      <c r="S110" s="30"/>
+      <c r="S110" s="31"/>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
-      <c r="V110" s="30"/>
-      <c r="W110" s="30"/>
-      <c r="X110" s="30"/>
-      <c r="Y110" s="30"/>
-      <c r="Z110" s="30"/>
-      <c r="AA110" s="30"/>
-      <c r="AB110" s="30"/>
-      <c r="AC110" s="30"/>
-      <c r="AD110" s="30"/>
+      <c r="V110" s="31"/>
+      <c r="W110" s="31"/>
+      <c r="X110" s="31"/>
+      <c r="Y110" s="31"/>
+      <c r="Z110" s="31"/>
+      <c r="AA110" s="31"/>
+      <c r="AB110" s="31"/>
+      <c r="AC110" s="31"/>
+      <c r="AD110" s="31"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="5"/>
@@ -6968,18 +6644,18 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="30"/>
+      <c r="S111" s="31"/>
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
-      <c r="V111" s="30"/>
-      <c r="W111" s="30"/>
-      <c r="X111" s="30"/>
-      <c r="Y111" s="30"/>
-      <c r="Z111" s="30"/>
-      <c r="AA111" s="30"/>
-      <c r="AB111" s="30"/>
-      <c r="AC111" s="30"/>
-      <c r="AD111" s="30"/>
+      <c r="V111" s="31"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="31"/>
+      <c r="Y111" s="31"/>
+      <c r="Z111" s="31"/>
+      <c r="AA111" s="31"/>
+      <c r="AB111" s="31"/>
+      <c r="AC111" s="31"/>
+      <c r="AD111" s="31"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="5"/>
@@ -7000,18 +6676,18 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
-      <c r="S112" s="30"/>
+      <c r="S112" s="31"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
-      <c r="V112" s="30"/>
-      <c r="W112" s="30"/>
-      <c r="X112" s="30"/>
-      <c r="Y112" s="30"/>
-      <c r="Z112" s="30"/>
-      <c r="AA112" s="30"/>
-      <c r="AB112" s="30"/>
-      <c r="AC112" s="30"/>
-      <c r="AD112" s="30"/>
+      <c r="V112" s="31"/>
+      <c r="W112" s="31"/>
+      <c r="X112" s="31"/>
+      <c r="Y112" s="31"/>
+      <c r="Z112" s="31"/>
+      <c r="AA112" s="31"/>
+      <c r="AB112" s="31"/>
+      <c r="AC112" s="31"/>
+      <c r="AD112" s="31"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="5"/>
@@ -7032,18 +6708,18 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="30"/>
+      <c r="S113" s="31"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
-      <c r="V113" s="30"/>
-      <c r="W113" s="30"/>
-      <c r="X113" s="30"/>
-      <c r="Y113" s="30"/>
-      <c r="Z113" s="30"/>
-      <c r="AA113" s="30"/>
-      <c r="AB113" s="30"/>
-      <c r="AC113" s="30"/>
-      <c r="AD113" s="30"/>
+      <c r="V113" s="31"/>
+      <c r="W113" s="31"/>
+      <c r="X113" s="31"/>
+      <c r="Y113" s="31"/>
+      <c r="Z113" s="31"/>
+      <c r="AA113" s="31"/>
+      <c r="AB113" s="31"/>
+      <c r="AC113" s="31"/>
+      <c r="AD113" s="31"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="5"/>
@@ -7064,18 +6740,18 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
-      <c r="S114" s="30"/>
+      <c r="S114" s="31"/>
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
-      <c r="V114" s="30"/>
-      <c r="W114" s="30"/>
-      <c r="X114" s="30"/>
-      <c r="Y114" s="30"/>
-      <c r="Z114" s="30"/>
-      <c r="AA114" s="30"/>
-      <c r="AB114" s="30"/>
-      <c r="AC114" s="30"/>
-      <c r="AD114" s="30"/>
+      <c r="V114" s="31"/>
+      <c r="W114" s="31"/>
+      <c r="X114" s="31"/>
+      <c r="Y114" s="31"/>
+      <c r="Z114" s="31"/>
+      <c r="AA114" s="31"/>
+      <c r="AB114" s="31"/>
+      <c r="AC114" s="31"/>
+      <c r="AD114" s="31"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="5"/>
@@ -7096,18 +6772,18 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
-      <c r="S115" s="30"/>
+      <c r="S115" s="31"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
-      <c r="X115" s="30"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="30"/>
-      <c r="AA115" s="30"/>
-      <c r="AB115" s="30"/>
-      <c r="AC115" s="30"/>
-      <c r="AD115" s="30"/>
+      <c r="V115" s="31"/>
+      <c r="W115" s="31"/>
+      <c r="X115" s="31"/>
+      <c r="Y115" s="31"/>
+      <c r="Z115" s="31"/>
+      <c r="AA115" s="31"/>
+      <c r="AB115" s="31"/>
+      <c r="AC115" s="31"/>
+      <c r="AD115" s="31"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="5"/>
@@ -7128,18 +6804,18 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
-      <c r="S116" s="30"/>
+      <c r="S116" s="31"/>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
-      <c r="V116" s="30"/>
-      <c r="W116" s="30"/>
-      <c r="X116" s="30"/>
-      <c r="Y116" s="30"/>
-      <c r="Z116" s="30"/>
-      <c r="AA116" s="30"/>
-      <c r="AB116" s="30"/>
-      <c r="AC116" s="30"/>
-      <c r="AD116" s="30"/>
+      <c r="V116" s="31"/>
+      <c r="W116" s="31"/>
+      <c r="X116" s="31"/>
+      <c r="Y116" s="31"/>
+      <c r="Z116" s="31"/>
+      <c r="AA116" s="31"/>
+      <c r="AB116" s="31"/>
+      <c r="AC116" s="31"/>
+      <c r="AD116" s="31"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="5"/>
@@ -7160,18 +6836,18 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
-      <c r="S117" s="30"/>
+      <c r="S117" s="31"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AD117" s="30"/>
+      <c r="V117" s="31"/>
+      <c r="W117" s="31"/>
+      <c r="X117" s="31"/>
+      <c r="Y117" s="31"/>
+      <c r="Z117" s="31"/>
+      <c r="AA117" s="31"/>
+      <c r="AB117" s="31"/>
+      <c r="AC117" s="31"/>
+      <c r="AD117" s="31"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="5"/>
@@ -7192,18 +6868,18 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="30"/>
+      <c r="S118" s="31"/>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="30"/>
-      <c r="AC118" s="30"/>
-      <c r="AD118" s="30"/>
+      <c r="V118" s="31"/>
+      <c r="W118" s="31"/>
+      <c r="X118" s="31"/>
+      <c r="Y118" s="31"/>
+      <c r="Z118" s="31"/>
+      <c r="AA118" s="31"/>
+      <c r="AB118" s="31"/>
+      <c r="AC118" s="31"/>
+      <c r="AD118" s="31"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="5"/>
@@ -7224,18 +6900,18 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="30"/>
+      <c r="S119" s="31"/>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
-      <c r="V119" s="30"/>
-      <c r="W119" s="30"/>
-      <c r="X119" s="30"/>
-      <c r="Y119" s="30"/>
-      <c r="Z119" s="30"/>
-      <c r="AA119" s="30"/>
-      <c r="AB119" s="30"/>
-      <c r="AC119" s="30"/>
-      <c r="AD119" s="30"/>
+      <c r="V119" s="31"/>
+      <c r="W119" s="31"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
+      <c r="AA119" s="31"/>
+      <c r="AB119" s="31"/>
+      <c r="AC119" s="31"/>
+      <c r="AD119" s="31"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="5"/>
@@ -7256,18 +6932,18 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="30"/>
+      <c r="S120" s="31"/>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-      <c r="V120" s="30"/>
-      <c r="W120" s="30"/>
-      <c r="X120" s="30"/>
-      <c r="Y120" s="30"/>
-      <c r="Z120" s="30"/>
-      <c r="AA120" s="30"/>
-      <c r="AB120" s="30"/>
-      <c r="AC120" s="30"/>
-      <c r="AD120" s="30"/>
+      <c r="V120" s="31"/>
+      <c r="W120" s="31"/>
+      <c r="X120" s="31"/>
+      <c r="Y120" s="31"/>
+      <c r="Z120" s="31"/>
+      <c r="AA120" s="31"/>
+      <c r="AB120" s="31"/>
+      <c r="AC120" s="31"/>
+      <c r="AD120" s="31"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="5"/>
@@ -7288,18 +6964,18 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="30"/>
+      <c r="S121" s="31"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
-      <c r="V121" s="30"/>
-      <c r="W121" s="30"/>
-      <c r="X121" s="30"/>
-      <c r="Y121" s="30"/>
-      <c r="Z121" s="30"/>
-      <c r="AA121" s="30"/>
-      <c r="AB121" s="30"/>
-      <c r="AC121" s="30"/>
-      <c r="AD121" s="30"/>
+      <c r="V121" s="31"/>
+      <c r="W121" s="31"/>
+      <c r="X121" s="31"/>
+      <c r="Y121" s="31"/>
+      <c r="Z121" s="31"/>
+      <c r="AA121" s="31"/>
+      <c r="AB121" s="31"/>
+      <c r="AC121" s="31"/>
+      <c r="AD121" s="31"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="5"/>
@@ -7320,18 +6996,18 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
-      <c r="S122" s="30"/>
+      <c r="S122" s="31"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
-      <c r="V122" s="30"/>
-      <c r="W122" s="30"/>
-      <c r="X122" s="30"/>
-      <c r="Y122" s="30"/>
-      <c r="Z122" s="30"/>
-      <c r="AA122" s="30"/>
-      <c r="AB122" s="30"/>
-      <c r="AC122" s="30"/>
-      <c r="AD122" s="30"/>
+      <c r="V122" s="31"/>
+      <c r="W122" s="31"/>
+      <c r="X122" s="31"/>
+      <c r="Y122" s="31"/>
+      <c r="Z122" s="31"/>
+      <c r="AA122" s="31"/>
+      <c r="AB122" s="31"/>
+      <c r="AC122" s="31"/>
+      <c r="AD122" s="31"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="5"/>
@@ -7352,18 +7028,18 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
-      <c r="S123" s="30"/>
+      <c r="S123" s="31"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
-      <c r="V123" s="30"/>
-      <c r="W123" s="30"/>
-      <c r="X123" s="30"/>
-      <c r="Y123" s="30"/>
-      <c r="Z123" s="30"/>
-      <c r="AA123" s="30"/>
-      <c r="AB123" s="30"/>
-      <c r="AC123" s="30"/>
-      <c r="AD123" s="30"/>
+      <c r="V123" s="31"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="31"/>
+      <c r="Y123" s="31"/>
+      <c r="Z123" s="31"/>
+      <c r="AA123" s="31"/>
+      <c r="AB123" s="31"/>
+      <c r="AC123" s="31"/>
+      <c r="AD123" s="31"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="5"/>
@@ -7384,18 +7060,18 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
-      <c r="S124" s="30"/>
+      <c r="S124" s="31"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
-      <c r="V124" s="30"/>
-      <c r="W124" s="30"/>
-      <c r="X124" s="30"/>
-      <c r="Y124" s="30"/>
-      <c r="Z124" s="30"/>
-      <c r="AA124" s="30"/>
-      <c r="AB124" s="30"/>
-      <c r="AC124" s="30"/>
-      <c r="AD124" s="30"/>
+      <c r="V124" s="31"/>
+      <c r="W124" s="31"/>
+      <c r="X124" s="31"/>
+      <c r="Y124" s="31"/>
+      <c r="Z124" s="31"/>
+      <c r="AA124" s="31"/>
+      <c r="AB124" s="31"/>
+      <c r="AC124" s="31"/>
+      <c r="AD124" s="31"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="5"/>
@@ -7416,18 +7092,18 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
-      <c r="S125" s="30"/>
+      <c r="S125" s="31"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
-      <c r="V125" s="30"/>
-      <c r="W125" s="30"/>
-      <c r="X125" s="30"/>
-      <c r="Y125" s="30"/>
-      <c r="Z125" s="30"/>
-      <c r="AA125" s="30"/>
-      <c r="AB125" s="30"/>
-      <c r="AC125" s="30"/>
-      <c r="AD125" s="30"/>
+      <c r="V125" s="31"/>
+      <c r="W125" s="31"/>
+      <c r="X125" s="31"/>
+      <c r="Y125" s="31"/>
+      <c r="Z125" s="31"/>
+      <c r="AA125" s="31"/>
+      <c r="AB125" s="31"/>
+      <c r="AC125" s="31"/>
+      <c r="AD125" s="31"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="5"/>
@@ -7448,18 +7124,18 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
-      <c r="S126" s="30"/>
+      <c r="S126" s="31"/>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
-      <c r="V126" s="30"/>
-      <c r="W126" s="30"/>
-      <c r="X126" s="30"/>
-      <c r="Y126" s="30"/>
-      <c r="Z126" s="30"/>
-      <c r="AA126" s="30"/>
-      <c r="AB126" s="30"/>
-      <c r="AC126" s="30"/>
-      <c r="AD126" s="30"/>
+      <c r="V126" s="31"/>
+      <c r="W126" s="31"/>
+      <c r="X126" s="31"/>
+      <c r="Y126" s="31"/>
+      <c r="Z126" s="31"/>
+      <c r="AA126" s="31"/>
+      <c r="AB126" s="31"/>
+      <c r="AC126" s="31"/>
+      <c r="AD126" s="31"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="5"/>
@@ -7480,18 +7156,18 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
-      <c r="S127" s="30"/>
+      <c r="S127" s="31"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
-      <c r="V127" s="30"/>
-      <c r="W127" s="30"/>
-      <c r="X127" s="30"/>
-      <c r="Y127" s="30"/>
-      <c r="Z127" s="30"/>
-      <c r="AA127" s="30"/>
-      <c r="AB127" s="30"/>
-      <c r="AC127" s="30"/>
-      <c r="AD127" s="30"/>
+      <c r="V127" s="31"/>
+      <c r="W127" s="31"/>
+      <c r="X127" s="31"/>
+      <c r="Y127" s="31"/>
+      <c r="Z127" s="31"/>
+      <c r="AA127" s="31"/>
+      <c r="AB127" s="31"/>
+      <c r="AC127" s="31"/>
+      <c r="AD127" s="31"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="5"/>
@@ -7512,18 +7188,18 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
-      <c r="S128" s="30"/>
+      <c r="S128" s="31"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
-      <c r="V128" s="30"/>
-      <c r="W128" s="30"/>
-      <c r="X128" s="30"/>
-      <c r="Y128" s="30"/>
-      <c r="Z128" s="30"/>
-      <c r="AA128" s="30"/>
-      <c r="AB128" s="30"/>
-      <c r="AC128" s="30"/>
-      <c r="AD128" s="30"/>
+      <c r="V128" s="31"/>
+      <c r="W128" s="31"/>
+      <c r="X128" s="31"/>
+      <c r="Y128" s="31"/>
+      <c r="Z128" s="31"/>
+      <c r="AA128" s="31"/>
+      <c r="AB128" s="31"/>
+      <c r="AC128" s="31"/>
+      <c r="AD128" s="31"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="5"/>
@@ -7544,18 +7220,18 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
-      <c r="S129" s="30"/>
+      <c r="S129" s="31"/>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
-      <c r="V129" s="30"/>
-      <c r="W129" s="30"/>
-      <c r="X129" s="30"/>
-      <c r="Y129" s="30"/>
-      <c r="Z129" s="30"/>
-      <c r="AA129" s="30"/>
-      <c r="AB129" s="30"/>
-      <c r="AC129" s="30"/>
-      <c r="AD129" s="30"/>
+      <c r="V129" s="31"/>
+      <c r="W129" s="31"/>
+      <c r="X129" s="31"/>
+      <c r="Y129" s="31"/>
+      <c r="Z129" s="31"/>
+      <c r="AA129" s="31"/>
+      <c r="AB129" s="31"/>
+      <c r="AC129" s="31"/>
+      <c r="AD129" s="31"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="5"/>
@@ -7576,18 +7252,18 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
-      <c r="S130" s="30"/>
+      <c r="S130" s="31"/>
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
-      <c r="V130" s="30"/>
-      <c r="W130" s="30"/>
-      <c r="X130" s="30"/>
-      <c r="Y130" s="30"/>
-      <c r="Z130" s="30"/>
-      <c r="AA130" s="30"/>
-      <c r="AB130" s="30"/>
-      <c r="AC130" s="30"/>
-      <c r="AD130" s="30"/>
+      <c r="V130" s="31"/>
+      <c r="W130" s="31"/>
+      <c r="X130" s="31"/>
+      <c r="Y130" s="31"/>
+      <c r="Z130" s="31"/>
+      <c r="AA130" s="31"/>
+      <c r="AB130" s="31"/>
+      <c r="AC130" s="31"/>
+      <c r="AD130" s="31"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="5"/>
@@ -7608,18 +7284,18 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
-      <c r="S131" s="30"/>
+      <c r="S131" s="31"/>
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
-      <c r="V131" s="30"/>
-      <c r="W131" s="30"/>
-      <c r="X131" s="30"/>
-      <c r="Y131" s="30"/>
-      <c r="Z131" s="30"/>
-      <c r="AA131" s="30"/>
-      <c r="AB131" s="30"/>
-      <c r="AC131" s="30"/>
-      <c r="AD131" s="30"/>
+      <c r="V131" s="31"/>
+      <c r="W131" s="31"/>
+      <c r="X131" s="31"/>
+      <c r="Y131" s="31"/>
+      <c r="Z131" s="31"/>
+      <c r="AA131" s="31"/>
+      <c r="AB131" s="31"/>
+      <c r="AC131" s="31"/>
+      <c r="AD131" s="31"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -224,12 +224,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -270,7 +270,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,31 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,25 +355,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,14 +391,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -380,36 +410,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,7 +514,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +592,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,139 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,36 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -791,6 +761,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -802,17 +787,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,153 +825,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,13 +1006,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1072,7 +1072,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,10 +1093,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2680,11 +2680,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2972,11 +2972,11 @@
         <v>39</v>
       </c>
       <c r="Q5" s="20" t="str">
-        <f t="shared" ref="Q5:Q10" si="0">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q11" si="0">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="20" t="str">
-        <f t="shared" ref="R5:R10" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R11" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="27"/>
@@ -3023,7 +3023,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="16">
-        <f>(B6-B5)/B5</f>
+        <f t="shared" ref="J6:J11" si="2">(B6-B5)/B5</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K6" s="14">
@@ -3031,7 +3031,7 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" ref="L5:L10" si="2">I6/(ROW()-4)</f>
+        <f t="shared" ref="L5:L11" si="3">I6/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3041,7 +3041,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f t="shared" ref="O6:O11" si="3">IF(B6&lt;F6,"是","否")</f>
+        <f t="shared" ref="O6:O11" si="4">IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P6" s="20" t="s">
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="16">
-        <f>(B7-B6)/B6</f>
+        <f t="shared" si="2"/>
         <v>-0.0121158392434989</v>
       </c>
       <c r="K7" s="14">
@@ -3108,7 +3108,7 @@
         <v>0.0223241590214066</v>
       </c>
       <c r="L7" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.666666666666667</v>
       </c>
       <c r="M7" s="19" t="s">
@@ -3118,7 +3118,7 @@
         <v>39</v>
       </c>
       <c r="O7" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P7" s="20" t="s">
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="16">
-        <f>(B8-B7)/B7</f>
+        <f t="shared" si="2"/>
         <v>-0.0173496859108585</v>
       </c>
       <c r="K8" s="14">
@@ -3185,7 +3185,7 @@
         <v>0.00458715596330271</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="M8" s="19" t="s">
@@ -3195,7 +3195,7 @@
         <v>38</v>
       </c>
       <c r="O8" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P8" s="20" t="s">
@@ -3254,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="16">
-        <f>(B9-B8)/B8</f>
+        <f t="shared" si="2"/>
         <v>0.045662100456621</v>
       </c>
       <c r="K9" s="14">
@@ -3262,7 +3262,7 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="M9" s="19" t="s">
@@ -3272,7 +3272,7 @@
         <v>39</v>
       </c>
       <c r="O9" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P9" s="8" t="s">
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="16">
-        <f>(B10-B9)/B9</f>
+        <f t="shared" si="2"/>
         <v>-0.0087336244541486</v>
       </c>
       <c r="K10" s="14">
@@ -3339,7 +3339,7 @@
         <v>0.0412844036697246</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="19" t="s">
@@ -3349,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="O10" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P10" s="8" t="s">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="16">
-        <f>(B11-B10)/B10</f>
+        <f t="shared" si="2"/>
         <v>0.0088105726872248</v>
       </c>
       <c r="K11" s="14">
@@ -3416,7 +3416,7 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L11" s="15">
-        <f>I11/(ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v>0.571428571428571</v>
       </c>
       <c r="M11" s="19" t="s">
@@ -3426,18 +3426,18 @@
         <v>39</v>
       </c>
       <c r="O11" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="20" t="str">
-        <f>IF(I11/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R11" s="30" t="str">
-        <f>IF(B11&gt;(D11-(D11-E11)/2),"上部","下部")</f>
+        <f t="shared" si="1"/>
         <v>上部</v>
       </c>
       <c r="S11" s="8"/>
@@ -3451,7 +3451,10 @@
       <c r="AA11" s="31"/>
       <c r="AB11" s="31"/>
       <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
+      <c r="AD11" s="31">
+        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G11,AD10)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -213,10 +213,13 @@
     <t>3.23%</t>
   </si>
   <si>
-    <t>是</t>
+    <t>未突破</t>
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -224,12 +227,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -283,13 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -298,71 +294,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,9 +310,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,7 +363,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +410,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,7 +523,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,97 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,61 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +765,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -802,30 +820,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -840,90 +834,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,55 +935,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,13 +1009,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,10 +1051,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,16 +1078,13 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1093,10 +1096,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,8 +1249,12 @@
           <cell r="V4">
             <v>24.52</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="W4" t="str">
+            <v>26.96</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>24.74</v>
+          </cell>
           <cell r="Y4" t="str">
             <v>24w</v>
           </cell>
@@ -1266,8 +1273,9 @@
           <cell r="AD4">
             <v>0.0641221374045801</v>
           </cell>
-        </row>
-        <row r="4">
+          <cell r="AE4">
+            <v>0.0823442136498517</v>
+          </cell>
           <cell r="AF4" t="str">
             <v>5T</v>
           </cell>
@@ -1584,6 +1592,12 @@
           <cell r="R7">
             <v>30.89</v>
           </cell>
+          <cell r="S7">
+            <v>34.66</v>
+          </cell>
+          <cell r="T7">
+            <v>32.59</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="Y7" t="str">
@@ -1598,8 +1612,8 @@
           <cell r="AB7">
             <v>0.124184859654097</v>
           </cell>
-          <cell r="AC7" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AC7">
+            <v>0.0597230236583957</v>
           </cell>
           <cell r="AD7" t="e">
             <v>#DIV/0!</v>
@@ -2680,11 +2694,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2742,21 +2756,21 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
       <c r="AD1" s="37" t="s">
         <v>5</v>
       </c>
@@ -2780,17 +2794,17 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24" t="s">
+      <c r="S2" s="24"/>
+      <c r="T2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
       <c r="AB2" s="36" t="s">
         <v>7</v>
       </c>
@@ -2850,23 +2864,23 @@
       <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="24"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="25" t="s">
         <v>30</v>
       </c>
       <c r="Z3" s="32" t="s">
@@ -2902,19 +2916,19 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="W4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
       <c r="AD4" s="37"/>
@@ -2979,8 +2993,8 @@
         <f t="shared" ref="R5:R11" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="34"/>
       <c r="V5" s="31"/>
       <c r="W5" s="31"/>
@@ -3045,7 +3059,7 @@
         <v>否</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3056,7 +3070,7 @@
         <v>上部</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="29"/>
+      <c r="T6" s="30"/>
       <c r="U6" s="35"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31"/>
@@ -3128,12 +3142,12 @@
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
-      <c r="R7" s="19" t="str">
+      <c r="R7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>下部</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="30"/>
       <c r="U7" s="35"/>
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
@@ -3191,8 +3205,8 @@
       <c r="M8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>38</v>
+      <c r="N8" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="O8" s="20" t="str">
         <f t="shared" si="4"/>
@@ -3205,12 +3219,12 @@
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
-      <c r="R8" s="19" t="str">
+      <c r="R8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>下部</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="29"/>
+      <c r="T8" s="30"/>
       <c r="U8" s="35"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
@@ -3359,7 +3373,7 @@
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
-      <c r="R10" s="19" t="str">
+      <c r="R10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>下部</v>
       </c>
@@ -3429,14 +3443,14 @@
         <f t="shared" si="4"/>
         <v>否</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>38</v>
+      <c r="P11" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="Q11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>否</v>
       </c>
-      <c r="R11" s="30" t="str">
+      <c r="R11" s="19" t="str">
         <f t="shared" si="1"/>
         <v>上部</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -229,10 +229,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -272,10 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,11 +287,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,8 +301,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,15 +334,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,22 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -363,15 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,8 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,16 +402,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,31 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +547,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,115 +673,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,6 +749,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -757,9 +766,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,28 +805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,21 +835,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -848,40 +848,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,82 +887,85 @@
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,22 +974,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2698,7 +2698,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -229,10 +229,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -272,11 +272,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,18 +309,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,45 +340,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,24 +364,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +517,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +607,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,61 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,31 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,43 +749,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,6 +794,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -843,39 +828,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,58 +884,58 @@
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,52 +944,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,6 +1374,32 @@
           </cell>
           <cell r="BL4">
             <v>24.74</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="BE5">
+            <v>44531</v>
+          </cell>
+          <cell r="BF5">
+            <v>27.7</v>
+          </cell>
+          <cell r="BG5">
+            <v>100</v>
+          </cell>
+          <cell r="BH5">
+            <v>5</v>
+          </cell>
+          <cell r="BI5">
+            <v>2.77</v>
+          </cell>
+          <cell r="BJ5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="BK5">
+            <v>28.7</v>
+          </cell>
+          <cell r="BL5">
+            <v>27.5</v>
           </cell>
         </row>
         <row r="6">
@@ -2698,7 +2724,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3474,23 +3500,63 @@
       <c r="A12" s="5">
         <v>44531</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="B12" s="7">
+        <v>36.38</v>
+      </c>
+      <c r="C12" s="7">
+        <v>34.38</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37.79</v>
+      </c>
+      <c r="E12" s="7">
+        <v>34.1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>33.17</v>
+      </c>
+      <c r="G12" s="7">
+        <v>32.26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30.39</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <f>(B12-B11)/B11</f>
+        <v>0.0590975254730714</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <v>0.112538226299694</v>
+      </c>
+      <c r="L12" s="15">
+        <f>I12/(ROW()-4)</f>
+        <v>0.625</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="20" t="str">
+        <f>IF(B12&lt;F12,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="20" t="str">
+        <f>IF(I12/(ROW()-4)&lt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="R12" s="19" t="str">
+        <f>IF(B12&gt;(D12-(D12-E12)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
@@ -3502,7 +3568,10 @@
       <c r="AA12" s="31"/>
       <c r="AB12" s="31"/>
       <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
+      <c r="AD12" s="31">
+        <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G12,AD11)</f>
+        <v>30.89</v>
+      </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="5">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -229,10 +229,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -279,6 +279,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -287,7 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +306,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +340,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -326,17 +358,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,31 +388,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,23 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +517,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +613,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,157 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,30 +756,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -794,17 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,7 +794,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,150 +813,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3012,11 +3012,11 @@
         <v>39</v>
       </c>
       <c r="Q5" s="20" t="str">
-        <f t="shared" ref="Q5:Q11" si="0">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" ref="Q5:Q12" si="0">IF(I5/(ROW()-4)&lt;0.5,"是","否")</f>
         <v>否</v>
       </c>
       <c r="R5" s="20" t="str">
-        <f t="shared" ref="R5:R11" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
+        <f t="shared" ref="R5:R12" si="1">IF(B5&gt;(D5-(D5-E5)/2),"上部","下部")</f>
         <v>上部</v>
       </c>
       <c r="S5" s="28"/>
@@ -3063,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" ref="J6:J11" si="2">(B6-B5)/B5</f>
+        <f t="shared" ref="J6:J12" si="2">(B6-B5)/B5</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K6" s="14">
@@ -3071,7 +3071,7 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L6" s="15">
-        <f t="shared" ref="L5:L11" si="3">I6/(ROW()-4)</f>
+        <f t="shared" ref="L5:L12" si="3">I6/(ROW()-4)</f>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -3081,7 +3081,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f t="shared" ref="O6:O11" si="4">IF(B6&lt;F6,"是","否")</f>
+        <f t="shared" ref="O6:O12" si="4">IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="P6" s="20" t="s">
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="16">
-        <f>(B12-B11)/B11</f>
+        <f t="shared" si="2"/>
         <v>0.0590975254730714</v>
       </c>
       <c r="K12" s="14">
@@ -3533,7 +3533,7 @@
         <v>0.112538226299694</v>
       </c>
       <c r="L12" s="15">
-        <f>I12/(ROW()-4)</f>
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -3543,18 +3543,18 @@
         <v>39</v>
       </c>
       <c r="O12" s="20" t="str">
-        <f>IF(B12&lt;F12,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>否</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="20" t="str">
-        <f>IF(I12/(ROW()-4)&lt;0.5,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="R12" s="19" t="str">
-        <f>IF(B12&gt;(D12-(D12-E12)/2),"上部","下部")</f>
+        <f t="shared" si="1"/>
         <v>上部</v>
       </c>
       <c r="S12" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3025,11 +3025,11 @@
   <dimension ref="A1:AG504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6:AG14"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -238,11 +238,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -290,25 +290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,17 +307,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,7 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,8 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,15 +384,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,35 +412,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,7 +552,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,145 +720,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +801,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,9 +862,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,198 +885,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,13 +1057,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1153,16 +1153,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3025,11 +3022,11 @@
   <dimension ref="A1:AG504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="AG14" sqref="AG14:AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3105,10 +3102,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="49" t="s">
+      <c r="AG1" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3144,12 +3141,12 @@
       <c r="AA2" s="33"/>
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="49"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="48"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="4"/>
@@ -3185,10 +3182,10 @@
       <c r="AA3" s="33"/>
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="49"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="48"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="4"/>
@@ -3260,26 +3257,26 @@
         <v>32</v>
       </c>
       <c r="Y4" s="33"/>
-      <c r="Z4" s="43" t="s">
+      <c r="Z4" s="42" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="43" t="s">
+      <c r="AB4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="43" t="s">
+      <c r="AC4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="45" t="s">
+      <c r="AD4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AE4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="49"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="48"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="4"/>
@@ -3315,10 +3312,10 @@
       <c r="AA5" s="33"/>
       <c r="AB5" s="33"/>
       <c r="AC5" s="33"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="49"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="48"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:33">
       <c r="A6" s="7">
@@ -3398,10 +3395,10 @@
       <c r="AC6" s="25"/>
       <c r="AD6" s="25"/>
       <c r="AE6" s="25"/>
-      <c r="AF6" s="47">
+      <c r="AF6" s="46">
         <v>30.89</v>
       </c>
-      <c r="AG6" s="50">
+      <c r="AG6" s="49">
         <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3477,19 +3474,19 @@
       </c>
       <c r="V7" s="38"/>
       <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="48">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="47">
         <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
         <v>30.89</v>
       </c>
-      <c r="AG7" s="50">
+      <c r="AG7" s="49">
         <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3563,21 +3560,21 @@
       <c r="U8" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="48">
+      <c r="V8" s="40"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="47">
         <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
         <v>30.89</v>
       </c>
-      <c r="AG8" s="50">
+      <c r="AG8" s="49">
         <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3651,21 +3648,21 @@
       <c r="U9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="48">
+      <c r="V9" s="40"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="47">
         <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
         <v>30.89</v>
       </c>
-      <c r="AG9" s="50">
+      <c r="AG9" s="49">
         <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3739,21 +3736,21 @@
       <c r="U10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="48">
+      <c r="V10" s="40"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="47">
         <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10,AF9)</f>
         <v>30.89</v>
       </c>
-      <c r="AG10" s="50">
+      <c r="AG10" s="49">
         <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3829,19 +3826,19 @@
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="48">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="47">
         <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G11,AF10)</f>
         <v>30.89</v>
       </c>
-      <c r="AG11" s="50">
+      <c r="AG11" s="49">
         <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3917,19 +3914,19 @@
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="9"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="48">
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="47">
         <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G12,AF11)</f>
         <v>30.89</v>
       </c>
-      <c r="AG12" s="50">
+      <c r="AG12" s="49">
         <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -4005,19 +4002,19 @@
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="9"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="48">
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="47">
         <f>IF(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G13,AF12)</f>
         <v>30.89</v>
       </c>
-      <c r="AG13" s="50">
+      <c r="AG13" s="49">
         <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -4093,58 +4090,110 @@
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="9"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="48">
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="47">
         <f>IF(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G14,AF13)</f>
         <v>30.89</v>
       </c>
-      <c r="AG14" s="50">
+      <c r="AG14" s="49">
         <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" ht="18" spans="1:33">
       <c r="A15" s="10">
         <v>44531</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
+      <c r="B15" s="9">
+        <v>36.81</v>
+      </c>
+      <c r="C15" s="9">
+        <v>36.55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>37.74</v>
+      </c>
+      <c r="E15" s="9">
+        <v>35.55</v>
+      </c>
+      <c r="F15" s="9">
+        <v>33.82</v>
+      </c>
+      <c r="G15" s="9">
+        <v>32.61</v>
+      </c>
+      <c r="H15" s="9">
+        <v>32.51</v>
+      </c>
+      <c r="I15" s="11">
+        <v>7</v>
+      </c>
+      <c r="J15" s="19">
+        <f>(B15-B14)/B14</f>
+        <v>0.00163265306122455</v>
+      </c>
+      <c r="K15" s="17">
+        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <v>0.125688073394495</v>
+      </c>
+      <c r="L15" s="18">
+        <f>I15/(ROW()-5)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="23" t="str">
+        <f>IF(B15&gt;(D15-(D15-E15)/2),"上部","下部")</f>
+        <v>上部</v>
+      </c>
+      <c r="N15" s="24" t="str">
+        <f>IF(A15&lt;E15,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="V15" s="11"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="48"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="47">
+        <f>IF(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G15,AF14)</f>
+        <v>30.89</v>
+      </c>
+      <c r="AG15" s="49">
+        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE)</f>
+        <v>-1.81</v>
+      </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="10">
@@ -4172,15 +4221,15 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="9"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="48"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="47"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="10">
@@ -4208,15 +4257,15 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="9"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="48"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="47"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="10">
@@ -4244,15 +4293,15 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="48"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="47"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="10">
@@ -4280,15 +4329,15 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="48"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="47"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="10">
@@ -4316,15 +4365,15 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="48"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="47"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="10">
@@ -4352,15 +4401,15 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="48"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="47"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="10">
@@ -4388,15 +4437,15 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="48"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="47"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="10">
@@ -4424,15 +4473,15 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="48"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="47"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="10">
@@ -4460,15 +4509,15 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="48"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="47"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="10">
@@ -4496,15 +4545,15 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="9"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="48"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="47"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="10">
@@ -4532,15 +4581,15 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="9"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="48"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="47"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="10">
@@ -4568,15 +4617,15 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="48"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="47"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="10">
@@ -4604,15 +4653,15 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="9"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="48"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="47"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="10">
@@ -4640,15 +4689,15 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="48"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="47"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="10">
@@ -4676,15 +4725,15 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="48"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="47"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="10">
@@ -4712,15 +4761,15 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="48"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="47"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="10">
@@ -4748,15 +4797,15 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="40"/>
-      <c r="AF32" s="48"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="47"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="10">
@@ -4784,15 +4833,15 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="48"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="47"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="10">
@@ -4820,15 +4869,15 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="48"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="47"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="10">
@@ -4856,15 +4905,15 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="40"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="48"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="47"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="10">
@@ -4892,15 +4941,15 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="40"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="48"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="47"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="10">
@@ -4928,15 +4977,15 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="40"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="48"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="47"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="10">
@@ -4964,15 +5013,15 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="48"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="47"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="10">
@@ -5000,15 +5049,15 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="48"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="47"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="10">
@@ -5036,15 +5085,15 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="48"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="47"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="10">
@@ -5072,15 +5121,15 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="48"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="47"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="10">
@@ -5108,15 +5157,15 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="48"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="47"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="10">
@@ -5144,15 +5193,15 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-      <c r="AE43" s="40"/>
-      <c r="AF43" s="48"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="47"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="10">
@@ -5180,15 +5229,15 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
-      <c r="AA44" s="40"/>
-      <c r="AB44" s="40"/>
-      <c r="AC44" s="40"/>
-      <c r="AD44" s="40"/>
-      <c r="AE44" s="40"/>
-      <c r="AF44" s="48"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="47"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="10">
@@ -5216,15 +5265,15 @@
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="40"/>
-      <c r="AD45" s="40"/>
-      <c r="AE45" s="40"/>
-      <c r="AF45" s="48"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="47"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="10">
@@ -5252,15 +5301,15 @@
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="40"/>
-      <c r="AC46" s="40"/>
-      <c r="AD46" s="40"/>
-      <c r="AE46" s="40"/>
-      <c r="AF46" s="48"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="47"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="10">
@@ -5288,15 +5337,15 @@
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="48"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="47"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="10">
@@ -5324,15 +5373,15 @@
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
-      <c r="AF48" s="48"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="47"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="10">
@@ -5360,15 +5409,15 @@
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
-      <c r="AA49" s="40"/>
-      <c r="AB49" s="40"/>
-      <c r="AC49" s="40"/>
-      <c r="AD49" s="40"/>
-      <c r="AE49" s="40"/>
-      <c r="AF49" s="48"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="47"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="10">
@@ -5396,15 +5445,15 @@
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="40"/>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="48"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="47"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="10">
@@ -5432,15 +5481,15 @@
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="48"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="47"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="10">
@@ -5468,15 +5517,15 @@
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="40"/>
-      <c r="AD52" s="40"/>
-      <c r="AE52" s="40"/>
-      <c r="AF52" s="48"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="47"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="10">
@@ -5504,15 +5553,15 @@
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-      <c r="AC53" s="40"/>
-      <c r="AD53" s="40"/>
-      <c r="AE53" s="40"/>
-      <c r="AF53" s="48"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="47"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="10">
@@ -5540,15 +5589,15 @@
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="40"/>
-      <c r="AC54" s="40"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="48"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="47"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="10">
@@ -5576,15 +5625,15 @@
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
-      <c r="AA55" s="40"/>
-      <c r="AB55" s="40"/>
-      <c r="AC55" s="40"/>
-      <c r="AD55" s="40"/>
-      <c r="AE55" s="40"/>
-      <c r="AF55" s="48"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="47"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="10">
@@ -5612,15 +5661,15 @@
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="40"/>
-      <c r="AC56" s="40"/>
-      <c r="AD56" s="40"/>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="48"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="47"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="10">
@@ -5648,15 +5697,15 @@
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
-      <c r="AC57" s="40"/>
-      <c r="AD57" s="40"/>
-      <c r="AE57" s="40"/>
-      <c r="AF57" s="48"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="47"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="10">
@@ -5684,15 +5733,15 @@
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="40"/>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="40"/>
-      <c r="AE58" s="40"/>
-      <c r="AF58" s="48"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="47"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="10">
@@ -5720,15 +5769,15 @@
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="40"/>
-      <c r="AC59" s="40"/>
-      <c r="AD59" s="40"/>
-      <c r="AE59" s="40"/>
-      <c r="AF59" s="48"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="47"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="10">
@@ -5756,15 +5805,15 @@
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-      <c r="AC60" s="40"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="48"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="47"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="10">
@@ -5792,15 +5841,15 @@
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-      <c r="AC61" s="40"/>
-      <c r="AD61" s="40"/>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="48"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="47"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="10">
@@ -5828,15 +5877,15 @@
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="48"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="47"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="10">
@@ -5864,15 +5913,15 @@
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-      <c r="AC63" s="40"/>
-      <c r="AD63" s="40"/>
-      <c r="AE63" s="40"/>
-      <c r="AF63" s="48"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="47"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="10">
@@ -5900,15 +5949,15 @@
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="40"/>
-      <c r="AE64" s="40"/>
-      <c r="AF64" s="48"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="47"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="10">
@@ -5936,15 +5985,15 @@
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
-      <c r="AC65" s="40"/>
-      <c r="AD65" s="40"/>
-      <c r="AE65" s="40"/>
-      <c r="AF65" s="48"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="47"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="10">
@@ -5972,15 +6021,15 @@
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="40"/>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="48"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="47"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="10">
@@ -6008,15 +6057,15 @@
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
-      <c r="AB67" s="40"/>
-      <c r="AC67" s="40"/>
-      <c r="AD67" s="40"/>
-      <c r="AE67" s="40"/>
-      <c r="AF67" s="48"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="47"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="10">
@@ -6044,15 +6093,15 @@
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="40"/>
-      <c r="AB68" s="40"/>
-      <c r="AC68" s="40"/>
-      <c r="AD68" s="40"/>
-      <c r="AE68" s="40"/>
-      <c r="AF68" s="48"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="47"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="10">
@@ -6080,15 +6129,15 @@
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
-      <c r="AB69" s="40"/>
-      <c r="AC69" s="40"/>
-      <c r="AD69" s="40"/>
-      <c r="AE69" s="40"/>
-      <c r="AF69" s="48"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="47"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="10">
@@ -6116,15 +6165,15 @@
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
-      <c r="AD70" s="40"/>
-      <c r="AE70" s="40"/>
-      <c r="AF70" s="48"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="47"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="10">
@@ -6152,15 +6201,15 @@
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="40"/>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="48"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="47"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="10">
@@ -6188,15 +6237,15 @@
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
       <c r="W72" s="11"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40"/>
-      <c r="AD72" s="40"/>
-      <c r="AE72" s="40"/>
-      <c r="AF72" s="48"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="47"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="10">
@@ -6224,15 +6273,15 @@
       <c r="U73" s="11"/>
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
-      <c r="AB73" s="40"/>
-      <c r="AC73" s="40"/>
-      <c r="AD73" s="40"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="48"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="47"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="10">
@@ -6260,15 +6309,15 @@
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
-      <c r="AB74" s="40"/>
-      <c r="AC74" s="40"/>
-      <c r="AD74" s="40"/>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="48"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="47"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="10">
@@ -6296,15 +6345,15 @@
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
-      <c r="AB75" s="40"/>
-      <c r="AC75" s="40"/>
-      <c r="AD75" s="40"/>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="48"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="47"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="10">
@@ -6332,15 +6381,15 @@
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="48"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="47"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="10">
@@ -6368,15 +6417,15 @@
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="40"/>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="48"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="47"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="10">
@@ -6404,15 +6453,15 @@
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
-      <c r="Z78" s="40"/>
-      <c r="AA78" s="40"/>
-      <c r="AB78" s="40"/>
-      <c r="AC78" s="40"/>
-      <c r="AD78" s="40"/>
-      <c r="AE78" s="40"/>
-      <c r="AF78" s="48"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="47"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="10">
@@ -6440,15 +6489,15 @@
       <c r="U79" s="11"/>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
-      <c r="X79" s="40"/>
-      <c r="Y79" s="40"/>
-      <c r="Z79" s="40"/>
-      <c r="AA79" s="40"/>
-      <c r="AB79" s="40"/>
-      <c r="AC79" s="40"/>
-      <c r="AD79" s="40"/>
-      <c r="AE79" s="40"/>
-      <c r="AF79" s="48"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="47"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="10">
@@ -6476,15 +6525,15 @@
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
-      <c r="X80" s="40"/>
-      <c r="Y80" s="40"/>
-      <c r="Z80" s="40"/>
-      <c r="AA80" s="40"/>
-      <c r="AB80" s="40"/>
-      <c r="AC80" s="40"/>
-      <c r="AD80" s="40"/>
-      <c r="AE80" s="40"/>
-      <c r="AF80" s="48"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="47"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="10">
@@ -6512,15 +6561,15 @@
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
-      <c r="X81" s="40"/>
-      <c r="Y81" s="40"/>
-      <c r="Z81" s="40"/>
-      <c r="AA81" s="40"/>
-      <c r="AB81" s="40"/>
-      <c r="AC81" s="40"/>
-      <c r="AD81" s="40"/>
-      <c r="AE81" s="40"/>
-      <c r="AF81" s="48"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="47"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="10">
@@ -6548,15 +6597,15 @@
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
       <c r="W82" s="11"/>
-      <c r="X82" s="40"/>
-      <c r="Y82" s="40"/>
-      <c r="Z82" s="40"/>
-      <c r="AA82" s="40"/>
-      <c r="AB82" s="40"/>
-      <c r="AC82" s="40"/>
-      <c r="AD82" s="40"/>
-      <c r="AE82" s="40"/>
-      <c r="AF82" s="48"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="47"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="10">
@@ -6584,15 +6633,15 @@
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
       <c r="W83" s="11"/>
-      <c r="X83" s="40"/>
-      <c r="Y83" s="40"/>
-      <c r="Z83" s="40"/>
-      <c r="AA83" s="40"/>
-      <c r="AB83" s="40"/>
-      <c r="AC83" s="40"/>
-      <c r="AD83" s="40"/>
-      <c r="AE83" s="40"/>
-      <c r="AF83" s="48"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="47"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="10">
@@ -6620,15 +6669,15 @@
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
       <c r="W84" s="11"/>
-      <c r="X84" s="40"/>
-      <c r="Y84" s="40"/>
-      <c r="Z84" s="40"/>
-      <c r="AA84" s="40"/>
-      <c r="AB84" s="40"/>
-      <c r="AC84" s="40"/>
-      <c r="AD84" s="40"/>
-      <c r="AE84" s="40"/>
-      <c r="AF84" s="48"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="47"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="10">
@@ -6656,15 +6705,15 @@
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
       <c r="W85" s="11"/>
-      <c r="X85" s="40"/>
-      <c r="Y85" s="40"/>
-      <c r="Z85" s="40"/>
-      <c r="AA85" s="40"/>
-      <c r="AB85" s="40"/>
-      <c r="AC85" s="40"/>
-      <c r="AD85" s="40"/>
-      <c r="AE85" s="40"/>
-      <c r="AF85" s="48"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="47"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="10">
@@ -6692,15 +6741,15 @@
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
-      <c r="X86" s="40"/>
-      <c r="Y86" s="40"/>
-      <c r="Z86" s="40"/>
-      <c r="AA86" s="40"/>
-      <c r="AB86" s="40"/>
-      <c r="AC86" s="40"/>
-      <c r="AD86" s="40"/>
-      <c r="AE86" s="40"/>
-      <c r="AF86" s="48"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="47"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="10">
@@ -6728,15 +6777,15 @@
       <c r="U87" s="11"/>
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
-      <c r="X87" s="40"/>
-      <c r="Y87" s="40"/>
-      <c r="Z87" s="40"/>
-      <c r="AA87" s="40"/>
-      <c r="AB87" s="40"/>
-      <c r="AC87" s="40"/>
-      <c r="AD87" s="40"/>
-      <c r="AE87" s="40"/>
-      <c r="AF87" s="48"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="47"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="10">
@@ -6764,15 +6813,15 @@
       <c r="U88" s="11"/>
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
-      <c r="Z88" s="40"/>
-      <c r="AA88" s="40"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="40"/>
-      <c r="AD88" s="40"/>
-      <c r="AE88" s="40"/>
-      <c r="AF88" s="48"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="47"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="10">
@@ -6800,15 +6849,15 @@
       <c r="U89" s="11"/>
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
-      <c r="Z89" s="40"/>
-      <c r="AA89" s="40"/>
-      <c r="AB89" s="40"/>
-      <c r="AC89" s="40"/>
-      <c r="AD89" s="40"/>
-      <c r="AE89" s="40"/>
-      <c r="AF89" s="48"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="47"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="10">
@@ -6836,15 +6885,15 @@
       <c r="U90" s="11"/>
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
-      <c r="Z90" s="40"/>
-      <c r="AA90" s="40"/>
-      <c r="AB90" s="40"/>
-      <c r="AC90" s="40"/>
-      <c r="AD90" s="40"/>
-      <c r="AE90" s="40"/>
-      <c r="AF90" s="48"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="47"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="10">
@@ -6872,15 +6921,15 @@
       <c r="U91" s="11"/>
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="40"/>
-      <c r="AA91" s="40"/>
-      <c r="AB91" s="40"/>
-      <c r="AC91" s="40"/>
-      <c r="AD91" s="40"/>
-      <c r="AE91" s="40"/>
-      <c r="AF91" s="48"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="47"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="10">
@@ -6908,15 +6957,15 @@
       <c r="U92" s="11"/>
       <c r="V92" s="11"/>
       <c r="W92" s="11"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
-      <c r="Z92" s="40"/>
-      <c r="AA92" s="40"/>
-      <c r="AB92" s="40"/>
-      <c r="AC92" s="40"/>
-      <c r="AD92" s="40"/>
-      <c r="AE92" s="40"/>
-      <c r="AF92" s="48"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="47"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="10">
@@ -6944,15 +6993,15 @@
       <c r="U93" s="11"/>
       <c r="V93" s="11"/>
       <c r="W93" s="11"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
-      <c r="Z93" s="40"/>
-      <c r="AA93" s="40"/>
-      <c r="AB93" s="40"/>
-      <c r="AC93" s="40"/>
-      <c r="AD93" s="40"/>
-      <c r="AE93" s="40"/>
-      <c r="AF93" s="48"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
+      <c r="AD93" s="3"/>
+      <c r="AE93" s="3"/>
+      <c r="AF93" s="47"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="10">
@@ -6980,15 +7029,15 @@
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="48"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="47"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="10">
@@ -7016,15 +7065,15 @@
       <c r="U95" s="11"/>
       <c r="V95" s="11"/>
       <c r="W95" s="11"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
-      <c r="Z95" s="40"/>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="40"/>
-      <c r="AE95" s="40"/>
-      <c r="AF95" s="48"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="47"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="10">
@@ -7052,15 +7101,15 @@
       <c r="U96" s="11"/>
       <c r="V96" s="11"/>
       <c r="W96" s="11"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="48"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="47"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="10">
@@ -7088,15 +7137,15 @@
       <c r="U97" s="11"/>
       <c r="V97" s="11"/>
       <c r="W97" s="11"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
-      <c r="Z97" s="40"/>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="40"/>
-      <c r="AE97" s="40"/>
-      <c r="AF97" s="48"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="47"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="10">
@@ -7124,15 +7173,15 @@
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
       <c r="W98" s="11"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
-      <c r="Z98" s="40"/>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="40"/>
-      <c r="AC98" s="40"/>
-      <c r="AD98" s="40"/>
-      <c r="AE98" s="40"/>
-      <c r="AF98" s="48"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+      <c r="AD98" s="3"/>
+      <c r="AE98" s="3"/>
+      <c r="AF98" s="47"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="10">
@@ -7160,15 +7209,15 @@
       <c r="U99" s="11"/>
       <c r="V99" s="11"/>
       <c r="W99" s="11"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
-      <c r="Z99" s="40"/>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="40"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="40"/>
-      <c r="AF99" s="48"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="47"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="10">
@@ -7196,15 +7245,15 @@
       <c r="U100" s="11"/>
       <c r="V100" s="11"/>
       <c r="W100" s="11"/>
-      <c r="X100" s="40"/>
-      <c r="Y100" s="40"/>
-      <c r="Z100" s="40"/>
-      <c r="AA100" s="40"/>
-      <c r="AB100" s="40"/>
-      <c r="AC100" s="40"/>
-      <c r="AD100" s="40"/>
-      <c r="AE100" s="40"/>
-      <c r="AF100" s="48"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="47"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="10">
@@ -7232,15 +7281,15 @@
       <c r="U101" s="11"/>
       <c r="V101" s="11"/>
       <c r="W101" s="11"/>
-      <c r="X101" s="40"/>
-      <c r="Y101" s="40"/>
-      <c r="Z101" s="40"/>
-      <c r="AA101" s="40"/>
-      <c r="AB101" s="40"/>
-      <c r="AC101" s="40"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="40"/>
-      <c r="AF101" s="48"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
+      <c r="AD101" s="3"/>
+      <c r="AE101" s="3"/>
+      <c r="AF101" s="47"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="10">
@@ -7268,15 +7317,15 @@
       <c r="U102" s="11"/>
       <c r="V102" s="11"/>
       <c r="W102" s="11"/>
-      <c r="X102" s="40"/>
-      <c r="Y102" s="40"/>
-      <c r="Z102" s="40"/>
-      <c r="AA102" s="40"/>
-      <c r="AB102" s="40"/>
-      <c r="AC102" s="40"/>
-      <c r="AD102" s="40"/>
-      <c r="AE102" s="40"/>
-      <c r="AF102" s="48"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
+      <c r="AD102" s="3"/>
+      <c r="AE102" s="3"/>
+      <c r="AF102" s="47"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="10">
@@ -7304,15 +7353,15 @@
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
       <c r="W103" s="11"/>
-      <c r="X103" s="40"/>
-      <c r="Y103" s="40"/>
-      <c r="Z103" s="40"/>
-      <c r="AA103" s="40"/>
-      <c r="AB103" s="40"/>
-      <c r="AC103" s="40"/>
-      <c r="AD103" s="40"/>
-      <c r="AE103" s="40"/>
-      <c r="AF103" s="48"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="47"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="10">
@@ -7340,15 +7389,15 @@
       <c r="U104" s="11"/>
       <c r="V104" s="11"/>
       <c r="W104" s="11"/>
-      <c r="X104" s="40"/>
-      <c r="Y104" s="40"/>
-      <c r="Z104" s="40"/>
-      <c r="AA104" s="40"/>
-      <c r="AB104" s="40"/>
-      <c r="AC104" s="40"/>
-      <c r="AD104" s="40"/>
-      <c r="AE104" s="40"/>
-      <c r="AF104" s="48"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+      <c r="AD104" s="3"/>
+      <c r="AE104" s="3"/>
+      <c r="AF104" s="47"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="10">
@@ -7376,15 +7425,15 @@
       <c r="U105" s="11"/>
       <c r="V105" s="11"/>
       <c r="W105" s="11"/>
-      <c r="X105" s="40"/>
-      <c r="Y105" s="40"/>
-      <c r="Z105" s="40"/>
-      <c r="AA105" s="40"/>
-      <c r="AB105" s="40"/>
-      <c r="AC105" s="40"/>
-      <c r="AD105" s="40"/>
-      <c r="AE105" s="40"/>
-      <c r="AF105" s="48"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="47"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="10">
@@ -7412,15 +7461,15 @@
       <c r="U106" s="11"/>
       <c r="V106" s="11"/>
       <c r="W106" s="11"/>
-      <c r="X106" s="40"/>
-      <c r="Y106" s="40"/>
-      <c r="Z106" s="40"/>
-      <c r="AA106" s="40"/>
-      <c r="AB106" s="40"/>
-      <c r="AC106" s="40"/>
-      <c r="AD106" s="40"/>
-      <c r="AE106" s="40"/>
-      <c r="AF106" s="48"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+      <c r="AD106" s="3"/>
+      <c r="AE106" s="3"/>
+      <c r="AF106" s="47"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="10">
@@ -7448,15 +7497,15 @@
       <c r="U107" s="11"/>
       <c r="V107" s="11"/>
       <c r="W107" s="11"/>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="40"/>
-      <c r="Z107" s="40"/>
-      <c r="AA107" s="40"/>
-      <c r="AB107" s="40"/>
-      <c r="AC107" s="40"/>
-      <c r="AD107" s="40"/>
-      <c r="AE107" s="40"/>
-      <c r="AF107" s="48"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
+      <c r="AD107" s="3"/>
+      <c r="AE107" s="3"/>
+      <c r="AF107" s="47"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="10">
@@ -7484,15 +7533,15 @@
       <c r="U108" s="11"/>
       <c r="V108" s="11"/>
       <c r="W108" s="11"/>
-      <c r="X108" s="40"/>
-      <c r="Y108" s="40"/>
-      <c r="Z108" s="40"/>
-      <c r="AA108" s="40"/>
-      <c r="AB108" s="40"/>
-      <c r="AC108" s="40"/>
-      <c r="AD108" s="40"/>
-      <c r="AE108" s="40"/>
-      <c r="AF108" s="48"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3"/>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="47"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="10">
@@ -7520,15 +7569,15 @@
       <c r="U109" s="11"/>
       <c r="V109" s="11"/>
       <c r="W109" s="11"/>
-      <c r="X109" s="40"/>
-      <c r="Y109" s="40"/>
-      <c r="Z109" s="40"/>
-      <c r="AA109" s="40"/>
-      <c r="AB109" s="40"/>
-      <c r="AC109" s="40"/>
-      <c r="AD109" s="40"/>
-      <c r="AE109" s="40"/>
-      <c r="AF109" s="48"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="47"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="10">
@@ -7556,15 +7605,15 @@
       <c r="U110" s="11"/>
       <c r="V110" s="11"/>
       <c r="W110" s="11"/>
-      <c r="X110" s="40"/>
-      <c r="Y110" s="40"/>
-      <c r="Z110" s="40"/>
-      <c r="AA110" s="40"/>
-      <c r="AB110" s="40"/>
-      <c r="AC110" s="40"/>
-      <c r="AD110" s="40"/>
-      <c r="AE110" s="40"/>
-      <c r="AF110" s="48"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+      <c r="AD110" s="3"/>
+      <c r="AE110" s="3"/>
+      <c r="AF110" s="47"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="10">
@@ -7592,15 +7641,15 @@
       <c r="U111" s="11"/>
       <c r="V111" s="11"/>
       <c r="W111" s="11"/>
-      <c r="X111" s="40"/>
-      <c r="Y111" s="40"/>
-      <c r="Z111" s="40"/>
-      <c r="AA111" s="40"/>
-      <c r="AB111" s="40"/>
-      <c r="AC111" s="40"/>
-      <c r="AD111" s="40"/>
-      <c r="AE111" s="40"/>
-      <c r="AF111" s="48"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+      <c r="AD111" s="3"/>
+      <c r="AE111" s="3"/>
+      <c r="AF111" s="47"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="10">
@@ -7628,15 +7677,15 @@
       <c r="U112" s="11"/>
       <c r="V112" s="11"/>
       <c r="W112" s="11"/>
-      <c r="X112" s="40"/>
-      <c r="Y112" s="40"/>
-      <c r="Z112" s="40"/>
-      <c r="AA112" s="40"/>
-      <c r="AB112" s="40"/>
-      <c r="AC112" s="40"/>
-      <c r="AD112" s="40"/>
-      <c r="AE112" s="40"/>
-      <c r="AF112" s="48"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+      <c r="AD112" s="3"/>
+      <c r="AE112" s="3"/>
+      <c r="AF112" s="47"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="10">
@@ -7664,15 +7713,15 @@
       <c r="U113" s="11"/>
       <c r="V113" s="11"/>
       <c r="W113" s="11"/>
-      <c r="X113" s="40"/>
-      <c r="Y113" s="40"/>
-      <c r="Z113" s="40"/>
-      <c r="AA113" s="40"/>
-      <c r="AB113" s="40"/>
-      <c r="AC113" s="40"/>
-      <c r="AD113" s="40"/>
-      <c r="AE113" s="40"/>
-      <c r="AF113" s="48"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="47"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="10">
@@ -7700,15 +7749,15 @@
       <c r="U114" s="11"/>
       <c r="V114" s="11"/>
       <c r="W114" s="11"/>
-      <c r="X114" s="40"/>
-      <c r="Y114" s="40"/>
-      <c r="Z114" s="40"/>
-      <c r="AA114" s="40"/>
-      <c r="AB114" s="40"/>
-      <c r="AC114" s="40"/>
-      <c r="AD114" s="40"/>
-      <c r="AE114" s="40"/>
-      <c r="AF114" s="48"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="47"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="10">
@@ -7736,15 +7785,15 @@
       <c r="U115" s="11"/>
       <c r="V115" s="11"/>
       <c r="W115" s="11"/>
-      <c r="X115" s="40"/>
-      <c r="Y115" s="40"/>
-      <c r="Z115" s="40"/>
-      <c r="AA115" s="40"/>
-      <c r="AB115" s="40"/>
-      <c r="AC115" s="40"/>
-      <c r="AD115" s="40"/>
-      <c r="AE115" s="40"/>
-      <c r="AF115" s="48"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
+      <c r="AD115" s="3"/>
+      <c r="AE115" s="3"/>
+      <c r="AF115" s="47"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="10">
@@ -7772,15 +7821,15 @@
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
       <c r="W116" s="11"/>
-      <c r="X116" s="40"/>
-      <c r="Y116" s="40"/>
-      <c r="Z116" s="40"/>
-      <c r="AA116" s="40"/>
-      <c r="AB116" s="40"/>
-      <c r="AC116" s="40"/>
-      <c r="AD116" s="40"/>
-      <c r="AE116" s="40"/>
-      <c r="AF116" s="48"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
+      <c r="AD116" s="3"/>
+      <c r="AE116" s="3"/>
+      <c r="AF116" s="47"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="10">
@@ -7808,15 +7857,15 @@
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
       <c r="W117" s="11"/>
-      <c r="X117" s="40"/>
-      <c r="Y117" s="40"/>
-      <c r="Z117" s="40"/>
-      <c r="AA117" s="40"/>
-      <c r="AB117" s="40"/>
-      <c r="AC117" s="40"/>
-      <c r="AD117" s="40"/>
-      <c r="AE117" s="40"/>
-      <c r="AF117" s="48"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+      <c r="AD117" s="3"/>
+      <c r="AE117" s="3"/>
+      <c r="AF117" s="47"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="10">
@@ -7844,15 +7893,15 @@
       <c r="U118" s="11"/>
       <c r="V118" s="11"/>
       <c r="W118" s="11"/>
-      <c r="X118" s="40"/>
-      <c r="Y118" s="40"/>
-      <c r="Z118" s="40"/>
-      <c r="AA118" s="40"/>
-      <c r="AB118" s="40"/>
-      <c r="AC118" s="40"/>
-      <c r="AD118" s="40"/>
-      <c r="AE118" s="40"/>
-      <c r="AF118" s="48"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="47"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="10">
@@ -7880,15 +7929,15 @@
       <c r="U119" s="11"/>
       <c r="V119" s="11"/>
       <c r="W119" s="11"/>
-      <c r="X119" s="40"/>
-      <c r="Y119" s="40"/>
-      <c r="Z119" s="40"/>
-      <c r="AA119" s="40"/>
-      <c r="AB119" s="40"/>
-      <c r="AC119" s="40"/>
-      <c r="AD119" s="40"/>
-      <c r="AE119" s="40"/>
-      <c r="AF119" s="48"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+      <c r="AD119" s="3"/>
+      <c r="AE119" s="3"/>
+      <c r="AF119" s="47"/>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="10">
@@ -7916,15 +7965,15 @@
       <c r="U120" s="11"/>
       <c r="V120" s="11"/>
       <c r="W120" s="11"/>
-      <c r="X120" s="40"/>
-      <c r="Y120" s="40"/>
-      <c r="Z120" s="40"/>
-      <c r="AA120" s="40"/>
-      <c r="AB120" s="40"/>
-      <c r="AC120" s="40"/>
-      <c r="AD120" s="40"/>
-      <c r="AE120" s="40"/>
-      <c r="AF120" s="48"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+      <c r="AD120" s="3"/>
+      <c r="AE120" s="3"/>
+      <c r="AF120" s="47"/>
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="10">
@@ -7952,15 +8001,15 @@
       <c r="U121" s="11"/>
       <c r="V121" s="11"/>
       <c r="W121" s="11"/>
-      <c r="X121" s="40"/>
-      <c r="Y121" s="40"/>
-      <c r="Z121" s="40"/>
-      <c r="AA121" s="40"/>
-      <c r="AB121" s="40"/>
-      <c r="AC121" s="40"/>
-      <c r="AD121" s="40"/>
-      <c r="AE121" s="40"/>
-      <c r="AF121" s="48"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="47"/>
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="10">
@@ -7988,15 +8037,15 @@
       <c r="U122" s="11"/>
       <c r="V122" s="11"/>
       <c r="W122" s="11"/>
-      <c r="X122" s="40"/>
-      <c r="Y122" s="40"/>
-      <c r="Z122" s="40"/>
-      <c r="AA122" s="40"/>
-      <c r="AB122" s="40"/>
-      <c r="AC122" s="40"/>
-      <c r="AD122" s="40"/>
-      <c r="AE122" s="40"/>
-      <c r="AF122" s="48"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="47"/>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="10">
@@ -8024,15 +8073,15 @@
       <c r="U123" s="11"/>
       <c r="V123" s="11"/>
       <c r="W123" s="11"/>
-      <c r="X123" s="40"/>
-      <c r="Y123" s="40"/>
-      <c r="Z123" s="40"/>
-      <c r="AA123" s="40"/>
-      <c r="AB123" s="40"/>
-      <c r="AC123" s="40"/>
-      <c r="AD123" s="40"/>
-      <c r="AE123" s="40"/>
-      <c r="AF123" s="48"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
+      <c r="AD123" s="3"/>
+      <c r="AE123" s="3"/>
+      <c r="AF123" s="47"/>
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="10">
@@ -8060,15 +8109,15 @@
       <c r="U124" s="11"/>
       <c r="V124" s="11"/>
       <c r="W124" s="11"/>
-      <c r="X124" s="40"/>
-      <c r="Y124" s="40"/>
-      <c r="Z124" s="40"/>
-      <c r="AA124" s="40"/>
-      <c r="AB124" s="40"/>
-      <c r="AC124" s="40"/>
-      <c r="AD124" s="40"/>
-      <c r="AE124" s="40"/>
-      <c r="AF124" s="48"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="47"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="10">
@@ -8096,15 +8145,15 @@
       <c r="U125" s="11"/>
       <c r="V125" s="11"/>
       <c r="W125" s="11"/>
-      <c r="X125" s="40"/>
-      <c r="Y125" s="40"/>
-      <c r="Z125" s="40"/>
-      <c r="AA125" s="40"/>
-      <c r="AB125" s="40"/>
-      <c r="AC125" s="40"/>
-      <c r="AD125" s="40"/>
-      <c r="AE125" s="40"/>
-      <c r="AF125" s="48"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+      <c r="AD125" s="3"/>
+      <c r="AE125" s="3"/>
+      <c r="AF125" s="47"/>
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="10">
@@ -8132,15 +8181,15 @@
       <c r="U126" s="11"/>
       <c r="V126" s="11"/>
       <c r="W126" s="11"/>
-      <c r="X126" s="40"/>
-      <c r="Y126" s="40"/>
-      <c r="Z126" s="40"/>
-      <c r="AA126" s="40"/>
-      <c r="AB126" s="40"/>
-      <c r="AC126" s="40"/>
-      <c r="AD126" s="40"/>
-      <c r="AE126" s="40"/>
-      <c r="AF126" s="48"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+      <c r="AD126" s="3"/>
+      <c r="AE126" s="3"/>
+      <c r="AF126" s="47"/>
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="10">
@@ -8168,15 +8217,15 @@
       <c r="U127" s="11"/>
       <c r="V127" s="11"/>
       <c r="W127" s="11"/>
-      <c r="X127" s="40"/>
-      <c r="Y127" s="40"/>
-      <c r="Z127" s="40"/>
-      <c r="AA127" s="40"/>
-      <c r="AB127" s="40"/>
-      <c r="AC127" s="40"/>
-      <c r="AD127" s="40"/>
-      <c r="AE127" s="40"/>
-      <c r="AF127" s="48"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+      <c r="AC127" s="3"/>
+      <c r="AD127" s="3"/>
+      <c r="AE127" s="3"/>
+      <c r="AF127" s="47"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="10">
@@ -8204,15 +8253,15 @@
       <c r="U128" s="11"/>
       <c r="V128" s="11"/>
       <c r="W128" s="11"/>
-      <c r="X128" s="40"/>
-      <c r="Y128" s="40"/>
-      <c r="Z128" s="40"/>
-      <c r="AA128" s="40"/>
-      <c r="AB128" s="40"/>
-      <c r="AC128" s="40"/>
-      <c r="AD128" s="40"/>
-      <c r="AE128" s="40"/>
-      <c r="AF128" s="48"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
+      <c r="AC128" s="3"/>
+      <c r="AD128" s="3"/>
+      <c r="AE128" s="3"/>
+      <c r="AF128" s="47"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="10">
@@ -8240,15 +8289,15 @@
       <c r="U129" s="11"/>
       <c r="V129" s="11"/>
       <c r="W129" s="11"/>
-      <c r="X129" s="40"/>
-      <c r="Y129" s="40"/>
-      <c r="Z129" s="40"/>
-      <c r="AA129" s="40"/>
-      <c r="AB129" s="40"/>
-      <c r="AC129" s="40"/>
-      <c r="AD129" s="40"/>
-      <c r="AE129" s="40"/>
-      <c r="AF129" s="48"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
+      <c r="AB129" s="3"/>
+      <c r="AC129" s="3"/>
+      <c r="AD129" s="3"/>
+      <c r="AE129" s="3"/>
+      <c r="AF129" s="47"/>
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="10">
@@ -8276,15 +8325,15 @@
       <c r="U130" s="11"/>
       <c r="V130" s="11"/>
       <c r="W130" s="11"/>
-      <c r="X130" s="40"/>
-      <c r="Y130" s="40"/>
-      <c r="Z130" s="40"/>
-      <c r="AA130" s="40"/>
-      <c r="AB130" s="40"/>
-      <c r="AC130" s="40"/>
-      <c r="AD130" s="40"/>
-      <c r="AE130" s="40"/>
-      <c r="AF130" s="48"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
+      <c r="AB130" s="3"/>
+      <c r="AC130" s="3"/>
+      <c r="AD130" s="3"/>
+      <c r="AE130" s="3"/>
+      <c r="AF130" s="47"/>
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="10">
@@ -8312,15 +8361,15 @@
       <c r="U131" s="11"/>
       <c r="V131" s="11"/>
       <c r="W131" s="11"/>
-      <c r="X131" s="40"/>
-      <c r="Y131" s="40"/>
-      <c r="Z131" s="40"/>
-      <c r="AA131" s="40"/>
-      <c r="AB131" s="40"/>
-      <c r="AC131" s="40"/>
-      <c r="AD131" s="40"/>
-      <c r="AE131" s="40"/>
-      <c r="AF131" s="48"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
+      <c r="AD131" s="3"/>
+      <c r="AE131" s="3"/>
+      <c r="AF131" s="47"/>
     </row>
     <row r="132" spans="1:32">
       <c r="A132" s="10">
@@ -8348,15 +8397,15 @@
       <c r="U132" s="11"/>
       <c r="V132" s="11"/>
       <c r="W132" s="11"/>
-      <c r="X132" s="40"/>
-      <c r="Y132" s="40"/>
-      <c r="Z132" s="40"/>
-      <c r="AA132" s="40"/>
-      <c r="AB132" s="40"/>
-      <c r="AC132" s="40"/>
-      <c r="AD132" s="40"/>
-      <c r="AE132" s="40"/>
-      <c r="AF132" s="48"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+      <c r="AC132" s="3"/>
+      <c r="AD132" s="3"/>
+      <c r="AE132" s="3"/>
+      <c r="AF132" s="47"/>
     </row>
     <row r="133" spans="1:32">
       <c r="A133" s="10">
@@ -8384,15 +8433,15 @@
       <c r="U133" s="11"/>
       <c r="V133" s="11"/>
       <c r="W133" s="11"/>
-      <c r="X133" s="40"/>
-      <c r="Y133" s="40"/>
-      <c r="Z133" s="40"/>
-      <c r="AA133" s="40"/>
-      <c r="AB133" s="40"/>
-      <c r="AC133" s="40"/>
-      <c r="AD133" s="40"/>
-      <c r="AE133" s="40"/>
-      <c r="AF133" s="48"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
+      <c r="AD133" s="3"/>
+      <c r="AE133" s="3"/>
+      <c r="AF133" s="47"/>
     </row>
     <row r="134" spans="1:23">
       <c r="A134" s="2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3071,7 +3071,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3533,7 +3533,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="59">
-        <f>IF(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7,AF6)</f>
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>30.89</v>
       </c>
       <c r="AG7" s="61">
@@ -3623,7 +3623,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="59">
-        <f>IF(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8,AF7)</f>
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>30.89</v>
       </c>
       <c r="AG8" s="61">
@@ -3713,7 +3713,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="59">
-        <f>IF(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9,AF8)</f>
+        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>30.89</v>
       </c>
       <c r="AG9" s="61">
@@ -3803,7 +3803,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="59">
-        <f>IF(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10,AF9)</f>
+        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>30.89</v>
       </c>
       <c r="AG10" s="61">
@@ -3893,7 +3893,7 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="59">
-        <f>IF(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G11,AF10)</f>
+        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>30.89</v>
       </c>
       <c r="AG11" s="61">
@@ -3983,7 +3983,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="59">
-        <f>IF(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G12,AF11)</f>
+        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>30.89</v>
       </c>
       <c r="AG12" s="61">
@@ -4073,7 +4073,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="59">
-        <f>IF(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G13,AF12)</f>
+        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>30.89</v>
       </c>
       <c r="AG13" s="61">
@@ -4163,7 +4163,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="59">
-        <f>IF(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G14,AF13)</f>
+        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>30.89</v>
       </c>
       <c r="AG14" s="61">
@@ -4253,7 +4253,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="59">
-        <f>IF(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G15,AF14)</f>
+        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>30.89</v>
       </c>
       <c r="AG15" s="61">
@@ -4343,7 +4343,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="59">
-        <f>IF(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)&gt;0,G16,AF15)</f>
+        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
         <v>32.77</v>
       </c>
       <c r="AG16" s="61">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,8 +300,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,16 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +357,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,68 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -424,7 +409,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +555,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,43 +615,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,61 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,43 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,15 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -811,6 +802,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,21 +835,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,11 +865,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,148 +893,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1066,13 +1066,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1114,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,13 +1192,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3067,11 +3067,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="28" t="str">
-        <f t="shared" ref="N6:N15" si="0">IF(A6&lt;E6,"是","否")</f>
+        <f t="shared" ref="N6:N16" si="0">IF(A6&lt;E6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O6" s="28" t="s">
@@ -3480,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J15" si="1">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J16" si="1">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -3488,7 +3488,7 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L15" si="2">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L16" si="2">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="27">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="21">
-        <f>(B16-B15)/B15</f>
+        <f t="shared" si="1"/>
         <v>-0.00353164900842169</v>
       </c>
       <c r="K16" s="19">
@@ -4298,7 +4298,7 @@
         <v>0.1217125382263</v>
       </c>
       <c r="L16" s="20">
-        <f>I16/(ROW()-5)</f>
+        <f t="shared" si="2"/>
         <v>0.636363636363636</v>
       </c>
       <c r="M16" s="27">
@@ -4306,7 +4306,7 @@
         <v>-1</v>
       </c>
       <c r="N16" s="28" t="str">
-        <f>IF(A16&lt;E16,"是","否")</f>
+        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O16" s="13" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,14 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,17 +315,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +333,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,10 +354,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,8 +377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,29 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,14 +409,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,37 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,19 +591,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,19 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,31 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +711,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,6 +791,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -806,11 +815,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,21 +835,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,21 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -888,90 +873,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,61 +980,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1069,10 +1069,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1114,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,13 +1192,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1303,1500 +1303,549 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="A4" t="str">
+            <v>JG_0000001</v>
+          </cell>
+          <cell r="B4" t="str">
             <v>000001</v>
-          </cell>
-          <cell r="B4">
-            <v>44517</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040(楚天龙)</v>
           </cell>
           <cell r="D4">
-            <v>22.15</v>
+            <v>44523</v>
           </cell>
           <cell r="E4">
-            <v>23.55</v>
+            <v>26.2</v>
           </cell>
           <cell r="F4">
-            <v>24.52</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>200</v>
+          </cell>
+          <cell r="G4">
+            <v>5</v>
           </cell>
           <cell r="H4">
-            <v>25.7</v>
+            <v>0</v>
           </cell>
           <cell r="I4">
-            <v>5.46</v>
+            <v>5245</v>
           </cell>
           <cell r="J4">
-            <v>46.33</v>
+            <v>26.5</v>
           </cell>
           <cell r="K4">
-            <v>3.70695970695971</v>
+            <v>25.21</v>
           </cell>
           <cell r="L4">
-            <v>0.445283833369307</v>
+            <v>0.232558139534884</v>
           </cell>
         </row>
         <row r="4">
           <cell r="N4">
-            <v>20.79</v>
+            <v>0</v>
           </cell>
           <cell r="O4">
-            <v>29.8</v>
+            <v>44526</v>
           </cell>
           <cell r="P4">
-            <v>21.88</v>
+            <v>24.89</v>
           </cell>
           <cell r="Q4">
-            <v>26.5</v>
+            <v>100</v>
           </cell>
           <cell r="R4">
-            <v>22.1</v>
+            <v>5</v>
           </cell>
           <cell r="S4">
-            <v>26.4</v>
+            <v>2.489</v>
           </cell>
           <cell r="T4">
-            <v>24</v>
+            <v>2481.511</v>
           </cell>
           <cell r="U4">
-            <v>26.2</v>
+            <v>27.43</v>
           </cell>
           <cell r="V4">
-            <v>24.52</v>
-          </cell>
-          <cell r="W4" t="str">
-            <v>26.96</v>
-          </cell>
-          <cell r="X4" t="str">
             <v>24.74</v>
           </cell>
-          <cell r="Y4" t="str">
-            <v>24w</v>
+          <cell r="W4">
+            <v>0.0557620817843874</v>
+          </cell>
+          <cell r="X4">
+            <v>-140.989</v>
+          </cell>
+          <cell r="Y4">
+            <v>-1.25900000000001</v>
           </cell>
           <cell r="Z4">
-            <v>0.551262680768401</v>
-          </cell>
-          <cell r="AA4">
-            <v>0.265771812080537</v>
-          </cell>
-          <cell r="AB4">
-            <v>0.166037735849057</v>
-          </cell>
-          <cell r="AC4">
-            <v>0.0909090909090909</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.0641221374045801</v>
-          </cell>
-          <cell r="AE4">
-            <v>0.0823442136498517</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>5T</v>
-          </cell>
-          <cell r="AG4" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩放量</v>
-          </cell>
-          <cell r="AH4">
-            <v>28.15</v>
-          </cell>
-          <cell r="AI4">
-            <v>21.87</v>
-          </cell>
-          <cell r="AJ4">
-            <v>6.28</v>
-          </cell>
-          <cell r="AK4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AL4">
-            <v>24.68</v>
-          </cell>
-          <cell r="AM4">
-            <v>32.49</v>
-          </cell>
-          <cell r="AN4">
-            <v>152</v>
-          </cell>
-          <cell r="AO4">
-            <v>100</v>
-          </cell>
-          <cell r="AP4">
-            <v>4.13815789473685</v>
-          </cell>
-          <cell r="AQ4">
-            <v>0.0580152671755725</v>
-          </cell>
-          <cell r="AR4">
-            <v>0.240076335877863</v>
-          </cell>
-          <cell r="AS4">
-            <v>150.88</v>
-          </cell>
-          <cell r="AT4" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AU4">
-            <v>44523</v>
-          </cell>
-          <cell r="AV4">
-            <v>26.2</v>
-          </cell>
-          <cell r="AW4">
-            <v>200</v>
-          </cell>
-          <cell r="AX4">
-            <v>5</v>
-          </cell>
-          <cell r="AY4">
-            <v>0</v>
-          </cell>
-          <cell r="AZ4">
-            <v>5245</v>
-          </cell>
-          <cell r="BA4">
-            <v>309</v>
-          </cell>
-          <cell r="BB4">
-            <v>26.5</v>
-          </cell>
-          <cell r="BC4">
-            <v>25.21</v>
-          </cell>
-          <cell r="BD4">
-            <v>0.232558139534884</v>
-          </cell>
-          <cell r="BE4">
-            <v>44526</v>
-          </cell>
-          <cell r="BF4">
-            <v>24.89</v>
-          </cell>
-          <cell r="BG4">
-            <v>100</v>
-          </cell>
-          <cell r="BH4">
-            <v>5</v>
-          </cell>
-          <cell r="BI4">
-            <v>2.489</v>
-          </cell>
-          <cell r="BJ4">
-            <v>2481.511</v>
-          </cell>
-          <cell r="BK4">
-            <v>27.43</v>
-          </cell>
-          <cell r="BL4">
-            <v>24.74</v>
+            <v>-0.208598726114649</v>
+          </cell>
+          <cell r="AA4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="BE5">
+          <cell r="A5" t="str">
+            <v>JG_0000002</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
             <v>44531</v>
           </cell>
-          <cell r="BF5">
+          <cell r="P5">
             <v>27.7</v>
           </cell>
-          <cell r="BG5">
+          <cell r="Q5">
             <v>100</v>
           </cell>
-          <cell r="BH5">
+          <cell r="R5">
             <v>5</v>
           </cell>
-          <cell r="BI5">
+          <cell r="S5">
             <v>2.77</v>
           </cell>
-          <cell r="BJ5">
+          <cell r="T5">
             <v>2762.23</v>
           </cell>
-          <cell r="BK5">
+          <cell r="U5">
             <v>28.7</v>
           </cell>
-          <cell r="BL5">
+          <cell r="V5">
             <v>27.5</v>
+          </cell>
+          <cell r="W5">
+            <v>0.166666666666666</v>
+          </cell>
+          <cell r="X5">
+            <v>139.73</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Z5">
+            <v>0.238853503184713</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
+            <v>JG_0000003</v>
+          </cell>
+          <cell r="B6" t="str">
             <v>000002</v>
-          </cell>
-          <cell r="B6">
-            <v>44517</v>
           </cell>
           <cell r="C6" t="str">
             <v>600085(同仁堂)</v>
           </cell>
           <cell r="D6">
-            <v>31.92</v>
+            <v>44523</v>
           </cell>
           <cell r="E6">
-            <v>32.63</v>
+            <v>33.73</v>
           </cell>
           <cell r="F6">
-            <v>33.17</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G6">
+            <v>5</v>
           </cell>
           <cell r="H6">
-            <v>33.73</v>
+            <v>0.06746</v>
           </cell>
           <cell r="I6">
-            <v>22.98</v>
+            <v>3378.06746</v>
           </cell>
           <cell r="J6">
-            <v>44.42</v>
+            <v>35.36</v>
           </cell>
           <cell r="K6">
-            <v>0.467798085291558</v>
+            <v>33.1</v>
           </cell>
           <cell r="L6">
-            <v>0.240657361548852</v>
-          </cell>
-        </row>
-        <row r="6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="M6">
+            <v>34.13</v>
+          </cell>
           <cell r="N6">
-            <v>30.78</v>
-          </cell>
-          <cell r="O6">
-            <v>35</v>
-          </cell>
-          <cell r="P6">
-            <v>31.27</v>
-          </cell>
-          <cell r="Q6">
-            <v>34.82</v>
-          </cell>
-          <cell r="R6">
-            <v>32.12</v>
-          </cell>
-          <cell r="S6">
-            <v>34.11</v>
-          </cell>
-          <cell r="T6">
-            <v>32.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Y6" t="str">
-            <v>24w</v>
-          </cell>
-          <cell r="Z6">
-            <v>0.307068887888339</v>
-          </cell>
-          <cell r="AA6">
-            <v>0.106571428571429</v>
-          </cell>
-          <cell r="AB6">
-            <v>0.077541642734061</v>
-          </cell>
-          <cell r="AC6">
-            <v>0.0463207270595133</v>
-          </cell>
-          <cell r="AD6" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="AF6" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG6" t="str">
-            <v>成交量先随价格收缩逐级减少，然后随价格收缩保持不变</v>
-          </cell>
-          <cell r="AH6">
-            <v>35.48</v>
-          </cell>
-          <cell r="AI6">
-            <v>31.36</v>
-          </cell>
-          <cell r="AJ6">
-            <v>4.12</v>
-          </cell>
-          <cell r="AK6">
-            <v>34.12</v>
-          </cell>
-          <cell r="AL6">
-            <v>32.53</v>
-          </cell>
-          <cell r="AM6">
-            <v>39.33</v>
-          </cell>
-          <cell r="AN6">
-            <v>159</v>
-          </cell>
-          <cell r="AO6">
-            <v>100</v>
-          </cell>
-          <cell r="AP6">
-            <v>3.27672955974844</v>
-          </cell>
-          <cell r="AQ6">
-            <v>0.0466002344665884</v>
-          </cell>
-          <cell r="AR6">
-            <v>0.152696365767878</v>
-          </cell>
-          <cell r="AS6">
-            <v>37.41</v>
-          </cell>
-          <cell r="AT6" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU6">
-            <v>44523</v>
-          </cell>
-          <cell r="AV6">
-            <v>33.73</v>
-          </cell>
-          <cell r="AW6">
-            <v>100</v>
-          </cell>
-          <cell r="AX6">
-            <v>5</v>
-          </cell>
-          <cell r="AY6">
-            <v>0.06746</v>
-          </cell>
-          <cell r="AZ6">
-            <v>3378.06746</v>
-          </cell>
-          <cell r="BA6">
-            <v>125.06746</v>
-          </cell>
-          <cell r="BB6">
-            <v>35.36</v>
-          </cell>
-          <cell r="BC6">
-            <v>33.1</v>
-          </cell>
-          <cell r="BD6">
-            <v>0.721238938053099</v>
+            <v>-29.9325400000006</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
+            <v>JG_0000004</v>
+          </cell>
+          <cell r="B7" t="str">
             <v>000003</v>
-          </cell>
-          <cell r="B7">
-            <v>44519</v>
           </cell>
           <cell r="C7" t="str">
             <v>603867(新化股份)</v>
           </cell>
           <cell r="D7">
-            <v>28.2</v>
+            <v>44522</v>
           </cell>
           <cell r="E7">
-            <v>29.15</v>
+            <v>32.7</v>
           </cell>
           <cell r="F7">
-            <v>31.53</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G7">
+            <v>5</v>
           </cell>
           <cell r="H7">
-            <v>32.57</v>
+            <v>0.0654</v>
           </cell>
           <cell r="I7">
-            <v>20.61</v>
+            <v>3275.0654</v>
           </cell>
           <cell r="J7">
-            <v>41.5</v>
+            <v>33.9</v>
           </cell>
           <cell r="K7">
-            <v>0.58030082484231</v>
+            <v>32.49</v>
           </cell>
           <cell r="L7">
-            <v>0.215180722891566</v>
-          </cell>
-        </row>
-        <row r="7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="M7">
+            <v>30.89</v>
+          </cell>
           <cell r="N7">
-            <v>28.42</v>
-          </cell>
-          <cell r="O7">
-            <v>34.7</v>
-          </cell>
-          <cell r="P7">
-            <v>29</v>
-          </cell>
-          <cell r="Q7">
-            <v>35.27</v>
-          </cell>
-          <cell r="R7">
-            <v>30.89</v>
-          </cell>
-          <cell r="S7">
-            <v>34.66</v>
-          </cell>
-          <cell r="T7">
-            <v>32.59</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Y7" t="str">
-            <v>8w</v>
-          </cell>
-          <cell r="Z7">
-            <v>0.315180722891566</v>
-          </cell>
-          <cell r="AA7">
-            <v>0.164265129682997</v>
-          </cell>
-          <cell r="AB7">
-            <v>0.124184859654097</v>
-          </cell>
-          <cell r="AC7">
-            <v>0.0597230236583957</v>
-          </cell>
-          <cell r="AD7" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="AF7" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG7" t="str">
-            <v>成交量一直随价格收缩逐级减少，最后随着价格收缩期间空头几乎被榨干</v>
-          </cell>
-          <cell r="AH7">
-            <v>36.21</v>
-          </cell>
-          <cell r="AI7">
-            <v>27.35</v>
-          </cell>
-          <cell r="AJ7">
-            <v>8.86</v>
-          </cell>
-          <cell r="AK7">
-            <v>32.65</v>
-          </cell>
-          <cell r="AL7">
-            <v>30.89</v>
-          </cell>
-          <cell r="AM7">
-            <v>36.22</v>
-          </cell>
-          <cell r="AN7">
-            <v>176</v>
-          </cell>
-          <cell r="AO7">
-            <v>100</v>
-          </cell>
-          <cell r="AP7">
-            <v>2.02840909090909</v>
-          </cell>
-          <cell r="AQ7">
-            <v>0.0539050535987748</v>
-          </cell>
-          <cell r="AR7">
-            <v>0.109341500765697</v>
-          </cell>
-          <cell r="AS7">
-            <v>28.82</v>
-          </cell>
-          <cell r="AT7" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU7">
-            <v>44522</v>
-          </cell>
-          <cell r="AV7">
-            <v>32.7</v>
-          </cell>
-          <cell r="AW7">
-            <v>100</v>
-          </cell>
-          <cell r="AX7">
-            <v>5</v>
-          </cell>
-          <cell r="AY7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="AZ7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="BA7">
-            <v>186.0654</v>
-          </cell>
-          <cell r="BB7">
-            <v>33.9</v>
-          </cell>
-          <cell r="BC7">
-            <v>32.49</v>
-          </cell>
-          <cell r="BD7">
-            <v>0.851063829787233</v>
+            <v>191.0654</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
+            <v>JG_0000005</v>
+          </cell>
+          <cell r="B8" t="str">
             <v>000004</v>
-          </cell>
-          <cell r="B8">
-            <v>44525</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932(明德生物)</v>
           </cell>
           <cell r="D8">
-            <v>64.32</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>65，56</v>
+            <v>44526</v>
+          </cell>
+          <cell r="E8">
+            <v>72.07</v>
           </cell>
           <cell r="F8">
-            <v>68.37</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v>200日均线：向上
-150日均线：向上
-  50日均线：向上</v>
+            <v>100</v>
+          </cell>
+          <cell r="G8">
+            <v>5</v>
           </cell>
           <cell r="H8">
-            <v>69.16</v>
+            <v>0</v>
           </cell>
           <cell r="I8">
-            <v>40.64</v>
+            <v>7212</v>
           </cell>
           <cell r="J8">
-            <v>90.29</v>
+            <v>74.5</v>
           </cell>
           <cell r="K8">
-            <v>0.701771653543307</v>
+            <v>70.4</v>
           </cell>
           <cell r="L8">
-            <v>0.234023701406579</v>
-          </cell>
-        </row>
-        <row r="8">
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="M8">
+            <v>67.53</v>
+          </cell>
           <cell r="N8">
-            <v>60.05</v>
-          </cell>
-          <cell r="O8">
-            <v>74.75</v>
-          </cell>
-          <cell r="P8">
-            <v>65.5</v>
-          </cell>
-          <cell r="Q8">
-            <v>70.98</v>
-          </cell>
-          <cell r="R8">
-            <v>66.88</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Y8" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z8">
-            <v>0.33492081072101</v>
-          </cell>
-          <cell r="AA8">
-            <v>0.123745819397993</v>
-          </cell>
-          <cell r="AB8">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AC8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG8" t="str">
-            <v>成交量先随价格收缩至几乎被榨干，然后随价格收缩有些许放量，最后又收缩至几乎榨干状态</v>
-          </cell>
-          <cell r="AH8">
-            <v>75.02</v>
-          </cell>
-          <cell r="AI8">
-            <v>62.33</v>
-          </cell>
-          <cell r="AJ8">
-            <v>12.69</v>
-          </cell>
-          <cell r="AK8">
-            <v>70.98</v>
-          </cell>
-          <cell r="AL8">
-            <v>66.88</v>
-          </cell>
-          <cell r="AM8">
-            <v>84.94</v>
-          </cell>
-          <cell r="AN8">
-            <v>410.000000000001</v>
-          </cell>
-          <cell r="AO8">
-            <v>0</v>
-          </cell>
-          <cell r="AP8">
-            <v>3.40487804878048</v>
-          </cell>
-          <cell r="AQ8">
-            <v>0.0577627500704425</v>
-          </cell>
-          <cell r="AR8">
-            <v>0.196675119752043</v>
-          </cell>
-          <cell r="AS8">
-            <v>6.49</v>
-          </cell>
-          <cell r="AT8" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU8">
-            <v>44526</v>
-          </cell>
-          <cell r="AV8">
-            <v>72.07</v>
-          </cell>
-          <cell r="AW8">
-            <v>100</v>
-          </cell>
-          <cell r="AX8">
-            <v>5</v>
-          </cell>
-          <cell r="AY8">
-            <v>0</v>
-          </cell>
-          <cell r="AZ8">
-            <v>7212</v>
-          </cell>
-          <cell r="BA8">
-            <v>524</v>
-          </cell>
-          <cell r="BB8">
-            <v>74.5</v>
-          </cell>
-          <cell r="BC8">
-            <v>70.4</v>
-          </cell>
-          <cell r="BD8">
-            <v>0.592682926829271</v>
+            <v>463.999999999999</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
+            <v>JG_0000006</v>
+          </cell>
+          <cell r="B9" t="str">
             <v>000005</v>
-          </cell>
-          <cell r="B9">
-            <v>44522</v>
           </cell>
           <cell r="C9" t="str">
             <v>605016(百龙创园)</v>
           </cell>
           <cell r="D9">
-            <v>28.37</v>
+            <v>44524</v>
           </cell>
           <cell r="E9">
-            <v>29.06</v>
+            <v>30.54</v>
           </cell>
           <cell r="F9">
-            <v>29.49</v>
-          </cell>
-        </row>
-        <row r="9">
+            <v>100</v>
+          </cell>
+          <cell r="G9">
+            <v>5</v>
+          </cell>
           <cell r="H9">
-            <v>29.69</v>
+            <v>0.06108</v>
           </cell>
           <cell r="I9">
-            <v>17.54</v>
+            <v>3059.06108</v>
           </cell>
           <cell r="J9">
-            <v>48.5</v>
+            <v>30.72</v>
           </cell>
           <cell r="K9">
-            <v>0.692702394526796</v>
+            <v>29.33</v>
           </cell>
           <cell r="L9">
-            <v>0.387835051546392</v>
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>24.11</v>
+            <v>0</v>
           </cell>
           <cell r="O9">
-            <v>38.16</v>
+            <v>44525</v>
           </cell>
           <cell r="P9">
-            <v>25.12</v>
+            <v>30.15</v>
           </cell>
           <cell r="Q9">
-            <v>30.9</v>
+            <v>100</v>
           </cell>
           <cell r="R9">
-            <v>29.2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Y9" t="str">
-            <v>24w</v>
+            <v>5</v>
+          </cell>
+          <cell r="S9">
+            <v>3.015</v>
+          </cell>
+          <cell r="T9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="U9">
+            <v>30.69</v>
+          </cell>
+          <cell r="V9">
+            <v>30.01</v>
+          </cell>
+          <cell r="W9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="X9">
+            <v>-52.0760799999998</v>
+          </cell>
+          <cell r="Y9">
+            <v>-52.0760799999998</v>
           </cell>
           <cell r="Z9">
-            <v>0.502886597938144</v>
-          </cell>
-          <cell r="AA9">
-            <v>0.341719077568134</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.0550161812297734</v>
-          </cell>
-          <cell r="AC9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AD9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="AF9" t="str">
-            <v>3T</v>
-          </cell>
-          <cell r="AG9" t="str">
-            <v>由于价格收缩不明显，成交量收缩情况不予考虑</v>
-          </cell>
-          <cell r="AH9">
-            <v>32.43</v>
-          </cell>
-          <cell r="AI9">
-            <v>26.16</v>
-          </cell>
-          <cell r="AJ9">
-            <v>6.27</v>
-          </cell>
-          <cell r="AK9">
-            <v>30.66</v>
-          </cell>
-          <cell r="AL9">
-            <v>29.35</v>
-          </cell>
-          <cell r="AM9">
-            <v>38.71</v>
-          </cell>
-          <cell r="AN9">
-            <v>131</v>
-          </cell>
-          <cell r="AO9">
-            <v>200</v>
-          </cell>
-          <cell r="AP9">
-            <v>6.14503816793894</v>
-          </cell>
-          <cell r="AQ9">
-            <v>0.042726679712981</v>
-          </cell>
-          <cell r="AR9">
-            <v>0.262557077625571</v>
-          </cell>
-          <cell r="AS9">
-            <v>38.46</v>
-          </cell>
-          <cell r="AT9" t="str">
-            <v>不宜入场</v>
-          </cell>
-          <cell r="AU9">
-            <v>44524</v>
-          </cell>
-          <cell r="AV9">
-            <v>30.54</v>
-          </cell>
-          <cell r="AW9">
-            <v>100</v>
-          </cell>
-          <cell r="AX9">
-            <v>5</v>
-          </cell>
-          <cell r="AY9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="AZ9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="BA9">
-            <v>124.06108</v>
-          </cell>
-          <cell r="BB9">
-            <v>30.72</v>
-          </cell>
-          <cell r="BC9">
-            <v>29.33</v>
-          </cell>
-          <cell r="BD9">
-            <v>0.129496402877698</v>
-          </cell>
-          <cell r="BE9">
-            <v>44525</v>
-          </cell>
-          <cell r="BF9">
-            <v>30.15</v>
-          </cell>
-          <cell r="BG9">
-            <v>100</v>
-          </cell>
-          <cell r="BH9">
-            <v>5</v>
-          </cell>
-          <cell r="BI9">
-            <v>3.075</v>
-          </cell>
-          <cell r="BJ9">
-            <v>3006.925</v>
-          </cell>
-          <cell r="BK9">
-            <v>30.69</v>
-          </cell>
-          <cell r="BL9">
-            <v>30.01</v>
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AA9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
+            <v>JG_0000007</v>
+          </cell>
+          <cell r="B10" t="str">
             <v>000006</v>
-          </cell>
-          <cell r="B10">
-            <v>44529</v>
           </cell>
           <cell r="C10" t="str">
             <v>603010(万盛股份)</v>
           </cell>
           <cell r="D10">
-            <v>22.26</v>
+            <v>44530</v>
           </cell>
           <cell r="E10">
-            <v>22.69</v>
+            <v>29.81</v>
           </cell>
           <cell r="F10">
-            <v>24.83</v>
-          </cell>
-        </row>
-        <row r="10">
+            <v>100</v>
+          </cell>
+          <cell r="G10">
+            <v>5</v>
+          </cell>
           <cell r="H10">
-            <v>28.99</v>
+            <v>0.05962</v>
           </cell>
           <cell r="I10">
-            <v>14.46</v>
+            <v>2986.05962</v>
           </cell>
           <cell r="J10">
-            <v>31.94</v>
+            <v>30.32</v>
           </cell>
           <cell r="K10">
-            <v>1.00484094052559</v>
+            <v>28.81</v>
           </cell>
           <cell r="L10">
-            <v>0.0923606762680026</v>
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>20.63</v>
+            <v>0</v>
           </cell>
           <cell r="O10">
-            <v>25.66</v>
+            <v>44533</v>
           </cell>
           <cell r="P10">
-            <v>21.46</v>
+            <v>27.83</v>
           </cell>
           <cell r="Q10">
-            <v>28.89</v>
+            <v>100</v>
           </cell>
           <cell r="R10">
-            <v>24.22</v>
+            <v>5</v>
           </cell>
           <cell r="S10">
-            <v>29.7</v>
+            <v>2.783</v>
           </cell>
           <cell r="T10">
-            <v>27.72</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Y10" t="str">
-            <v>8w</v>
+            <v>2775.217</v>
+          </cell>
+          <cell r="U10">
+            <v>28.4</v>
+          </cell>
+          <cell r="V10">
+            <v>27.44</v>
+          </cell>
+          <cell r="W10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="X10">
+            <v>-210.84262</v>
+          </cell>
+          <cell r="Y10">
+            <v>-210.84262</v>
           </cell>
           <cell r="Z10">
-            <v>0.354101440200376</v>
-          </cell>
-          <cell r="AA10">
-            <v>0.163678877630553</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.161647628937349</v>
-          </cell>
-          <cell r="AC10">
-            <v>0.0666666666666667</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="AF10" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG10" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AH10">
-            <v>31.18</v>
-          </cell>
-          <cell r="AI10">
-            <v>21.1</v>
-          </cell>
-          <cell r="AJ10">
-            <v>10.08</v>
-          </cell>
-          <cell r="AK10">
-            <v>29.77</v>
-          </cell>
-          <cell r="AL10">
-            <v>27.72</v>
-          </cell>
-          <cell r="AM10">
-            <v>34.93</v>
-          </cell>
-          <cell r="AN10">
-            <v>205</v>
-          </cell>
-          <cell r="AO10">
-            <v>100</v>
-          </cell>
-          <cell r="AP10">
-            <v>2.51707317073171</v>
-          </cell>
-          <cell r="AQ10">
-            <v>0.0688612697346322</v>
-          </cell>
-          <cell r="AR10">
-            <v>0.173328854551562</v>
-          </cell>
-          <cell r="AS10">
-            <v>17.95</v>
-          </cell>
-          <cell r="AT10" t="str">
-            <v>可以</v>
-          </cell>
-          <cell r="AU10">
-            <v>44530</v>
-          </cell>
-          <cell r="AV10">
-            <v>29.81</v>
-          </cell>
-          <cell r="AW10">
-            <v>100</v>
-          </cell>
-          <cell r="AX10">
-            <v>5</v>
-          </cell>
-          <cell r="AY10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="AZ10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="BA10">
-            <v>214.05962</v>
-          </cell>
-          <cell r="BB10">
-            <v>30.32</v>
-          </cell>
-          <cell r="BC10">
-            <v>28.81</v>
-          </cell>
-          <cell r="BD10">
-            <v>0.337748344370862</v>
+            <v>-0.196428571428571</v>
+          </cell>
+          <cell r="AA10" t="str">
+            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>000020</v>
-          </cell>
-          <cell r="B11">
-            <v>44531</v>
+            <v>JG_0000008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>000035</v>
           </cell>
           <cell r="C11" t="str">
-            <v>603663(三祥新材)</v>
+            <v> 002585(双星新材)</v>
           </cell>
           <cell r="D11">
-            <v>18.62</v>
+            <v>44536</v>
           </cell>
           <cell r="E11">
-            <v>19.35</v>
+            <v>28.37</v>
           </cell>
           <cell r="F11">
-            <v>21.48</v>
-          </cell>
-        </row>
-        <row r="11">
+            <v>100</v>
+          </cell>
+          <cell r="G11">
+            <v>5</v>
+          </cell>
           <cell r="H11">
-            <v>23.35</v>
+            <v>0</v>
           </cell>
           <cell r="I11">
-            <v>13.04</v>
+            <v>2842</v>
           </cell>
           <cell r="J11">
-            <v>26.64</v>
+            <v>29.7</v>
           </cell>
           <cell r="K11">
-            <v>0.790644171779141</v>
+            <v>27.69</v>
           </cell>
           <cell r="L11">
-            <v>0.123498498498498</v>
-          </cell>
-        </row>
-        <row r="11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="M11">
+            <v>26.31</v>
+          </cell>
           <cell r="N11">
-            <v>18.5</v>
-          </cell>
-          <cell r="O11">
-            <v>22.39</v>
-          </cell>
-          <cell r="P11">
-            <v>18.85</v>
-          </cell>
-          <cell r="Q11">
-            <v>23.56</v>
-          </cell>
-          <cell r="R11">
-            <v>20.89</v>
-          </cell>
-          <cell r="S11">
-            <v>23.49</v>
-          </cell>
-          <cell r="T11">
-            <v>22.12</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>12w</v>
-          </cell>
-          <cell r="Z11">
-            <v>0.305555555555556</v>
-          </cell>
-          <cell r="AA11">
-            <v>0.158106297454221</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.113327674023769</v>
-          </cell>
-          <cell r="AC11">
-            <v>0.0583226905065984</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="AF11" t="str">
-            <v>4T</v>
-          </cell>
-          <cell r="AG11" t="str">
-            <v>减少明显，空头几乎被榨干</v>
-          </cell>
-          <cell r="AH11">
-            <v>25.59</v>
-          </cell>
-          <cell r="AI11">
-            <v>18.59</v>
-          </cell>
-          <cell r="AJ11">
-            <v>7</v>
-          </cell>
-          <cell r="AK11">
-            <v>24.28</v>
-          </cell>
-          <cell r="AL11">
-            <v>23.09</v>
-          </cell>
-          <cell r="AM11">
-            <v>26.77</v>
-          </cell>
-          <cell r="AN11">
-            <v>119</v>
-          </cell>
-          <cell r="AO11">
-            <v>200</v>
-          </cell>
-          <cell r="AP11">
-            <v>2.09243697478991</v>
-          </cell>
-          <cell r="AQ11">
-            <v>0.049011532125206</v>
-          </cell>
-          <cell r="AR11">
-            <v>0.102553542009885</v>
-          </cell>
-          <cell r="AS11">
-            <v>56.67</v>
-          </cell>
-          <cell r="AT11" t="str">
-            <v>可以</v>
+            <v>216</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
+            <v>JG_0000009</v>
+          </cell>
+          <cell r="B12" t="str">
             <v>000021</v>
-          </cell>
-          <cell r="B12">
-            <v>44531</v>
           </cell>
           <cell r="C12" t="str">
             <v>605028(世贸能源)</v>
-          </cell>
-          <cell r="D12">
-            <v>22.96</v>
-          </cell>
-          <cell r="E12">
-            <v>23.55</v>
-          </cell>
-          <cell r="F12">
-            <v>25.45</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>25.7</v>
-          </cell>
-          <cell r="I12">
-            <v>16.52</v>
-          </cell>
-          <cell r="J12">
-            <v>33.51</v>
-          </cell>
-          <cell r="K12">
-            <v>0.555690072639225</v>
-          </cell>
-          <cell r="L12">
-            <v>0.233064756789018</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="N12">
-            <v>19.92</v>
-          </cell>
-          <cell r="O12">
-            <v>26.6</v>
-          </cell>
-          <cell r="P12">
-            <v>20.5</v>
-          </cell>
-          <cell r="Q12">
-            <v>29.5</v>
-          </cell>
-          <cell r="R12">
-            <v>23.34</v>
-          </cell>
-          <cell r="S12">
-            <v>28.3</v>
-          </cell>
-          <cell r="T12">
-            <v>24.74</v>
-          </cell>
-          <cell r="U12">
-            <v>27.7</v>
-          </cell>
-          <cell r="V12">
-            <v>25</v>
-          </cell>
-          <cell r="W12">
-            <v>27.58</v>
-          </cell>
-          <cell r="X12">
-            <v>25.01</v>
-          </cell>
-          <cell r="Y12" t="str">
-            <v>16w</v>
-          </cell>
-          <cell r="Z12">
-            <v>0.405550581915846</v>
-          </cell>
-          <cell r="AA12">
-            <v>0.229323308270677</v>
-          </cell>
-          <cell r="AB12">
-            <v>0.208813559322034</v>
-          </cell>
-          <cell r="AC12">
-            <v>0.125795053003534</v>
-          </cell>
-          <cell r="AD12">
-            <v>0.0974729241877256</v>
-          </cell>
-          <cell r="AE12">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AF12" t="str">
-            <v>6T</v>
-          </cell>
-          <cell r="AG12" t="str">
-            <v>减少明显，空A头几乎被榨干</v>
-          </cell>
-          <cell r="AH12">
-            <v>29.7</v>
-          </cell>
-          <cell r="AI12">
-            <v>21.86</v>
-          </cell>
-          <cell r="AJ12">
-            <v>7.84</v>
-          </cell>
-          <cell r="AK12">
-            <v>27.58</v>
-          </cell>
-          <cell r="AL12">
-            <v>25.01</v>
-          </cell>
-          <cell r="AM12">
-            <v>35.47</v>
-          </cell>
-          <cell r="AN12">
-            <v>257</v>
-          </cell>
-          <cell r="AO12">
-            <v>100</v>
-          </cell>
-          <cell r="AP12">
-            <v>3.07003891050584</v>
-          </cell>
-          <cell r="AQ12">
-            <v>0.0931834662799129</v>
-          </cell>
-          <cell r="AR12">
-            <v>0.286076867295141</v>
-          </cell>
-          <cell r="AS12">
-            <v>22.12</v>
-          </cell>
-          <cell r="AT12" t="str">
-            <v>可以</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
+            <v>JG_0000010</v>
+          </cell>
+          <cell r="B13" t="str">
             <v>000027</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B14" t="str">
             <v>000028</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
+            <v>JG_0000012</v>
+          </cell>
+          <cell r="B15" t="str">
             <v>000029</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
+            <v>JG_0000013</v>
+          </cell>
+          <cell r="B16" t="str">
             <v>000030</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
+            <v>JG_0000014</v>
+          </cell>
+          <cell r="B17" t="str">
             <v>000031</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
+            <v>JG_0000015</v>
+          </cell>
+          <cell r="B18" t="str">
             <v>000032</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
+            <v>JG_0000016</v>
+          </cell>
+          <cell r="B19" t="str">
             <v>000033</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
+            <v>JG_0000017</v>
+          </cell>
+          <cell r="B20" t="str">
             <v>000034</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>000035</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>000036</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>000037</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>000038</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>000039</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>000040</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>000041</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>000042</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>000043</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>000044</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>000045</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>000046</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>000047</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>000048</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>000049</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>000050</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>000051</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>000052</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>000053</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>000054</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>000055</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>000056</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>000057</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>000058</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>000059</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>000060</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>000061</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>000062</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>000063</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>000064</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>000065</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>000066</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>000067</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>000068</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>000069</v>
           </cell>
         </row>
       </sheetData>
@@ -3067,11 +2116,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3395,7 +2444,7 @@
         <v>41</v>
       </c>
       <c r="K6" s="19">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)</f>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)</f>
         <v>0.0275229357798165</v>
       </c>
       <c r="L6" s="20">
@@ -3407,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="28" t="str">
-        <f t="shared" ref="N6:N16" si="0">IF(A6&lt;E6,"是","否")</f>
+        <f>IF(A6&lt;E6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O6" s="28" t="s">
@@ -3447,7 +2496,7 @@
         <v>30.89</v>
       </c>
       <c r="AG6" s="61">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3480,23 +2529,23 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J16" si="1">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J16" si="0">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)</f>
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L16" si="2">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L16" si="1">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="27">
-        <f t="shared" ref="M7:M16" si="3">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M16" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N6:N16" si="3">IF(A7&lt;E7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="28" t="s">
@@ -3533,11 +2582,11 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="59">
-        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,48,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>30.89</v>
       </c>
       <c r="AG7" s="61">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3570,23 +2619,23 @@
         <v>2</v>
       </c>
       <c r="J8" s="21">
+        <f t="shared" si="0"/>
+        <v>-0.0121158392434989</v>
+      </c>
+      <c r="K8" s="19">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
+        <v>0.0223241590214066</v>
+      </c>
+      <c r="L8" s="20">
         <f t="shared" si="1"/>
-        <v>-0.0121158392434989</v>
-      </c>
-      <c r="K8" s="19">
-        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)</f>
-        <v>0.0223241590214066</v>
-      </c>
-      <c r="L8" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M8" s="27">
         <f t="shared" si="2"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M8" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="N8" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O8" s="28" t="s">
@@ -3623,11 +2672,11 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="59">
-        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,48,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>30.89</v>
       </c>
       <c r="AG8" s="61">
-        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3660,23 +2709,23 @@
         <v>2</v>
       </c>
       <c r="J9" s="21">
+        <f t="shared" si="0"/>
+        <v>-0.0173496859108585</v>
+      </c>
+      <c r="K9" s="19">
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
+        <v>0.00458715596330271</v>
+      </c>
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
-        <v>-0.0173496859108585</v>
-      </c>
-      <c r="K9" s="19">
-        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)</f>
-        <v>0.00458715596330271</v>
-      </c>
-      <c r="L9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="27">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="N9" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O9" s="30" t="s">
@@ -3713,11 +2762,11 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="59">
-        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,48,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
+        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>30.89</v>
       </c>
       <c r="AG9" s="61">
-        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
+        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3750,23 +2799,23 @@
         <v>3</v>
       </c>
       <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>0.045662100456621</v>
+      </c>
+      <c r="K10" s="19">
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
+        <v>0.0504587155963302</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
-        <v>0.045662100456621</v>
-      </c>
-      <c r="K10" s="19">
-        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)</f>
-        <v>0.0504587155963302</v>
-      </c>
-      <c r="L10" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="27">
         <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="27">
+        <v>1</v>
+      </c>
+      <c r="N10" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O10" s="13" t="s">
@@ -3803,11 +2852,11 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="59">
-        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,48,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
+        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>30.89</v>
       </c>
       <c r="AG10" s="61">
-        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
+        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3840,23 +2889,23 @@
         <v>3</v>
       </c>
       <c r="J11" s="21">
+        <f t="shared" si="0"/>
+        <v>-0.0087336244541486</v>
+      </c>
+      <c r="K11" s="19">
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
+        <v>0.0412844036697246</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" si="1"/>
-        <v>-0.0087336244541486</v>
-      </c>
-      <c r="K11" s="19">
-        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)</f>
-        <v>0.0412844036697246</v>
-      </c>
-      <c r="L11" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="27">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="N11" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -3893,11 +2942,11 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="59">
-        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,48,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
+        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>30.89</v>
       </c>
       <c r="AG11" s="61">
-        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
+        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3930,23 +2979,23 @@
         <v>4</v>
       </c>
       <c r="J12" s="21">
+        <f t="shared" si="0"/>
+        <v>0.0088105726872248</v>
+      </c>
+      <c r="K12" s="19">
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
+        <v>0.0504587155963302</v>
+      </c>
+      <c r="L12" s="20">
         <f t="shared" si="1"/>
-        <v>0.0088105726872248</v>
-      </c>
-      <c r="K12" s="19">
-        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)</f>
-        <v>0.0504587155963302</v>
-      </c>
-      <c r="L12" s="20">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M12" s="27">
         <f t="shared" si="2"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="M12" s="27">
+        <v>1</v>
+      </c>
+      <c r="N12" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O12" s="13" t="s">
@@ -3983,11 +3032,11 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="59">
-        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,48,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
+        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>30.89</v>
       </c>
       <c r="AG12" s="61">
-        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
+        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -4020,23 +3069,23 @@
         <v>5</v>
       </c>
       <c r="J13" s="21">
+        <f t="shared" si="0"/>
+        <v>0.0590975254730714</v>
+      </c>
+      <c r="K13" s="19">
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
+        <v>0.112538226299694</v>
+      </c>
+      <c r="L13" s="20">
         <f t="shared" si="1"/>
-        <v>0.0590975254730714</v>
-      </c>
-      <c r="K13" s="19">
-        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)</f>
-        <v>0.112538226299694</v>
-      </c>
-      <c r="L13" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="M13" s="27">
         <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
-      <c r="M13" s="27">
+        <v>1</v>
+      </c>
+      <c r="N13" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -4073,11 +3122,11 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="59">
-        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,48,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
+        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>30.89</v>
       </c>
       <c r="AG13" s="61">
-        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
+        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -4110,23 +3159,23 @@
         <v>6</v>
       </c>
       <c r="J14" s="21">
+        <f t="shared" si="0"/>
+        <v>0.0101704233095106</v>
+      </c>
+      <c r="K14" s="19">
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
+        <v>0.123853211009174</v>
+      </c>
+      <c r="L14" s="20">
         <f t="shared" si="1"/>
-        <v>0.0101704233095106</v>
-      </c>
-      <c r="K14" s="19">
-        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)</f>
-        <v>0.123853211009174</v>
-      </c>
-      <c r="L14" s="20">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M14" s="27">
         <f t="shared" si="2"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M14" s="27">
+        <v>1</v>
+      </c>
+      <c r="N14" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -4163,11 +3212,11 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="59">
-        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,48,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
+        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>30.89</v>
       </c>
       <c r="AG14" s="61">
-        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
+        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -4200,23 +3249,23 @@
         <v>7</v>
       </c>
       <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>0.00163265306122455</v>
+      </c>
+      <c r="K15" s="19">
+        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
+        <v>0.125688073394495</v>
+      </c>
+      <c r="L15" s="20">
         <f t="shared" si="1"/>
-        <v>0.00163265306122455</v>
-      </c>
-      <c r="K15" s="19">
-        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)</f>
-        <v>0.125688073394495</v>
-      </c>
-      <c r="L15" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="27">
         <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
-      <c r="M15" s="27">
+        <v>1</v>
+      </c>
+      <c r="N15" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -4253,11 +3302,11 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="59">
-        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,48,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
+        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>30.89</v>
       </c>
       <c r="AG15" s="61">
-        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE)</f>
+        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -4290,23 +3339,23 @@
         <v>7</v>
       </c>
       <c r="J16" s="21">
+        <f t="shared" si="0"/>
+        <v>-0.00353164900842169</v>
+      </c>
+      <c r="K16" s="19">
+        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
+        <v>0.1217125382263</v>
+      </c>
+      <c r="L16" s="20">
         <f t="shared" si="1"/>
-        <v>-0.00353164900842169</v>
-      </c>
-      <c r="K16" s="19">
-        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,48,FALSE)</f>
-        <v>0.1217125382263</v>
-      </c>
-      <c r="L16" s="20">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="M16" s="27">
         <f t="shared" si="2"/>
-        <v>0.636363636363636</v>
-      </c>
-      <c r="M16" s="27">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="28" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="N16" s="28" t="str">
-        <f t="shared" si="0"/>
         <v>否</v>
       </c>
       <c r="O16" s="13" t="s">
@@ -4343,11 +3392,11 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="59">
-        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,48,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
+        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
         <v>32.77</v>
       </c>
       <c r="AG16" s="61">
-        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,48,FALSE)</f>
+        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
         <v>0.0700000000000003</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +295,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,43 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -353,25 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +357,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,6 +386,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -407,17 +394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +403,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,7 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,43 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +633,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,19 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,49 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,15 +791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,26 +806,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,6 +856,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -874,17 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,148 +893,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1066,13 +1066,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1105,7 +1105,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1114,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,13 +1192,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1565,6 +1565,11 @@
             <v>463.999999999999</v>
           </cell>
         </row>
+        <row r="8">
+          <cell r="AA8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+          </cell>
+        </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>JG_0000006</v>
@@ -1723,7 +1728,7 @@
             <v>-210.84262</v>
           </cell>
           <cell r="Z10">
-            <v>-0.196428571428571</v>
+            <v>-0.196428571428572</v>
           </cell>
           <cell r="AA10" t="str">
             <v>1.入场中枢点错误</v>
@@ -1771,6 +1776,11 @@
           </cell>
           <cell r="N11">
             <v>216</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AA11" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="12">
@@ -2116,11 +2126,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,7 +287,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,7 +316,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,62 +362,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -379,21 +369,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -409,24 +385,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,37 +579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,49 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +669,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,17 +791,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,16 +810,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,25 +851,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,129 +873,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,22 +1019,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1069,10 +1069,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1108,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,13 +1117,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,13 +1132,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,13 +1198,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,7 +1231,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2132,11 +2132,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2545,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J16" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J17" si="0">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -2553,15 +2553,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L16" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L17" si="1">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" ref="M7:M16" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M17" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="29" t="str">
-        <f t="shared" ref="N6:N16" si="3">IF(A7&lt;E7,"是","否")</f>
+        <f t="shared" ref="N6:N17" si="3">IF(A7&lt;E7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="29" t="s">
@@ -2577,7 +2577,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="40" t="str">
-        <f t="shared" ref="S7:S16" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S17" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="41" t="str">
@@ -3445,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="22">
-        <f>(B17-B16)/B16</f>
+        <f t="shared" si="0"/>
         <v>-0.0408942202835333</v>
       </c>
       <c r="K17" s="19">
@@ -3453,15 +3453,15 @@
         <v>0.0758409785932721</v>
       </c>
       <c r="L17" s="20">
-        <f>I17/(ROW()-5)</f>
+        <f t="shared" si="1"/>
         <v>0.583333333333333</v>
       </c>
       <c r="M17" s="31">
-        <f>IF(B17&gt;(D17-(D17-E17)/2),1,-1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N17" s="29" t="str">
-        <f>IF(A17&lt;E17,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O17" s="13" t="s">
@@ -3477,7 +3477,7 @@
         <v>44</v>
       </c>
       <c r="S17" s="40" t="str">
-        <f>IF(I17/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="T17" s="41" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -2136,7 +2136,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -462,7 +462,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,76 +899,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -971,7 +977,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,7 +986,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,25 +998,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,23 +1028,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,34 +1165,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,16 +1216,16 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2132,11 +2141,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG17" sqref="AG17"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2198,25 +2207,25 @@
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
       <c r="T1" s="34"/>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="57" t="s">
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="62" t="s">
+      <c r="AG1" s="63" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2241,23 +2250,23 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="34"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="58" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="62"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="63"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="6"/>
@@ -2284,19 +2293,19 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
       <c r="T3" s="36"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="62"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="63"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="6"/>
@@ -2357,37 +2366,37 @@
       <c r="T4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="48" t="s">
+      <c r="U4" s="47"/>
+      <c r="V4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="56" t="s">
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AB4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="58" t="s">
+      <c r="AD4" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="59" t="s">
+      <c r="AE4" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="62"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="63"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="6"/>
@@ -2410,23 +2419,23 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="38"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="U5" s="47"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="49" t="s">
+      <c r="Y5" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="62"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="63"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:33">
       <c r="A6" s="9">
@@ -2495,23 +2504,23 @@
         <f>IF(SUM($M$6:$M6)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="U6" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="30"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
-      <c r="AF6" s="60">
+      <c r="AF6" s="61">
         <v>30.89</v>
       </c>
-      <c r="AG6" s="63">
+      <c r="AG6" s="64">
         <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -2584,11 +2593,11 @@
         <f>IF(SUM($M$6:$M7)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U7" s="50" t="s">
+      <c r="U7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="54"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -2597,11 +2606,11 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="61">
+      <c r="AF7" s="62">
         <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>30.89</v>
       </c>
-      <c r="AG7" s="63">
+      <c r="AG7" s="64">
         <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -2674,11 +2683,11 @@
         <f>IF(SUM($M$6:$M8)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="U8" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -2687,11 +2696,11 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="61">
+      <c r="AF8" s="62">
         <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>30.89</v>
       </c>
-      <c r="AG8" s="63">
+      <c r="AG8" s="64">
         <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -2764,11 +2773,11 @@
         <f>IF(SUM($M$6:$M9)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U9" s="50" t="s">
+      <c r="U9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -2777,11 +2786,11 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="61">
+      <c r="AF9" s="62">
         <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>30.89</v>
       </c>
-      <c r="AG9" s="63">
+      <c r="AG9" s="64">
         <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -2854,11 +2863,11 @@
         <f>IF(SUM($M$6:$M10)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U10" s="50" t="s">
+      <c r="U10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -2867,11 +2876,11 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="61">
+      <c r="AF10" s="62">
         <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>30.89</v>
       </c>
-      <c r="AG10" s="63">
+      <c r="AG10" s="64">
         <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -2944,7 +2953,7 @@
         <f>IF(SUM($M$6:$M11)&gt;0,"是","否")</f>
         <v>否</v>
       </c>
-      <c r="U11" s="50" t="s">
+      <c r="U11" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V11" s="13"/>
@@ -2957,11 +2966,11 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="61">
+      <c r="AF11" s="62">
         <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>30.89</v>
       </c>
-      <c r="AG11" s="63">
+      <c r="AG11" s="64">
         <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3020,7 +3029,7 @@
       <c r="P12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R12" s="40" t="s">
@@ -3034,7 +3043,7 @@
         <f>IF(SUM($M$6:$M12)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V12" s="13"/>
@@ -3047,11 +3056,11 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="61">
+      <c r="AF12" s="62">
         <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>30.89</v>
       </c>
-      <c r="AG12" s="63">
+      <c r="AG12" s="64">
         <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3110,7 +3119,7 @@
       <c r="P13" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R13" s="40" t="s">
@@ -3124,7 +3133,7 @@
         <f>IF(SUM($M$6:$M13)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U13" s="50" t="s">
+      <c r="U13" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V13" s="13"/>
@@ -3137,11 +3146,11 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="61">
+      <c r="AF13" s="62">
         <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>30.89</v>
       </c>
-      <c r="AG13" s="63">
+      <c r="AG13" s="64">
         <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3200,7 +3209,7 @@
       <c r="P14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R14" s="40" t="s">
@@ -3214,7 +3223,7 @@
         <f>IF(SUM($M$6:$M14)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U14" s="50" t="s">
+      <c r="U14" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V14" s="13"/>
@@ -3227,11 +3236,11 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="61">
+      <c r="AF14" s="62">
         <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>30.89</v>
       </c>
-      <c r="AG14" s="63">
+      <c r="AG14" s="64">
         <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3290,7 +3299,7 @@
       <c r="P15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="40" t="s">
@@ -3304,7 +3313,7 @@
         <f>IF(SUM($M$6:$M15)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V15" s="13"/>
@@ -3317,11 +3326,11 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="61">
+      <c r="AF15" s="62">
         <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>30.89</v>
       </c>
-      <c r="AG15" s="63">
+      <c r="AG15" s="64">
         <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
         <v>-1.81</v>
       </c>
@@ -3380,7 +3389,7 @@
       <c r="P16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R16" s="40" t="s">
@@ -3394,7 +3403,7 @@
         <f>IF(SUM($M$6:$M16)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U16" s="50" t="s">
+      <c r="U16" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V16" s="13"/>
@@ -3407,11 +3416,11 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="61">
+      <c r="AF16" s="62">
         <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
         <v>32.77</v>
       </c>
-      <c r="AG16" s="63">
+      <c r="AG16" s="64">
         <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
         <v>0.0700000000000003</v>
       </c>
@@ -3470,7 +3479,7 @@
       <c r="P17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="43" t="s">
         <v>44</v>
       </c>
       <c r="R17" s="40" t="s">
@@ -3484,7 +3493,7 @@
         <f>IF(SUM($M$6:$M17)&gt;0,"是","否")</f>
         <v>是</v>
       </c>
-      <c r="U17" s="50" t="s">
+      <c r="U17" s="51" t="s">
         <v>44</v>
       </c>
       <c r="V17" s="13"/>
@@ -3497,11 +3506,11 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="61">
+      <c r="AF17" s="62">
         <f>IF(AND(G17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
         <v>32.86</v>
       </c>
-      <c r="AG17" s="63">
+      <c r="AG17" s="64">
         <f>AF17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)</f>
         <v>0.159999999999997</v>
       </c>
@@ -3528,7 +3537,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="43"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
       <c r="W18" s="11"/>
@@ -3540,7 +3549,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="61"/>
+      <c r="AF18" s="62"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="12">
@@ -3564,7 +3573,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="43"/>
+      <c r="T19" s="44"/>
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
       <c r="W19" s="11"/>
@@ -3576,7 +3585,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="61"/>
+      <c r="AF19" s="62"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="12">
@@ -3600,7 +3609,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="43"/>
+      <c r="T20" s="44"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="11"/>
@@ -3612,7 +3621,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="61"/>
+      <c r="AF20" s="62"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="12">
@@ -3636,7 +3645,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="43"/>
+      <c r="T21" s="44"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="11"/>
@@ -3648,7 +3657,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="61"/>
+      <c r="AF21" s="62"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="12">
@@ -3672,7 +3681,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="43"/>
+      <c r="T22" s="44"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="11"/>
@@ -3684,7 +3693,7 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="61"/>
+      <c r="AF22" s="62"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="12">
@@ -3708,7 +3717,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="43"/>
+      <c r="T23" s="44"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
       <c r="W23" s="11"/>
@@ -3720,7 +3729,7 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="61"/>
+      <c r="AF23" s="62"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="12">
@@ -3744,7 +3753,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="43"/>
+      <c r="T24" s="44"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="11"/>
@@ -3756,7 +3765,7 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="61"/>
+      <c r="AF24" s="62"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="12">
@@ -3780,7 +3789,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="43"/>
+      <c r="T25" s="44"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="11"/>
@@ -3792,7 +3801,7 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="61"/>
+      <c r="AF25" s="62"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="12">
@@ -3816,7 +3825,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="43"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="11"/>
@@ -3828,7 +3837,7 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="61"/>
+      <c r="AF26" s="62"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="12">
@@ -3852,7 +3861,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="43"/>
+      <c r="T27" s="44"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
@@ -3864,7 +3873,7 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="61"/>
+      <c r="AF27" s="62"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="12"/>
@@ -3886,7 +3895,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="43"/>
+      <c r="T28" s="44"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
@@ -3898,7 +3907,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="61"/>
+      <c r="AF28" s="62"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="12"/>
@@ -3920,7 +3929,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="43"/>
+      <c r="T29" s="44"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
       <c r="W29" s="13"/>
@@ -3932,7 +3941,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="61"/>
+      <c r="AF29" s="62"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="12"/>
@@ -3954,7 +3963,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="43"/>
+      <c r="T30" s="44"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
       <c r="W30" s="13"/>
@@ -3966,7 +3975,7 @@
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
-      <c r="AF30" s="61"/>
+      <c r="AF30" s="62"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="12"/>
@@ -3988,7 +3997,7 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="43"/>
+      <c r="T31" s="44"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
       <c r="W31" s="13"/>
@@ -4000,7 +4009,7 @@
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
-      <c r="AF31" s="61"/>
+      <c r="AF31" s="62"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="12"/>
@@ -4022,7 +4031,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="43"/>
+      <c r="T32" s="44"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
@@ -4034,7 +4043,7 @@
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="61"/>
+      <c r="AF32" s="62"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="12"/>
@@ -4056,7 +4065,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="43"/>
+      <c r="T33" s="44"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -4068,7 +4077,7 @@
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="61"/>
+      <c r="AF33" s="62"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="12"/>
@@ -4090,7 +4099,7 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="43"/>
+      <c r="T34" s="44"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
@@ -4102,7 +4111,7 @@
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="61"/>
+      <c r="AF34" s="62"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="12"/>
@@ -4124,7 +4133,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="43"/>
+      <c r="T35" s="44"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
       <c r="W35" s="13"/>
@@ -4136,7 +4145,7 @@
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="61"/>
+      <c r="AF35" s="62"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="12"/>
@@ -4158,7 +4167,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="43"/>
+      <c r="T36" s="44"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
@@ -4170,7 +4179,7 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
-      <c r="AF36" s="61"/>
+      <c r="AF36" s="62"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="12"/>
@@ -4192,7 +4201,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="43"/>
+      <c r="T37" s="44"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -4204,7 +4213,7 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="61"/>
+      <c r="AF37" s="62"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="12"/>
@@ -4226,7 +4235,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="43"/>
+      <c r="T38" s="44"/>
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -4238,7 +4247,7 @@
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="61"/>
+      <c r="AF38" s="62"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="12"/>
@@ -4260,7 +4269,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="43"/>
+      <c r="T39" s="44"/>
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
@@ -4272,7 +4281,7 @@
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="61"/>
+      <c r="AF39" s="62"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="12"/>
@@ -4294,7 +4303,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="43"/>
+      <c r="T40" s="44"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
@@ -4306,7 +4315,7 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="61"/>
+      <c r="AF40" s="62"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="12"/>
@@ -4328,7 +4337,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="43"/>
+      <c r="T41" s="44"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
@@ -4340,7 +4349,7 @@
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
-      <c r="AF41" s="61"/>
+      <c r="AF41" s="62"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="12"/>
@@ -4362,7 +4371,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="43"/>
+      <c r="T42" s="44"/>
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
@@ -4374,7 +4383,7 @@
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
-      <c r="AF42" s="61"/>
+      <c r="AF42" s="62"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="12"/>
@@ -4396,7 +4405,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="43"/>
+      <c r="T43" s="44"/>
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
@@ -4408,7 +4417,7 @@
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="61"/>
+      <c r="AF43" s="62"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="12"/>
@@ -4430,7 +4439,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="43"/>
+      <c r="T44" s="44"/>
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
       <c r="W44" s="13"/>
@@ -4442,7 +4451,7 @@
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="61"/>
+      <c r="AF44" s="62"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="12"/>
@@ -4464,7 +4473,7 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="43"/>
+      <c r="T45" s="44"/>
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
       <c r="W45" s="13"/>
@@ -4476,7 +4485,7 @@
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="61"/>
+      <c r="AF45" s="62"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="12"/>
@@ -4498,7 +4507,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="43"/>
+      <c r="T46" s="44"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
@@ -4510,7 +4519,7 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="61"/>
+      <c r="AF46" s="62"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="12"/>
@@ -4532,7 +4541,7 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="43"/>
+      <c r="T47" s="44"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
       <c r="W47" s="13"/>
@@ -4544,7 +4553,7 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="61"/>
+      <c r="AF47" s="62"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="12"/>
@@ -4566,7 +4575,7 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="43"/>
+      <c r="T48" s="44"/>
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
@@ -4578,7 +4587,7 @@
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
-      <c r="AF48" s="61"/>
+      <c r="AF48" s="62"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="12"/>
@@ -4600,7 +4609,7 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
-      <c r="T49" s="43"/>
+      <c r="T49" s="44"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
       <c r="W49" s="13"/>
@@ -4612,7 +4621,7 @@
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="61"/>
+      <c r="AF49" s="62"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="12"/>
@@ -4634,7 +4643,7 @@
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
-      <c r="T50" s="43"/>
+      <c r="T50" s="44"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
       <c r="W50" s="13"/>
@@ -4646,7 +4655,7 @@
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
-      <c r="AF50" s="61"/>
+      <c r="AF50" s="62"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="12"/>
@@ -4668,7 +4677,7 @@
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
-      <c r="T51" s="43"/>
+      <c r="T51" s="44"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
       <c r="W51" s="13"/>
@@ -4680,7 +4689,7 @@
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
-      <c r="AF51" s="61"/>
+      <c r="AF51" s="62"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="12"/>
@@ -4702,7 +4711,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
-      <c r="T52" s="43"/>
+      <c r="T52" s="44"/>
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
       <c r="W52" s="13"/>
@@ -4714,7 +4723,7 @@
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="61"/>
+      <c r="AF52" s="62"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="12"/>
@@ -4736,7 +4745,7 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
-      <c r="T53" s="43"/>
+      <c r="T53" s="44"/>
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
       <c r="W53" s="13"/>
@@ -4748,7 +4757,7 @@
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
-      <c r="AF53" s="61"/>
+      <c r="AF53" s="62"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="12"/>
@@ -4770,7 +4779,7 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
-      <c r="T54" s="43"/>
+      <c r="T54" s="44"/>
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
       <c r="W54" s="13"/>
@@ -4782,7 +4791,7 @@
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="61"/>
+      <c r="AF54" s="62"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="12"/>
@@ -4804,7 +4813,7 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
-      <c r="T55" s="43"/>
+      <c r="T55" s="44"/>
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
       <c r="W55" s="13"/>
@@ -4816,7 +4825,7 @@
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
-      <c r="AF55" s="61"/>
+      <c r="AF55" s="62"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="12"/>
@@ -4838,7 +4847,7 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
-      <c r="T56" s="43"/>
+      <c r="T56" s="44"/>
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
       <c r="W56" s="13"/>
@@ -4850,7 +4859,7 @@
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
-      <c r="AF56" s="61"/>
+      <c r="AF56" s="62"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="12"/>
@@ -4872,7 +4881,7 @@
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
-      <c r="T57" s="43"/>
+      <c r="T57" s="44"/>
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
       <c r="W57" s="13"/>
@@ -4884,7 +4893,7 @@
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
-      <c r="AF57" s="61"/>
+      <c r="AF57" s="62"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="12"/>
@@ -4906,7 +4915,7 @@
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="43"/>
+      <c r="T58" s="44"/>
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
       <c r="W58" s="13"/>
@@ -4918,7 +4927,7 @@
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
-      <c r="AF58" s="61"/>
+      <c r="AF58" s="62"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="12"/>
@@ -4940,7 +4949,7 @@
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
-      <c r="T59" s="43"/>
+      <c r="T59" s="44"/>
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
       <c r="W59" s="13"/>
@@ -4952,7 +4961,7 @@
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
-      <c r="AF59" s="61"/>
+      <c r="AF59" s="62"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="12"/>
@@ -4974,7 +4983,7 @@
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
-      <c r="T60" s="43"/>
+      <c r="T60" s="44"/>
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
       <c r="W60" s="13"/>
@@ -4986,7 +4995,7 @@
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
-      <c r="AF60" s="61"/>
+      <c r="AF60" s="62"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="12"/>
@@ -5008,7 +5017,7 @@
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
-      <c r="T61" s="43"/>
+      <c r="T61" s="44"/>
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
       <c r="W61" s="13"/>
@@ -5020,7 +5029,7 @@
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
-      <c r="AF61" s="61"/>
+      <c r="AF61" s="62"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="12"/>
@@ -5042,7 +5051,7 @@
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
-      <c r="T62" s="43"/>
+      <c r="T62" s="44"/>
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
       <c r="W62" s="13"/>
@@ -5054,7 +5063,7 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
-      <c r="AF62" s="61"/>
+      <c r="AF62" s="62"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="12"/>
@@ -5076,7 +5085,7 @@
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
-      <c r="T63" s="43"/>
+      <c r="T63" s="44"/>
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
       <c r="W63" s="13"/>
@@ -5088,7 +5097,7 @@
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
-      <c r="AF63" s="61"/>
+      <c r="AF63" s="62"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="12"/>
@@ -5110,7 +5119,7 @@
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
-      <c r="T64" s="43"/>
+      <c r="T64" s="44"/>
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
       <c r="W64" s="13"/>
@@ -5122,7 +5131,7 @@
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
-      <c r="AF64" s="61"/>
+      <c r="AF64" s="62"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="12"/>
@@ -5144,7 +5153,7 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
-      <c r="T65" s="43"/>
+      <c r="T65" s="44"/>
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
       <c r="W65" s="13"/>
@@ -5156,7 +5165,7 @@
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
-      <c r="AF65" s="61"/>
+      <c r="AF65" s="62"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="12"/>
@@ -5178,7 +5187,7 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="43"/>
+      <c r="T66" s="44"/>
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
       <c r="W66" s="13"/>
@@ -5190,7 +5199,7 @@
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
-      <c r="AF66" s="61"/>
+      <c r="AF66" s="62"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="12"/>
@@ -5212,7 +5221,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
-      <c r="T67" s="43"/>
+      <c r="T67" s="44"/>
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
       <c r="W67" s="13"/>
@@ -5224,7 +5233,7 @@
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
-      <c r="AF67" s="61"/>
+      <c r="AF67" s="62"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="12"/>
@@ -5246,7 +5255,7 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
-      <c r="T68" s="43"/>
+      <c r="T68" s="44"/>
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
@@ -5258,7 +5267,7 @@
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
-      <c r="AF68" s="61"/>
+      <c r="AF68" s="62"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="12"/>
@@ -5280,7 +5289,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
-      <c r="T69" s="43"/>
+      <c r="T69" s="44"/>
       <c r="U69" s="13"/>
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
@@ -5292,7 +5301,7 @@
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
-      <c r="AF69" s="61"/>
+      <c r="AF69" s="62"/>
     </row>
     <row r="70" spans="1:32">
       <c r="A70" s="12"/>
@@ -5314,7 +5323,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="43"/>
+      <c r="T70" s="44"/>
       <c r="U70" s="13"/>
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
@@ -5326,7 +5335,7 @@
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
-      <c r="AF70" s="61"/>
+      <c r="AF70" s="62"/>
     </row>
     <row r="71" spans="1:32">
       <c r="A71" s="12"/>
@@ -5348,7 +5357,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
-      <c r="T71" s="43"/>
+      <c r="T71" s="44"/>
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
@@ -5360,7 +5369,7 @@
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
-      <c r="AF71" s="61"/>
+      <c r="AF71" s="62"/>
     </row>
     <row r="72" spans="1:32">
       <c r="A72" s="12"/>
@@ -5382,7 +5391,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
-      <c r="T72" s="43"/>
+      <c r="T72" s="44"/>
       <c r="U72" s="13"/>
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
@@ -5394,7 +5403,7 @@
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
-      <c r="AF72" s="61"/>
+      <c r="AF72" s="62"/>
     </row>
     <row r="73" spans="1:32">
       <c r="A73" s="12"/>
@@ -5416,7 +5425,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
-      <c r="T73" s="43"/>
+      <c r="T73" s="44"/>
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
       <c r="W73" s="13"/>
@@ -5428,7 +5437,7 @@
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
-      <c r="AF73" s="61"/>
+      <c r="AF73" s="62"/>
     </row>
     <row r="74" spans="1:32">
       <c r="A74" s="12"/>
@@ -5450,7 +5459,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="43"/>
+      <c r="T74" s="44"/>
       <c r="U74" s="13"/>
       <c r="V74" s="13"/>
       <c r="W74" s="13"/>
@@ -5462,7 +5471,7 @@
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
-      <c r="AF74" s="61"/>
+      <c r="AF74" s="62"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="12"/>
@@ -5484,7 +5493,7 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
-      <c r="T75" s="43"/>
+      <c r="T75" s="44"/>
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
@@ -5496,7 +5505,7 @@
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
-      <c r="AF75" s="61"/>
+      <c r="AF75" s="62"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="12"/>
@@ -5518,7 +5527,7 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
-      <c r="T76" s="43"/>
+      <c r="T76" s="44"/>
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
       <c r="W76" s="13"/>
@@ -5530,7 +5539,7 @@
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
-      <c r="AF76" s="61"/>
+      <c r="AF76" s="62"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="12"/>
@@ -5552,7 +5561,7 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
-      <c r="T77" s="43"/>
+      <c r="T77" s="44"/>
       <c r="U77" s="13"/>
       <c r="V77" s="13"/>
       <c r="W77" s="13"/>
@@ -5564,7 +5573,7 @@
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
-      <c r="AF77" s="61"/>
+      <c r="AF77" s="62"/>
     </row>
     <row r="78" spans="1:32">
       <c r="A78" s="12"/>
@@ -5586,7 +5595,7 @@
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
-      <c r="T78" s="43"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="13"/>
       <c r="V78" s="13"/>
       <c r="W78" s="13"/>
@@ -5598,7 +5607,7 @@
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
-      <c r="AF78" s="61"/>
+      <c r="AF78" s="62"/>
     </row>
     <row r="79" spans="1:32">
       <c r="A79" s="12"/>
@@ -5620,7 +5629,7 @@
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
-      <c r="T79" s="43"/>
+      <c r="T79" s="44"/>
       <c r="U79" s="13"/>
       <c r="V79" s="13"/>
       <c r="W79" s="13"/>
@@ -5632,7 +5641,7 @@
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
-      <c r="AF79" s="61"/>
+      <c r="AF79" s="62"/>
     </row>
     <row r="80" spans="1:32">
       <c r="A80" s="12"/>
@@ -5654,7 +5663,7 @@
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
-      <c r="T80" s="43"/>
+      <c r="T80" s="44"/>
       <c r="U80" s="13"/>
       <c r="V80" s="13"/>
       <c r="W80" s="13"/>
@@ -5666,7 +5675,7 @@
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
-      <c r="AF80" s="61"/>
+      <c r="AF80" s="62"/>
     </row>
     <row r="81" spans="1:32">
       <c r="A81" s="12"/>
@@ -5688,7 +5697,7 @@
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
-      <c r="T81" s="43"/>
+      <c r="T81" s="44"/>
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
       <c r="W81" s="13"/>
@@ -5700,7 +5709,7 @@
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
-      <c r="AF81" s="61"/>
+      <c r="AF81" s="62"/>
     </row>
     <row r="82" spans="1:32">
       <c r="A82" s="12"/>
@@ -5722,7 +5731,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
-      <c r="T82" s="43"/>
+      <c r="T82" s="44"/>
       <c r="U82" s="13"/>
       <c r="V82" s="13"/>
       <c r="W82" s="13"/>
@@ -5734,7 +5743,7 @@
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
-      <c r="AF82" s="61"/>
+      <c r="AF82" s="62"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="12"/>
@@ -5756,7 +5765,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
-      <c r="T83" s="43"/>
+      <c r="T83" s="44"/>
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
       <c r="W83" s="13"/>
@@ -5768,7 +5777,7 @@
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
-      <c r="AF83" s="61"/>
+      <c r="AF83" s="62"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="12"/>
@@ -5790,7 +5799,7 @@
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
-      <c r="T84" s="43"/>
+      <c r="T84" s="44"/>
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
       <c r="W84" s="13"/>
@@ -5802,7 +5811,7 @@
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
-      <c r="AF84" s="61"/>
+      <c r="AF84" s="62"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="12"/>
@@ -5824,7 +5833,7 @@
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
-      <c r="T85" s="43"/>
+      <c r="T85" s="44"/>
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
       <c r="W85" s="13"/>
@@ -5836,7 +5845,7 @@
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
-      <c r="AF85" s="61"/>
+      <c r="AF85" s="62"/>
     </row>
     <row r="86" spans="1:32">
       <c r="A86" s="12"/>
@@ -5858,7 +5867,7 @@
       <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
-      <c r="T86" s="43"/>
+      <c r="T86" s="44"/>
       <c r="U86" s="13"/>
       <c r="V86" s="13"/>
       <c r="W86" s="13"/>
@@ -5870,7 +5879,7 @@
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
-      <c r="AF86" s="61"/>
+      <c r="AF86" s="62"/>
     </row>
     <row r="87" spans="1:32">
       <c r="A87" s="12"/>
@@ -5892,7 +5901,7 @@
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
-      <c r="T87" s="43"/>
+      <c r="T87" s="44"/>
       <c r="U87" s="13"/>
       <c r="V87" s="13"/>
       <c r="W87" s="13"/>
@@ -5904,7 +5913,7 @@
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
-      <c r="AF87" s="61"/>
+      <c r="AF87" s="62"/>
     </row>
     <row r="88" spans="1:32">
       <c r="A88" s="12"/>
@@ -5926,7 +5935,7 @@
       <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
-      <c r="T88" s="43"/>
+      <c r="T88" s="44"/>
       <c r="U88" s="13"/>
       <c r="V88" s="13"/>
       <c r="W88" s="13"/>
@@ -5938,7 +5947,7 @@
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
-      <c r="AF88" s="61"/>
+      <c r="AF88" s="62"/>
     </row>
     <row r="89" spans="1:32">
       <c r="A89" s="12"/>
@@ -5960,7 +5969,7 @@
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
-      <c r="T89" s="43"/>
+      <c r="T89" s="44"/>
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
       <c r="W89" s="13"/>
@@ -5972,7 +5981,7 @@
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
-      <c r="AF89" s="61"/>
+      <c r="AF89" s="62"/>
     </row>
     <row r="90" spans="1:32">
       <c r="A90" s="12"/>
@@ -5994,7 +6003,7 @@
       <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
-      <c r="T90" s="43"/>
+      <c r="T90" s="44"/>
       <c r="U90" s="13"/>
       <c r="V90" s="13"/>
       <c r="W90" s="13"/>
@@ -6006,7 +6015,7 @@
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
-      <c r="AF90" s="61"/>
+      <c r="AF90" s="62"/>
     </row>
     <row r="91" spans="1:32">
       <c r="A91" s="12"/>
@@ -6028,7 +6037,7 @@
       <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
-      <c r="T91" s="43"/>
+      <c r="T91" s="44"/>
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
       <c r="W91" s="13"/>
@@ -6040,7 +6049,7 @@
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
-      <c r="AF91" s="61"/>
+      <c r="AF91" s="62"/>
     </row>
     <row r="92" spans="1:32">
       <c r="A92" s="12"/>
@@ -6062,7 +6071,7 @@
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
-      <c r="T92" s="43"/>
+      <c r="T92" s="44"/>
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
       <c r="W92" s="13"/>
@@ -6074,7 +6083,7 @@
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
-      <c r="AF92" s="61"/>
+      <c r="AF92" s="62"/>
     </row>
     <row r="93" spans="1:32">
       <c r="A93" s="12"/>
@@ -6096,7 +6105,7 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
-      <c r="T93" s="43"/>
+      <c r="T93" s="44"/>
       <c r="U93" s="13"/>
       <c r="V93" s="13"/>
       <c r="W93" s="13"/>
@@ -6108,7 +6117,7 @@
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
-      <c r="AF93" s="61"/>
+      <c r="AF93" s="62"/>
     </row>
     <row r="94" spans="1:32">
       <c r="A94" s="12"/>
@@ -6130,7 +6139,7 @@
       <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
-      <c r="T94" s="43"/>
+      <c r="T94" s="44"/>
       <c r="U94" s="13"/>
       <c r="V94" s="13"/>
       <c r="W94" s="13"/>
@@ -6142,7 +6151,7 @@
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
-      <c r="AF94" s="61"/>
+      <c r="AF94" s="62"/>
     </row>
     <row r="95" spans="1:32">
       <c r="A95" s="12"/>
@@ -6164,7 +6173,7 @@
       <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
-      <c r="T95" s="43"/>
+      <c r="T95" s="44"/>
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
       <c r="W95" s="13"/>
@@ -6176,7 +6185,7 @@
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
-      <c r="AF95" s="61"/>
+      <c r="AF95" s="62"/>
     </row>
     <row r="96" spans="1:32">
       <c r="A96" s="12"/>
@@ -6198,7 +6207,7 @@
       <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
-      <c r="T96" s="43"/>
+      <c r="T96" s="44"/>
       <c r="U96" s="13"/>
       <c r="V96" s="13"/>
       <c r="W96" s="13"/>
@@ -6210,7 +6219,7 @@
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
-      <c r="AF96" s="61"/>
+      <c r="AF96" s="62"/>
     </row>
     <row r="97" spans="1:32">
       <c r="A97" s="12"/>
@@ -6232,7 +6241,7 @@
       <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
-      <c r="T97" s="43"/>
+      <c r="T97" s="44"/>
       <c r="U97" s="13"/>
       <c r="V97" s="13"/>
       <c r="W97" s="13"/>
@@ -6244,7 +6253,7 @@
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
-      <c r="AF97" s="61"/>
+      <c r="AF97" s="62"/>
     </row>
     <row r="98" spans="1:32">
       <c r="A98" s="12"/>
@@ -6266,7 +6275,7 @@
       <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
-      <c r="T98" s="43"/>
+      <c r="T98" s="44"/>
       <c r="U98" s="13"/>
       <c r="V98" s="13"/>
       <c r="W98" s="13"/>
@@ -6278,7 +6287,7 @@
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
-      <c r="AF98" s="61"/>
+      <c r="AF98" s="62"/>
     </row>
     <row r="99" spans="1:32">
       <c r="A99" s="12"/>
@@ -6300,7 +6309,7 @@
       <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
-      <c r="T99" s="43"/>
+      <c r="T99" s="44"/>
       <c r="U99" s="13"/>
       <c r="V99" s="13"/>
       <c r="W99" s="13"/>
@@ -6312,7 +6321,7 @@
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
-      <c r="AF99" s="61"/>
+      <c r="AF99" s="62"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="12"/>
@@ -6334,7 +6343,7 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
-      <c r="T100" s="43"/>
+      <c r="T100" s="44"/>
       <c r="U100" s="13"/>
       <c r="V100" s="13"/>
       <c r="W100" s="13"/>
@@ -6346,7 +6355,7 @@
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
-      <c r="AF100" s="61"/>
+      <c r="AF100" s="62"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="12"/>
@@ -6368,7 +6377,7 @@
       <c r="Q101" s="13"/>
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
-      <c r="T101" s="43"/>
+      <c r="T101" s="44"/>
       <c r="U101" s="13"/>
       <c r="V101" s="13"/>
       <c r="W101" s="13"/>
@@ -6380,7 +6389,7 @@
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
-      <c r="AF101" s="61"/>
+      <c r="AF101" s="62"/>
     </row>
     <row r="102" spans="1:32">
       <c r="A102" s="12"/>
@@ -6402,7 +6411,7 @@
       <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
-      <c r="T102" s="43"/>
+      <c r="T102" s="44"/>
       <c r="U102" s="13"/>
       <c r="V102" s="13"/>
       <c r="W102" s="13"/>
@@ -6414,7 +6423,7 @@
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
-      <c r="AF102" s="61"/>
+      <c r="AF102" s="62"/>
     </row>
     <row r="103" spans="1:32">
       <c r="A103" s="12"/>
@@ -6436,7 +6445,7 @@
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
-      <c r="T103" s="43"/>
+      <c r="T103" s="44"/>
       <c r="U103" s="13"/>
       <c r="V103" s="13"/>
       <c r="W103" s="13"/>
@@ -6448,7 +6457,7 @@
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
-      <c r="AF103" s="61"/>
+      <c r="AF103" s="62"/>
     </row>
     <row r="104" spans="1:32">
       <c r="A104" s="12"/>
@@ -6470,7 +6479,7 @@
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
-      <c r="T104" s="43"/>
+      <c r="T104" s="44"/>
       <c r="U104" s="13"/>
       <c r="V104" s="13"/>
       <c r="W104" s="13"/>
@@ -6482,7 +6491,7 @@
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
-      <c r="AF104" s="61"/>
+      <c r="AF104" s="62"/>
     </row>
     <row r="105" spans="1:32">
       <c r="A105" s="12"/>
@@ -6504,7 +6513,7 @@
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
-      <c r="T105" s="43"/>
+      <c r="T105" s="44"/>
       <c r="U105" s="13"/>
       <c r="V105" s="13"/>
       <c r="W105" s="13"/>
@@ -6516,7 +6525,7 @@
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
-      <c r="AF105" s="61"/>
+      <c r="AF105" s="62"/>
     </row>
     <row r="106" spans="1:32">
       <c r="A106" s="12"/>
@@ -6538,7 +6547,7 @@
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
-      <c r="T106" s="43"/>
+      <c r="T106" s="44"/>
       <c r="U106" s="13"/>
       <c r="V106" s="13"/>
       <c r="W106" s="13"/>
@@ -6550,7 +6559,7 @@
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
-      <c r="AF106" s="61"/>
+      <c r="AF106" s="62"/>
     </row>
     <row r="107" spans="1:32">
       <c r="A107" s="12"/>
@@ -6572,7 +6581,7 @@
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
-      <c r="T107" s="43"/>
+      <c r="T107" s="44"/>
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
@@ -6584,7 +6593,7 @@
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
-      <c r="AF107" s="61"/>
+      <c r="AF107" s="62"/>
     </row>
     <row r="108" spans="1:32">
       <c r="A108" s="12"/>
@@ -6606,7 +6615,7 @@
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
-      <c r="T108" s="43"/>
+      <c r="T108" s="44"/>
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
       <c r="W108" s="13"/>
@@ -6618,7 +6627,7 @@
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
-      <c r="AF108" s="61"/>
+      <c r="AF108" s="62"/>
     </row>
     <row r="109" spans="1:32">
       <c r="A109" s="12"/>
@@ -6640,7 +6649,7 @@
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
-      <c r="T109" s="43"/>
+      <c r="T109" s="44"/>
       <c r="U109" s="13"/>
       <c r="V109" s="13"/>
       <c r="W109" s="13"/>
@@ -6652,7 +6661,7 @@
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
-      <c r="AF109" s="61"/>
+      <c r="AF109" s="62"/>
     </row>
     <row r="110" spans="1:32">
       <c r="A110" s="12"/>
@@ -6674,7 +6683,7 @@
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
-      <c r="T110" s="43"/>
+      <c r="T110" s="44"/>
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
       <c r="W110" s="13"/>
@@ -6686,7 +6695,7 @@
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
-      <c r="AF110" s="61"/>
+      <c r="AF110" s="62"/>
     </row>
     <row r="111" spans="1:32">
       <c r="A111" s="12"/>
@@ -6708,7 +6717,7 @@
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
-      <c r="T111" s="43"/>
+      <c r="T111" s="44"/>
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
       <c r="W111" s="13"/>
@@ -6720,7 +6729,7 @@
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
-      <c r="AF111" s="61"/>
+      <c r="AF111" s="62"/>
     </row>
     <row r="112" spans="1:32">
       <c r="A112" s="12"/>
@@ -6742,7 +6751,7 @@
       <c r="Q112" s="13"/>
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
-      <c r="T112" s="43"/>
+      <c r="T112" s="44"/>
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
       <c r="W112" s="13"/>
@@ -6754,7 +6763,7 @@
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
-      <c r="AF112" s="61"/>
+      <c r="AF112" s="62"/>
     </row>
     <row r="113" spans="1:32">
       <c r="A113" s="12"/>
@@ -6776,7 +6785,7 @@
       <c r="Q113" s="13"/>
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
-      <c r="T113" s="43"/>
+      <c r="T113" s="44"/>
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
       <c r="W113" s="13"/>
@@ -6788,7 +6797,7 @@
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
-      <c r="AF113" s="61"/>
+      <c r="AF113" s="62"/>
     </row>
     <row r="114" spans="1:32">
       <c r="A114" s="12"/>
@@ -6810,7 +6819,7 @@
       <c r="Q114" s="13"/>
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
-      <c r="T114" s="43"/>
+      <c r="T114" s="44"/>
       <c r="U114" s="13"/>
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
@@ -6822,7 +6831,7 @@
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
-      <c r="AF114" s="61"/>
+      <c r="AF114" s="62"/>
     </row>
     <row r="115" spans="1:32">
       <c r="A115" s="12"/>
@@ -6844,7 +6853,7 @@
       <c r="Q115" s="13"/>
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
-      <c r="T115" s="43"/>
+      <c r="T115" s="44"/>
       <c r="U115" s="13"/>
       <c r="V115" s="13"/>
       <c r="W115" s="13"/>
@@ -6856,7 +6865,7 @@
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
-      <c r="AF115" s="61"/>
+      <c r="AF115" s="62"/>
     </row>
     <row r="116" spans="1:32">
       <c r="A116" s="12"/>
@@ -6878,7 +6887,7 @@
       <c r="Q116" s="13"/>
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
-      <c r="T116" s="43"/>
+      <c r="T116" s="44"/>
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
       <c r="W116" s="13"/>
@@ -6890,7 +6899,7 @@
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
-      <c r="AF116" s="61"/>
+      <c r="AF116" s="62"/>
     </row>
     <row r="117" spans="1:32">
       <c r="A117" s="12"/>
@@ -6912,7 +6921,7 @@
       <c r="Q117" s="13"/>
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
-      <c r="T117" s="43"/>
+      <c r="T117" s="44"/>
       <c r="U117" s="13"/>
       <c r="V117" s="13"/>
       <c r="W117" s="13"/>
@@ -6924,7 +6933,7 @@
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
-      <c r="AF117" s="61"/>
+      <c r="AF117" s="62"/>
     </row>
     <row r="118" spans="1:32">
       <c r="A118" s="12"/>
@@ -6946,7 +6955,7 @@
       <c r="Q118" s="13"/>
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
-      <c r="T118" s="43"/>
+      <c r="T118" s="44"/>
       <c r="U118" s="13"/>
       <c r="V118" s="13"/>
       <c r="W118" s="13"/>
@@ -6958,7 +6967,7 @@
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
-      <c r="AF118" s="61"/>
+      <c r="AF118" s="62"/>
     </row>
     <row r="119" spans="1:32">
       <c r="A119" s="12"/>
@@ -6980,7 +6989,7 @@
       <c r="Q119" s="13"/>
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
-      <c r="T119" s="43"/>
+      <c r="T119" s="44"/>
       <c r="U119" s="13"/>
       <c r="V119" s="13"/>
       <c r="W119" s="13"/>
@@ -6992,7 +7001,7 @@
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
-      <c r="AF119" s="61"/>
+      <c r="AF119" s="62"/>
     </row>
     <row r="120" spans="1:32">
       <c r="A120" s="12"/>
@@ -7014,7 +7023,7 @@
       <c r="Q120" s="13"/>
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
-      <c r="T120" s="43"/>
+      <c r="T120" s="44"/>
       <c r="U120" s="13"/>
       <c r="V120" s="13"/>
       <c r="W120" s="13"/>
@@ -7026,7 +7035,7 @@
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
-      <c r="AF120" s="61"/>
+      <c r="AF120" s="62"/>
     </row>
     <row r="121" spans="1:32">
       <c r="A121" s="12"/>
@@ -7048,7 +7057,7 @@
       <c r="Q121" s="13"/>
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
-      <c r="T121" s="43"/>
+      <c r="T121" s="44"/>
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
       <c r="W121" s="13"/>
@@ -7060,7 +7069,7 @@
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
-      <c r="AF121" s="61"/>
+      <c r="AF121" s="62"/>
     </row>
     <row r="122" spans="1:32">
       <c r="A122" s="12"/>
@@ -7082,7 +7091,7 @@
       <c r="Q122" s="13"/>
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
-      <c r="T122" s="43"/>
+      <c r="T122" s="44"/>
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
       <c r="W122" s="13"/>
@@ -7094,7 +7103,7 @@
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
-      <c r="AF122" s="61"/>
+      <c r="AF122" s="62"/>
     </row>
     <row r="123" spans="1:32">
       <c r="A123" s="12"/>
@@ -7116,7 +7125,7 @@
       <c r="Q123" s="13"/>
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
-      <c r="T123" s="43"/>
+      <c r="T123" s="44"/>
       <c r="U123" s="13"/>
       <c r="V123" s="13"/>
       <c r="W123" s="13"/>
@@ -7128,7 +7137,7 @@
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
-      <c r="AF123" s="61"/>
+      <c r="AF123" s="62"/>
     </row>
     <row r="124" spans="1:32">
       <c r="A124" s="12"/>
@@ -7150,7 +7159,7 @@
       <c r="Q124" s="13"/>
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
-      <c r="T124" s="43"/>
+      <c r="T124" s="44"/>
       <c r="U124" s="13"/>
       <c r="V124" s="13"/>
       <c r="W124" s="13"/>
@@ -7162,7 +7171,7 @@
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
-      <c r="AF124" s="61"/>
+      <c r="AF124" s="62"/>
     </row>
     <row r="125" spans="1:32">
       <c r="A125" s="12"/>
@@ -7184,7 +7193,7 @@
       <c r="Q125" s="13"/>
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
-      <c r="T125" s="43"/>
+      <c r="T125" s="44"/>
       <c r="U125" s="13"/>
       <c r="V125" s="13"/>
       <c r="W125" s="13"/>
@@ -7196,7 +7205,7 @@
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
-      <c r="AF125" s="61"/>
+      <c r="AF125" s="62"/>
     </row>
     <row r="126" spans="1:32">
       <c r="A126" s="12"/>
@@ -7218,7 +7227,7 @@
       <c r="Q126" s="13"/>
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
-      <c r="T126" s="43"/>
+      <c r="T126" s="44"/>
       <c r="U126" s="13"/>
       <c r="V126" s="13"/>
       <c r="W126" s="13"/>
@@ -7230,7 +7239,7 @@
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
-      <c r="AF126" s="61"/>
+      <c r="AF126" s="62"/>
     </row>
     <row r="127" spans="1:32">
       <c r="A127" s="12"/>
@@ -7252,7 +7261,7 @@
       <c r="Q127" s="13"/>
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
-      <c r="T127" s="43"/>
+      <c r="T127" s="44"/>
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
       <c r="W127" s="13"/>
@@ -7264,7 +7273,7 @@
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
-      <c r="AF127" s="61"/>
+      <c r="AF127" s="62"/>
     </row>
     <row r="128" spans="1:32">
       <c r="A128" s="12"/>
@@ -7286,7 +7295,7 @@
       <c r="Q128" s="13"/>
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
-      <c r="T128" s="43"/>
+      <c r="T128" s="44"/>
       <c r="U128" s="13"/>
       <c r="V128" s="13"/>
       <c r="W128" s="13"/>
@@ -7298,7 +7307,7 @@
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
-      <c r="AF128" s="61"/>
+      <c r="AF128" s="62"/>
     </row>
     <row r="129" spans="1:32">
       <c r="A129" s="12"/>
@@ -7320,7 +7329,7 @@
       <c r="Q129" s="13"/>
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
-      <c r="T129" s="43"/>
+      <c r="T129" s="44"/>
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
       <c r="W129" s="13"/>
@@ -7332,7 +7341,7 @@
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
-      <c r="AF129" s="61"/>
+      <c r="AF129" s="62"/>
     </row>
     <row r="130" spans="1:32">
       <c r="A130" s="12"/>
@@ -7354,7 +7363,7 @@
       <c r="Q130" s="13"/>
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
-      <c r="T130" s="43"/>
+      <c r="T130" s="44"/>
       <c r="U130" s="13"/>
       <c r="V130" s="13"/>
       <c r="W130" s="13"/>
@@ -7366,7 +7375,7 @@
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
-      <c r="AF130" s="61"/>
+      <c r="AF130" s="62"/>
     </row>
     <row r="131" spans="1:32">
       <c r="A131" s="12"/>
@@ -7388,7 +7397,7 @@
       <c r="Q131" s="13"/>
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
-      <c r="T131" s="43"/>
+      <c r="T131" s="44"/>
       <c r="U131" s="13"/>
       <c r="V131" s="13"/>
       <c r="W131" s="13"/>
@@ -7400,7 +7409,7 @@
       <c r="AC131" s="5"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
-      <c r="AF131" s="61"/>
+      <c r="AF131" s="62"/>
     </row>
     <row r="132" spans="1:23">
       <c r="A132" s="2"/>
@@ -7414,14 +7423,14 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
-      <c r="M132" s="64"/>
+      <c r="M132" s="65"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
-      <c r="T132" s="65"/>
+      <c r="T132" s="66"/>
       <c r="W132" s="2"/>
     </row>
     <row r="133" spans="1:23">
@@ -7436,14 +7445,14 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="64"/>
+      <c r="M133" s="65"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
-      <c r="T133" s="65"/>
+      <c r="T133" s="66"/>
       <c r="W133" s="2"/>
     </row>
     <row r="134" spans="1:23">
@@ -7458,14 +7467,14 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
-      <c r="M134" s="64"/>
+      <c r="M134" s="65"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
-      <c r="T134" s="65"/>
+      <c r="T134" s="66"/>
       <c r="W134" s="2"/>
     </row>
     <row r="135" spans="1:23">
@@ -7480,14 +7489,14 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
-      <c r="M135" s="64"/>
+      <c r="M135" s="65"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
-      <c r="T135" s="65"/>
+      <c r="T135" s="66"/>
       <c r="W135" s="2"/>
     </row>
     <row r="136" spans="1:23">
@@ -7502,14 +7511,14 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
-      <c r="M136" s="64"/>
+      <c r="M136" s="65"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
-      <c r="T136" s="65"/>
+      <c r="T136" s="66"/>
       <c r="W136" s="2"/>
     </row>
     <row r="137" spans="1:23">
@@ -7524,14 +7533,14 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
-      <c r="M137" s="64"/>
+      <c r="M137" s="65"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
-      <c r="T137" s="65"/>
+      <c r="T137" s="66"/>
       <c r="W137" s="2"/>
     </row>
     <row r="138" spans="1:23">
@@ -7546,14 +7555,14 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="M138" s="64"/>
+      <c r="M138" s="65"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
-      <c r="T138" s="65"/>
+      <c r="T138" s="66"/>
       <c r="W138" s="2"/>
     </row>
     <row r="139" spans="1:23">
@@ -7568,14 +7577,14 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
-      <c r="M139" s="64"/>
+      <c r="M139" s="65"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
-      <c r="T139" s="65"/>
+      <c r="T139" s="66"/>
       <c r="W139" s="2"/>
     </row>
     <row r="140" spans="1:23">
@@ -7590,14 +7599,14 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
-      <c r="M140" s="64"/>
+      <c r="M140" s="65"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
-      <c r="T140" s="65"/>
+      <c r="T140" s="66"/>
       <c r="W140" s="2"/>
     </row>
     <row r="141" spans="1:23">
@@ -7612,14 +7621,14 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
-      <c r="M141" s="64"/>
+      <c r="M141" s="65"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
-      <c r="T141" s="65"/>
+      <c r="T141" s="66"/>
       <c r="W141" s="2"/>
     </row>
     <row r="142" spans="1:23">
@@ -7634,14 +7643,14 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
-      <c r="M142" s="64"/>
+      <c r="M142" s="65"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
-      <c r="T142" s="65"/>
+      <c r="T142" s="66"/>
       <c r="W142" s="2"/>
     </row>
     <row r="143" spans="1:23">
@@ -7656,14 +7665,14 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="64"/>
+      <c r="M143" s="65"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
-      <c r="T143" s="65"/>
+      <c r="T143" s="66"/>
       <c r="W143" s="2"/>
     </row>
     <row r="144" spans="1:23">
@@ -7678,14 +7687,14 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="64"/>
+      <c r="M144" s="65"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
-      <c r="T144" s="65"/>
+      <c r="T144" s="66"/>
       <c r="W144" s="2"/>
     </row>
     <row r="145" spans="1:23">
@@ -7700,14 +7709,14 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="64"/>
+      <c r="M145" s="65"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
-      <c r="T145" s="65"/>
+      <c r="T145" s="66"/>
       <c r="W145" s="2"/>
     </row>
     <row r="146" spans="1:23">
@@ -7722,14 +7731,14 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="64"/>
+      <c r="M146" s="65"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
-      <c r="T146" s="65"/>
+      <c r="T146" s="66"/>
       <c r="W146" s="2"/>
     </row>
     <row r="147" spans="1:23">
@@ -7744,14 +7753,14 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
-      <c r="M147" s="64"/>
+      <c r="M147" s="65"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
-      <c r="T147" s="65"/>
+      <c r="T147" s="66"/>
       <c r="W147" s="2"/>
     </row>
     <row r="148" spans="1:23">
@@ -7766,14 +7775,14 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
-      <c r="M148" s="64"/>
+      <c r="M148" s="65"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
-      <c r="T148" s="65"/>
+      <c r="T148" s="66"/>
       <c r="W148" s="2"/>
     </row>
     <row r="149" spans="1:23">
@@ -7788,14 +7797,14 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
-      <c r="M149" s="64"/>
+      <c r="M149" s="65"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
-      <c r="T149" s="65"/>
+      <c r="T149" s="66"/>
       <c r="W149" s="2"/>
     </row>
     <row r="150" spans="1:23">
@@ -7810,14 +7819,14 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
-      <c r="M150" s="64"/>
+      <c r="M150" s="65"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
-      <c r="T150" s="65"/>
+      <c r="T150" s="66"/>
       <c r="W150" s="2"/>
     </row>
     <row r="151" spans="1:23">
@@ -7832,14 +7841,14 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
-      <c r="M151" s="64"/>
+      <c r="M151" s="65"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
-      <c r="T151" s="65"/>
+      <c r="T151" s="66"/>
       <c r="W151" s="2"/>
     </row>
     <row r="152" spans="1:23">
@@ -7854,14 +7863,14 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
-      <c r="M152" s="64"/>
+      <c r="M152" s="65"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
-      <c r="T152" s="65"/>
+      <c r="T152" s="66"/>
       <c r="W152" s="2"/>
     </row>
     <row r="153" spans="1:23">
@@ -7876,14 +7885,14 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
-      <c r="M153" s="64"/>
+      <c r="M153" s="65"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
-      <c r="T153" s="65"/>
+      <c r="T153" s="66"/>
       <c r="W153" s="2"/>
     </row>
     <row r="154" spans="1:23">
@@ -7898,14 +7907,14 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
-      <c r="M154" s="64"/>
+      <c r="M154" s="65"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
-      <c r="T154" s="65"/>
+      <c r="T154" s="66"/>
       <c r="W154" s="2"/>
     </row>
     <row r="155" spans="1:23">
@@ -7920,14 +7929,14 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
-      <c r="M155" s="64"/>
+      <c r="M155" s="65"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
-      <c r="T155" s="65"/>
+      <c r="T155" s="66"/>
       <c r="W155" s="2"/>
     </row>
     <row r="156" spans="1:23">
@@ -7942,14 +7951,14 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
-      <c r="M156" s="64"/>
+      <c r="M156" s="65"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
-      <c r="T156" s="65"/>
+      <c r="T156" s="66"/>
       <c r="W156" s="2"/>
     </row>
     <row r="157" spans="1:23">
@@ -7964,14 +7973,14 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
-      <c r="M157" s="64"/>
+      <c r="M157" s="65"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
-      <c r="T157" s="65"/>
+      <c r="T157" s="66"/>
       <c r="W157" s="2"/>
     </row>
     <row r="158" spans="1:23">
@@ -7986,14 +7995,14 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
-      <c r="M158" s="64"/>
+      <c r="M158" s="65"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
-      <c r="T158" s="65"/>
+      <c r="T158" s="66"/>
       <c r="W158" s="2"/>
     </row>
     <row r="159" spans="1:23">
@@ -8008,14 +8017,14 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
-      <c r="M159" s="64"/>
+      <c r="M159" s="65"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
-      <c r="T159" s="65"/>
+      <c r="T159" s="66"/>
       <c r="W159" s="2"/>
     </row>
     <row r="160" spans="1:23">
@@ -8030,14 +8039,14 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
-      <c r="M160" s="64"/>
+      <c r="M160" s="65"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
-      <c r="T160" s="65"/>
+      <c r="T160" s="66"/>
       <c r="W160" s="2"/>
     </row>
     <row r="161" spans="1:23">
@@ -8052,14 +8061,14 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
-      <c r="M161" s="64"/>
+      <c r="M161" s="65"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
-      <c r="T161" s="65"/>
+      <c r="T161" s="66"/>
       <c r="W161" s="2"/>
     </row>
     <row r="162" spans="1:23">
@@ -8074,14 +8083,14 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
-      <c r="M162" s="64"/>
+      <c r="M162" s="65"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
-      <c r="T162" s="65"/>
+      <c r="T162" s="66"/>
       <c r="W162" s="2"/>
     </row>
     <row r="163" spans="1:23">
@@ -8096,14 +8105,14 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
-      <c r="M163" s="64"/>
+      <c r="M163" s="65"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
-      <c r="T163" s="65"/>
+      <c r="T163" s="66"/>
       <c r="W163" s="2"/>
     </row>
     <row r="164" spans="1:23">
@@ -8118,14 +8127,14 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
-      <c r="M164" s="64"/>
+      <c r="M164" s="65"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
-      <c r="T164" s="65"/>
+      <c r="T164" s="66"/>
       <c r="W164" s="2"/>
     </row>
     <row r="165" spans="1:23">
@@ -8140,14 +8149,14 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
-      <c r="M165" s="64"/>
+      <c r="M165" s="65"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
-      <c r="T165" s="65"/>
+      <c r="T165" s="66"/>
       <c r="W165" s="2"/>
     </row>
     <row r="166" spans="1:23">
@@ -8162,14 +8171,14 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
-      <c r="M166" s="64"/>
+      <c r="M166" s="65"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
-      <c r="T166" s="65"/>
+      <c r="T166" s="66"/>
       <c r="W166" s="2"/>
     </row>
     <row r="167" spans="1:23">
@@ -8184,14 +8193,14 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
-      <c r="M167" s="64"/>
+      <c r="M167" s="65"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
-      <c r="T167" s="65"/>
+      <c r="T167" s="66"/>
       <c r="W167" s="2"/>
     </row>
     <row r="168" spans="1:23">
@@ -8206,14 +8215,14 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
-      <c r="M168" s="64"/>
+      <c r="M168" s="65"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
-      <c r="T168" s="65"/>
+      <c r="T168" s="66"/>
       <c r="W168" s="2"/>
     </row>
     <row r="169" spans="1:23">
@@ -8228,14 +8237,14 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
-      <c r="M169" s="64"/>
+      <c r="M169" s="65"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
-      <c r="T169" s="65"/>
+      <c r="T169" s="66"/>
       <c r="W169" s="2"/>
     </row>
     <row r="170" spans="1:23">
@@ -8250,14 +8259,14 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
-      <c r="M170" s="64"/>
+      <c r="M170" s="65"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
-      <c r="T170" s="65"/>
+      <c r="T170" s="66"/>
       <c r="W170" s="2"/>
     </row>
     <row r="171" spans="1:23">
@@ -8272,14 +8281,14 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="64"/>
+      <c r="M171" s="65"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
-      <c r="T171" s="65"/>
+      <c r="T171" s="66"/>
       <c r="W171" s="2"/>
     </row>
     <row r="172" spans="1:23">
@@ -8294,14 +8303,14 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="64"/>
+      <c r="M172" s="65"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
-      <c r="T172" s="65"/>
+      <c r="T172" s="66"/>
       <c r="W172" s="2"/>
     </row>
     <row r="173" spans="1:23">
@@ -8316,14 +8325,14 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="64"/>
+      <c r="M173" s="65"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
-      <c r="T173" s="65"/>
+      <c r="T173" s="66"/>
       <c r="W173" s="2"/>
     </row>
     <row r="174" spans="1:23">
@@ -8338,14 +8347,14 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="64"/>
+      <c r="M174" s="65"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
-      <c r="T174" s="65"/>
+      <c r="T174" s="66"/>
       <c r="W174" s="2"/>
     </row>
     <row r="175" spans="1:23">
@@ -8360,14 +8369,14 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="64"/>
+      <c r="M175" s="65"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
-      <c r="T175" s="65"/>
+      <c r="T175" s="66"/>
       <c r="W175" s="2"/>
     </row>
     <row r="176" spans="1:23">
@@ -8382,14 +8391,14 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="64"/>
+      <c r="M176" s="65"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
-      <c r="T176" s="65"/>
+      <c r="T176" s="66"/>
       <c r="W176" s="2"/>
     </row>
     <row r="177" spans="1:23">
@@ -8404,14 +8413,14 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="64"/>
+      <c r="M177" s="65"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
-      <c r="T177" s="65"/>
+      <c r="T177" s="66"/>
       <c r="W177" s="2"/>
     </row>
     <row r="178" spans="1:23">
@@ -8426,14 +8435,14 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="64"/>
+      <c r="M178" s="65"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
-      <c r="T178" s="65"/>
+      <c r="T178" s="66"/>
       <c r="W178" s="2"/>
     </row>
     <row r="179" spans="1:23">
@@ -8448,14 +8457,14 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
-      <c r="M179" s="64"/>
+      <c r="M179" s="65"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
-      <c r="T179" s="65"/>
+      <c r="T179" s="66"/>
       <c r="W179" s="2"/>
     </row>
     <row r="180" spans="1:23">
@@ -8470,14 +8479,14 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
-      <c r="M180" s="64"/>
+      <c r="M180" s="65"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
-      <c r="T180" s="65"/>
+      <c r="T180" s="66"/>
       <c r="W180" s="2"/>
     </row>
     <row r="181" spans="1:23">
@@ -8492,14 +8501,14 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
-      <c r="M181" s="64"/>
+      <c r="M181" s="65"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
-      <c r="T181" s="65"/>
+      <c r="T181" s="66"/>
       <c r="W181" s="2"/>
     </row>
     <row r="182" spans="1:23">
@@ -8514,14 +8523,14 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
-      <c r="M182" s="64"/>
+      <c r="M182" s="65"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
-      <c r="T182" s="65"/>
+      <c r="T182" s="66"/>
       <c r="W182" s="2"/>
     </row>
     <row r="183" spans="1:23">
@@ -8536,14 +8545,14 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
-      <c r="M183" s="64"/>
+      <c r="M183" s="65"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
-      <c r="T183" s="65"/>
+      <c r="T183" s="66"/>
       <c r="W183" s="2"/>
     </row>
     <row r="184" spans="1:23">
@@ -8558,14 +8567,14 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
-      <c r="M184" s="64"/>
+      <c r="M184" s="65"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
-      <c r="T184" s="65"/>
+      <c r="T184" s="66"/>
       <c r="W184" s="2"/>
     </row>
     <row r="185" spans="1:23">
@@ -8580,14 +8589,14 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
-      <c r="M185" s="64"/>
+      <c r="M185" s="65"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
-      <c r="T185" s="65"/>
+      <c r="T185" s="66"/>
       <c r="W185" s="2"/>
     </row>
     <row r="186" spans="1:23">
@@ -8602,14 +8611,14 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
-      <c r="M186" s="64"/>
+      <c r="M186" s="65"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
-      <c r="T186" s="65"/>
+      <c r="T186" s="66"/>
       <c r="W186" s="2"/>
     </row>
     <row r="187" spans="1:23">
@@ -8624,14 +8633,14 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
-      <c r="M187" s="64"/>
+      <c r="M187" s="65"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
-      <c r="T187" s="65"/>
+      <c r="T187" s="66"/>
       <c r="W187" s="2"/>
     </row>
     <row r="188" spans="1:23">
@@ -8646,14 +8655,14 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
-      <c r="M188" s="64"/>
+      <c r="M188" s="65"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
-      <c r="T188" s="65"/>
+      <c r="T188" s="66"/>
       <c r="W188" s="2"/>
     </row>
     <row r="189" spans="1:23">
@@ -8668,14 +8677,14 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
-      <c r="M189" s="64"/>
+      <c r="M189" s="65"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
-      <c r="T189" s="65"/>
+      <c r="T189" s="66"/>
       <c r="W189" s="2"/>
     </row>
     <row r="190" spans="1:23">
@@ -8690,14 +8699,14 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
-      <c r="M190" s="64"/>
+      <c r="M190" s="65"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
-      <c r="T190" s="65"/>
+      <c r="T190" s="66"/>
       <c r="W190" s="2"/>
     </row>
     <row r="191" spans="1:23">
@@ -8712,14 +8721,14 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
-      <c r="M191" s="64"/>
+      <c r="M191" s="65"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
-      <c r="T191" s="65"/>
+      <c r="T191" s="66"/>
       <c r="W191" s="2"/>
     </row>
     <row r="192" spans="1:23">
@@ -8734,14 +8743,14 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
-      <c r="M192" s="64"/>
+      <c r="M192" s="65"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
-      <c r="T192" s="65"/>
+      <c r="T192" s="66"/>
       <c r="W192" s="2"/>
     </row>
     <row r="193" spans="1:23">
@@ -8756,14 +8765,14 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
-      <c r="M193" s="64"/>
+      <c r="M193" s="65"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
-      <c r="T193" s="65"/>
+      <c r="T193" s="66"/>
       <c r="W193" s="2"/>
     </row>
     <row r="194" spans="1:23">
@@ -8778,14 +8787,14 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
-      <c r="M194" s="64"/>
+      <c r="M194" s="65"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
-      <c r="T194" s="65"/>
+      <c r="T194" s="66"/>
       <c r="W194" s="2"/>
     </row>
     <row r="195" spans="1:23">
@@ -8800,14 +8809,14 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
-      <c r="M195" s="64"/>
+      <c r="M195" s="65"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
-      <c r="T195" s="65"/>
+      <c r="T195" s="66"/>
       <c r="W195" s="2"/>
     </row>
     <row r="196" spans="1:23">
@@ -8822,14 +8831,14 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
-      <c r="M196" s="64"/>
+      <c r="M196" s="65"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
-      <c r="T196" s="65"/>
+      <c r="T196" s="66"/>
       <c r="W196" s="2"/>
     </row>
     <row r="197" spans="1:23">
@@ -8844,14 +8853,14 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
-      <c r="M197" s="64"/>
+      <c r="M197" s="65"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
-      <c r="T197" s="65"/>
+      <c r="T197" s="66"/>
       <c r="W197" s="2"/>
     </row>
     <row r="198" spans="1:23">
@@ -8866,14 +8875,14 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
-      <c r="M198" s="64"/>
+      <c r="M198" s="65"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
-      <c r="T198" s="65"/>
+      <c r="T198" s="66"/>
       <c r="W198" s="2"/>
     </row>
     <row r="199" spans="1:23">
@@ -8888,14 +8897,14 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
-      <c r="M199" s="64"/>
+      <c r="M199" s="65"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
-      <c r="T199" s="65"/>
+      <c r="T199" s="66"/>
       <c r="W199" s="2"/>
     </row>
     <row r="200" spans="1:23">
@@ -8910,14 +8919,14 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
-      <c r="M200" s="64"/>
+      <c r="M200" s="65"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
-      <c r="T200" s="65"/>
+      <c r="T200" s="66"/>
       <c r="W200" s="2"/>
     </row>
     <row r="201" spans="1:23">
@@ -8932,14 +8941,14 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
-      <c r="M201" s="64"/>
+      <c r="M201" s="65"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
-      <c r="T201" s="65"/>
+      <c r="T201" s="66"/>
       <c r="W201" s="2"/>
     </row>
     <row r="202" spans="1:23">
@@ -8954,14 +8963,14 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
-      <c r="M202" s="64"/>
+      <c r="M202" s="65"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
-      <c r="T202" s="65"/>
+      <c r="T202" s="66"/>
       <c r="W202" s="2"/>
     </row>
     <row r="203" spans="1:23">
@@ -8976,14 +8985,14 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
-      <c r="M203" s="64"/>
+      <c r="M203" s="65"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
-      <c r="T203" s="65"/>
+      <c r="T203" s="66"/>
       <c r="W203" s="2"/>
     </row>
     <row r="204" spans="1:23">
@@ -8998,14 +9007,14 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
-      <c r="M204" s="64"/>
+      <c r="M204" s="65"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
-      <c r="T204" s="65"/>
+      <c r="T204" s="66"/>
       <c r="W204" s="2"/>
     </row>
     <row r="205" spans="1:23">
@@ -9020,14 +9029,14 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
-      <c r="M205" s="64"/>
+      <c r="M205" s="65"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
-      <c r="T205" s="65"/>
+      <c r="T205" s="66"/>
       <c r="W205" s="2"/>
     </row>
     <row r="206" spans="1:23">
@@ -9042,14 +9051,14 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
-      <c r="M206" s="64"/>
+      <c r="M206" s="65"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
-      <c r="T206" s="65"/>
+      <c r="T206" s="66"/>
       <c r="W206" s="2"/>
     </row>
     <row r="207" spans="1:23">
@@ -9064,14 +9073,14 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
-      <c r="M207" s="64"/>
+      <c r="M207" s="65"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
-      <c r="T207" s="65"/>
+      <c r="T207" s="66"/>
       <c r="W207" s="2"/>
     </row>
     <row r="208" spans="1:23">
@@ -9086,14 +9095,14 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
-      <c r="M208" s="64"/>
+      <c r="M208" s="65"/>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
-      <c r="T208" s="65"/>
+      <c r="T208" s="66"/>
       <c r="W208" s="2"/>
     </row>
     <row r="209" spans="1:23">
@@ -9108,14 +9117,14 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
-      <c r="M209" s="64"/>
+      <c r="M209" s="65"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
-      <c r="T209" s="65"/>
+      <c r="T209" s="66"/>
       <c r="W209" s="2"/>
     </row>
     <row r="210" spans="1:23">
@@ -9130,14 +9139,14 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
-      <c r="M210" s="64"/>
+      <c r="M210" s="65"/>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
       <c r="S210" s="2"/>
-      <c r="T210" s="65"/>
+      <c r="T210" s="66"/>
       <c r="W210" s="2"/>
     </row>
     <row r="211" spans="1:23">
@@ -9152,14 +9161,14 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="64"/>
+      <c r="M211" s="65"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
-      <c r="T211" s="65"/>
+      <c r="T211" s="66"/>
       <c r="W211" s="2"/>
     </row>
     <row r="212" spans="1:23">
@@ -9174,14 +9183,14 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
-      <c r="M212" s="64"/>
+      <c r="M212" s="65"/>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
-      <c r="T212" s="65"/>
+      <c r="T212" s="66"/>
       <c r="W212" s="2"/>
     </row>
     <row r="213" spans="1:23">
@@ -9196,14 +9205,14 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
-      <c r="M213" s="64"/>
+      <c r="M213" s="65"/>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
       <c r="S213" s="2"/>
-      <c r="T213" s="65"/>
+      <c r="T213" s="66"/>
       <c r="W213" s="2"/>
     </row>
     <row r="214" spans="1:23">
@@ -9218,14 +9227,14 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
-      <c r="M214" s="64"/>
+      <c r="M214" s="65"/>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
       <c r="S214" s="2"/>
-      <c r="T214" s="65"/>
+      <c r="T214" s="66"/>
       <c r="W214" s="2"/>
     </row>
     <row r="215" spans="1:23">
@@ -9240,14 +9249,14 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
-      <c r="M215" s="64"/>
+      <c r="M215" s="65"/>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
       <c r="S215" s="2"/>
-      <c r="T215" s="65"/>
+      <c r="T215" s="66"/>
       <c r="W215" s="2"/>
     </row>
     <row r="216" spans="1:23">
@@ -9262,14 +9271,14 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
-      <c r="M216" s="64"/>
+      <c r="M216" s="65"/>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
       <c r="S216" s="2"/>
-      <c r="T216" s="65"/>
+      <c r="T216" s="66"/>
       <c r="W216" s="2"/>
     </row>
     <row r="217" spans="1:23">
@@ -9284,14 +9293,14 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
-      <c r="M217" s="64"/>
+      <c r="M217" s="65"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
-      <c r="T217" s="65"/>
+      <c r="T217" s="66"/>
       <c r="W217" s="2"/>
     </row>
     <row r="218" spans="1:23">
@@ -9306,14 +9315,14 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
-      <c r="M218" s="64"/>
+      <c r="M218" s="65"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
-      <c r="T218" s="65"/>
+      <c r="T218" s="66"/>
       <c r="W218" s="2"/>
     </row>
     <row r="219" spans="1:23">
@@ -9328,14 +9337,14 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
-      <c r="M219" s="64"/>
+      <c r="M219" s="65"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
-      <c r="T219" s="65"/>
+      <c r="T219" s="66"/>
       <c r="W219" s="2"/>
     </row>
     <row r="220" spans="1:23">
@@ -9350,14 +9359,14 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
-      <c r="M220" s="64"/>
+      <c r="M220" s="65"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
-      <c r="T220" s="65"/>
+      <c r="T220" s="66"/>
       <c r="W220" s="2"/>
     </row>
     <row r="221" spans="1:23">
@@ -9372,14 +9381,14 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
-      <c r="M221" s="64"/>
+      <c r="M221" s="65"/>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
-      <c r="T221" s="65"/>
+      <c r="T221" s="66"/>
       <c r="W221" s="2"/>
     </row>
     <row r="222" spans="1:23">
@@ -9394,14 +9403,14 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
-      <c r="M222" s="64"/>
+      <c r="M222" s="65"/>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
-      <c r="T222" s="65"/>
+      <c r="T222" s="66"/>
       <c r="W222" s="2"/>
     </row>
     <row r="223" spans="1:23">
@@ -9416,14 +9425,14 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
-      <c r="M223" s="64"/>
+      <c r="M223" s="65"/>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
-      <c r="T223" s="65"/>
+      <c r="T223" s="66"/>
       <c r="W223" s="2"/>
     </row>
     <row r="224" spans="1:23">
@@ -9438,14 +9447,14 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
-      <c r="M224" s="64"/>
+      <c r="M224" s="65"/>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
-      <c r="T224" s="65"/>
+      <c r="T224" s="66"/>
       <c r="W224" s="2"/>
     </row>
     <row r="225" spans="1:23">
@@ -9460,14 +9469,14 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
-      <c r="M225" s="64"/>
+      <c r="M225" s="65"/>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
-      <c r="T225" s="65"/>
+      <c r="T225" s="66"/>
       <c r="W225" s="2"/>
     </row>
     <row r="226" spans="1:23">
@@ -9482,14 +9491,14 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
       <c r="L226" s="2"/>
-      <c r="M226" s="64"/>
+      <c r="M226" s="65"/>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
-      <c r="T226" s="65"/>
+      <c r="T226" s="66"/>
       <c r="W226" s="2"/>
     </row>
     <row r="227" spans="1:23">
@@ -9504,14 +9513,14 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
-      <c r="M227" s="64"/>
+      <c r="M227" s="65"/>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
-      <c r="T227" s="65"/>
+      <c r="T227" s="66"/>
       <c r="W227" s="2"/>
     </row>
     <row r="228" spans="1:23">
@@ -9526,14 +9535,14 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
-      <c r="M228" s="64"/>
+      <c r="M228" s="65"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
-      <c r="T228" s="65"/>
+      <c r="T228" s="66"/>
       <c r="W228" s="2"/>
     </row>
     <row r="229" spans="1:23">
@@ -9548,14 +9557,14 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
-      <c r="M229" s="64"/>
+      <c r="M229" s="65"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
       <c r="S229" s="2"/>
-      <c r="T229" s="65"/>
+      <c r="T229" s="66"/>
       <c r="W229" s="2"/>
     </row>
     <row r="230" spans="1:23">
@@ -9570,14 +9579,14 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
-      <c r="M230" s="64"/>
+      <c r="M230" s="65"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
-      <c r="T230" s="65"/>
+      <c r="T230" s="66"/>
       <c r="W230" s="2"/>
     </row>
     <row r="231" spans="1:23">
@@ -9592,14 +9601,14 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
-      <c r="M231" s="64"/>
+      <c r="M231" s="65"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
-      <c r="T231" s="65"/>
+      <c r="T231" s="66"/>
       <c r="W231" s="2"/>
     </row>
     <row r="232" spans="1:23">
@@ -9614,14 +9623,14 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
-      <c r="M232" s="64"/>
+      <c r="M232" s="65"/>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
-      <c r="T232" s="65"/>
+      <c r="T232" s="66"/>
       <c r="W232" s="2"/>
     </row>
     <row r="233" spans="1:23">
@@ -9636,14 +9645,14 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
-      <c r="M233" s="64"/>
+      <c r="M233" s="65"/>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
-      <c r="T233" s="65"/>
+      <c r="T233" s="66"/>
       <c r="W233" s="2"/>
     </row>
     <row r="234" spans="1:23">
@@ -9658,14 +9667,14 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
-      <c r="M234" s="64"/>
+      <c r="M234" s="65"/>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
-      <c r="T234" s="65"/>
+      <c r="T234" s="66"/>
       <c r="W234" s="2"/>
     </row>
     <row r="235" spans="1:23">
@@ -9680,14 +9689,14 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
-      <c r="M235" s="64"/>
+      <c r="M235" s="65"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
-      <c r="T235" s="65"/>
+      <c r="T235" s="66"/>
       <c r="W235" s="2"/>
     </row>
     <row r="236" spans="1:23">
@@ -9702,14 +9711,14 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
-      <c r="M236" s="64"/>
+      <c r="M236" s="65"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
-      <c r="T236" s="65"/>
+      <c r="T236" s="66"/>
       <c r="W236" s="2"/>
     </row>
     <row r="237" spans="1:23">
@@ -9724,14 +9733,14 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
-      <c r="M237" s="64"/>
+      <c r="M237" s="65"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
-      <c r="T237" s="65"/>
+      <c r="T237" s="66"/>
       <c r="W237" s="2"/>
     </row>
     <row r="238" spans="1:23">
@@ -9746,14 +9755,14 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
-      <c r="M238" s="64"/>
+      <c r="M238" s="65"/>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
-      <c r="T238" s="65"/>
+      <c r="T238" s="66"/>
       <c r="W238" s="2"/>
     </row>
     <row r="239" spans="1:23">
@@ -9768,14 +9777,14 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
-      <c r="M239" s="64"/>
+      <c r="M239" s="65"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
       <c r="S239" s="2"/>
-      <c r="T239" s="65"/>
+      <c r="T239" s="66"/>
       <c r="W239" s="2"/>
     </row>
     <row r="240" spans="1:23">
@@ -9790,14 +9799,14 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
-      <c r="M240" s="64"/>
+      <c r="M240" s="65"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
       <c r="S240" s="2"/>
-      <c r="T240" s="65"/>
+      <c r="T240" s="66"/>
       <c r="W240" s="2"/>
     </row>
     <row r="241" spans="1:23">
@@ -9812,14 +9821,14 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
-      <c r="M241" s="64"/>
+      <c r="M241" s="65"/>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
       <c r="S241" s="2"/>
-      <c r="T241" s="65"/>
+      <c r="T241" s="66"/>
       <c r="W241" s="2"/>
     </row>
     <row r="242" spans="1:23">
@@ -9834,14 +9843,14 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
-      <c r="M242" s="64"/>
+      <c r="M242" s="65"/>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
       <c r="S242" s="2"/>
-      <c r="T242" s="65"/>
+      <c r="T242" s="66"/>
       <c r="W242" s="2"/>
     </row>
     <row r="243" spans="1:23">
@@ -9856,14 +9865,14 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
-      <c r="M243" s="64"/>
+      <c r="M243" s="65"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
-      <c r="T243" s="65"/>
+      <c r="T243" s="66"/>
       <c r="W243" s="2"/>
     </row>
     <row r="244" spans="1:23">
@@ -9878,14 +9887,14 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
-      <c r="M244" s="64"/>
+      <c r="M244" s="65"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
-      <c r="T244" s="65"/>
+      <c r="T244" s="66"/>
       <c r="W244" s="2"/>
     </row>
     <row r="245" spans="1:23">
@@ -9900,14 +9909,14 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
-      <c r="M245" s="64"/>
+      <c r="M245" s="65"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
       <c r="S245" s="2"/>
-      <c r="T245" s="65"/>
+      <c r="T245" s="66"/>
       <c r="W245" s="2"/>
     </row>
     <row r="246" spans="1:23">
@@ -9922,14 +9931,14 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
-      <c r="M246" s="64"/>
+      <c r="M246" s="65"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
       <c r="S246" s="2"/>
-      <c r="T246" s="65"/>
+      <c r="T246" s="66"/>
       <c r="W246" s="2"/>
     </row>
     <row r="247" spans="1:23">
@@ -9944,14 +9953,14 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
-      <c r="M247" s="64"/>
+      <c r="M247" s="65"/>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
       <c r="S247" s="2"/>
-      <c r="T247" s="65"/>
+      <c r="T247" s="66"/>
       <c r="W247" s="2"/>
     </row>
     <row r="248" spans="1:23">
@@ -9966,14 +9975,14 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
-      <c r="M248" s="64"/>
+      <c r="M248" s="65"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
       <c r="S248" s="2"/>
-      <c r="T248" s="65"/>
+      <c r="T248" s="66"/>
       <c r="W248" s="2"/>
     </row>
     <row r="249" spans="1:23">
@@ -9988,14 +9997,14 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
-      <c r="M249" s="64"/>
+      <c r="M249" s="65"/>
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
       <c r="S249" s="2"/>
-      <c r="T249" s="65"/>
+      <c r="T249" s="66"/>
       <c r="W249" s="2"/>
     </row>
     <row r="250" spans="1:23">
@@ -10010,14 +10019,14 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
-      <c r="M250" s="64"/>
+      <c r="M250" s="65"/>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
       <c r="S250" s="2"/>
-      <c r="T250" s="65"/>
+      <c r="T250" s="66"/>
       <c r="W250" s="2"/>
     </row>
     <row r="251" spans="1:23">
@@ -10032,14 +10041,14 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
-      <c r="M251" s="64"/>
+      <c r="M251" s="65"/>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
       <c r="S251" s="2"/>
-      <c r="T251" s="65"/>
+      <c r="T251" s="66"/>
       <c r="W251" s="2"/>
     </row>
     <row r="252" spans="1:23">
@@ -10054,14 +10063,14 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
-      <c r="M252" s="64"/>
+      <c r="M252" s="65"/>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
       <c r="S252" s="2"/>
-      <c r="T252" s="65"/>
+      <c r="T252" s="66"/>
       <c r="W252" s="2"/>
     </row>
     <row r="253" spans="1:23">
@@ -10076,14 +10085,14 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
-      <c r="M253" s="64"/>
+      <c r="M253" s="65"/>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
       <c r="S253" s="2"/>
-      <c r="T253" s="65"/>
+      <c r="T253" s="66"/>
       <c r="W253" s="2"/>
     </row>
     <row r="254" spans="1:23">
@@ -10098,14 +10107,14 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
-      <c r="M254" s="64"/>
+      <c r="M254" s="65"/>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
       <c r="S254" s="2"/>
-      <c r="T254" s="65"/>
+      <c r="T254" s="66"/>
       <c r="W254" s="2"/>
     </row>
     <row r="255" spans="1:23">
@@ -10120,14 +10129,14 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
-      <c r="M255" s="64"/>
+      <c r="M255" s="65"/>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
       <c r="S255" s="2"/>
-      <c r="T255" s="65"/>
+      <c r="T255" s="66"/>
       <c r="W255" s="2"/>
     </row>
     <row r="256" spans="1:23">
@@ -10142,14 +10151,14 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
-      <c r="M256" s="64"/>
+      <c r="M256" s="65"/>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
       <c r="S256" s="2"/>
-      <c r="T256" s="65"/>
+      <c r="T256" s="66"/>
       <c r="W256" s="2"/>
     </row>
     <row r="257" spans="1:23">
@@ -10164,14 +10173,14 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
-      <c r="M257" s="64"/>
+      <c r="M257" s="65"/>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
       <c r="P257" s="2"/>
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
       <c r="S257" s="2"/>
-      <c r="T257" s="65"/>
+      <c r="T257" s="66"/>
       <c r="W257" s="2"/>
     </row>
     <row r="258" spans="1:23">
@@ -10186,14 +10195,14 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
-      <c r="M258" s="64"/>
+      <c r="M258" s="65"/>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
       <c r="P258" s="2"/>
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
       <c r="S258" s="2"/>
-      <c r="T258" s="65"/>
+      <c r="T258" s="66"/>
       <c r="W258" s="2"/>
     </row>
     <row r="259" spans="1:23">
@@ -10208,14 +10217,14 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
-      <c r="M259" s="64"/>
+      <c r="M259" s="65"/>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
       <c r="P259" s="2"/>
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
       <c r="S259" s="2"/>
-      <c r="T259" s="65"/>
+      <c r="T259" s="66"/>
       <c r="W259" s="2"/>
     </row>
     <row r="260" spans="1:23">
@@ -10230,14 +10239,14 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
-      <c r="M260" s="64"/>
+      <c r="M260" s="65"/>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
       <c r="S260" s="2"/>
-      <c r="T260" s="65"/>
+      <c r="T260" s="66"/>
       <c r="W260" s="2"/>
     </row>
     <row r="261" spans="1:23">
@@ -10252,14 +10261,14 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
-      <c r="M261" s="64"/>
+      <c r="M261" s="65"/>
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
       <c r="S261" s="2"/>
-      <c r="T261" s="65"/>
+      <c r="T261" s="66"/>
       <c r="W261" s="2"/>
     </row>
     <row r="262" spans="1:23">
@@ -10274,14 +10283,14 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
-      <c r="M262" s="64"/>
+      <c r="M262" s="65"/>
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
       <c r="S262" s="2"/>
-      <c r="T262" s="65"/>
+      <c r="T262" s="66"/>
       <c r="W262" s="2"/>
     </row>
     <row r="263" spans="1:23">
@@ -10296,14 +10305,14 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
-      <c r="M263" s="64"/>
+      <c r="M263" s="65"/>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
       <c r="S263" s="2"/>
-      <c r="T263" s="65"/>
+      <c r="T263" s="66"/>
       <c r="W263" s="2"/>
     </row>
     <row r="264" spans="1:23">
@@ -10318,14 +10327,14 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
-      <c r="M264" s="64"/>
+      <c r="M264" s="65"/>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
       <c r="S264" s="2"/>
-      <c r="T264" s="65"/>
+      <c r="T264" s="66"/>
       <c r="W264" s="2"/>
     </row>
     <row r="265" spans="1:23">
@@ -10340,14 +10349,14 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
-      <c r="M265" s="64"/>
+      <c r="M265" s="65"/>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
       <c r="S265" s="2"/>
-      <c r="T265" s="65"/>
+      <c r="T265" s="66"/>
       <c r="W265" s="2"/>
     </row>
     <row r="266" spans="1:23">
@@ -10362,14 +10371,14 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
-      <c r="M266" s="64"/>
+      <c r="M266" s="65"/>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
       <c r="S266" s="2"/>
-      <c r="T266" s="65"/>
+      <c r="T266" s="66"/>
       <c r="W266" s="2"/>
     </row>
     <row r="267" spans="1:23">
@@ -10384,14 +10393,14 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
-      <c r="M267" s="64"/>
+      <c r="M267" s="65"/>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
       <c r="S267" s="2"/>
-      <c r="T267" s="65"/>
+      <c r="T267" s="66"/>
       <c r="W267" s="2"/>
     </row>
     <row r="268" spans="1:23">
@@ -10406,14 +10415,14 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
-      <c r="M268" s="64"/>
+      <c r="M268" s="65"/>
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
       <c r="S268" s="2"/>
-      <c r="T268" s="65"/>
+      <c r="T268" s="66"/>
       <c r="W268" s="2"/>
     </row>
     <row r="269" spans="1:23">
@@ -10428,14 +10437,14 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
-      <c r="M269" s="64"/>
+      <c r="M269" s="65"/>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
       <c r="S269" s="2"/>
-      <c r="T269" s="65"/>
+      <c r="T269" s="66"/>
       <c r="W269" s="2"/>
     </row>
     <row r="270" spans="1:23">
@@ -10450,14 +10459,14 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
-      <c r="M270" s="64"/>
+      <c r="M270" s="65"/>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
       <c r="S270" s="2"/>
-      <c r="T270" s="65"/>
+      <c r="T270" s="66"/>
       <c r="W270" s="2"/>
     </row>
     <row r="271" spans="1:23">
@@ -10472,14 +10481,14 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
-      <c r="M271" s="64"/>
+      <c r="M271" s="65"/>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
       <c r="S271" s="2"/>
-      <c r="T271" s="65"/>
+      <c r="T271" s="66"/>
       <c r="W271" s="2"/>
     </row>
     <row r="272" spans="1:23">
@@ -10494,14 +10503,14 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
-      <c r="M272" s="64"/>
+      <c r="M272" s="65"/>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
       <c r="S272" s="2"/>
-      <c r="T272" s="65"/>
+      <c r="T272" s="66"/>
       <c r="W272" s="2"/>
     </row>
     <row r="273" spans="1:23">
@@ -10516,14 +10525,14 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
-      <c r="M273" s="64"/>
+      <c r="M273" s="65"/>
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
       <c r="S273" s="2"/>
-      <c r="T273" s="65"/>
+      <c r="T273" s="66"/>
       <c r="W273" s="2"/>
     </row>
     <row r="274" spans="1:23">
@@ -10538,14 +10547,14 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
-      <c r="M274" s="64"/>
+      <c r="M274" s="65"/>
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
       <c r="S274" s="2"/>
-      <c r="T274" s="65"/>
+      <c r="T274" s="66"/>
       <c r="W274" s="2"/>
     </row>
     <row r="275" spans="1:23">
@@ -10560,14 +10569,14 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
-      <c r="M275" s="64"/>
+      <c r="M275" s="65"/>
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
       <c r="S275" s="2"/>
-      <c r="T275" s="65"/>
+      <c r="T275" s="66"/>
       <c r="W275" s="2"/>
     </row>
     <row r="276" spans="1:23">
@@ -10582,14 +10591,14 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
-      <c r="M276" s="64"/>
+      <c r="M276" s="65"/>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
       <c r="S276" s="2"/>
-      <c r="T276" s="65"/>
+      <c r="T276" s="66"/>
       <c r="W276" s="2"/>
     </row>
     <row r="277" spans="1:23">
@@ -10604,14 +10613,14 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
-      <c r="M277" s="64"/>
+      <c r="M277" s="65"/>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
       <c r="R277" s="2"/>
       <c r="S277" s="2"/>
-      <c r="T277" s="65"/>
+      <c r="T277" s="66"/>
       <c r="W277" s="2"/>
     </row>
     <row r="278" spans="1:23">
@@ -10626,14 +10635,14 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
-      <c r="M278" s="64"/>
+      <c r="M278" s="65"/>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
       <c r="R278" s="2"/>
       <c r="S278" s="2"/>
-      <c r="T278" s="65"/>
+      <c r="T278" s="66"/>
       <c r="W278" s="2"/>
     </row>
     <row r="279" spans="1:23">
@@ -10648,14 +10657,14 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
-      <c r="M279" s="64"/>
+      <c r="M279" s="65"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
       <c r="S279" s="2"/>
-      <c r="T279" s="65"/>
+      <c r="T279" s="66"/>
       <c r="W279" s="2"/>
     </row>
     <row r="280" spans="1:23">
@@ -10670,14 +10679,14 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
-      <c r="M280" s="64"/>
+      <c r="M280" s="65"/>
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
       <c r="S280" s="2"/>
-      <c r="T280" s="65"/>
+      <c r="T280" s="66"/>
       <c r="W280" s="2"/>
     </row>
     <row r="281" spans="1:23">
@@ -10692,14 +10701,14 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
-      <c r="M281" s="64"/>
+      <c r="M281" s="65"/>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
       <c r="S281" s="2"/>
-      <c r="T281" s="65"/>
+      <c r="T281" s="66"/>
       <c r="W281" s="2"/>
     </row>
     <row r="282" spans="1:23">
@@ -10714,14 +10723,14 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
-      <c r="M282" s="64"/>
+      <c r="M282" s="65"/>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
       <c r="S282" s="2"/>
-      <c r="T282" s="65"/>
+      <c r="T282" s="66"/>
       <c r="W282" s="2"/>
     </row>
     <row r="283" spans="1:23">
@@ -10736,14 +10745,14 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
-      <c r="M283" s="64"/>
+      <c r="M283" s="65"/>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
       <c r="S283" s="2"/>
-      <c r="T283" s="65"/>
+      <c r="T283" s="66"/>
       <c r="W283" s="2"/>
     </row>
     <row r="284" spans="1:23">
@@ -10758,14 +10767,14 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
-      <c r="M284" s="64"/>
+      <c r="M284" s="65"/>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
       <c r="S284" s="2"/>
-      <c r="T284" s="65"/>
+      <c r="T284" s="66"/>
       <c r="W284" s="2"/>
     </row>
     <row r="285" spans="1:23">
@@ -10780,14 +10789,14 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
-      <c r="M285" s="64"/>
+      <c r="M285" s="65"/>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
       <c r="S285" s="2"/>
-      <c r="T285" s="65"/>
+      <c r="T285" s="66"/>
       <c r="W285" s="2"/>
     </row>
     <row r="286" spans="1:23">
@@ -10802,14 +10811,14 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
-      <c r="M286" s="64"/>
+      <c r="M286" s="65"/>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
       <c r="R286" s="2"/>
       <c r="S286" s="2"/>
-      <c r="T286" s="65"/>
+      <c r="T286" s="66"/>
       <c r="W286" s="2"/>
     </row>
     <row r="287" spans="1:23">
@@ -10824,14 +10833,14 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
-      <c r="M287" s="64"/>
+      <c r="M287" s="65"/>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
       <c r="R287" s="2"/>
       <c r="S287" s="2"/>
-      <c r="T287" s="65"/>
+      <c r="T287" s="66"/>
       <c r="W287" s="2"/>
     </row>
     <row r="288" spans="1:23">
@@ -10846,14 +10855,14 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
-      <c r="M288" s="64"/>
+      <c r="M288" s="65"/>
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
       <c r="S288" s="2"/>
-      <c r="T288" s="65"/>
+      <c r="T288" s="66"/>
       <c r="W288" s="2"/>
     </row>
     <row r="289" spans="1:23">
@@ -10868,14 +10877,14 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
-      <c r="M289" s="64"/>
+      <c r="M289" s="65"/>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
-      <c r="T289" s="65"/>
+      <c r="T289" s="66"/>
       <c r="W289" s="2"/>
     </row>
     <row r="290" spans="1:23">
@@ -10890,14 +10899,14 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
-      <c r="M290" s="64"/>
+      <c r="M290" s="65"/>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
-      <c r="T290" s="65"/>
+      <c r="T290" s="66"/>
       <c r="W290" s="2"/>
     </row>
     <row r="291" spans="1:23">
@@ -10912,14 +10921,14 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
-      <c r="M291" s="64"/>
+      <c r="M291" s="65"/>
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
       <c r="R291" s="2"/>
       <c r="S291" s="2"/>
-      <c r="T291" s="65"/>
+      <c r="T291" s="66"/>
       <c r="W291" s="2"/>
     </row>
     <row r="292" spans="1:23">
@@ -10934,14 +10943,14 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
-      <c r="M292" s="64"/>
+      <c r="M292" s="65"/>
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
-      <c r="T292" s="65"/>
+      <c r="T292" s="66"/>
       <c r="W292" s="2"/>
     </row>
     <row r="293" spans="1:23">
@@ -10956,14 +10965,14 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
-      <c r="M293" s="64"/>
+      <c r="M293" s="65"/>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
-      <c r="T293" s="65"/>
+      <c r="T293" s="66"/>
       <c r="W293" s="2"/>
     </row>
     <row r="294" spans="1:23">
@@ -10978,14 +10987,14 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
-      <c r="M294" s="64"/>
+      <c r="M294" s="65"/>
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
-      <c r="T294" s="65"/>
+      <c r="T294" s="66"/>
       <c r="W294" s="2"/>
     </row>
     <row r="295" spans="1:23">
@@ -11000,14 +11009,14 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
-      <c r="M295" s="64"/>
+      <c r="M295" s="65"/>
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
       <c r="R295" s="2"/>
       <c r="S295" s="2"/>
-      <c r="T295" s="65"/>
+      <c r="T295" s="66"/>
       <c r="W295" s="2"/>
     </row>
     <row r="296" spans="1:23">
@@ -11022,14 +11031,14 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
-      <c r="M296" s="64"/>
+      <c r="M296" s="65"/>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
       <c r="S296" s="2"/>
-      <c r="T296" s="65"/>
+      <c r="T296" s="66"/>
       <c r="W296" s="2"/>
     </row>
     <row r="297" spans="1:23">
@@ -11044,14 +11053,14 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
-      <c r="M297" s="64"/>
+      <c r="M297" s="65"/>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
       <c r="S297" s="2"/>
-      <c r="T297" s="65"/>
+      <c r="T297" s="66"/>
       <c r="W297" s="2"/>
     </row>
     <row r="298" spans="1:23">
@@ -11066,14 +11075,14 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
-      <c r="M298" s="64"/>
+      <c r="M298" s="65"/>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
       <c r="R298" s="2"/>
       <c r="S298" s="2"/>
-      <c r="T298" s="65"/>
+      <c r="T298" s="66"/>
       <c r="W298" s="2"/>
     </row>
     <row r="299" spans="1:23">
@@ -11088,14 +11097,14 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
-      <c r="M299" s="64"/>
+      <c r="M299" s="65"/>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
       <c r="R299" s="2"/>
       <c r="S299" s="2"/>
-      <c r="T299" s="65"/>
+      <c r="T299" s="66"/>
       <c r="W299" s="2"/>
     </row>
     <row r="300" spans="1:23">
@@ -11110,14 +11119,14 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
-      <c r="M300" s="64"/>
+      <c r="M300" s="65"/>
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
       <c r="R300" s="2"/>
       <c r="S300" s="2"/>
-      <c r="T300" s="65"/>
+      <c r="T300" s="66"/>
       <c r="W300" s="2"/>
     </row>
     <row r="301" spans="1:23">
@@ -11132,14 +11141,14 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
-      <c r="M301" s="64"/>
+      <c r="M301" s="65"/>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
       <c r="R301" s="2"/>
       <c r="S301" s="2"/>
-      <c r="T301" s="65"/>
+      <c r="T301" s="66"/>
       <c r="W301" s="2"/>
     </row>
     <row r="302" spans="1:23">
@@ -11154,14 +11163,14 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
-      <c r="M302" s="64"/>
+      <c r="M302" s="65"/>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
       <c r="S302" s="2"/>
-      <c r="T302" s="65"/>
+      <c r="T302" s="66"/>
       <c r="W302" s="2"/>
     </row>
     <row r="303" spans="1:23">
@@ -11176,14 +11185,14 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
-      <c r="M303" s="64"/>
+      <c r="M303" s="65"/>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
       <c r="S303" s="2"/>
-      <c r="T303" s="65"/>
+      <c r="T303" s="66"/>
       <c r="W303" s="2"/>
     </row>
     <row r="304" spans="1:23">
@@ -11198,14 +11207,14 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
-      <c r="M304" s="64"/>
+      <c r="M304" s="65"/>
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
       <c r="S304" s="2"/>
-      <c r="T304" s="65"/>
+      <c r="T304" s="66"/>
       <c r="W304" s="2"/>
     </row>
     <row r="305" spans="1:23">
@@ -11220,14 +11229,14 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
-      <c r="M305" s="64"/>
+      <c r="M305" s="65"/>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
       <c r="S305" s="2"/>
-      <c r="T305" s="65"/>
+      <c r="T305" s="66"/>
       <c r="W305" s="2"/>
     </row>
     <row r="306" spans="1:23">
@@ -11242,14 +11251,14 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
-      <c r="M306" s="64"/>
+      <c r="M306" s="65"/>
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
-      <c r="T306" s="65"/>
+      <c r="T306" s="66"/>
       <c r="W306" s="2"/>
     </row>
     <row r="307" spans="1:23">
@@ -11264,14 +11273,14 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
-      <c r="M307" s="64"/>
+      <c r="M307" s="65"/>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
-      <c r="T307" s="65"/>
+      <c r="T307" s="66"/>
       <c r="W307" s="2"/>
     </row>
     <row r="308" spans="1:23">
@@ -11286,14 +11295,14 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
-      <c r="M308" s="64"/>
+      <c r="M308" s="65"/>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
       <c r="S308" s="2"/>
-      <c r="T308" s="65"/>
+      <c r="T308" s="66"/>
       <c r="W308" s="2"/>
     </row>
     <row r="309" spans="1:23">
@@ -11308,14 +11317,14 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
-      <c r="M309" s="64"/>
+      <c r="M309" s="65"/>
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
       <c r="S309" s="2"/>
-      <c r="T309" s="65"/>
+      <c r="T309" s="66"/>
       <c r="W309" s="2"/>
     </row>
     <row r="310" spans="1:23">
@@ -11330,14 +11339,14 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
-      <c r="M310" s="64"/>
+      <c r="M310" s="65"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
       <c r="S310" s="2"/>
-      <c r="T310" s="65"/>
+      <c r="T310" s="66"/>
       <c r="W310" s="2"/>
     </row>
     <row r="311" spans="1:23">
@@ -11352,14 +11361,14 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
-      <c r="M311" s="64"/>
+      <c r="M311" s="65"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
       <c r="S311" s="2"/>
-      <c r="T311" s="65"/>
+      <c r="T311" s="66"/>
       <c r="W311" s="2"/>
     </row>
     <row r="312" spans="1:23">
@@ -11374,14 +11383,14 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
       <c r="L312" s="2"/>
-      <c r="M312" s="64"/>
+      <c r="M312" s="65"/>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
       <c r="R312" s="2"/>
       <c r="S312" s="2"/>
-      <c r="T312" s="65"/>
+      <c r="T312" s="66"/>
       <c r="W312" s="2"/>
     </row>
     <row r="313" spans="1:23">
@@ -11396,14 +11405,14 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
       <c r="L313" s="2"/>
-      <c r="M313" s="64"/>
+      <c r="M313" s="65"/>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
       <c r="R313" s="2"/>
       <c r="S313" s="2"/>
-      <c r="T313" s="65"/>
+      <c r="T313" s="66"/>
       <c r="W313" s="2"/>
     </row>
     <row r="314" spans="1:23">
@@ -11418,14 +11427,14 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
       <c r="L314" s="2"/>
-      <c r="M314" s="64"/>
+      <c r="M314" s="65"/>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
       <c r="R314" s="2"/>
       <c r="S314" s="2"/>
-      <c r="T314" s="65"/>
+      <c r="T314" s="66"/>
       <c r="W314" s="2"/>
     </row>
     <row r="315" spans="1:23">
@@ -11440,14 +11449,14 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
       <c r="L315" s="2"/>
-      <c r="M315" s="64"/>
+      <c r="M315" s="65"/>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
       <c r="R315" s="2"/>
       <c r="S315" s="2"/>
-      <c r="T315" s="65"/>
+      <c r="T315" s="66"/>
       <c r="W315" s="2"/>
     </row>
     <row r="316" spans="1:23">
@@ -11462,14 +11471,14 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
       <c r="L316" s="2"/>
-      <c r="M316" s="64"/>
+      <c r="M316" s="65"/>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
       <c r="R316" s="2"/>
       <c r="S316" s="2"/>
-      <c r="T316" s="65"/>
+      <c r="T316" s="66"/>
       <c r="W316" s="2"/>
     </row>
     <row r="317" spans="1:23">
@@ -11484,14 +11493,14 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
       <c r="L317" s="2"/>
-      <c r="M317" s="64"/>
+      <c r="M317" s="65"/>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
       <c r="R317" s="2"/>
       <c r="S317" s="2"/>
-      <c r="T317" s="65"/>
+      <c r="T317" s="66"/>
       <c r="W317" s="2"/>
     </row>
     <row r="318" spans="1:23">
@@ -11506,14 +11515,14 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
       <c r="L318" s="2"/>
-      <c r="M318" s="64"/>
+      <c r="M318" s="65"/>
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
       <c r="R318" s="2"/>
       <c r="S318" s="2"/>
-      <c r="T318" s="65"/>
+      <c r="T318" s="66"/>
       <c r="W318" s="2"/>
     </row>
     <row r="319" spans="1:23">
@@ -11528,14 +11537,14 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
       <c r="L319" s="2"/>
-      <c r="M319" s="64"/>
+      <c r="M319" s="65"/>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
       <c r="R319" s="2"/>
       <c r="S319" s="2"/>
-      <c r="T319" s="65"/>
+      <c r="T319" s="66"/>
       <c r="W319" s="2"/>
     </row>
     <row r="320" spans="1:23">
@@ -11550,14 +11559,14 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
       <c r="L320" s="2"/>
-      <c r="M320" s="64"/>
+      <c r="M320" s="65"/>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
       <c r="S320" s="2"/>
-      <c r="T320" s="65"/>
+      <c r="T320" s="66"/>
       <c r="W320" s="2"/>
     </row>
     <row r="321" spans="1:23">
@@ -11572,14 +11581,14 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
       <c r="L321" s="2"/>
-      <c r="M321" s="64"/>
+      <c r="M321" s="65"/>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
       <c r="R321" s="2"/>
       <c r="S321" s="2"/>
-      <c r="T321" s="65"/>
+      <c r="T321" s="66"/>
       <c r="W321" s="2"/>
     </row>
     <row r="322" spans="1:23">
@@ -11594,14 +11603,14 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
       <c r="L322" s="2"/>
-      <c r="M322" s="64"/>
+      <c r="M322" s="65"/>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
       <c r="R322" s="2"/>
       <c r="S322" s="2"/>
-      <c r="T322" s="65"/>
+      <c r="T322" s="66"/>
       <c r="W322" s="2"/>
     </row>
     <row r="323" spans="1:23">
@@ -11616,14 +11625,14 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
       <c r="L323" s="2"/>
-      <c r="M323" s="64"/>
+      <c r="M323" s="65"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
       <c r="R323" s="2"/>
       <c r="S323" s="2"/>
-      <c r="T323" s="65"/>
+      <c r="T323" s="66"/>
       <c r="W323" s="2"/>
     </row>
     <row r="324" spans="1:23">
@@ -11638,14 +11647,14 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
       <c r="L324" s="2"/>
-      <c r="M324" s="64"/>
+      <c r="M324" s="65"/>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
       <c r="S324" s="2"/>
-      <c r="T324" s="65"/>
+      <c r="T324" s="66"/>
       <c r="W324" s="2"/>
     </row>
     <row r="325" spans="1:23">
@@ -11660,14 +11669,14 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
       <c r="L325" s="2"/>
-      <c r="M325" s="64"/>
+      <c r="M325" s="65"/>
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
       <c r="R325" s="2"/>
       <c r="S325" s="2"/>
-      <c r="T325" s="65"/>
+      <c r="T325" s="66"/>
       <c r="W325" s="2"/>
     </row>
     <row r="326" spans="1:23">
@@ -11682,14 +11691,14 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
-      <c r="M326" s="64"/>
+      <c r="M326" s="65"/>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
       <c r="S326" s="2"/>
-      <c r="T326" s="65"/>
+      <c r="T326" s="66"/>
       <c r="W326" s="2"/>
     </row>
     <row r="327" spans="1:23">
@@ -11704,14 +11713,14 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
       <c r="L327" s="2"/>
-      <c r="M327" s="64"/>
+      <c r="M327" s="65"/>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
       <c r="S327" s="2"/>
-      <c r="T327" s="65"/>
+      <c r="T327" s="66"/>
       <c r="W327" s="2"/>
     </row>
     <row r="328" spans="1:23">
@@ -11726,14 +11735,14 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
       <c r="L328" s="2"/>
-      <c r="M328" s="64"/>
+      <c r="M328" s="65"/>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
       <c r="S328" s="2"/>
-      <c r="T328" s="65"/>
+      <c r="T328" s="66"/>
       <c r="W328" s="2"/>
     </row>
     <row r="329" spans="1:23">
@@ -11748,14 +11757,14 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
       <c r="L329" s="2"/>
-      <c r="M329" s="64"/>
+      <c r="M329" s="65"/>
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
       <c r="R329" s="2"/>
       <c r="S329" s="2"/>
-      <c r="T329" s="65"/>
+      <c r="T329" s="66"/>
       <c r="W329" s="2"/>
     </row>
     <row r="330" spans="1:23">
@@ -11770,14 +11779,14 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
       <c r="L330" s="2"/>
-      <c r="M330" s="64"/>
+      <c r="M330" s="65"/>
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
       <c r="R330" s="2"/>
       <c r="S330" s="2"/>
-      <c r="T330" s="65"/>
+      <c r="T330" s="66"/>
       <c r="W330" s="2"/>
     </row>
     <row r="331" spans="1:23">
@@ -11792,14 +11801,14 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
       <c r="L331" s="2"/>
-      <c r="M331" s="64"/>
+      <c r="M331" s="65"/>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
       <c r="R331" s="2"/>
       <c r="S331" s="2"/>
-      <c r="T331" s="65"/>
+      <c r="T331" s="66"/>
       <c r="W331" s="2"/>
     </row>
     <row r="332" spans="1:23">
@@ -11814,14 +11823,14 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
       <c r="L332" s="2"/>
-      <c r="M332" s="64"/>
+      <c r="M332" s="65"/>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
       <c r="R332" s="2"/>
       <c r="S332" s="2"/>
-      <c r="T332" s="65"/>
+      <c r="T332" s="66"/>
       <c r="W332" s="2"/>
     </row>
     <row r="333" spans="1:23">
@@ -11836,14 +11845,14 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
       <c r="L333" s="2"/>
-      <c r="M333" s="64"/>
+      <c r="M333" s="65"/>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
       <c r="R333" s="2"/>
       <c r="S333" s="2"/>
-      <c r="T333" s="65"/>
+      <c r="T333" s="66"/>
       <c r="W333" s="2"/>
     </row>
     <row r="334" spans="1:23">
@@ -11858,14 +11867,14 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
       <c r="L334" s="2"/>
-      <c r="M334" s="64"/>
+      <c r="M334" s="65"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
       <c r="R334" s="2"/>
       <c r="S334" s="2"/>
-      <c r="T334" s="65"/>
+      <c r="T334" s="66"/>
       <c r="W334" s="2"/>
     </row>
     <row r="335" spans="1:23">
@@ -11880,14 +11889,14 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
-      <c r="M335" s="64"/>
+      <c r="M335" s="65"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
       <c r="R335" s="2"/>
       <c r="S335" s="2"/>
-      <c r="T335" s="65"/>
+      <c r="T335" s="66"/>
       <c r="W335" s="2"/>
     </row>
     <row r="336" spans="1:23">
@@ -11902,14 +11911,14 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
-      <c r="M336" s="64"/>
+      <c r="M336" s="65"/>
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
       <c r="R336" s="2"/>
       <c r="S336" s="2"/>
-      <c r="T336" s="65"/>
+      <c r="T336" s="66"/>
       <c r="W336" s="2"/>
     </row>
     <row r="337" spans="1:23">
@@ -11924,14 +11933,14 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
-      <c r="M337" s="64"/>
+      <c r="M337" s="65"/>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
       <c r="R337" s="2"/>
       <c r="S337" s="2"/>
-      <c r="T337" s="65"/>
+      <c r="T337" s="66"/>
       <c r="W337" s="2"/>
     </row>
     <row r="338" spans="1:23">
@@ -11946,14 +11955,14 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
-      <c r="M338" s="64"/>
+      <c r="M338" s="65"/>
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
       <c r="R338" s="2"/>
       <c r="S338" s="2"/>
-      <c r="T338" s="65"/>
+      <c r="T338" s="66"/>
       <c r="W338" s="2"/>
     </row>
     <row r="339" spans="1:23">
@@ -11968,14 +11977,14 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
       <c r="L339" s="2"/>
-      <c r="M339" s="64"/>
+      <c r="M339" s="65"/>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
       <c r="S339" s="2"/>
-      <c r="T339" s="65"/>
+      <c r="T339" s="66"/>
       <c r="W339" s="2"/>
     </row>
     <row r="340" spans="1:23">
@@ -11990,14 +11999,14 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
-      <c r="M340" s="64"/>
+      <c r="M340" s="65"/>
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
-      <c r="T340" s="65"/>
+      <c r="T340" s="66"/>
       <c r="W340" s="2"/>
     </row>
     <row r="341" spans="1:23">
@@ -12012,14 +12021,14 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
-      <c r="M341" s="64"/>
+      <c r="M341" s="65"/>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
       <c r="R341" s="2"/>
       <c r="S341" s="2"/>
-      <c r="T341" s="65"/>
+      <c r="T341" s="66"/>
       <c r="W341" s="2"/>
     </row>
     <row r="342" spans="1:23">
@@ -12034,14 +12043,14 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
-      <c r="M342" s="64"/>
+      <c r="M342" s="65"/>
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
       <c r="R342" s="2"/>
       <c r="S342" s="2"/>
-      <c r="T342" s="65"/>
+      <c r="T342" s="66"/>
       <c r="W342" s="2"/>
     </row>
     <row r="343" spans="1:23">
@@ -12056,14 +12065,14 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
-      <c r="M343" s="64"/>
+      <c r="M343" s="65"/>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
       <c r="S343" s="2"/>
-      <c r="T343" s="65"/>
+      <c r="T343" s="66"/>
       <c r="W343" s="2"/>
     </row>
     <row r="344" spans="1:23">
@@ -12078,14 +12087,14 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
-      <c r="M344" s="64"/>
+      <c r="M344" s="65"/>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
       <c r="S344" s="2"/>
-      <c r="T344" s="65"/>
+      <c r="T344" s="66"/>
       <c r="W344" s="2"/>
     </row>
     <row r="345" spans="1:23">
@@ -12100,14 +12109,14 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
-      <c r="M345" s="64"/>
+      <c r="M345" s="65"/>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
-      <c r="T345" s="65"/>
+      <c r="T345" s="66"/>
       <c r="W345" s="2"/>
     </row>
     <row r="346" spans="1:23">
@@ -12122,14 +12131,14 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
       <c r="L346" s="2"/>
-      <c r="M346" s="64"/>
+      <c r="M346" s="65"/>
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
-      <c r="T346" s="65"/>
+      <c r="T346" s="66"/>
       <c r="W346" s="2"/>
     </row>
     <row r="347" spans="1:23">
@@ -12144,14 +12153,14 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
-      <c r="M347" s="64"/>
+      <c r="M347" s="65"/>
       <c r="N347" s="2"/>
       <c r="O347" s="2"/>
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
       <c r="S347" s="2"/>
-      <c r="T347" s="65"/>
+      <c r="T347" s="66"/>
       <c r="W347" s="2"/>
     </row>
     <row r="348" spans="1:23">
@@ -12166,14 +12175,14 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
-      <c r="M348" s="64"/>
+      <c r="M348" s="65"/>
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
       <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
       <c r="S348" s="2"/>
-      <c r="T348" s="65"/>
+      <c r="T348" s="66"/>
       <c r="W348" s="2"/>
     </row>
     <row r="349" spans="1:23">
@@ -12188,14 +12197,14 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
-      <c r="M349" s="64"/>
+      <c r="M349" s="65"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
       <c r="S349" s="2"/>
-      <c r="T349" s="65"/>
+      <c r="T349" s="66"/>
       <c r="W349" s="2"/>
     </row>
     <row r="350" spans="1:23">
@@ -12210,14 +12219,14 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
-      <c r="M350" s="64"/>
+      <c r="M350" s="65"/>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
       <c r="S350" s="2"/>
-      <c r="T350" s="65"/>
+      <c r="T350" s="66"/>
       <c r="W350" s="2"/>
     </row>
     <row r="351" spans="1:23">
@@ -12232,14 +12241,14 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
-      <c r="M351" s="64"/>
+      <c r="M351" s="65"/>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
       <c r="S351" s="2"/>
-      <c r="T351" s="65"/>
+      <c r="T351" s="66"/>
       <c r="W351" s="2"/>
     </row>
     <row r="352" spans="1:23">
@@ -12254,14 +12263,14 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
       <c r="L352" s="2"/>
-      <c r="M352" s="64"/>
+      <c r="M352" s="65"/>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
-      <c r="T352" s="65"/>
+      <c r="T352" s="66"/>
       <c r="W352" s="2"/>
     </row>
     <row r="353" spans="1:23">
@@ -12276,14 +12285,14 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
-      <c r="M353" s="64"/>
+      <c r="M353" s="65"/>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
       <c r="S353" s="2"/>
-      <c r="T353" s="65"/>
+      <c r="T353" s="66"/>
       <c r="W353" s="2"/>
     </row>
     <row r="354" spans="1:23">
@@ -12298,14 +12307,14 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
       <c r="L354" s="2"/>
-      <c r="M354" s="64"/>
+      <c r="M354" s="65"/>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
       <c r="S354" s="2"/>
-      <c r="T354" s="65"/>
+      <c r="T354" s="66"/>
       <c r="W354" s="2"/>
     </row>
     <row r="355" spans="1:23">
@@ -12320,14 +12329,14 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
       <c r="L355" s="2"/>
-      <c r="M355" s="64"/>
+      <c r="M355" s="65"/>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
       <c r="S355" s="2"/>
-      <c r="T355" s="65"/>
+      <c r="T355" s="66"/>
       <c r="W355" s="2"/>
     </row>
     <row r="356" spans="1:23">
@@ -12342,14 +12351,14 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
-      <c r="M356" s="64"/>
+      <c r="M356" s="65"/>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
       <c r="S356" s="2"/>
-      <c r="T356" s="65"/>
+      <c r="T356" s="66"/>
       <c r="W356" s="2"/>
     </row>
     <row r="357" spans="1:23">
@@ -12364,14 +12373,14 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
-      <c r="M357" s="64"/>
+      <c r="M357" s="65"/>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
       <c r="S357" s="2"/>
-      <c r="T357" s="65"/>
+      <c r="T357" s="66"/>
       <c r="W357" s="2"/>
     </row>
     <row r="358" spans="1:23">
@@ -12386,14 +12395,14 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
       <c r="L358" s="2"/>
-      <c r="M358" s="64"/>
+      <c r="M358" s="65"/>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
       <c r="S358" s="2"/>
-      <c r="T358" s="65"/>
+      <c r="T358" s="66"/>
       <c r="W358" s="2"/>
     </row>
     <row r="359" spans="1:23">
@@ -12408,14 +12417,14 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
       <c r="L359" s="2"/>
-      <c r="M359" s="64"/>
+      <c r="M359" s="65"/>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
       <c r="S359" s="2"/>
-      <c r="T359" s="65"/>
+      <c r="T359" s="66"/>
       <c r="W359" s="2"/>
     </row>
     <row r="360" spans="1:23">
@@ -12430,14 +12439,14 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
       <c r="L360" s="2"/>
-      <c r="M360" s="64"/>
+      <c r="M360" s="65"/>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
       <c r="S360" s="2"/>
-      <c r="T360" s="65"/>
+      <c r="T360" s="66"/>
       <c r="W360" s="2"/>
     </row>
     <row r="361" spans="1:23">
@@ -12452,14 +12461,14 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
-      <c r="M361" s="64"/>
+      <c r="M361" s="65"/>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
       <c r="S361" s="2"/>
-      <c r="T361" s="65"/>
+      <c r="T361" s="66"/>
       <c r="W361" s="2"/>
     </row>
     <row r="362" spans="1:23">
@@ -12474,14 +12483,14 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
-      <c r="M362" s="64"/>
+      <c r="M362" s="65"/>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
       <c r="S362" s="2"/>
-      <c r="T362" s="65"/>
+      <c r="T362" s="66"/>
       <c r="W362" s="2"/>
     </row>
     <row r="363" spans="1:23">
@@ -12496,14 +12505,14 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
-      <c r="M363" s="64"/>
+      <c r="M363" s="65"/>
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
       <c r="S363" s="2"/>
-      <c r="T363" s="65"/>
+      <c r="T363" s="66"/>
       <c r="W363" s="2"/>
     </row>
     <row r="364" spans="1:23">
@@ -12518,14 +12527,14 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
-      <c r="M364" s="64"/>
+      <c r="M364" s="65"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
       <c r="S364" s="2"/>
-      <c r="T364" s="65"/>
+      <c r="T364" s="66"/>
       <c r="W364" s="2"/>
     </row>
     <row r="365" spans="1:23">
@@ -12540,14 +12549,14 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
-      <c r="M365" s="64"/>
+      <c r="M365" s="65"/>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
       <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
       <c r="S365" s="2"/>
-      <c r="T365" s="65"/>
+      <c r="T365" s="66"/>
       <c r="W365" s="2"/>
     </row>
     <row r="366" spans="1:23">
@@ -12562,14 +12571,14 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
-      <c r="M366" s="64"/>
+      <c r="M366" s="65"/>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
       <c r="S366" s="2"/>
-      <c r="T366" s="65"/>
+      <c r="T366" s="66"/>
       <c r="W366" s="2"/>
     </row>
     <row r="367" spans="1:23">
@@ -12584,14 +12593,14 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
-      <c r="M367" s="64"/>
+      <c r="M367" s="65"/>
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
       <c r="S367" s="2"/>
-      <c r="T367" s="65"/>
+      <c r="T367" s="66"/>
       <c r="W367" s="2"/>
     </row>
     <row r="368" spans="1:23">
@@ -12606,14 +12615,14 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
       <c r="L368" s="2"/>
-      <c r="M368" s="64"/>
+      <c r="M368" s="65"/>
       <c r="N368" s="2"/>
       <c r="O368" s="2"/>
       <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
       <c r="S368" s="2"/>
-      <c r="T368" s="65"/>
+      <c r="T368" s="66"/>
       <c r="W368" s="2"/>
     </row>
     <row r="369" spans="1:23">
@@ -12628,14 +12637,14 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
       <c r="L369" s="2"/>
-      <c r="M369" s="64"/>
+      <c r="M369" s="65"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
       <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
       <c r="S369" s="2"/>
-      <c r="T369" s="65"/>
+      <c r="T369" s="66"/>
       <c r="W369" s="2"/>
     </row>
     <row r="370" spans="1:23">
@@ -12650,14 +12659,14 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
       <c r="L370" s="2"/>
-      <c r="M370" s="64"/>
+      <c r="M370" s="65"/>
       <c r="N370" s="2"/>
       <c r="O370" s="2"/>
       <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
       <c r="S370" s="2"/>
-      <c r="T370" s="65"/>
+      <c r="T370" s="66"/>
       <c r="W370" s="2"/>
     </row>
     <row r="371" spans="1:23">
@@ -12672,14 +12681,14 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
       <c r="L371" s="2"/>
-      <c r="M371" s="64"/>
+      <c r="M371" s="65"/>
       <c r="N371" s="2"/>
       <c r="O371" s="2"/>
       <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
       <c r="S371" s="2"/>
-      <c r="T371" s="65"/>
+      <c r="T371" s="66"/>
       <c r="W371" s="2"/>
     </row>
     <row r="372" spans="1:23">
@@ -12694,14 +12703,14 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
       <c r="L372" s="2"/>
-      <c r="M372" s="64"/>
+      <c r="M372" s="65"/>
       <c r="N372" s="2"/>
       <c r="O372" s="2"/>
       <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
       <c r="S372" s="2"/>
-      <c r="T372" s="65"/>
+      <c r="T372" s="66"/>
       <c r="W372" s="2"/>
     </row>
     <row r="373" spans="1:23">
@@ -12716,14 +12725,14 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
       <c r="L373" s="2"/>
-      <c r="M373" s="64"/>
+      <c r="M373" s="65"/>
       <c r="N373" s="2"/>
       <c r="O373" s="2"/>
       <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
       <c r="S373" s="2"/>
-      <c r="T373" s="65"/>
+      <c r="T373" s="66"/>
       <c r="W373" s="2"/>
     </row>
     <row r="374" spans="1:23">
@@ -12738,14 +12747,14 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
       <c r="L374" s="2"/>
-      <c r="M374" s="64"/>
+      <c r="M374" s="65"/>
       <c r="N374" s="2"/>
       <c r="O374" s="2"/>
       <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
       <c r="S374" s="2"/>
-      <c r="T374" s="65"/>
+      <c r="T374" s="66"/>
       <c r="W374" s="2"/>
     </row>
     <row r="375" spans="1:23">
@@ -12760,14 +12769,14 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
       <c r="L375" s="2"/>
-      <c r="M375" s="64"/>
+      <c r="M375" s="65"/>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
       <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
       <c r="S375" s="2"/>
-      <c r="T375" s="65"/>
+      <c r="T375" s="66"/>
       <c r="W375" s="2"/>
     </row>
     <row r="376" spans="1:23">
@@ -12782,14 +12791,14 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
       <c r="L376" s="2"/>
-      <c r="M376" s="64"/>
+      <c r="M376" s="65"/>
       <c r="N376" s="2"/>
       <c r="O376" s="2"/>
       <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
       <c r="S376" s="2"/>
-      <c r="T376" s="65"/>
+      <c r="T376" s="66"/>
       <c r="W376" s="2"/>
     </row>
     <row r="377" spans="1:23">
@@ -12804,14 +12813,14 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
-      <c r="M377" s="64"/>
+      <c r="M377" s="65"/>
       <c r="N377" s="2"/>
       <c r="O377" s="2"/>
       <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
       <c r="S377" s="2"/>
-      <c r="T377" s="65"/>
+      <c r="T377" s="66"/>
       <c r="W377" s="2"/>
     </row>
     <row r="378" spans="1:23">
@@ -12826,14 +12835,14 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
-      <c r="M378" s="64"/>
+      <c r="M378" s="65"/>
       <c r="N378" s="2"/>
       <c r="O378" s="2"/>
       <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
       <c r="S378" s="2"/>
-      <c r="T378" s="65"/>
+      <c r="T378" s="66"/>
       <c r="W378" s="2"/>
     </row>
     <row r="379" spans="1:23">
@@ -12848,14 +12857,14 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
-      <c r="M379" s="64"/>
+      <c r="M379" s="65"/>
       <c r="N379" s="2"/>
       <c r="O379" s="2"/>
       <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
       <c r="S379" s="2"/>
-      <c r="T379" s="65"/>
+      <c r="T379" s="66"/>
       <c r="W379" s="2"/>
     </row>
     <row r="380" spans="1:23">
@@ -12870,14 +12879,14 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
-      <c r="M380" s="64"/>
+      <c r="M380" s="65"/>
       <c r="N380" s="2"/>
       <c r="O380" s="2"/>
       <c r="P380" s="2"/>
       <c r="Q380" s="2"/>
       <c r="R380" s="2"/>
       <c r="S380" s="2"/>
-      <c r="T380" s="65"/>
+      <c r="T380" s="66"/>
       <c r="W380" s="2"/>
     </row>
     <row r="381" spans="1:23">
@@ -12892,14 +12901,14 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
-      <c r="M381" s="64"/>
+      <c r="M381" s="65"/>
       <c r="N381" s="2"/>
       <c r="O381" s="2"/>
       <c r="P381" s="2"/>
       <c r="Q381" s="2"/>
       <c r="R381" s="2"/>
       <c r="S381" s="2"/>
-      <c r="T381" s="65"/>
+      <c r="T381" s="66"/>
       <c r="W381" s="2"/>
     </row>
     <row r="382" spans="1:23">
@@ -12914,14 +12923,14 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
       <c r="L382" s="2"/>
-      <c r="M382" s="64"/>
+      <c r="M382" s="65"/>
       <c r="N382" s="2"/>
       <c r="O382" s="2"/>
       <c r="P382" s="2"/>
       <c r="Q382" s="2"/>
       <c r="R382" s="2"/>
       <c r="S382" s="2"/>
-      <c r="T382" s="65"/>
+      <c r="T382" s="66"/>
       <c r="W382" s="2"/>
     </row>
     <row r="383" spans="1:23">
@@ -12936,14 +12945,14 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
-      <c r="M383" s="64"/>
+      <c r="M383" s="65"/>
       <c r="N383" s="2"/>
       <c r="O383" s="2"/>
       <c r="P383" s="2"/>
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
       <c r="S383" s="2"/>
-      <c r="T383" s="65"/>
+      <c r="T383" s="66"/>
       <c r="W383" s="2"/>
     </row>
     <row r="384" spans="1:23">
@@ -12958,14 +12967,14 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
-      <c r="M384" s="64"/>
+      <c r="M384" s="65"/>
       <c r="N384" s="2"/>
       <c r="O384" s="2"/>
       <c r="P384" s="2"/>
       <c r="Q384" s="2"/>
       <c r="R384" s="2"/>
       <c r="S384" s="2"/>
-      <c r="T384" s="65"/>
+      <c r="T384" s="66"/>
       <c r="W384" s="2"/>
     </row>
     <row r="385" spans="1:23">
@@ -12980,14 +12989,14 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
-      <c r="M385" s="64"/>
+      <c r="M385" s="65"/>
       <c r="N385" s="2"/>
       <c r="O385" s="2"/>
       <c r="P385" s="2"/>
       <c r="Q385" s="2"/>
       <c r="R385" s="2"/>
       <c r="S385" s="2"/>
-      <c r="T385" s="65"/>
+      <c r="T385" s="66"/>
       <c r="W385" s="2"/>
     </row>
     <row r="386" spans="1:23">
@@ -13002,14 +13011,14 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
-      <c r="M386" s="64"/>
+      <c r="M386" s="65"/>
       <c r="N386" s="2"/>
       <c r="O386" s="2"/>
       <c r="P386" s="2"/>
       <c r="Q386" s="2"/>
       <c r="R386" s="2"/>
       <c r="S386" s="2"/>
-      <c r="T386" s="65"/>
+      <c r="T386" s="66"/>
       <c r="W386" s="2"/>
     </row>
     <row r="387" spans="1:23">
@@ -13024,14 +13033,14 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
-      <c r="M387" s="64"/>
+      <c r="M387" s="65"/>
       <c r="N387" s="2"/>
       <c r="O387" s="2"/>
       <c r="P387" s="2"/>
       <c r="Q387" s="2"/>
       <c r="R387" s="2"/>
       <c r="S387" s="2"/>
-      <c r="T387" s="65"/>
+      <c r="T387" s="66"/>
       <c r="W387" s="2"/>
     </row>
     <row r="388" spans="1:23">
@@ -13046,14 +13055,14 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
       <c r="L388" s="2"/>
-      <c r="M388" s="64"/>
+      <c r="M388" s="65"/>
       <c r="N388" s="2"/>
       <c r="O388" s="2"/>
       <c r="P388" s="2"/>
       <c r="Q388" s="2"/>
       <c r="R388" s="2"/>
       <c r="S388" s="2"/>
-      <c r="T388" s="65"/>
+      <c r="T388" s="66"/>
       <c r="W388" s="2"/>
     </row>
     <row r="389" spans="1:23">
@@ -13068,14 +13077,14 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
-      <c r="M389" s="64"/>
+      <c r="M389" s="65"/>
       <c r="N389" s="2"/>
       <c r="O389" s="2"/>
       <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
       <c r="S389" s="2"/>
-      <c r="T389" s="65"/>
+      <c r="T389" s="66"/>
       <c r="W389" s="2"/>
     </row>
     <row r="390" spans="1:23">
@@ -13090,14 +13099,14 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
-      <c r="M390" s="64"/>
+      <c r="M390" s="65"/>
       <c r="N390" s="2"/>
       <c r="O390" s="2"/>
       <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
       <c r="S390" s="2"/>
-      <c r="T390" s="65"/>
+      <c r="T390" s="66"/>
       <c r="W390" s="2"/>
     </row>
     <row r="391" spans="1:23">
@@ -13112,14 +13121,14 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
-      <c r="M391" s="64"/>
+      <c r="M391" s="65"/>
       <c r="N391" s="2"/>
       <c r="O391" s="2"/>
       <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
       <c r="S391" s="2"/>
-      <c r="T391" s="65"/>
+      <c r="T391" s="66"/>
       <c r="W391" s="2"/>
     </row>
     <row r="392" spans="1:23">
@@ -13134,14 +13143,14 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
-      <c r="M392" s="64"/>
+      <c r="M392" s="65"/>
       <c r="N392" s="2"/>
       <c r="O392" s="2"/>
       <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
       <c r="S392" s="2"/>
-      <c r="T392" s="65"/>
+      <c r="T392" s="66"/>
       <c r="W392" s="2"/>
     </row>
     <row r="393" spans="1:23">
@@ -13156,14 +13165,14 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
-      <c r="M393" s="64"/>
+      <c r="M393" s="65"/>
       <c r="N393" s="2"/>
       <c r="O393" s="2"/>
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
       <c r="S393" s="2"/>
-      <c r="T393" s="65"/>
+      <c r="T393" s="66"/>
       <c r="W393" s="2"/>
     </row>
     <row r="394" spans="1:23">
@@ -13178,14 +13187,14 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
-      <c r="M394" s="64"/>
+      <c r="M394" s="65"/>
       <c r="N394" s="2"/>
       <c r="O394" s="2"/>
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
       <c r="S394" s="2"/>
-      <c r="T394" s="65"/>
+      <c r="T394" s="66"/>
       <c r="W394" s="2"/>
     </row>
     <row r="395" spans="1:23">
@@ -13200,14 +13209,14 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
-      <c r="M395" s="64"/>
+      <c r="M395" s="65"/>
       <c r="N395" s="2"/>
       <c r="O395" s="2"/>
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
       <c r="S395" s="2"/>
-      <c r="T395" s="65"/>
+      <c r="T395" s="66"/>
       <c r="W395" s="2"/>
     </row>
     <row r="396" spans="1:23">
@@ -13222,14 +13231,14 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
       <c r="L396" s="2"/>
-      <c r="M396" s="64"/>
+      <c r="M396" s="65"/>
       <c r="N396" s="2"/>
       <c r="O396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
       <c r="S396" s="2"/>
-      <c r="T396" s="65"/>
+      <c r="T396" s="66"/>
       <c r="W396" s="2"/>
     </row>
     <row r="397" spans="1:23">
@@ -13244,14 +13253,14 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
       <c r="L397" s="2"/>
-      <c r="M397" s="64"/>
+      <c r="M397" s="65"/>
       <c r="N397" s="2"/>
       <c r="O397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
       <c r="S397" s="2"/>
-      <c r="T397" s="65"/>
+      <c r="T397" s="66"/>
       <c r="W397" s="2"/>
     </row>
     <row r="398" spans="1:23">
@@ -13266,14 +13275,14 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
       <c r="L398" s="2"/>
-      <c r="M398" s="64"/>
+      <c r="M398" s="65"/>
       <c r="N398" s="2"/>
       <c r="O398" s="2"/>
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
       <c r="S398" s="2"/>
-      <c r="T398" s="65"/>
+      <c r="T398" s="66"/>
       <c r="W398" s="2"/>
     </row>
     <row r="399" spans="1:23">
@@ -13288,14 +13297,14 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
-      <c r="M399" s="64"/>
+      <c r="M399" s="65"/>
       <c r="N399" s="2"/>
       <c r="O399" s="2"/>
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
       <c r="S399" s="2"/>
-      <c r="T399" s="65"/>
+      <c r="T399" s="66"/>
       <c r="W399" s="2"/>
     </row>
     <row r="400" spans="1:23">
@@ -13310,14 +13319,14 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
       <c r="L400" s="2"/>
-      <c r="M400" s="64"/>
+      <c r="M400" s="65"/>
       <c r="N400" s="2"/>
       <c r="O400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
       <c r="S400" s="2"/>
-      <c r="T400" s="65"/>
+      <c r="T400" s="66"/>
       <c r="W400" s="2"/>
     </row>
     <row r="401" spans="1:23">
@@ -13332,14 +13341,14 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
       <c r="L401" s="2"/>
-      <c r="M401" s="64"/>
+      <c r="M401" s="65"/>
       <c r="N401" s="2"/>
       <c r="O401" s="2"/>
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
       <c r="S401" s="2"/>
-      <c r="T401" s="65"/>
+      <c r="T401" s="66"/>
       <c r="W401" s="2"/>
     </row>
     <row r="402" spans="1:23">
@@ -13354,14 +13363,14 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
       <c r="L402" s="2"/>
-      <c r="M402" s="64"/>
+      <c r="M402" s="65"/>
       <c r="N402" s="2"/>
       <c r="O402" s="2"/>
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
       <c r="S402" s="2"/>
-      <c r="T402" s="65"/>
+      <c r="T402" s="66"/>
       <c r="W402" s="2"/>
     </row>
     <row r="403" spans="1:23">
@@ -13376,14 +13385,14 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
-      <c r="M403" s="64"/>
+      <c r="M403" s="65"/>
       <c r="N403" s="2"/>
       <c r="O403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
       <c r="S403" s="2"/>
-      <c r="T403" s="65"/>
+      <c r="T403" s="66"/>
       <c r="W403" s="2"/>
     </row>
     <row r="404" spans="1:23">
@@ -13398,14 +13407,14 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
-      <c r="M404" s="64"/>
+      <c r="M404" s="65"/>
       <c r="N404" s="2"/>
       <c r="O404" s="2"/>
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
       <c r="S404" s="2"/>
-      <c r="T404" s="65"/>
+      <c r="T404" s="66"/>
       <c r="W404" s="2"/>
     </row>
     <row r="405" spans="1:23">
@@ -13420,14 +13429,14 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
-      <c r="M405" s="64"/>
+      <c r="M405" s="65"/>
       <c r="N405" s="2"/>
       <c r="O405" s="2"/>
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
       <c r="S405" s="2"/>
-      <c r="T405" s="65"/>
+      <c r="T405" s="66"/>
       <c r="W405" s="2"/>
     </row>
     <row r="406" spans="1:23">
@@ -13442,14 +13451,14 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
-      <c r="M406" s="64"/>
+      <c r="M406" s="65"/>
       <c r="N406" s="2"/>
       <c r="O406" s="2"/>
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
       <c r="S406" s="2"/>
-      <c r="T406" s="65"/>
+      <c r="T406" s="66"/>
       <c r="W406" s="2"/>
     </row>
     <row r="407" spans="1:23">
@@ -13464,14 +13473,14 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
-      <c r="M407" s="64"/>
+      <c r="M407" s="65"/>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
       <c r="S407" s="2"/>
-      <c r="T407" s="65"/>
+      <c r="T407" s="66"/>
       <c r="W407" s="2"/>
     </row>
     <row r="408" spans="1:23">
@@ -13486,14 +13495,14 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
       <c r="L408" s="2"/>
-      <c r="M408" s="64"/>
+      <c r="M408" s="65"/>
       <c r="N408" s="2"/>
       <c r="O408" s="2"/>
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
       <c r="S408" s="2"/>
-      <c r="T408" s="65"/>
+      <c r="T408" s="66"/>
       <c r="W408" s="2"/>
     </row>
     <row r="409" spans="1:23">
@@ -13508,14 +13517,14 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
       <c r="L409" s="2"/>
-      <c r="M409" s="64"/>
+      <c r="M409" s="65"/>
       <c r="N409" s="2"/>
       <c r="O409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
       <c r="S409" s="2"/>
-      <c r="T409" s="65"/>
+      <c r="T409" s="66"/>
       <c r="W409" s="2"/>
     </row>
     <row r="410" spans="1:23">
@@ -13530,14 +13539,14 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
-      <c r="M410" s="64"/>
+      <c r="M410" s="65"/>
       <c r="N410" s="2"/>
       <c r="O410" s="2"/>
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
       <c r="S410" s="2"/>
-      <c r="T410" s="65"/>
+      <c r="T410" s="66"/>
       <c r="W410" s="2"/>
     </row>
     <row r="411" spans="1:23">
@@ -13552,14 +13561,14 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
       <c r="L411" s="2"/>
-      <c r="M411" s="64"/>
+      <c r="M411" s="65"/>
       <c r="N411" s="2"/>
       <c r="O411" s="2"/>
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
       <c r="S411" s="2"/>
-      <c r="T411" s="65"/>
+      <c r="T411" s="66"/>
       <c r="W411" s="2"/>
     </row>
     <row r="412" spans="1:23">
@@ -13574,14 +13583,14 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
       <c r="L412" s="2"/>
-      <c r="M412" s="64"/>
+      <c r="M412" s="65"/>
       <c r="N412" s="2"/>
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
       <c r="S412" s="2"/>
-      <c r="T412" s="65"/>
+      <c r="T412" s="66"/>
       <c r="W412" s="2"/>
     </row>
     <row r="413" spans="1:23">
@@ -13596,14 +13605,14 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
       <c r="L413" s="2"/>
-      <c r="M413" s="64"/>
+      <c r="M413" s="65"/>
       <c r="N413" s="2"/>
       <c r="O413" s="2"/>
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
       <c r="S413" s="2"/>
-      <c r="T413" s="65"/>
+      <c r="T413" s="66"/>
       <c r="W413" s="2"/>
     </row>
     <row r="414" spans="1:23">
@@ -13618,14 +13627,14 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
       <c r="L414" s="2"/>
-      <c r="M414" s="64"/>
+      <c r="M414" s="65"/>
       <c r="N414" s="2"/>
       <c r="O414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
       <c r="S414" s="2"/>
-      <c r="T414" s="65"/>
+      <c r="T414" s="66"/>
       <c r="W414" s="2"/>
     </row>
     <row r="415" spans="1:23">
@@ -13640,14 +13649,14 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
       <c r="L415" s="2"/>
-      <c r="M415" s="64"/>
+      <c r="M415" s="65"/>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
       <c r="S415" s="2"/>
-      <c r="T415" s="65"/>
+      <c r="T415" s="66"/>
       <c r="W415" s="2"/>
     </row>
     <row r="416" spans="1:23">
@@ -13662,14 +13671,14 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
       <c r="L416" s="2"/>
-      <c r="M416" s="64"/>
+      <c r="M416" s="65"/>
       <c r="N416" s="2"/>
       <c r="O416" s="2"/>
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
       <c r="S416" s="2"/>
-      <c r="T416" s="65"/>
+      <c r="T416" s="66"/>
       <c r="W416" s="2"/>
     </row>
     <row r="417" spans="1:23">
@@ -13684,14 +13693,14 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
       <c r="L417" s="2"/>
-      <c r="M417" s="64"/>
+      <c r="M417" s="65"/>
       <c r="N417" s="2"/>
       <c r="O417" s="2"/>
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
       <c r="S417" s="2"/>
-      <c r="T417" s="65"/>
+      <c r="T417" s="66"/>
       <c r="W417" s="2"/>
     </row>
     <row r="418" spans="1:23">
@@ -13706,14 +13715,14 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
       <c r="L418" s="2"/>
-      <c r="M418" s="64"/>
+      <c r="M418" s="65"/>
       <c r="N418" s="2"/>
       <c r="O418" s="2"/>
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
       <c r="S418" s="2"/>
-      <c r="T418" s="65"/>
+      <c r="T418" s="66"/>
       <c r="W418" s="2"/>
     </row>
     <row r="419" spans="1:23">
@@ -13728,14 +13737,14 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
       <c r="L419" s="2"/>
-      <c r="M419" s="64"/>
+      <c r="M419" s="65"/>
       <c r="N419" s="2"/>
       <c r="O419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
       <c r="S419" s="2"/>
-      <c r="T419" s="65"/>
+      <c r="T419" s="66"/>
       <c r="W419" s="2"/>
     </row>
     <row r="420" spans="1:23">
@@ -13750,14 +13759,14 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
       <c r="L420" s="2"/>
-      <c r="M420" s="64"/>
+      <c r="M420" s="65"/>
       <c r="N420" s="2"/>
       <c r="O420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
       <c r="S420" s="2"/>
-      <c r="T420" s="65"/>
+      <c r="T420" s="66"/>
       <c r="W420" s="2"/>
     </row>
     <row r="421" spans="1:23">
@@ -13772,14 +13781,14 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
       <c r="L421" s="2"/>
-      <c r="M421" s="64"/>
+      <c r="M421" s="65"/>
       <c r="N421" s="2"/>
       <c r="O421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
       <c r="S421" s="2"/>
-      <c r="T421" s="65"/>
+      <c r="T421" s="66"/>
       <c r="W421" s="2"/>
     </row>
     <row r="422" spans="1:23">
@@ -13794,14 +13803,14 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
       <c r="L422" s="2"/>
-      <c r="M422" s="64"/>
+      <c r="M422" s="65"/>
       <c r="N422" s="2"/>
       <c r="O422" s="2"/>
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
       <c r="S422" s="2"/>
-      <c r="T422" s="65"/>
+      <c r="T422" s="66"/>
       <c r="W422" s="2"/>
     </row>
     <row r="423" spans="1:23">
@@ -13816,14 +13825,14 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
-      <c r="M423" s="64"/>
+      <c r="M423" s="65"/>
       <c r="N423" s="2"/>
       <c r="O423" s="2"/>
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
       <c r="S423" s="2"/>
-      <c r="T423" s="65"/>
+      <c r="T423" s="66"/>
       <c r="W423" s="2"/>
     </row>
     <row r="424" spans="1:23">
@@ -13838,14 +13847,14 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
       <c r="L424" s="2"/>
-      <c r="M424" s="64"/>
+      <c r="M424" s="65"/>
       <c r="N424" s="2"/>
       <c r="O424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
       <c r="S424" s="2"/>
-      <c r="T424" s="65"/>
+      <c r="T424" s="66"/>
       <c r="W424" s="2"/>
     </row>
     <row r="425" spans="1:23">
@@ -13860,14 +13869,14 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
       <c r="L425" s="2"/>
-      <c r="M425" s="64"/>
+      <c r="M425" s="65"/>
       <c r="N425" s="2"/>
       <c r="O425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
       <c r="S425" s="2"/>
-      <c r="T425" s="65"/>
+      <c r="T425" s="66"/>
       <c r="W425" s="2"/>
     </row>
     <row r="426" spans="1:23">
@@ -13882,14 +13891,14 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
       <c r="L426" s="2"/>
-      <c r="M426" s="64"/>
+      <c r="M426" s="65"/>
       <c r="N426" s="2"/>
       <c r="O426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
       <c r="S426" s="2"/>
-      <c r="T426" s="65"/>
+      <c r="T426" s="66"/>
       <c r="W426" s="2"/>
     </row>
     <row r="427" spans="1:23">
@@ -13904,14 +13913,14 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
       <c r="L427" s="2"/>
-      <c r="M427" s="64"/>
+      <c r="M427" s="65"/>
       <c r="N427" s="2"/>
       <c r="O427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
       <c r="S427" s="2"/>
-      <c r="T427" s="65"/>
+      <c r="T427" s="66"/>
       <c r="W427" s="2"/>
     </row>
     <row r="428" spans="1:23">
@@ -13926,14 +13935,14 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
       <c r="L428" s="2"/>
-      <c r="M428" s="64"/>
+      <c r="M428" s="65"/>
       <c r="N428" s="2"/>
       <c r="O428" s="2"/>
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
       <c r="S428" s="2"/>
-      <c r="T428" s="65"/>
+      <c r="T428" s="66"/>
       <c r="W428" s="2"/>
     </row>
     <row r="429" spans="1:23">
@@ -13948,14 +13957,14 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
-      <c r="M429" s="64"/>
+      <c r="M429" s="65"/>
       <c r="N429" s="2"/>
       <c r="O429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
       <c r="S429" s="2"/>
-      <c r="T429" s="65"/>
+      <c r="T429" s="66"/>
       <c r="W429" s="2"/>
     </row>
     <row r="430" spans="1:23">
@@ -13970,14 +13979,14 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
       <c r="L430" s="2"/>
-      <c r="M430" s="64"/>
+      <c r="M430" s="65"/>
       <c r="N430" s="2"/>
       <c r="O430" s="2"/>
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
       <c r="S430" s="2"/>
-      <c r="T430" s="65"/>
+      <c r="T430" s="66"/>
       <c r="W430" s="2"/>
     </row>
     <row r="431" spans="1:23">
@@ -13992,14 +14001,14 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
       <c r="L431" s="2"/>
-      <c r="M431" s="64"/>
+      <c r="M431" s="65"/>
       <c r="N431" s="2"/>
       <c r="O431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
       <c r="S431" s="2"/>
-      <c r="T431" s="65"/>
+      <c r="T431" s="66"/>
       <c r="W431" s="2"/>
     </row>
     <row r="432" spans="1:23">
@@ -14014,14 +14023,14 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
-      <c r="M432" s="64"/>
+      <c r="M432" s="65"/>
       <c r="N432" s="2"/>
       <c r="O432" s="2"/>
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
       <c r="S432" s="2"/>
-      <c r="T432" s="65"/>
+      <c r="T432" s="66"/>
       <c r="W432" s="2"/>
     </row>
     <row r="433" spans="1:23">
@@ -14036,14 +14045,14 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
-      <c r="M433" s="64"/>
+      <c r="M433" s="65"/>
       <c r="N433" s="2"/>
       <c r="O433" s="2"/>
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
       <c r="R433" s="2"/>
       <c r="S433" s="2"/>
-      <c r="T433" s="65"/>
+      <c r="T433" s="66"/>
       <c r="W433" s="2"/>
     </row>
     <row r="434" spans="1:23">
@@ -14058,14 +14067,14 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
       <c r="L434" s="2"/>
-      <c r="M434" s="64"/>
+      <c r="M434" s="65"/>
       <c r="N434" s="2"/>
       <c r="O434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
       <c r="R434" s="2"/>
       <c r="S434" s="2"/>
-      <c r="T434" s="65"/>
+      <c r="T434" s="66"/>
       <c r="W434" s="2"/>
     </row>
     <row r="435" spans="1:23">
@@ -14080,14 +14089,14 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
-      <c r="M435" s="64"/>
+      <c r="M435" s="65"/>
       <c r="N435" s="2"/>
       <c r="O435" s="2"/>
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
       <c r="R435" s="2"/>
       <c r="S435" s="2"/>
-      <c r="T435" s="65"/>
+      <c r="T435" s="66"/>
       <c r="W435" s="2"/>
     </row>
     <row r="436" spans="1:23">
@@ -14102,14 +14111,14 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
-      <c r="M436" s="64"/>
+      <c r="M436" s="65"/>
       <c r="N436" s="2"/>
       <c r="O436" s="2"/>
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
       <c r="R436" s="2"/>
       <c r="S436" s="2"/>
-      <c r="T436" s="65"/>
+      <c r="T436" s="66"/>
       <c r="W436" s="2"/>
     </row>
     <row r="437" spans="1:23">
@@ -14124,14 +14133,14 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
-      <c r="M437" s="64"/>
+      <c r="M437" s="65"/>
       <c r="N437" s="2"/>
       <c r="O437" s="2"/>
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
       <c r="R437" s="2"/>
       <c r="S437" s="2"/>
-      <c r="T437" s="65"/>
+      <c r="T437" s="66"/>
       <c r="W437" s="2"/>
     </row>
     <row r="438" spans="1:23">
@@ -14146,14 +14155,14 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
       <c r="L438" s="2"/>
-      <c r="M438" s="64"/>
+      <c r="M438" s="65"/>
       <c r="N438" s="2"/>
       <c r="O438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
       <c r="R438" s="2"/>
       <c r="S438" s="2"/>
-      <c r="T438" s="65"/>
+      <c r="T438" s="66"/>
       <c r="W438" s="2"/>
     </row>
     <row r="439" spans="1:23">
@@ -14168,14 +14177,14 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
-      <c r="M439" s="64"/>
+      <c r="M439" s="65"/>
       <c r="N439" s="2"/>
       <c r="O439" s="2"/>
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
       <c r="R439" s="2"/>
       <c r="S439" s="2"/>
-      <c r="T439" s="65"/>
+      <c r="T439" s="66"/>
       <c r="W439" s="2"/>
     </row>
     <row r="440" spans="1:23">
@@ -14190,14 +14199,14 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
-      <c r="M440" s="64"/>
+      <c r="M440" s="65"/>
       <c r="N440" s="2"/>
       <c r="O440" s="2"/>
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
       <c r="R440" s="2"/>
       <c r="S440" s="2"/>
-      <c r="T440" s="65"/>
+      <c r="T440" s="66"/>
       <c r="W440" s="2"/>
     </row>
     <row r="441" spans="1:23">
@@ -14212,14 +14221,14 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
       <c r="L441" s="2"/>
-      <c r="M441" s="64"/>
+      <c r="M441" s="65"/>
       <c r="N441" s="2"/>
       <c r="O441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
       <c r="R441" s="2"/>
       <c r="S441" s="2"/>
-      <c r="T441" s="65"/>
+      <c r="T441" s="66"/>
       <c r="W441" s="2"/>
     </row>
     <row r="442" spans="1:23">
@@ -14234,14 +14243,14 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
-      <c r="M442" s="64"/>
+      <c r="M442" s="65"/>
       <c r="N442" s="2"/>
       <c r="O442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
       <c r="R442" s="2"/>
       <c r="S442" s="2"/>
-      <c r="T442" s="65"/>
+      <c r="T442" s="66"/>
       <c r="W442" s="2"/>
     </row>
     <row r="443" spans="1:23">
@@ -14256,14 +14265,14 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
-      <c r="M443" s="64"/>
+      <c r="M443" s="65"/>
       <c r="N443" s="2"/>
       <c r="O443" s="2"/>
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
       <c r="R443" s="2"/>
       <c r="S443" s="2"/>
-      <c r="T443" s="65"/>
+      <c r="T443" s="66"/>
       <c r="W443" s="2"/>
     </row>
     <row r="444" spans="1:23">
@@ -14278,14 +14287,14 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
       <c r="L444" s="2"/>
-      <c r="M444" s="64"/>
+      <c r="M444" s="65"/>
       <c r="N444" s="2"/>
       <c r="O444" s="2"/>
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
       <c r="R444" s="2"/>
       <c r="S444" s="2"/>
-      <c r="T444" s="65"/>
+      <c r="T444" s="66"/>
       <c r="W444" s="2"/>
     </row>
     <row r="445" spans="1:23">
@@ -14300,14 +14309,14 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
-      <c r="M445" s="64"/>
+      <c r="M445" s="65"/>
       <c r="N445" s="2"/>
       <c r="O445" s="2"/>
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
       <c r="R445" s="2"/>
       <c r="S445" s="2"/>
-      <c r="T445" s="65"/>
+      <c r="T445" s="66"/>
       <c r="W445" s="2"/>
     </row>
     <row r="446" spans="1:23">
@@ -14322,14 +14331,14 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
       <c r="L446" s="2"/>
-      <c r="M446" s="64"/>
+      <c r="M446" s="65"/>
       <c r="N446" s="2"/>
       <c r="O446" s="2"/>
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
       <c r="R446" s="2"/>
       <c r="S446" s="2"/>
-      <c r="T446" s="65"/>
+      <c r="T446" s="66"/>
       <c r="W446" s="2"/>
     </row>
     <row r="447" spans="1:23">
@@ -14344,14 +14353,14 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
       <c r="L447" s="2"/>
-      <c r="M447" s="64"/>
+      <c r="M447" s="65"/>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
       <c r="R447" s="2"/>
       <c r="S447" s="2"/>
-      <c r="T447" s="65"/>
+      <c r="T447" s="66"/>
       <c r="W447" s="2"/>
     </row>
     <row r="448" spans="1:23">
@@ -14366,14 +14375,14 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
       <c r="L448" s="2"/>
-      <c r="M448" s="64"/>
+      <c r="M448" s="65"/>
       <c r="N448" s="2"/>
       <c r="O448" s="2"/>
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
       <c r="R448" s="2"/>
       <c r="S448" s="2"/>
-      <c r="T448" s="65"/>
+      <c r="T448" s="66"/>
       <c r="W448" s="2"/>
     </row>
     <row r="449" spans="1:23">
@@ -14388,14 +14397,14 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
       <c r="L449" s="2"/>
-      <c r="M449" s="64"/>
+      <c r="M449" s="65"/>
       <c r="N449" s="2"/>
       <c r="O449" s="2"/>
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
       <c r="R449" s="2"/>
       <c r="S449" s="2"/>
-      <c r="T449" s="65"/>
+      <c r="T449" s="66"/>
       <c r="W449" s="2"/>
     </row>
     <row r="450" spans="1:23">
@@ -14410,14 +14419,14 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
       <c r="L450" s="2"/>
-      <c r="M450" s="64"/>
+      <c r="M450" s="65"/>
       <c r="N450" s="2"/>
       <c r="O450" s="2"/>
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
       <c r="R450" s="2"/>
       <c r="S450" s="2"/>
-      <c r="T450" s="65"/>
+      <c r="T450" s="66"/>
       <c r="W450" s="2"/>
     </row>
     <row r="451" spans="1:23">
@@ -14432,14 +14441,14 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
       <c r="L451" s="2"/>
-      <c r="M451" s="64"/>
+      <c r="M451" s="65"/>
       <c r="N451" s="2"/>
       <c r="O451" s="2"/>
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
       <c r="R451" s="2"/>
       <c r="S451" s="2"/>
-      <c r="T451" s="65"/>
+      <c r="T451" s="66"/>
       <c r="W451" s="2"/>
     </row>
     <row r="452" spans="1:23">
@@ -14454,14 +14463,14 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
       <c r="L452" s="2"/>
-      <c r="M452" s="64"/>
+      <c r="M452" s="65"/>
       <c r="N452" s="2"/>
       <c r="O452" s="2"/>
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
       <c r="R452" s="2"/>
       <c r="S452" s="2"/>
-      <c r="T452" s="65"/>
+      <c r="T452" s="66"/>
       <c r="W452" s="2"/>
     </row>
     <row r="453" spans="1:23">
@@ -14476,14 +14485,14 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
       <c r="L453" s="2"/>
-      <c r="M453" s="64"/>
+      <c r="M453" s="65"/>
       <c r="N453" s="2"/>
       <c r="O453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
       <c r="R453" s="2"/>
       <c r="S453" s="2"/>
-      <c r="T453" s="65"/>
+      <c r="T453" s="66"/>
       <c r="W453" s="2"/>
     </row>
     <row r="454" spans="1:23">
@@ -14498,14 +14507,14 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
       <c r="L454" s="2"/>
-      <c r="M454" s="64"/>
+      <c r="M454" s="65"/>
       <c r="N454" s="2"/>
       <c r="O454" s="2"/>
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
       <c r="R454" s="2"/>
       <c r="S454" s="2"/>
-      <c r="T454" s="65"/>
+      <c r="T454" s="66"/>
       <c r="W454" s="2"/>
     </row>
     <row r="455" spans="1:23">
@@ -14520,14 +14529,14 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
       <c r="L455" s="2"/>
-      <c r="M455" s="64"/>
+      <c r="M455" s="65"/>
       <c r="N455" s="2"/>
       <c r="O455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
       <c r="R455" s="2"/>
       <c r="S455" s="2"/>
-      <c r="T455" s="65"/>
+      <c r="T455" s="66"/>
       <c r="W455" s="2"/>
     </row>
     <row r="456" spans="1:23">
@@ -14542,14 +14551,14 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
       <c r="L456" s="2"/>
-      <c r="M456" s="64"/>
+      <c r="M456" s="65"/>
       <c r="N456" s="2"/>
       <c r="O456" s="2"/>
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
       <c r="R456" s="2"/>
       <c r="S456" s="2"/>
-      <c r="T456" s="65"/>
+      <c r="T456" s="66"/>
       <c r="W456" s="2"/>
     </row>
     <row r="457" spans="1:23">
@@ -14564,14 +14573,14 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
       <c r="L457" s="2"/>
-      <c r="M457" s="64"/>
+      <c r="M457" s="65"/>
       <c r="N457" s="2"/>
       <c r="O457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
       <c r="R457" s="2"/>
       <c r="S457" s="2"/>
-      <c r="T457" s="65"/>
+      <c r="T457" s="66"/>
       <c r="W457" s="2"/>
     </row>
     <row r="458" spans="1:23">
@@ -14586,14 +14595,14 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
       <c r="L458" s="2"/>
-      <c r="M458" s="64"/>
+      <c r="M458" s="65"/>
       <c r="N458" s="2"/>
       <c r="O458" s="2"/>
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
       <c r="R458" s="2"/>
       <c r="S458" s="2"/>
-      <c r="T458" s="65"/>
+      <c r="T458" s="66"/>
       <c r="W458" s="2"/>
     </row>
     <row r="459" spans="1:23">
@@ -14608,14 +14617,14 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
       <c r="L459" s="2"/>
-      <c r="M459" s="64"/>
+      <c r="M459" s="65"/>
       <c r="N459" s="2"/>
       <c r="O459" s="2"/>
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
       <c r="R459" s="2"/>
       <c r="S459" s="2"/>
-      <c r="T459" s="65"/>
+      <c r="T459" s="66"/>
       <c r="W459" s="2"/>
     </row>
     <row r="460" spans="1:23">
@@ -14630,14 +14639,14 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
       <c r="L460" s="2"/>
-      <c r="M460" s="64"/>
+      <c r="M460" s="65"/>
       <c r="N460" s="2"/>
       <c r="O460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
       <c r="R460" s="2"/>
       <c r="S460" s="2"/>
-      <c r="T460" s="65"/>
+      <c r="T460" s="66"/>
       <c r="W460" s="2"/>
     </row>
     <row r="461" spans="1:23">
@@ -14652,14 +14661,14 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
       <c r="L461" s="2"/>
-      <c r="M461" s="64"/>
+      <c r="M461" s="65"/>
       <c r="N461" s="2"/>
       <c r="O461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
       <c r="R461" s="2"/>
       <c r="S461" s="2"/>
-      <c r="T461" s="65"/>
+      <c r="T461" s="66"/>
       <c r="W461" s="2"/>
     </row>
     <row r="462" spans="1:23">
@@ -14674,14 +14683,14 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
       <c r="L462" s="2"/>
-      <c r="M462" s="64"/>
+      <c r="M462" s="65"/>
       <c r="N462" s="2"/>
       <c r="O462" s="2"/>
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
       <c r="R462" s="2"/>
       <c r="S462" s="2"/>
-      <c r="T462" s="65"/>
+      <c r="T462" s="66"/>
       <c r="W462" s="2"/>
     </row>
     <row r="463" spans="1:23">
@@ -14696,14 +14705,14 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
       <c r="L463" s="2"/>
-      <c r="M463" s="64"/>
+      <c r="M463" s="65"/>
       <c r="N463" s="2"/>
       <c r="O463" s="2"/>
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
       <c r="R463" s="2"/>
       <c r="S463" s="2"/>
-      <c r="T463" s="65"/>
+      <c r="T463" s="66"/>
       <c r="W463" s="2"/>
     </row>
     <row r="464" spans="1:23">
@@ -14718,14 +14727,14 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
-      <c r="M464" s="64"/>
+      <c r="M464" s="65"/>
       <c r="N464" s="2"/>
       <c r="O464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
       <c r="R464" s="2"/>
       <c r="S464" s="2"/>
-      <c r="T464" s="65"/>
+      <c r="T464" s="66"/>
       <c r="W464" s="2"/>
     </row>
     <row r="465" spans="1:23">
@@ -14740,14 +14749,14 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
-      <c r="M465" s="64"/>
+      <c r="M465" s="65"/>
       <c r="N465" s="2"/>
       <c r="O465" s="2"/>
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
       <c r="R465" s="2"/>
       <c r="S465" s="2"/>
-      <c r="T465" s="65"/>
+      <c r="T465" s="66"/>
       <c r="W465" s="2"/>
     </row>
     <row r="466" spans="1:23">
@@ -14762,14 +14771,14 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
       <c r="L466" s="2"/>
-      <c r="M466" s="64"/>
+      <c r="M466" s="65"/>
       <c r="N466" s="2"/>
       <c r="O466" s="2"/>
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
       <c r="R466" s="2"/>
       <c r="S466" s="2"/>
-      <c r="T466" s="65"/>
+      <c r="T466" s="66"/>
       <c r="W466" s="2"/>
     </row>
     <row r="467" spans="1:23">
@@ -14784,14 +14793,14 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
-      <c r="M467" s="64"/>
+      <c r="M467" s="65"/>
       <c r="N467" s="2"/>
       <c r="O467" s="2"/>
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
       <c r="R467" s="2"/>
       <c r="S467" s="2"/>
-      <c r="T467" s="65"/>
+      <c r="T467" s="66"/>
       <c r="W467" s="2"/>
     </row>
     <row r="468" spans="1:23">
@@ -14806,14 +14815,14 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
       <c r="L468" s="2"/>
-      <c r="M468" s="64"/>
+      <c r="M468" s="65"/>
       <c r="N468" s="2"/>
       <c r="O468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
       <c r="R468" s="2"/>
       <c r="S468" s="2"/>
-      <c r="T468" s="65"/>
+      <c r="T468" s="66"/>
       <c r="W468" s="2"/>
     </row>
     <row r="469" spans="1:23">
@@ -14828,14 +14837,14 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
       <c r="L469" s="2"/>
-      <c r="M469" s="64"/>
+      <c r="M469" s="65"/>
       <c r="N469" s="2"/>
       <c r="O469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
       <c r="R469" s="2"/>
       <c r="S469" s="2"/>
-      <c r="T469" s="65"/>
+      <c r="T469" s="66"/>
       <c r="W469" s="2"/>
     </row>
     <row r="470" spans="1:23">
@@ -14850,14 +14859,14 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
       <c r="L470" s="2"/>
-      <c r="M470" s="64"/>
+      <c r="M470" s="65"/>
       <c r="N470" s="2"/>
       <c r="O470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
       <c r="R470" s="2"/>
       <c r="S470" s="2"/>
-      <c r="T470" s="65"/>
+      <c r="T470" s="66"/>
       <c r="W470" s="2"/>
     </row>
     <row r="471" spans="1:23">
@@ -14872,14 +14881,14 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
       <c r="L471" s="2"/>
-      <c r="M471" s="64"/>
+      <c r="M471" s="65"/>
       <c r="N471" s="2"/>
       <c r="O471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
       <c r="R471" s="2"/>
       <c r="S471" s="2"/>
-      <c r="T471" s="65"/>
+      <c r="T471" s="66"/>
       <c r="W471" s="2"/>
     </row>
     <row r="472" spans="1:23">
@@ -14894,14 +14903,14 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
       <c r="L472" s="2"/>
-      <c r="M472" s="64"/>
+      <c r="M472" s="65"/>
       <c r="N472" s="2"/>
       <c r="O472" s="2"/>
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
       <c r="R472" s="2"/>
       <c r="S472" s="2"/>
-      <c r="T472" s="65"/>
+      <c r="T472" s="66"/>
       <c r="W472" s="2"/>
     </row>
     <row r="473" spans="1:23">
@@ -14916,14 +14925,14 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
       <c r="L473" s="2"/>
-      <c r="M473" s="64"/>
+      <c r="M473" s="65"/>
       <c r="N473" s="2"/>
       <c r="O473" s="2"/>
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
       <c r="R473" s="2"/>
       <c r="S473" s="2"/>
-      <c r="T473" s="65"/>
+      <c r="T473" s="66"/>
       <c r="W473" s="2"/>
     </row>
     <row r="474" spans="1:23">
@@ -14938,14 +14947,14 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
       <c r="L474" s="2"/>
-      <c r="M474" s="64"/>
+      <c r="M474" s="65"/>
       <c r="N474" s="2"/>
       <c r="O474" s="2"/>
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
       <c r="R474" s="2"/>
       <c r="S474" s="2"/>
-      <c r="T474" s="65"/>
+      <c r="T474" s="66"/>
       <c r="W474" s="2"/>
     </row>
     <row r="475" spans="1:23">
@@ -14960,14 +14969,14 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
       <c r="L475" s="2"/>
-      <c r="M475" s="64"/>
+      <c r="M475" s="65"/>
       <c r="N475" s="2"/>
       <c r="O475" s="2"/>
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
       <c r="R475" s="2"/>
       <c r="S475" s="2"/>
-      <c r="T475" s="65"/>
+      <c r="T475" s="66"/>
       <c r="W475" s="2"/>
     </row>
     <row r="476" spans="1:23">
@@ -14982,14 +14991,14 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
       <c r="L476" s="2"/>
-      <c r="M476" s="64"/>
+      <c r="M476" s="65"/>
       <c r="N476" s="2"/>
       <c r="O476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
       <c r="R476" s="2"/>
       <c r="S476" s="2"/>
-      <c r="T476" s="65"/>
+      <c r="T476" s="66"/>
       <c r="W476" s="2"/>
     </row>
     <row r="477" spans="1:23">
@@ -15004,14 +15013,14 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
       <c r="L477" s="2"/>
-      <c r="M477" s="64"/>
+      <c r="M477" s="65"/>
       <c r="N477" s="2"/>
       <c r="O477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
       <c r="R477" s="2"/>
       <c r="S477" s="2"/>
-      <c r="T477" s="65"/>
+      <c r="T477" s="66"/>
       <c r="W477" s="2"/>
     </row>
     <row r="478" spans="1:23">
@@ -15026,14 +15035,14 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
-      <c r="M478" s="64"/>
+      <c r="M478" s="65"/>
       <c r="N478" s="2"/>
       <c r="O478" s="2"/>
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
       <c r="R478" s="2"/>
       <c r="S478" s="2"/>
-      <c r="T478" s="65"/>
+      <c r="T478" s="66"/>
       <c r="W478" s="2"/>
     </row>
     <row r="479" spans="1:23">
@@ -15048,14 +15057,14 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
-      <c r="M479" s="64"/>
+      <c r="M479" s="65"/>
       <c r="N479" s="2"/>
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
       <c r="R479" s="2"/>
       <c r="S479" s="2"/>
-      <c r="T479" s="65"/>
+      <c r="T479" s="66"/>
       <c r="W479" s="2"/>
     </row>
     <row r="480" spans="1:23">
@@ -15070,14 +15079,14 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
       <c r="L480" s="2"/>
-      <c r="M480" s="64"/>
+      <c r="M480" s="65"/>
       <c r="N480" s="2"/>
       <c r="O480" s="2"/>
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
       <c r="R480" s="2"/>
       <c r="S480" s="2"/>
-      <c r="T480" s="65"/>
+      <c r="T480" s="66"/>
       <c r="W480" s="2"/>
     </row>
     <row r="481" spans="1:23">
@@ -15092,14 +15101,14 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
-      <c r="M481" s="64"/>
+      <c r="M481" s="65"/>
       <c r="N481" s="2"/>
       <c r="O481" s="2"/>
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
       <c r="R481" s="2"/>
       <c r="S481" s="2"/>
-      <c r="T481" s="65"/>
+      <c r="T481" s="66"/>
       <c r="W481" s="2"/>
     </row>
     <row r="482" spans="1:23">
@@ -15114,14 +15123,14 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
-      <c r="M482" s="64"/>
+      <c r="M482" s="65"/>
       <c r="N482" s="2"/>
       <c r="O482" s="2"/>
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
       <c r="R482" s="2"/>
       <c r="S482" s="2"/>
-      <c r="T482" s="65"/>
+      <c r="T482" s="66"/>
       <c r="W482" s="2"/>
     </row>
     <row r="483" spans="1:23">
@@ -15136,14 +15145,14 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
-      <c r="M483" s="64"/>
+      <c r="M483" s="65"/>
       <c r="N483" s="2"/>
       <c r="O483" s="2"/>
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
       <c r="R483" s="2"/>
       <c r="S483" s="2"/>
-      <c r="T483" s="65"/>
+      <c r="T483" s="66"/>
       <c r="W483" s="2"/>
     </row>
     <row r="484" spans="1:23">
@@ -15158,14 +15167,14 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
       <c r="L484" s="2"/>
-      <c r="M484" s="64"/>
+      <c r="M484" s="65"/>
       <c r="N484" s="2"/>
       <c r="O484" s="2"/>
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
       <c r="R484" s="2"/>
       <c r="S484" s="2"/>
-      <c r="T484" s="65"/>
+      <c r="T484" s="66"/>
       <c r="W484" s="2"/>
     </row>
     <row r="485" spans="1:23">
@@ -15180,14 +15189,14 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
-      <c r="M485" s="64"/>
+      <c r="M485" s="65"/>
       <c r="N485" s="2"/>
       <c r="O485" s="2"/>
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
       <c r="R485" s="2"/>
       <c r="S485" s="2"/>
-      <c r="T485" s="65"/>
+      <c r="T485" s="66"/>
       <c r="W485" s="2"/>
     </row>
     <row r="486" spans="1:23">
@@ -15202,14 +15211,14 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
       <c r="L486" s="2"/>
-      <c r="M486" s="64"/>
+      <c r="M486" s="65"/>
       <c r="N486" s="2"/>
       <c r="O486" s="2"/>
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
       <c r="R486" s="2"/>
       <c r="S486" s="2"/>
-      <c r="T486" s="65"/>
+      <c r="T486" s="66"/>
       <c r="W486" s="2"/>
     </row>
     <row r="487" spans="1:23">
@@ -15224,14 +15233,14 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
       <c r="L487" s="2"/>
-      <c r="M487" s="64"/>
+      <c r="M487" s="65"/>
       <c r="N487" s="2"/>
       <c r="O487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
       <c r="R487" s="2"/>
       <c r="S487" s="2"/>
-      <c r="T487" s="65"/>
+      <c r="T487" s="66"/>
       <c r="W487" s="2"/>
     </row>
     <row r="488" spans="1:23">
@@ -15246,14 +15255,14 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
       <c r="L488" s="2"/>
-      <c r="M488" s="64"/>
+      <c r="M488" s="65"/>
       <c r="N488" s="2"/>
       <c r="O488" s="2"/>
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
       <c r="R488" s="2"/>
       <c r="S488" s="2"/>
-      <c r="T488" s="65"/>
+      <c r="T488" s="66"/>
       <c r="W488" s="2"/>
     </row>
     <row r="489" spans="1:23">
@@ -15268,14 +15277,14 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
       <c r="L489" s="2"/>
-      <c r="M489" s="64"/>
+      <c r="M489" s="65"/>
       <c r="N489" s="2"/>
       <c r="O489" s="2"/>
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
       <c r="R489" s="2"/>
       <c r="S489" s="2"/>
-      <c r="T489" s="65"/>
+      <c r="T489" s="66"/>
       <c r="W489" s="2"/>
     </row>
     <row r="490" spans="1:23">
@@ -15290,14 +15299,14 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
       <c r="L490" s="2"/>
-      <c r="M490" s="64"/>
+      <c r="M490" s="65"/>
       <c r="N490" s="2"/>
       <c r="O490" s="2"/>
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
       <c r="R490" s="2"/>
       <c r="S490" s="2"/>
-      <c r="T490" s="65"/>
+      <c r="T490" s="66"/>
       <c r="W490" s="2"/>
     </row>
     <row r="491" spans="1:23">
@@ -15312,14 +15321,14 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
       <c r="L491" s="2"/>
-      <c r="M491" s="64"/>
+      <c r="M491" s="65"/>
       <c r="N491" s="2"/>
       <c r="O491" s="2"/>
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
       <c r="R491" s="2"/>
       <c r="S491" s="2"/>
-      <c r="T491" s="65"/>
+      <c r="T491" s="66"/>
       <c r="W491" s="2"/>
     </row>
     <row r="492" spans="1:23">
@@ -15334,14 +15343,14 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
       <c r="L492" s="2"/>
-      <c r="M492" s="64"/>
+      <c r="M492" s="65"/>
       <c r="N492" s="2"/>
       <c r="O492" s="2"/>
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
       <c r="R492" s="2"/>
       <c r="S492" s="2"/>
-      <c r="T492" s="65"/>
+      <c r="T492" s="66"/>
       <c r="W492" s="2"/>
     </row>
     <row r="493" spans="1:23">
@@ -15356,14 +15365,14 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
       <c r="L493" s="2"/>
-      <c r="M493" s="64"/>
+      <c r="M493" s="65"/>
       <c r="N493" s="2"/>
       <c r="O493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
       <c r="R493" s="2"/>
       <c r="S493" s="2"/>
-      <c r="T493" s="65"/>
+      <c r="T493" s="66"/>
       <c r="W493" s="2"/>
     </row>
     <row r="494" spans="1:23">
@@ -15378,14 +15387,14 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
       <c r="L494" s="2"/>
-      <c r="M494" s="64"/>
+      <c r="M494" s="65"/>
       <c r="N494" s="2"/>
       <c r="O494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
       <c r="R494" s="2"/>
       <c r="S494" s="2"/>
-      <c r="T494" s="65"/>
+      <c r="T494" s="66"/>
       <c r="W494" s="2"/>
     </row>
     <row r="495" spans="1:23">
@@ -15400,14 +15409,14 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
       <c r="L495" s="2"/>
-      <c r="M495" s="64"/>
+      <c r="M495" s="65"/>
       <c r="N495" s="2"/>
       <c r="O495" s="2"/>
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
       <c r="R495" s="2"/>
       <c r="S495" s="2"/>
-      <c r="T495" s="65"/>
+      <c r="T495" s="66"/>
       <c r="W495" s="2"/>
     </row>
     <row r="496" spans="1:23">
@@ -15422,14 +15431,14 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
       <c r="L496" s="2"/>
-      <c r="M496" s="64"/>
+      <c r="M496" s="65"/>
       <c r="N496" s="2"/>
       <c r="O496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
       <c r="R496" s="2"/>
       <c r="S496" s="2"/>
-      <c r="T496" s="65"/>
+      <c r="T496" s="66"/>
       <c r="W496" s="2"/>
     </row>
     <row r="497" spans="1:23">
@@ -15444,14 +15453,14 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
       <c r="L497" s="2"/>
-      <c r="M497" s="64"/>
+      <c r="M497" s="65"/>
       <c r="N497" s="2"/>
       <c r="O497" s="2"/>
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
       <c r="R497" s="2"/>
       <c r="S497" s="2"/>
-      <c r="T497" s="65"/>
+      <c r="T497" s="66"/>
       <c r="W497" s="2"/>
     </row>
     <row r="498" spans="1:23">
@@ -15466,14 +15475,14 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
       <c r="L498" s="2"/>
-      <c r="M498" s="64"/>
+      <c r="M498" s="65"/>
       <c r="N498" s="2"/>
       <c r="O498" s="2"/>
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
       <c r="R498" s="2"/>
       <c r="S498" s="2"/>
-      <c r="T498" s="65"/>
+      <c r="T498" s="66"/>
       <c r="W498" s="2"/>
     </row>
     <row r="499" spans="1:23">
@@ -15488,14 +15497,14 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
       <c r="L499" s="2"/>
-      <c r="M499" s="64"/>
+      <c r="M499" s="65"/>
       <c r="N499" s="2"/>
       <c r="O499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
       <c r="R499" s="2"/>
       <c r="S499" s="2"/>
-      <c r="T499" s="65"/>
+      <c r="T499" s="66"/>
       <c r="W499" s="2"/>
     </row>
     <row r="500" spans="1:23">
@@ -15510,14 +15519,14 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
       <c r="L500" s="2"/>
-      <c r="M500" s="64"/>
+      <c r="M500" s="65"/>
       <c r="N500" s="2"/>
       <c r="O500" s="2"/>
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
       <c r="R500" s="2"/>
       <c r="S500" s="2"/>
-      <c r="T500" s="65"/>
+      <c r="T500" s="66"/>
       <c r="W500" s="2"/>
     </row>
     <row r="501" spans="1:23">
@@ -15532,14 +15541,14 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
       <c r="L501" s="2"/>
-      <c r="M501" s="64"/>
+      <c r="M501" s="65"/>
       <c r="N501" s="2"/>
       <c r="O501" s="2"/>
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
       <c r="R501" s="2"/>
       <c r="S501" s="2"/>
-      <c r="T501" s="65"/>
+      <c r="T501" s="66"/>
       <c r="W501" s="2"/>
     </row>
     <row r="502" spans="1:23">
@@ -15554,14 +15563,14 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
-      <c r="M502" s="64"/>
+      <c r="M502" s="65"/>
       <c r="N502" s="2"/>
       <c r="O502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
       <c r="R502" s="2"/>
       <c r="S502" s="2"/>
-      <c r="T502" s="65"/>
+      <c r="T502" s="66"/>
       <c r="W502" s="2"/>
     </row>
   </sheetData>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,13 +239,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -294,7 +294,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -308,8 +308,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,39 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,8 +391,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -400,15 +408,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,14 +427,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,61 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +579,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,37 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,37 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +810,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +830,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -841,17 +856,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,24 +877,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,145 +899,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1075,10 +1075,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1114,7 +1114,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,13 +1123,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,13 +1138,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1207,13 +1207,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,7 +1240,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2141,11 +2141,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -293,14 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -309,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,47 +315,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -378,6 +338,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -385,30 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,8 +377,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +561,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +657,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,13 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,72 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,15 +810,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -839,6 +830,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +850,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,176 +894,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1072,13 +1072,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,13 +1126,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,13 +1141,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1210,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J17" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J18" si="0">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -2598,15 +2598,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L17" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L18" si="1">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" ref="M7:M17" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M18" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ref="N6:N17" si="3">IF(A7&lt;E7,"是","否")</f>
+        <f t="shared" ref="N6:N18" si="3">IF(A7&lt;E7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -2622,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="41" t="str">
-        <f t="shared" ref="S7:S17" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S18" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="42" t="str">
@@ -3580,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="23">
-        <f>(B18-B17)/B17</f>
+        <f t="shared" si="0"/>
         <v>0.0471859010801593</v>
       </c>
       <c r="K18" s="19">
@@ -3588,15 +3588,15 @@
         <v>0.126605504587156</v>
       </c>
       <c r="L18" s="20">
-        <f>I18/(ROW()-5)</f>
+        <f t="shared" si="1"/>
         <v>0.615384615384615</v>
       </c>
       <c r="M18" s="29">
-        <f>IF(B18&gt;(D18-(D18-E18)/2),1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N18" s="30" t="str">
-        <f>IF(A18&lt;E18,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O18" s="13" t="s">
@@ -3612,7 +3612,7 @@
         <v>44</v>
       </c>
       <c r="S18" s="41" t="str">
-        <f>IF(I18/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="T18" s="42" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,13 +287,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -307,6 +300,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -315,15 +315,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -338,9 +346,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,21 +356,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +377,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -391,18 +392,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,7 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -422,9 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +567,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,157 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,41 +800,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,21 +816,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -894,129 +846,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1025,22 +1025,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,13 +1126,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,13 +1141,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2181,7 +2181,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG18" sqref="AG18"/>
+      <selection pane="bottomRight" activeCell="AG18" sqref="AG18:AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3641,30 +3641,77 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" ht="18" spans="1:33">
       <c r="A19" s="12">
         <v>44539</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="13"/>
+      <c r="B19" s="11">
+        <v>37.96</v>
+      </c>
+      <c r="C19" s="11">
+        <v>36.84</v>
+      </c>
+      <c r="D19" s="11">
+        <v>38.83</v>
+      </c>
+      <c r="E19" s="11">
+        <v>36.3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>34.78</v>
+      </c>
+      <c r="G19" s="11">
+        <v>33.21</v>
+      </c>
+      <c r="H19" s="11">
+        <v>32.59</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9</v>
+      </c>
+      <c r="J19" s="23">
+        <f>(B19-B18)/B18</f>
+        <v>0.030401737242128</v>
+      </c>
+      <c r="K19" s="19">
+        <f>(B19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE)</f>
+        <v>0.16085626911315</v>
+      </c>
+      <c r="L19" s="20">
+        <f>I19/(ROW()-5)</f>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="M19" s="29">
+        <f>IF(B19&gt;(D19-(D19-E19)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="30" t="str">
+        <f>IF(A19&lt;E19,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="41" t="str">
+        <f>IF(I19/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T19" s="42" t="str">
+        <f>IF(SUM($M$6:$M19)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U19" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="V19" s="13"/>
       <c r="W19" s="11"/>
       <c r="X19" s="5"/>
@@ -3675,7 +3722,14 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="63"/>
+      <c r="AF19" s="63">
+        <f>IF(AND(G19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)&gt;0,G19&gt;G18),G19,AF18)</f>
+        <v>33.21</v>
+      </c>
+      <c r="AG19" s="65">
+        <f>AF19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE)</f>
+        <v>0.509999999999998</v>
+      </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="12">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -2181,7 +2181,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG18" sqref="AG18:AG19"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,14 +287,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +354,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -323,8 +369,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,17 +385,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,62 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,19 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +591,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,127 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,6 +800,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -821,13 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,21 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -873,24 +886,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,148 +899,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1075,10 +1075,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1210,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2181,7 +2181,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J18" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J19" si="0">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -2598,15 +2598,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L18" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L19" si="1">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" ref="M7:M18" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M19" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ref="N6:N18" si="3">IF(A7&lt;E7,"是","否")</f>
+        <f t="shared" ref="N6:N19" si="3">IF(A7&lt;E7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -2622,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="41" t="str">
-        <f t="shared" ref="S7:S18" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S19" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="42" t="str">
@@ -3670,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="23">
-        <f>(B19-B18)/B18</f>
+        <f t="shared" si="0"/>
         <v>0.030401737242128</v>
       </c>
       <c r="K19" s="19">
@@ -3678,15 +3678,15 @@
         <v>0.16085626911315</v>
       </c>
       <c r="L19" s="20">
-        <f>I19/(ROW()-5)</f>
+        <f t="shared" si="1"/>
         <v>0.642857142857143</v>
       </c>
       <c r="M19" s="29">
-        <f>IF(B19&gt;(D19-(D19-E19)/2),1,-1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N19" s="30" t="str">
-        <f>IF(A19&lt;E19,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O19" s="13" t="s">
@@ -3702,7 +3702,7 @@
         <v>44</v>
       </c>
       <c r="S19" s="41" t="str">
-        <f>IF(I19/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="T19" s="42" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,32 +287,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,10 +301,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,32 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,13 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -400,8 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,9 +370,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,49 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,19 +591,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +645,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,37 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,26 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,17 +836,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,19 +889,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,148 +899,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2177,11 +2177,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG18" sqref="AG18"/>
+      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3731,30 +3731,77 @@
         <v>0.509999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" ht="18" spans="1:33">
       <c r="A20" s="12">
         <v>44540</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="13"/>
+      <c r="B20" s="11">
+        <v>37.4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>37.61</v>
+      </c>
+      <c r="D20" s="11">
+        <v>38.32</v>
+      </c>
+      <c r="E20" s="11">
+        <v>37.15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>35.03</v>
+      </c>
+      <c r="G20" s="11">
+        <v>33.38</v>
+      </c>
+      <c r="H20" s="11">
+        <v>33.58</v>
+      </c>
+      <c r="I20" s="13">
+        <v>9</v>
+      </c>
+      <c r="J20" s="23">
+        <f>(B20-B19)/B19</f>
+        <v>-0.0147523709167545</v>
+      </c>
+      <c r="K20" s="19">
+        <f>(B20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE)</f>
+        <v>0.143730886850153</v>
+      </c>
+      <c r="L20" s="20">
+        <f>I20/(ROW()-5)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="29">
+        <f>IF(B20&gt;(D20-(D20-E20)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N20" s="30" t="str">
+        <f>IF(A20&lt;E20,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="41" t="str">
+        <f>IF(I20/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T20" s="42" t="str">
+        <f>IF(SUM($M$6:$M20)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U20" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="V20" s="13"/>
       <c r="W20" s="11"/>
       <c r="X20" s="5"/>
@@ -3765,7 +3812,14 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="63"/>
+      <c r="AF20" s="63">
+        <f>IF(AND(G20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE)&gt;0,G20&gt;G19),G20,AF19)</f>
+        <v>33.38</v>
+      </c>
+      <c r="AG20" s="65">
+        <f>AF20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,5,FALSE)</f>
+        <v>0.68</v>
+      </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="12">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,6 +287,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -301,10 +308,34 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,9 +346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,22 +371,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -356,38 +379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,9 +392,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,15 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,7 +573,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,43 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,19 +663,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,43 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,17 +797,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,21 +820,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,11 +835,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,6 +866,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -885,162 +894,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1072,13 +1072,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1117,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1210,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J19" si="0">(B7-B6)/B6</f>
+        <f t="shared" ref="J7:J20" si="0">(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -2598,15 +2598,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L19" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L20" si="1">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" ref="M7:M19" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M20" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ref="N6:N19" si="3">IF(A7&lt;E7,"是","否")</f>
+        <f t="shared" ref="N6:N20" si="3">IF(A7&lt;E7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -2622,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="41" t="str">
-        <f t="shared" ref="S7:S19" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S20" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="42" t="str">
@@ -2696,7 +2696,7 @@
         <v>-1</v>
       </c>
       <c r="N8" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(A8&lt;E8,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O8" s="30" t="s">
@@ -3760,7 +3760,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="23">
-        <f>(B20-B19)/B19</f>
+        <f t="shared" si="0"/>
         <v>-0.0147523709167545</v>
       </c>
       <c r="K20" s="19">
@@ -3768,15 +3768,15 @@
         <v>0.143730886850153</v>
       </c>
       <c r="L20" s="20">
-        <f>I20/(ROW()-5)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="M20" s="29">
-        <f>IF(B20&gt;(D20-(D20-E20)/2),1,-1)</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="N20" s="30" t="str">
-        <f>IF(A20&lt;E20,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O20" s="13" t="s">
@@ -3792,7 +3792,7 @@
         <v>44</v>
       </c>
       <c r="S20" s="41" t="str">
-        <f>IF(I20/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="4"/>
         <v>是</v>
       </c>
       <c r="T20" s="42" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -240,12 +241,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -294,6 +295,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,26 +316,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,8 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,15 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,14 +357,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,6 +365,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,10 +386,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,18 +424,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,7 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +580,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,67 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +664,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,11 +807,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,6 +827,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,47 +887,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,127 +900,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,16 +1029,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1072,13 +1073,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1117,7 +1118,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1211,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1911,6 +1912,19 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2177,11 +2191,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG20" sqref="AG20"/>
+      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2504,9 +2518,9 @@
       <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="19">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)</f>
-        <v>0.0275229357798165</v>
+      <c r="K6" s="19" t="e">
+        <f>(B6-VLOOKUP([2]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10004,5,FALSE)</f>
+        <v>#REF!</v>
       </c>
       <c r="L6" s="20">
         <f>I6/(ROW()-5)</f>
@@ -2696,7 +2710,7 @@
         <v>-1</v>
       </c>
       <c r="N8" s="30" t="str">
-        <f>IF(A8&lt;E8,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O8" s="30" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -241,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -295,13 +294,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -325,15 +317,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,44 +328,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,9 +347,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,17 +386,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,13 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +573,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +621,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,121 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +806,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -824,24 +862,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,32 +888,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -900,145 +899,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1055,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1073,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1118,7 +1117,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,7 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1329,77 +1328,92 @@
             <v>000001</v>
           </cell>
           <cell r="C4" t="str">
-            <v>003040(楚天龙)</v>
-          </cell>
-          <cell r="D4">
+            <v>003040</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>楚天龙</v>
+          </cell>
+          <cell r="E4">
             <v>44523</v>
           </cell>
-          <cell r="E4">
+          <cell r="F4">
             <v>26.2</v>
           </cell>
-          <cell r="F4">
+          <cell r="G4">
             <v>200</v>
           </cell>
-          <cell r="G4">
+          <cell r="H4">
             <v>5</v>
           </cell>
-          <cell r="H4">
+          <cell r="I4">
             <v>0</v>
           </cell>
-          <cell r="I4">
+          <cell r="J4">
             <v>5245</v>
           </cell>
-          <cell r="J4">
+          <cell r="K4">
             <v>26.5</v>
           </cell>
-          <cell r="K4">
+          <cell r="L4">
             <v>25.21</v>
           </cell>
-          <cell r="L4">
+          <cell r="M4">
+            <v>28.15</v>
+          </cell>
+          <cell r="N4">
+            <v>21.87</v>
+          </cell>
+          <cell r="O4">
+            <v>6.28</v>
+          </cell>
+          <cell r="P4">
+            <v>150.88</v>
+          </cell>
+          <cell r="Q4">
             <v>0.232558139534884</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="N4">
+          <cell r="S4">
             <v>0</v>
           </cell>
-          <cell r="O4">
+          <cell r="T4">
             <v>44526</v>
           </cell>
-          <cell r="P4">
+          <cell r="U4">
             <v>24.89</v>
           </cell>
-          <cell r="Q4">
+          <cell r="V4">
             <v>100</v>
           </cell>
-          <cell r="R4">
+          <cell r="W4">
             <v>5</v>
           </cell>
-          <cell r="S4">
+          <cell r="X4">
             <v>2.489</v>
           </cell>
-          <cell r="T4">
+          <cell r="Y4">
             <v>2481.511</v>
           </cell>
-          <cell r="U4">
+          <cell r="Z4">
             <v>27.43</v>
           </cell>
-          <cell r="V4">
+          <cell r="AA4">
             <v>24.74</v>
           </cell>
-          <cell r="W4">
+          <cell r="AB4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="X4">
+          <cell r="AC4">
             <v>-140.989</v>
           </cell>
-          <cell r="Y4">
+          <cell r="AD4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="Z4" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AA4" t="str">
+          <cell r="AE4">
+            <v>-0.20859872611465</v>
+          </cell>
+          <cell r="AF4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
 2.入场时，忽略了成交量的情况。
 3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
@@ -1409,48 +1423,45 @@
           <cell r="A5" t="str">
             <v>JG_0000002</v>
           </cell>
-          <cell r="B5" t="str">
-            <v>000001</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="N5">
+          <cell r="S5">
             <v>0</v>
           </cell>
-          <cell r="O5">
+          <cell r="T5">
             <v>44531</v>
           </cell>
-          <cell r="P5">
+          <cell r="U5">
             <v>27.7</v>
           </cell>
-          <cell r="Q5">
+          <cell r="V5">
             <v>100</v>
           </cell>
-          <cell r="R5">
+          <cell r="W5">
             <v>5</v>
           </cell>
-          <cell r="S5">
+          <cell r="X5">
             <v>2.77</v>
           </cell>
-          <cell r="T5">
+          <cell r="Y5">
             <v>2762.23</v>
           </cell>
-          <cell r="U5">
+          <cell r="Z5">
             <v>28.7</v>
           </cell>
-          <cell r="V5">
+          <cell r="AA5">
             <v>27.5</v>
           </cell>
-          <cell r="W5">
+          <cell r="AB5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="X5">
+          <cell r="AC5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="Z5" t="e">
-            <v>#DIV/0!</v>
+          <cell r="AE5">
+            <v>0.238853503184713</v>
           </cell>
         </row>
         <row r="6">
@@ -1460,41 +1471,69 @@
           <cell r="B6" t="str">
             <v>000002</v>
           </cell>
-          <cell r="C6" t="str">
-            <v>600085(同仁堂)</v>
-          </cell>
-          <cell r="D6">
+          <cell r="C6">
+            <v>600085</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E6">
             <v>44523</v>
           </cell>
-          <cell r="E6">
+          <cell r="F6">
             <v>33.73</v>
           </cell>
-          <cell r="F6">
+          <cell r="G6">
             <v>100</v>
           </cell>
-          <cell r="G6">
+          <cell r="H6">
             <v>5</v>
           </cell>
-          <cell r="H6">
+          <cell r="I6">
             <v>0.06746</v>
           </cell>
-          <cell r="I6">
+          <cell r="J6">
             <v>3378.06746</v>
           </cell>
-          <cell r="J6">
+          <cell r="K6">
             <v>35.36</v>
           </cell>
-          <cell r="K6">
+          <cell r="L6">
             <v>33.1</v>
           </cell>
-          <cell r="L6">
+          <cell r="M6">
+            <v>35.48</v>
+          </cell>
+          <cell r="N6">
+            <v>31.36</v>
+          </cell>
+          <cell r="O6">
+            <v>4.12</v>
+          </cell>
+          <cell r="P6">
+            <v>37.41</v>
+          </cell>
+          <cell r="Q6">
             <v>0.721238938053099</v>
           </cell>
-          <cell r="M6">
-            <v>34.13</v>
-          </cell>
-          <cell r="N6">
-            <v>-29.9325400000006</v>
+          <cell r="R6">
+            <v>34.7</v>
+          </cell>
+          <cell r="S6">
+            <v>-86.9325400000006</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AC6">
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -1504,41 +1543,91 @@
           <cell r="B7" t="str">
             <v>000003</v>
           </cell>
-          <cell r="C7" t="str">
-            <v>603867(新化股份)</v>
-          </cell>
-          <cell r="D7">
+          <cell r="C7">
+            <v>603867</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E7">
             <v>44522</v>
           </cell>
-          <cell r="E7">
+          <cell r="F7">
             <v>32.7</v>
           </cell>
-          <cell r="F7">
+          <cell r="G7">
             <v>100</v>
           </cell>
-          <cell r="G7">
+          <cell r="H7">
             <v>5</v>
           </cell>
-          <cell r="H7">
+          <cell r="I7">
             <v>0.0654</v>
           </cell>
-          <cell r="I7">
+          <cell r="J7">
             <v>3275.0654</v>
           </cell>
-          <cell r="J7">
+          <cell r="K7">
             <v>33.9</v>
           </cell>
-          <cell r="K7">
+          <cell r="L7">
             <v>32.49</v>
           </cell>
-          <cell r="L7">
+          <cell r="M7">
+            <v>36.21</v>
+          </cell>
+          <cell r="N7">
+            <v>27.35</v>
+          </cell>
+          <cell r="O7">
+            <v>8.86</v>
+          </cell>
+          <cell r="P7">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q7">
             <v>0.851063829787233</v>
           </cell>
-          <cell r="M7">
+          <cell r="R7">
             <v>30.89</v>
           </cell>
-          <cell r="N7">
-            <v>191.0654</v>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>44539</v>
+          </cell>
+          <cell r="U7">
+            <v>37.75</v>
+          </cell>
+          <cell r="V7">
+            <v>100</v>
+          </cell>
+          <cell r="W7">
+            <v>5</v>
+          </cell>
+          <cell r="X7">
+            <v>3.775</v>
+          </cell>
+          <cell r="Y7">
+            <v>3766.225</v>
+          </cell>
+          <cell r="Z7">
+            <v>38.83</v>
+          </cell>
+          <cell r="AA7">
+            <v>36.3</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.57312252964427</v>
+          </cell>
+          <cell r="AC7">
+            <v>491.1596</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AE7">
+            <v>0.569977426636569</v>
           </cell>
         </row>
         <row r="8">
@@ -1549,44 +1638,59 @@
             <v>000004</v>
           </cell>
           <cell r="C8" t="str">
-            <v>002932(明德生物)</v>
-          </cell>
-          <cell r="D8">
+            <v>002932</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E8">
             <v>44526</v>
           </cell>
-          <cell r="E8">
+          <cell r="F8">
             <v>72.07</v>
           </cell>
-          <cell r="F8">
+          <cell r="G8">
             <v>100</v>
           </cell>
-          <cell r="G8">
+          <cell r="H8">
             <v>5</v>
           </cell>
-          <cell r="H8">
+          <cell r="I8">
             <v>0</v>
           </cell>
-          <cell r="I8">
+          <cell r="J8">
             <v>7212</v>
           </cell>
-          <cell r="J8">
+          <cell r="K8">
             <v>74.5</v>
           </cell>
-          <cell r="K8">
+          <cell r="L8">
             <v>70.4</v>
           </cell>
-          <cell r="L8">
+          <cell r="M8">
+            <v>75.02</v>
+          </cell>
+          <cell r="N8">
+            <v>62.33</v>
+          </cell>
+          <cell r="O8">
+            <v>12.69</v>
+          </cell>
+          <cell r="P8">
+            <v>6.49</v>
+          </cell>
+          <cell r="Q8">
             <v>0.592682926829271</v>
           </cell>
-          <cell r="M8">
+          <cell r="R8">
             <v>67.53</v>
           </cell>
-          <cell r="N8">
+          <cell r="S8">
             <v>463.999999999999</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="AA8" t="str">
+          <cell r="AF8" t="str">
             <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
@@ -1597,77 +1701,92 @@
           <cell r="B9" t="str">
             <v>000005</v>
           </cell>
-          <cell r="C9" t="str">
-            <v>605016(百龙创园)</v>
-          </cell>
-          <cell r="D9">
+          <cell r="C9">
+            <v>605016</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>百龙创园</v>
+          </cell>
+          <cell r="E9">
             <v>44524</v>
           </cell>
-          <cell r="E9">
+          <cell r="F9">
             <v>30.54</v>
           </cell>
-          <cell r="F9">
+          <cell r="G9">
             <v>100</v>
           </cell>
-          <cell r="G9">
+          <cell r="H9">
             <v>5</v>
           </cell>
-          <cell r="H9">
+          <cell r="I9">
             <v>0.06108</v>
           </cell>
-          <cell r="I9">
+          <cell r="J9">
             <v>3059.06108</v>
           </cell>
-          <cell r="J9">
+          <cell r="K9">
             <v>30.72</v>
           </cell>
-          <cell r="K9">
+          <cell r="L9">
             <v>29.33</v>
           </cell>
-          <cell r="L9">
+          <cell r="M9">
+            <v>32.43</v>
+          </cell>
+          <cell r="N9">
+            <v>26.16</v>
+          </cell>
+          <cell r="O9">
+            <v>6.27</v>
+          </cell>
+          <cell r="P9">
+            <v>38.46</v>
+          </cell>
+          <cell r="Q9">
             <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="N9">
+          <cell r="S9">
             <v>0</v>
           </cell>
-          <cell r="O9">
+          <cell r="T9">
             <v>44525</v>
           </cell>
-          <cell r="P9">
+          <cell r="U9">
             <v>30.15</v>
           </cell>
-          <cell r="Q9">
+          <cell r="V9">
             <v>100</v>
           </cell>
-          <cell r="R9">
+          <cell r="W9">
             <v>5</v>
           </cell>
-          <cell r="S9">
+          <cell r="X9">
             <v>3.015</v>
           </cell>
-          <cell r="T9">
+          <cell r="Y9">
             <v>3006.985</v>
           </cell>
-          <cell r="U9">
+          <cell r="Z9">
             <v>30.69</v>
           </cell>
-          <cell r="V9">
+          <cell r="AA9">
             <v>30.01</v>
           </cell>
-          <cell r="W9">
+          <cell r="AB9">
             <v>0.205882352941172</v>
           </cell>
-          <cell r="X9">
+          <cell r="AC9">
             <v>-52.0760799999998</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="Z9" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="AA9" t="str">
+          <cell r="AE9">
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AF9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
@@ -1678,77 +1797,92 @@
           <cell r="B10" t="str">
             <v>000006</v>
           </cell>
-          <cell r="C10" t="str">
-            <v>603010(万盛股份)</v>
-          </cell>
-          <cell r="D10">
+          <cell r="C10">
+            <v>603010</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>万盛股份</v>
+          </cell>
+          <cell r="E10">
             <v>44530</v>
           </cell>
-          <cell r="E10">
+          <cell r="F10">
             <v>29.81</v>
           </cell>
-          <cell r="F10">
+          <cell r="G10">
             <v>100</v>
           </cell>
-          <cell r="G10">
+          <cell r="H10">
             <v>5</v>
           </cell>
-          <cell r="H10">
+          <cell r="I10">
             <v>0.05962</v>
           </cell>
-          <cell r="I10">
+          <cell r="J10">
             <v>2986.05962</v>
           </cell>
-          <cell r="J10">
+          <cell r="K10">
             <v>30.32</v>
           </cell>
-          <cell r="K10">
+          <cell r="L10">
             <v>28.81</v>
           </cell>
-          <cell r="L10">
+          <cell r="M10">
+            <v>31.18</v>
+          </cell>
+          <cell r="N10">
+            <v>21.1</v>
+          </cell>
+          <cell r="O10">
+            <v>10.08</v>
+          </cell>
+          <cell r="P10">
+            <v>17.95</v>
+          </cell>
+          <cell r="Q10">
             <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="N10">
+          <cell r="S10">
             <v>0</v>
           </cell>
-          <cell r="O10">
+          <cell r="T10">
             <v>44533</v>
           </cell>
-          <cell r="P10">
+          <cell r="U10">
             <v>27.83</v>
           </cell>
-          <cell r="Q10">
+          <cell r="V10">
             <v>100</v>
           </cell>
-          <cell r="R10">
+          <cell r="W10">
             <v>5</v>
           </cell>
-          <cell r="S10">
+          <cell r="X10">
             <v>2.783</v>
           </cell>
-          <cell r="T10">
+          <cell r="Y10">
             <v>2775.217</v>
           </cell>
-          <cell r="U10">
+          <cell r="Z10">
             <v>28.4</v>
           </cell>
-          <cell r="V10">
+          <cell r="AA10">
             <v>27.44</v>
           </cell>
-          <cell r="W10">
+          <cell r="AB10">
             <v>0.406249999999998</v>
           </cell>
-          <cell r="X10">
+          <cell r="AC10">
             <v>-210.84262</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="Z10">
-            <v>-5.46810273405137</v>
-          </cell>
-          <cell r="AA10" t="str">
+          <cell r="AE10">
+            <v>-0.196428571428572</v>
+          </cell>
+          <cell r="AF10" t="str">
             <v>1.入场中枢点错误</v>
           </cell>
         </row>
@@ -1760,77 +1894,92 @@
             <v>000035</v>
           </cell>
           <cell r="C11" t="str">
-            <v> 002585(双星新材)</v>
-          </cell>
-          <cell r="D11">
+            <v>002585</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>双星新材</v>
+          </cell>
+          <cell r="E11">
             <v>44536</v>
           </cell>
-          <cell r="E11">
+          <cell r="F11">
             <v>28.37</v>
           </cell>
-          <cell r="F11">
+          <cell r="G11">
             <v>100</v>
           </cell>
-          <cell r="G11">
+          <cell r="H11">
             <v>5</v>
           </cell>
-          <cell r="H11">
+          <cell r="I11">
             <v>0</v>
           </cell>
-          <cell r="I11">
+          <cell r="J11">
             <v>2842</v>
           </cell>
-          <cell r="J11">
+          <cell r="K11">
             <v>29.7</v>
           </cell>
-          <cell r="K11">
+          <cell r="L11">
             <v>27.69</v>
           </cell>
-          <cell r="L11">
+          <cell r="M11">
+            <v>30.41</v>
+          </cell>
+          <cell r="N11">
+            <v>22.76</v>
+          </cell>
+          <cell r="O11">
+            <v>7.65</v>
+          </cell>
+          <cell r="P11">
+            <v>25.15</v>
+          </cell>
+          <cell r="Q11">
             <v>0.661691542288557</v>
           </cell>
-          <cell r="M11">
+          <cell r="R11">
             <v>26.31</v>
           </cell>
-          <cell r="N11">
+          <cell r="S11">
             <v>0</v>
           </cell>
-          <cell r="O11">
+          <cell r="T11">
             <v>44537</v>
           </cell>
-          <cell r="P11">
+          <cell r="U11">
             <v>26.7</v>
           </cell>
-          <cell r="Q11">
+          <cell r="V11">
             <v>100</v>
           </cell>
-          <cell r="R11">
+          <cell r="W11">
             <v>5</v>
           </cell>
-          <cell r="S11">
+          <cell r="X11">
             <v>2.67</v>
           </cell>
-          <cell r="T11">
+          <cell r="Y11">
             <v>2662.33</v>
           </cell>
-          <cell r="U11">
+          <cell r="Z11">
             <v>28.18</v>
           </cell>
-          <cell r="V11">
+          <cell r="AA11">
             <v>25.99</v>
           </cell>
-          <cell r="W11">
+          <cell r="AB11">
             <v>0.324200913242009</v>
           </cell>
-          <cell r="X11">
+          <cell r="AC11">
             <v>-179.67</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="Z11">
-            <v>-5.11798958014098</v>
-          </cell>
-          <cell r="AA11" t="str">
+          <cell r="AE11">
+            <v>-0.218300653594771</v>
+          </cell>
+          <cell r="AF11" t="str">
             <v>1.宁可错过，不要根据临时计划入场。
 2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
 3.作出出场决定是使用止损线倒逼出场。
@@ -1844,6 +1993,57 @@
           <cell r="B12" t="str">
             <v>000021</v>
           </cell>
+          <cell r="C12">
+            <v>603867</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E12">
+            <v>44540</v>
+          </cell>
+          <cell r="F12">
+            <v>37.73</v>
+          </cell>
+          <cell r="G12">
+            <v>200</v>
+          </cell>
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>0.15092</v>
+          </cell>
+          <cell r="J12">
+            <v>7551.15092</v>
+          </cell>
+          <cell r="K12">
+            <v>38.32</v>
+          </cell>
+          <cell r="L12">
+            <v>37.15</v>
+          </cell>
+          <cell r="M12">
+            <v>40.11</v>
+          </cell>
+          <cell r="N12">
+            <v>30.85</v>
+          </cell>
+          <cell r="O12">
+            <v>9.26</v>
+          </cell>
+          <cell r="P12">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.504273504273506</v>
+          </cell>
+          <cell r="R12">
+            <v>33.38</v>
+          </cell>
+          <cell r="S12">
+            <v>880.150919999999</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -1852,6 +2052,57 @@
           <cell r="B13" t="str">
             <v>000027</v>
           </cell>
+          <cell r="C13">
+            <v>603867</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E13">
+            <v>44540</v>
+          </cell>
+          <cell r="F13">
+            <v>37.99</v>
+          </cell>
+          <cell r="G13">
+            <v>200</v>
+          </cell>
+          <cell r="H13">
+            <v>5</v>
+          </cell>
+          <cell r="I13">
+            <v>0.15196</v>
+          </cell>
+          <cell r="J13">
+            <v>7603.15196</v>
+          </cell>
+          <cell r="K13">
+            <v>38.32</v>
+          </cell>
+          <cell r="L13">
+            <v>37.15</v>
+          </cell>
+          <cell r="M13">
+            <v>40.11</v>
+          </cell>
+          <cell r="N13">
+            <v>30.85</v>
+          </cell>
+          <cell r="O13">
+            <v>9.26</v>
+          </cell>
+          <cell r="P13">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.28205128205128</v>
+          </cell>
+          <cell r="R13">
+            <v>33.38</v>
+          </cell>
+          <cell r="S13">
+            <v>932.15196</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -1860,6 +2111,57 @@
           <cell r="B14" t="str">
             <v>000028</v>
           </cell>
+          <cell r="C14" t="str">
+            <v>000733</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>振华科技</v>
+          </cell>
+          <cell r="E14">
+            <v>44540</v>
+          </cell>
+          <cell r="F14">
+            <v>115.97</v>
+          </cell>
+          <cell r="G14">
+            <v>100</v>
+          </cell>
+          <cell r="H14">
+            <v>5</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>11602</v>
+          </cell>
+          <cell r="K14">
+            <v>118</v>
+          </cell>
+          <cell r="L14">
+            <v>113.58</v>
+          </cell>
+          <cell r="M14">
+            <v>128.61</v>
+          </cell>
+          <cell r="N14">
+            <v>102.72</v>
+          </cell>
+          <cell r="O14">
+            <v>25.89</v>
+          </cell>
+          <cell r="P14">
+            <v>50.45</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.459276018099548</v>
+          </cell>
+          <cell r="R14">
+            <v>110.4</v>
+          </cell>
+          <cell r="S14">
+            <v>566.999999999999</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -1868,6 +2170,57 @@
           <cell r="B15" t="str">
             <v>000029</v>
           </cell>
+          <cell r="C15">
+            <v>601677</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E15">
+            <v>44540</v>
+          </cell>
+          <cell r="F15">
+            <v>39.15</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+          <cell r="I15">
+            <v>0.0783</v>
+          </cell>
+          <cell r="J15">
+            <v>3920.0783</v>
+          </cell>
+          <cell r="K15">
+            <v>39.16</v>
+          </cell>
+          <cell r="L15">
+            <v>37.55</v>
+          </cell>
+          <cell r="M15">
+            <v>41.07</v>
+          </cell>
+          <cell r="N15">
+            <v>32.21</v>
+          </cell>
+          <cell r="O15">
+            <v>8.86</v>
+          </cell>
+          <cell r="P15">
+            <v>14.76</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.00621118012422237</v>
+          </cell>
+          <cell r="R15">
+            <v>35.91</v>
+          </cell>
+          <cell r="S15">
+            <v>334.0783</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -1876,6 +2229,57 @@
           <cell r="B16" t="str">
             <v>000030</v>
           </cell>
+          <cell r="C16">
+            <v>603688</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>石英股份</v>
+          </cell>
+          <cell r="E16">
+            <v>44540</v>
+          </cell>
+          <cell r="F16">
+            <v>64.3</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="I16">
+            <v>0.1286</v>
+          </cell>
+          <cell r="J16">
+            <v>6435.1286</v>
+          </cell>
+          <cell r="K16">
+            <v>64.47</v>
+          </cell>
+          <cell r="L16">
+            <v>59.34</v>
+          </cell>
+          <cell r="M16">
+            <v>69.25</v>
+          </cell>
+          <cell r="N16">
+            <v>52.2</v>
+          </cell>
+          <cell r="O16">
+            <v>17.05</v>
+          </cell>
+          <cell r="P16">
+            <v>100.55</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.0331384015594546</v>
+          </cell>
+          <cell r="R16">
+            <v>58.51</v>
+          </cell>
+          <cell r="S16">
+            <v>589.1286</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -1912,19 +2316,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="交易计划及执行表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2191,11 +2582,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF20" sqref="AF20"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2518,9 +2909,9 @@
       <c r="J6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="19" t="e">
-        <f>(B6-VLOOKUP([2]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10004,5,FALSE)</f>
-        <v>#REF!</v>
+      <c r="K6" s="19">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)</f>
+        <v>0.0275229357798165</v>
       </c>
       <c r="L6" s="20">
         <f>I6/(ROW()-5)</f>
@@ -2571,7 +2962,7 @@
         <v>30.89</v>
       </c>
       <c r="AG6" s="65">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -2608,7 +2999,7 @@
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
-        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)</f>
+        <f>(B7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
@@ -2657,11 +3048,11 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="63">
-        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,5,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
+        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>30.89</v>
       </c>
       <c r="AG7" s="65">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
+        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -2698,7 +3089,7 @@
         <v>-0.0121158392434989</v>
       </c>
       <c r="K8" s="19">
-        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)</f>
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>0.0223241590214066</v>
       </c>
       <c r="L8" s="20">
@@ -2747,11 +3138,11 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="63">
-        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,5,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>30.89</v>
       </c>
       <c r="AG8" s="65">
-        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -2788,7 +3179,7 @@
         <v>-0.0173496859108585</v>
       </c>
       <c r="K9" s="19">
-        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)</f>
+        <f>(B9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>0.00458715596330271</v>
       </c>
       <c r="L9" s="20">
@@ -2837,11 +3228,11 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="63">
-        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,5,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
+        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>30.89</v>
       </c>
       <c r="AG9" s="65">
-        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
+        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -2878,7 +3269,7 @@
         <v>0.045662100456621</v>
       </c>
       <c r="K10" s="19">
-        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)</f>
+        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.0504587155963302</v>
       </c>
       <c r="L10" s="20">
@@ -2927,11 +3318,11 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="63">
-        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,5,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
+        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>30.89</v>
       </c>
       <c r="AG10" s="65">
-        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
+        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -2968,7 +3359,7 @@
         <v>-0.0087336244541486</v>
       </c>
       <c r="K11" s="19">
-        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)</f>
+        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.0412844036697246</v>
       </c>
       <c r="L11" s="20">
@@ -3017,11 +3408,11 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="63">
-        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,5,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
+        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>30.89</v>
       </c>
       <c r="AG11" s="65">
-        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
+        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3058,7 +3449,7 @@
         <v>0.0088105726872248</v>
       </c>
       <c r="K12" s="19">
-        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)</f>
+        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.0504587155963302</v>
       </c>
       <c r="L12" s="20">
@@ -3107,11 +3498,11 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="63">
-        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,5,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
+        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>30.89</v>
       </c>
       <c r="AG12" s="65">
-        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
+        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3148,7 +3539,7 @@
         <v>0.0590975254730714</v>
       </c>
       <c r="K13" s="19">
-        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)</f>
+        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>0.112538226299694</v>
       </c>
       <c r="L13" s="20">
@@ -3197,11 +3588,11 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="63">
-        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,5,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
+        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>30.89</v>
       </c>
       <c r="AG13" s="65">
-        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
+        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3238,7 +3629,7 @@
         <v>0.0101704233095106</v>
       </c>
       <c r="K14" s="19">
-        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)</f>
+        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
         <v>0.123853211009174</v>
       </c>
       <c r="L14" s="20">
@@ -3287,11 +3678,11 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="63">
-        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,5,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
+        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>30.89</v>
       </c>
       <c r="AG14" s="65">
-        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
+        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3328,7 +3719,7 @@
         <v>0.00163265306122455</v>
       </c>
       <c r="K15" s="19">
-        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)</f>
+        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
         <v>0.125688073394495</v>
       </c>
       <c r="L15" s="20">
@@ -3377,11 +3768,11 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="63">
-        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,5,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
+        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>30.89</v>
       </c>
       <c r="AG15" s="65">
-        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
+        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3418,7 +3809,7 @@
         <v>-0.00353164900842169</v>
       </c>
       <c r="K16" s="19">
-        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)</f>
+        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
         <v>0.1217125382263</v>
       </c>
       <c r="L16" s="20">
@@ -3467,11 +3858,11 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="63">
-        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,5,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
+        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
         <v>32.77</v>
       </c>
       <c r="AG16" s="65">
-        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
+        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
         <v>0.0700000000000003</v>
       </c>
     </row>
@@ -3508,7 +3899,7 @@
         <v>-0.0408942202835333</v>
       </c>
       <c r="K17" s="19">
-        <f>(B17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)</f>
+        <f>(B17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
         <v>0.0758409785932721</v>
       </c>
       <c r="L17" s="20">
@@ -3557,11 +3948,11 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="63">
-        <f>IF(AND(G17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,5,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
+        <f>IF(AND(G17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
         <v>32.86</v>
       </c>
       <c r="AG17" s="65">
-        <f>AF17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)</f>
+        <f>AF17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
         <v>0.159999999999997</v>
       </c>
     </row>
@@ -3598,7 +3989,7 @@
         <v>0.0471859010801593</v>
       </c>
       <c r="K18" s="19">
-        <f>(B18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)</f>
+        <f>(B18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
         <v>0.126605504587156</v>
       </c>
       <c r="L18" s="20">
@@ -3647,11 +4038,11 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="63">
-        <f>IF(AND(G18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,5,FALSE)&gt;0,G18&gt;G17),G18,AF17)</f>
+        <f>IF(AND(G18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)&gt;0,G18&gt;G17),G18,AF17)</f>
         <v>33.02</v>
       </c>
       <c r="AG18" s="65">
-        <f>AF18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE)</f>
+        <f>AF18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
         <v>0.32</v>
       </c>
     </row>
@@ -3688,7 +4079,7 @@
         <v>0.030401737242128</v>
       </c>
       <c r="K19" s="19">
-        <f>(B19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE)</f>
+        <f>(B19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
         <v>0.16085626911315</v>
       </c>
       <c r="L19" s="20">
@@ -3737,11 +4128,11 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="63">
-        <f>IF(AND(G19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,5,FALSE)&gt;0,G19&gt;G18),G19,AF18)</f>
+        <f>IF(AND(G19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)&gt;0,G19&gt;G18),G19,AF18)</f>
         <v>33.21</v>
       </c>
       <c r="AG19" s="65">
-        <f>AF19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE)</f>
+        <f>AF19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
         <v>0.509999999999998</v>
       </c>
     </row>
@@ -3778,14 +4169,14 @@
         <v>-0.0147523709167545</v>
       </c>
       <c r="K20" s="19">
-        <f>(B20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,5,FALSE)</f>
+        <f>(B20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
         <v>0.143730886850153</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="32">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
@@ -3827,38 +4218,85 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="63">
-        <f>IF(AND(G20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,5,FALSE)&gt;0,G20&gt;G19),G20,AF19)</f>
+        <f>IF(AND(G20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)&gt;0,G20&gt;G19),G20,AF19)</f>
         <v>33.38</v>
       </c>
       <c r="AG20" s="65">
-        <f>AF20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,5,FALSE)</f>
+        <f>AF20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
         <v>0.68</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" ht="18" spans="1:33">
       <c r="A21" s="12">
-        <v>44541</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="13"/>
+        <v>44543</v>
+      </c>
+      <c r="B21" s="11">
+        <v>37.88</v>
+      </c>
+      <c r="C21" s="11">
+        <v>37.51</v>
+      </c>
+      <c r="D21" s="11">
+        <v>38.85</v>
+      </c>
+      <c r="E21" s="11">
+        <v>36.93</v>
+      </c>
+      <c r="F21" s="11">
+        <v>35.3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>33.55</v>
+      </c>
+      <c r="H21" s="11">
+        <v>33.09</v>
+      </c>
+      <c r="I21" s="13">
+        <v>10</v>
+      </c>
+      <c r="J21" s="23">
+        <f>(B21-B20)/B20</f>
+        <v>0.0128342245989306</v>
+      </c>
+      <c r="K21" s="19">
+        <f>(B21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
+        <v>0.158409785932722</v>
+      </c>
+      <c r="L21" s="20">
+        <f>I21/(ROW()-5)</f>
+        <v>0.625</v>
+      </c>
+      <c r="M21" s="32">
+        <f>IF(B21&gt;(D21-(D21-E21)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N21" s="30" t="str">
+        <f>IF(A21&lt;E21,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="41" t="str">
+        <f>IF(I21/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T21" s="42" t="str">
+        <f>IF(SUM($M$6:$M21)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U21" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="V21" s="13"/>
       <c r="W21" s="11"/>
       <c r="X21" s="5"/>
@@ -3869,11 +4307,18 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="63"/>
+      <c r="AF21" s="63">
+        <f>IF(AND(G21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)&gt;0,G21&gt;G20),G21,AF20)</f>
+        <v>33.55</v>
+      </c>
+      <c r="AG21" s="65">
+        <f>AF21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
+        <v>0.849999999999994</v>
+      </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="12">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -3909,7 +4354,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="12">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3945,7 +4390,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="12">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3981,7 +4426,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="12">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -4017,7 +4462,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="12">
-        <v>44546</v>
+        <v>44548</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -4053,7 +4498,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="12">
-        <v>44547</v>
+        <v>44549</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -307,17 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,33 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,30 +353,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +370,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -423,10 +385,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,7 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,55 +585,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +633,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,31 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,43 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,30 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -871,6 +847,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -894,147 +879,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,13 +1072,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1210,13 +1210,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2586,7 +2586,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="30" t="str">
-        <f>IF(A6&lt;E6,"是","否")</f>
+        <f>IF(B6&lt;F6,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O6" s="30" t="s">
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J20" si="0">(B7-B6)/B6</f>
+        <f>(B7-B6)/B6</f>
         <v>0.0071428571428572</v>
       </c>
       <c r="K7" s="19">
@@ -3003,15 +3003,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L20" si="1">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L21" si="0">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" ref="M7:M20" si="2">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M21" si="1">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ref="N6:N20" si="3">IF(A7&lt;E7,"是","否")</f>
+        <f t="shared" ref="N7:N21" si="2">IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -3027,7 +3027,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="41" t="str">
-        <f t="shared" ref="S7:S20" si="4">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S21" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="42" t="str">
@@ -3085,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J21" si="4">(B8-B7)/B7</f>
         <v>-0.0121158392434989</v>
       </c>
       <c r="K8" s="19">
@@ -3093,15 +3093,15 @@
         <v>0.0223241590214066</v>
       </c>
       <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M8" s="32">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N8" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O8" s="30" t="s">
@@ -3117,7 +3117,7 @@
         <v>42</v>
       </c>
       <c r="S8" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T8" s="42" t="str">
@@ -3175,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0173496859108585</v>
       </c>
       <c r="K9" s="19">
@@ -3183,15 +3183,15 @@
         <v>0.00458715596330271</v>
       </c>
       <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N9" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O9" s="33" t="s">
@@ -3207,7 +3207,7 @@
         <v>42</v>
       </c>
       <c r="S9" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T9" s="43" t="str">
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.045662100456621</v>
       </c>
       <c r="K10" s="19">
@@ -3273,15 +3273,15 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="29">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O10" s="13" t="s">
@@ -3297,7 +3297,7 @@
         <v>44</v>
       </c>
       <c r="S10" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T10" s="42" t="str">
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0087336244541486</v>
       </c>
       <c r="K11" s="19">
@@ -3363,15 +3363,15 @@
         <v>0.0412844036697246</v>
       </c>
       <c r="L11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="32">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N11" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -3387,7 +3387,7 @@
         <v>44</v>
       </c>
       <c r="S11" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="T11" s="43" t="str">
@@ -3445,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.0088105726872248</v>
       </c>
       <c r="K12" s="19">
@@ -3453,15 +3453,15 @@
         <v>0.0504587155963302</v>
       </c>
       <c r="L12" s="20">
+        <f t="shared" si="0"/>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M12" s="29">
         <f t="shared" si="1"/>
-        <v>0.571428571428571</v>
-      </c>
-      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O12" s="13" t="s">
@@ -3477,7 +3477,7 @@
         <v>44</v>
       </c>
       <c r="S12" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T12" s="42" t="str">
@@ -3535,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.0590975254730714</v>
       </c>
       <c r="K13" s="19">
@@ -3543,15 +3543,15 @@
         <v>0.112538226299694</v>
       </c>
       <c r="L13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="M13" s="29">
         <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="M13" s="29">
+        <v>1</v>
+      </c>
+      <c r="N13" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -3567,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="S13" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T13" s="42" t="str">
@@ -3625,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.0101704233095106</v>
       </c>
       <c r="K14" s="19">
@@ -3633,15 +3633,15 @@
         <v>0.123853211009174</v>
       </c>
       <c r="L14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="M14" s="29">
         <f t="shared" si="1"/>
-        <v>0.666666666666667</v>
-      </c>
-      <c r="M14" s="29">
+        <v>1</v>
+      </c>
+      <c r="N14" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -3657,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="S14" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T14" s="42" t="str">
@@ -3715,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="0"/>
+        <f>(B15-B14)/B14</f>
         <v>0.00163265306122455</v>
       </c>
       <c r="K15" s="19">
@@ -3723,15 +3723,15 @@
         <v>0.125688073394495</v>
       </c>
       <c r="L15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="M15" s="29">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="M15" s="29">
+        <v>1</v>
+      </c>
+      <c r="N15" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -3747,7 +3747,7 @@
         <v>44</v>
       </c>
       <c r="S15" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T15" s="42" t="str">
@@ -3805,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.00353164900842169</v>
       </c>
       <c r="K16" s="19">
@@ -3813,15 +3813,15 @@
         <v>0.1217125382263</v>
       </c>
       <c r="L16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.636363636363636</v>
+      </c>
+      <c r="M16" s="32">
         <f t="shared" si="1"/>
-        <v>0.636363636363636</v>
-      </c>
-      <c r="M16" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N16" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O16" s="13" t="s">
@@ -3837,7 +3837,7 @@
         <v>44</v>
       </c>
       <c r="S16" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T16" s="42" t="str">
@@ -3895,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0408942202835333</v>
       </c>
       <c r="K17" s="19">
@@ -3903,15 +3903,15 @@
         <v>0.0758409785932721</v>
       </c>
       <c r="L17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="M17" s="32">
         <f t="shared" si="1"/>
-        <v>0.583333333333333</v>
-      </c>
-      <c r="M17" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N17" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O17" s="13" t="s">
@@ -3927,7 +3927,7 @@
         <v>44</v>
       </c>
       <c r="S17" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T17" s="42" t="str">
@@ -3985,7 +3985,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.0471859010801593</v>
       </c>
       <c r="K18" s="19">
@@ -3993,15 +3993,15 @@
         <v>0.126605504587156</v>
       </c>
       <c r="L18" s="20">
+        <f t="shared" si="0"/>
+        <v>0.615384615384615</v>
+      </c>
+      <c r="M18" s="29">
         <f t="shared" si="1"/>
-        <v>0.615384615384615</v>
-      </c>
-      <c r="M18" s="29">
+        <v>1</v>
+      </c>
+      <c r="N18" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O18" s="13" t="s">
@@ -4017,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="S18" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T18" s="42" t="str">
@@ -4075,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.030401737242128</v>
       </c>
       <c r="K19" s="19">
@@ -4083,15 +4083,15 @@
         <v>0.16085626911315</v>
       </c>
       <c r="L19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="M19" s="29">
         <f t="shared" si="1"/>
-        <v>0.642857142857143</v>
-      </c>
-      <c r="M19" s="29">
+        <v>1</v>
+      </c>
+      <c r="N19" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O19" s="13" t="s">
@@ -4107,7 +4107,7 @@
         <v>44</v>
       </c>
       <c r="S19" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T19" s="42" t="str">
@@ -4165,7 +4165,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.0147523709167545</v>
       </c>
       <c r="K20" s="19">
@@ -4173,15 +4173,15 @@
         <v>0.143730886850153</v>
       </c>
       <c r="L20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="32">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="M20" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="N20" s="30" t="str">
-        <f t="shared" si="3"/>
         <v>否</v>
       </c>
       <c r="O20" s="13" t="s">
@@ -4197,7 +4197,7 @@
         <v>44</v>
       </c>
       <c r="S20" s="41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T20" s="42" t="str">
@@ -4255,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="23">
-        <f>(B21-B20)/B20</f>
+        <f t="shared" si="4"/>
         <v>0.0128342245989306</v>
       </c>
       <c r="K21" s="19">
@@ -4263,15 +4263,15 @@
         <v>0.158409785932722</v>
       </c>
       <c r="L21" s="20">
-        <f>I21/(ROW()-5)</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
       <c r="M21" s="32">
-        <f>IF(B21&gt;(D21-(D21-E21)/2),1,-1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="N21" s="30" t="str">
-        <f>IF(A21&lt;E21,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O21" s="13" t="s">
@@ -4287,7 +4287,7 @@
         <v>44</v>
       </c>
       <c r="S21" s="41" t="str">
-        <f>IF(I21/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T21" s="42" t="str">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,13 +240,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -307,6 +307,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -323,18 +337,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,31 +361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -387,15 +379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,8 +392,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,11 +415,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,7 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,25 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +615,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,79 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,32 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -873,9 +847,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,42 +870,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,106 +941,103 @@
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2582,11 +2582,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3715,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="21">
-        <f>(B15-B14)/B14</f>
+        <f t="shared" si="4"/>
         <v>0.00163265306122455</v>
       </c>
       <c r="K15" s="19">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -240,12 +240,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -307,15 +307,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,35 +362,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,15 +387,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,14 +416,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -410,21 +425,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +579,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,73 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,25 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,6 +806,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,15 +850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,21 +881,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -885,159 +894,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2582,11 +2582,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AM1" sqref="AM$1:AM$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -293,15 +293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,8 +323,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,7 +348,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,41 +400,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,16 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +561,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +621,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,79 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,12 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,22 +810,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,7 +819,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,17 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -894,150 +879,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,27 +1393,30 @@
             <v>2.489</v>
           </cell>
           <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4">
+          <cell r="AF4">
             <v>-0.20859872611465</v>
           </cell>
-          <cell r="AF4" t="str">
+          <cell r="AG4" t="str">
             <v>1.入场时，忽略了距离最高点的距离;
 2.入场时，忽略了成交量的情况。
 3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
@@ -1444,23 +1447,26 @@
             <v>2.77</v>
           </cell>
           <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5">
+          <cell r="AF5">
             <v>0.238853503184713</v>
           </cell>
         </row>
@@ -1530,9 +1536,12 @@
           <cell r="Y6">
             <v>0</v>
           </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="AC6">
+          <cell r="AD6">
             <v>0</v>
           </cell>
         </row>
@@ -1610,23 +1619,26 @@
             <v>3.775</v>
           </cell>
           <cell r="Y7">
-            <v>3766.225</v>
+            <v>0.0755</v>
           </cell>
           <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
             <v>38.83</v>
           </cell>
-          <cell r="AA7">
+          <cell r="AB7">
             <v>36.3</v>
           </cell>
-          <cell r="AB7">
+          <cell r="AC7">
             <v>0.57312252964427</v>
-          </cell>
-          <cell r="AC7">
-            <v>491.1596</v>
           </cell>
         </row>
         <row r="7">
           <cell r="AE7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AF7">
             <v>0.569977426636569</v>
           </cell>
         </row>
@@ -1688,9 +1700,45 @@
           <cell r="S8">
             <v>463.999999999999</v>
           </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
         </row>
         <row r="8">
-          <cell r="AF8" t="str">
+          <cell r="AE8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.0299448384554775</v>
+          </cell>
+          <cell r="AG8" t="str">
             <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
@@ -1767,26 +1815,29 @@
             <v>3.015</v>
           </cell>
           <cell r="Y9">
-            <v>3006.985</v>
+            <v>0.0603</v>
           </cell>
           <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
             <v>30.69</v>
           </cell>
-          <cell r="AA9">
+          <cell r="AB9">
             <v>30.01</v>
           </cell>
-          <cell r="AB9">
+          <cell r="AC9">
             <v>0.205882352941172</v>
-          </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
           </cell>
         </row>
         <row r="9">
           <cell r="AE9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AF9">
             <v>-0.0622009569377991</v>
           </cell>
-          <cell r="AF9" t="str">
+          <cell r="AG9" t="str">
             <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
@@ -1863,26 +1914,29 @@
             <v>2.783</v>
           </cell>
           <cell r="Y10">
-            <v>2775.217</v>
+            <v>0.05566</v>
           </cell>
           <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
             <v>28.4</v>
           </cell>
-          <cell r="AA10">
+          <cell r="AB10">
             <v>27.44</v>
           </cell>
-          <cell r="AB10">
+          <cell r="AC10">
             <v>0.406249999999998</v>
-          </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AE10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AF10">
             <v>-0.196428571428572</v>
           </cell>
-          <cell r="AF10" t="str">
+          <cell r="AG10" t="str">
             <v>1.入场中枢点错误</v>
           </cell>
         </row>
@@ -1960,26 +2014,29 @@
             <v>2.67</v>
           </cell>
           <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
             <v>2662.33</v>
           </cell>
-          <cell r="Z11">
+          <cell r="AA11">
             <v>28.18</v>
           </cell>
-          <cell r="AA11">
+          <cell r="AB11">
             <v>25.99</v>
           </cell>
-          <cell r="AB11">
+          <cell r="AC11">
             <v>0.324200913242009</v>
-          </cell>
-          <cell r="AC11">
-            <v>-179.67</v>
           </cell>
         </row>
         <row r="11">
           <cell r="AE11">
+            <v>-179.67</v>
+          </cell>
+          <cell r="AF11">
             <v>-0.218300653594771</v>
           </cell>
-          <cell r="AF11" t="str">
+          <cell r="AG11" t="str">
             <v>1.宁可错过，不要根据临时计划入场。
 2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
 3.作出出场决定是使用止损线倒逼出场。
@@ -2045,6 +2102,30 @@
             <v>880.150919999999</v>
           </cell>
         </row>
+        <row r="12">
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>JG_0000010</v>
@@ -2102,6 +2183,30 @@
           </cell>
           <cell r="S13">
             <v>932.15196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
@@ -2162,6 +2267,44 @@
           <cell r="S14">
             <v>566.999999999999</v>
           </cell>
+          <cell r="T14">
+            <v>44543</v>
+          </cell>
+          <cell r="U14">
+            <v>111.66</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z14">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA14">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB14">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.267343485617597</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AE14">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AF14">
+            <v>-0.166473541908073</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2222,6 +2365,14 @@
             <v>334.0783</v>
           </cell>
         </row>
+        <row r="15">
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>JG_0000013</v>
@@ -2279,6 +2430,14 @@
           </cell>
           <cell r="S16">
             <v>589.1286</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -2288,6 +2447,57 @@
           <cell r="B17" t="str">
             <v>000031</v>
           </cell>
+          <cell r="C17">
+            <v>600032</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E17">
+            <v>44543</v>
+          </cell>
+          <cell r="F17">
+            <v>17.01</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J17">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K17">
+            <v>17.5</v>
+          </cell>
+          <cell r="L17">
+            <v>16.48</v>
+          </cell>
+          <cell r="M17">
+            <v>18.44</v>
+          </cell>
+          <cell r="N17">
+            <v>14.86</v>
+          </cell>
+          <cell r="O17">
+            <v>3.58</v>
+          </cell>
+          <cell r="P17">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R17">
+            <v>15.5</v>
+          </cell>
+          <cell r="S17">
+            <v>161.03402</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -2295,6 +2505,57 @@
           </cell>
           <cell r="B18" t="str">
             <v>000032</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.19</v>
+          </cell>
+          <cell r="G18">
+            <v>200</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J18">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>348.06876</v>
           </cell>
         </row>
         <row r="19">
@@ -2582,11 +2843,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM1" sqref="AM$1:AM$1048576"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -239,14 +239,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -293,11 +293,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,8 +315,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,9 +346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,8 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +381,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,62 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,7 +597,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,37 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,97 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,32 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -861,6 +835,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,150 +879,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1072,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,7 +1325,7 @@
             <v>JG_0000001</v>
           </cell>
           <cell r="B4" t="str">
-            <v>000001</v>
+            <v>JH_00015</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040</v>
@@ -1475,7 +1475,7 @@
             <v>JG_0000003</v>
           </cell>
           <cell r="B6" t="str">
-            <v>000002</v>
+            <v>JH_00001</v>
           </cell>
           <cell r="C6">
             <v>600085</v>
@@ -1526,7 +1526,7 @@
             <v>34.7</v>
           </cell>
           <cell r="S6">
-            <v>-86.9325400000006</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -1544,13 +1544,16 @@
           <cell r="AD6">
             <v>0</v>
           </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>JG_0000004</v>
           </cell>
           <cell r="B7" t="str">
-            <v>000003</v>
+            <v>JH_00002</v>
           </cell>
           <cell r="C7">
             <v>603867</v>
@@ -1633,8 +1636,9 @@
           <cell r="AC7">
             <v>0.57312252964427</v>
           </cell>
-        </row>
-        <row r="7">
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE7">
             <v>491.0841</v>
           </cell>
@@ -1647,7 +1651,7 @@
             <v>JG_0000005</v>
           </cell>
           <cell r="B8" t="str">
-            <v>000004</v>
+            <v>JH_00012</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932</v>
@@ -1698,7 +1702,7 @@
             <v>67.53</v>
           </cell>
           <cell r="S8">
-            <v>463.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T8">
             <v>44543</v>
@@ -1730,8 +1734,9 @@
           <cell r="AC8">
             <v>0.560000000000002</v>
           </cell>
-        </row>
-        <row r="8">
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE8">
             <v>20.755000000001</v>
           </cell>
@@ -1739,7 +1744,8 @@
             <v>0.0299448384554775</v>
           </cell>
           <cell r="AG8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
           </cell>
         </row>
         <row r="9">
@@ -1747,7 +1753,7 @@
             <v>JG_0000006</v>
           </cell>
           <cell r="B9" t="str">
-            <v>000005</v>
+            <v>JH_00014</v>
           </cell>
           <cell r="C9">
             <v>605016</v>
@@ -1829,8 +1835,9 @@
           <cell r="AC9">
             <v>0.205882352941172</v>
           </cell>
-        </row>
-        <row r="9">
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE9">
             <v>-52.1363799999999</v>
           </cell>
@@ -1846,7 +1853,7 @@
             <v>JG_0000007</v>
           </cell>
           <cell r="B10" t="str">
-            <v>000006</v>
+            <v>JH_00013</v>
           </cell>
           <cell r="C10">
             <v>603010</v>
@@ -1928,8 +1935,9 @@
           <cell r="AC10">
             <v>0.406249999999998</v>
           </cell>
-        </row>
-        <row r="10">
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE10">
             <v>-210.89828</v>
           </cell>
@@ -1945,7 +1953,7 @@
             <v>JG_0000008</v>
           </cell>
           <cell r="B11" t="str">
-            <v>000035</v>
+            <v>JH_00016</v>
           </cell>
           <cell r="C11" t="str">
             <v>002585</v>
@@ -2028,8 +2036,9 @@
           <cell r="AC11">
             <v>0.324200913242009</v>
           </cell>
-        </row>
-        <row r="11">
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE11">
             <v>-179.67</v>
           </cell>
@@ -2048,7 +2057,7 @@
             <v>JG_0000009</v>
           </cell>
           <cell r="B12" t="str">
-            <v>000021</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C12">
             <v>603867</v>
@@ -2096,10 +2105,10 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S12">
-            <v>880.150919999999</v>
+            <v>620.150919999999</v>
           </cell>
         </row>
         <row r="12">
@@ -2131,7 +2140,7 @@
             <v>JG_0000010</v>
           </cell>
           <cell r="B13" t="str">
-            <v>000027</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C13">
             <v>603867</v>
@@ -2179,10 +2188,10 @@
             <v>0.28205128205128</v>
           </cell>
           <cell r="R13">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S13">
-            <v>932.15196</v>
+            <v>672.15196</v>
           </cell>
         </row>
         <row r="13">
@@ -2214,7 +2223,7 @@
             <v>JG_0000011</v>
           </cell>
           <cell r="B14" t="str">
-            <v>000028</v>
+            <v>JH_00009</v>
           </cell>
           <cell r="C14" t="str">
             <v>000733</v>
@@ -2265,7 +2274,7 @@
             <v>110.4</v>
           </cell>
           <cell r="S14">
-            <v>566.999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="T14">
             <v>44543</v>
@@ -2297,13 +2306,19 @@
           <cell r="AC14">
             <v>0.267343485617597</v>
           </cell>
-        </row>
-        <row r="14">
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE14">
             <v>-454.3992</v>
           </cell>
           <cell r="AF14">
             <v>-0.166473541908073</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
           </cell>
         </row>
         <row r="15">
@@ -2311,7 +2326,7 @@
             <v>JG_0000012</v>
           </cell>
           <cell r="B15" t="str">
-            <v>000029</v>
+            <v>JH_00008</v>
           </cell>
           <cell r="C15">
             <v>601677</v>
@@ -2378,7 +2393,7 @@
             <v>JG_0000013</v>
           </cell>
           <cell r="B16" t="str">
-            <v>000030</v>
+            <v>JH_00007</v>
           </cell>
           <cell r="C16">
             <v>603688</v>
@@ -2445,7 +2460,7 @@
             <v>JG_0000014</v>
           </cell>
           <cell r="B17" t="str">
-            <v>000031</v>
+            <v>JH_00006</v>
           </cell>
           <cell r="C17">
             <v>600032</v>
@@ -2504,7 +2519,7 @@
             <v>JG_0000015</v>
           </cell>
           <cell r="B18" t="str">
-            <v>000032</v>
+            <v>JH_00006</v>
           </cell>
           <cell r="C18">
             <v>600032</v>
@@ -2562,16 +2577,10 @@
           <cell r="A19" t="str">
             <v>JG_0000016</v>
           </cell>
-          <cell r="B19" t="str">
-            <v>000033</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>JG_0000017</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>000034</v>
           </cell>
         </row>
       </sheetData>
@@ -2843,11 +2852,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4569,38 +4578,84 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="63">
-        <f>IF(AND(G21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)&gt;0,G21&gt;G20),G21,AF20)</f>
-        <v>33.55</v>
+        <v>34.68</v>
       </c>
       <c r="AG21" s="65">
         <f>AF21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
-        <v>0.849999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:33">
       <c r="A22" s="12">
         <v>44544</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="13"/>
+      <c r="B22" s="11">
+        <v>39.43</v>
+      </c>
+      <c r="C22" s="11">
+        <v>38.37</v>
+      </c>
+      <c r="D22" s="11">
+        <v>40.5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>37.39</v>
+      </c>
+      <c r="F22" s="11">
+        <v>35.7</v>
+      </c>
+      <c r="G22" s="11">
+        <v>33.78</v>
+      </c>
+      <c r="H22" s="11">
+        <v>33.51</v>
+      </c>
+      <c r="I22" s="13">
+        <v>11</v>
+      </c>
+      <c r="J22" s="23">
+        <f>(B22-B21)/B21</f>
+        <v>0.0409186906019007</v>
+      </c>
+      <c r="K22" s="19">
+        <f>(B22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
+        <v>0.205810397553517</v>
+      </c>
+      <c r="L22" s="20">
+        <f>I22/(ROW()-5)</f>
+        <v>0.647058823529412</v>
+      </c>
+      <c r="M22" s="29">
+        <f>IF(B22&gt;(D22-(D22-E22)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="30" t="str">
+        <f>IF(B22&lt;F22,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="41" t="str">
+        <f>IF(I22/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="T22" s="42" t="str">
+        <f>IF(SUM($M$6:$M22)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="U22" s="52" t="s">
+        <v>44</v>
+      </c>
       <c r="V22" s="13"/>
       <c r="W22" s="11"/>
       <c r="X22" s="5"/>
@@ -4611,7 +4666,14 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="63"/>
+      <c r="AF22" s="63">
+        <f>IF(AND(G22-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)&gt;0,G22&gt;G21),G22,AF21)</f>
+        <v>34.68</v>
+      </c>
+      <c r="AG22" s="65">
+        <f>AF22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE)</f>
+        <v>1.98</v>
+      </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="12">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -243,8 +244,8 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -294,45 +295,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +317,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -372,7 +342,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,15 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,23 +385,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +562,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +604,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,127 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +811,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,33 +820,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,6 +840,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -876,6 +862,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,85 +900,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,58 +987,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1319,7 +1320,7 @@
       <sheetName val="资金曲线"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="4">
           <cell r="A4" t="str">
             <v>JG_0000001</v>
@@ -2581,6 +2582,1521 @@
         <row r="20">
           <cell r="A20" t="str">
             <v>JG_0000017</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="交易计划及执行表"/>
+      <sheetName val="交易水平监控表"/>
+      <sheetName val="资金曲线"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>JG_0000001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>JH_00015</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>003040</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>楚天龙</v>
+          </cell>
+          <cell r="E4">
+            <v>44523</v>
+          </cell>
+          <cell r="F4">
+            <v>26.2</v>
+          </cell>
+          <cell r="G4">
+            <v>200</v>
+          </cell>
+          <cell r="H4">
+            <v>5</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
+          <cell r="J4">
+            <v>5245</v>
+          </cell>
+          <cell r="K4">
+            <v>26.5</v>
+          </cell>
+          <cell r="L4">
+            <v>25.21</v>
+          </cell>
+          <cell r="M4">
+            <v>28.15</v>
+          </cell>
+          <cell r="N4">
+            <v>21.87</v>
+          </cell>
+          <cell r="O4">
+            <v>6.28</v>
+          </cell>
+          <cell r="P4">
+            <v>150.88</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>44526</v>
+          </cell>
+          <cell r="U4">
+            <v>24.89</v>
+          </cell>
+          <cell r="V4">
+            <v>100</v>
+          </cell>
+          <cell r="W4">
+            <v>5</v>
+          </cell>
+          <cell r="X4">
+            <v>2.489</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
+            <v>2481.511</v>
+          </cell>
+          <cell r="AA4">
+            <v>27.43</v>
+          </cell>
+          <cell r="AB4">
+            <v>24.74</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.0557620817843874</v>
+          </cell>
+          <cell r="AD4">
+            <v>-140.989</v>
+          </cell>
+          <cell r="AE4">
+            <v>-1.25899999999999</v>
+          </cell>
+          <cell r="AF4">
+            <v>-0.20859872611465</v>
+          </cell>
+          <cell r="AG4" t="str">
+            <v>1.入场时，忽略了距离最高点的距离;
+2.入场时，忽略了成交量的情况。
+3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>JG_0000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>44531</v>
+          </cell>
+          <cell r="U5">
+            <v>27.7</v>
+          </cell>
+          <cell r="V5">
+            <v>100</v>
+          </cell>
+          <cell r="W5">
+            <v>5</v>
+          </cell>
+          <cell r="X5">
+            <v>2.77</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>2762.23</v>
+          </cell>
+          <cell r="AA5">
+            <v>28.7</v>
+          </cell>
+          <cell r="AB5">
+            <v>27.5</v>
+          </cell>
+          <cell r="AC5">
+            <v>0.166666666666666</v>
+          </cell>
+          <cell r="AD5">
+            <v>139.73</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AF5">
+            <v>0.238853503184713</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>JG_0000003</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>JH_00001</v>
+          </cell>
+          <cell r="C6">
+            <v>600085</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>同仁堂</v>
+          </cell>
+          <cell r="E6">
+            <v>44523</v>
+          </cell>
+          <cell r="F6">
+            <v>33.73</v>
+          </cell>
+          <cell r="G6">
+            <v>100</v>
+          </cell>
+          <cell r="H6">
+            <v>5</v>
+          </cell>
+          <cell r="I6">
+            <v>0.06746</v>
+          </cell>
+          <cell r="J6">
+            <v>3378.06746</v>
+          </cell>
+          <cell r="K6">
+            <v>35.36</v>
+          </cell>
+          <cell r="L6">
+            <v>33.1</v>
+          </cell>
+          <cell r="M6">
+            <v>35.48</v>
+          </cell>
+          <cell r="N6">
+            <v>31.36</v>
+          </cell>
+          <cell r="O6">
+            <v>4.12</v>
+          </cell>
+          <cell r="P6">
+            <v>37.41</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.721238938053099</v>
+          </cell>
+          <cell r="R6">
+            <v>34.7</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>JG_0000004</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>JH_00002</v>
+          </cell>
+          <cell r="C7">
+            <v>603867</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E7">
+            <v>44522</v>
+          </cell>
+          <cell r="F7">
+            <v>32.7</v>
+          </cell>
+          <cell r="G7">
+            <v>100</v>
+          </cell>
+          <cell r="H7">
+            <v>5</v>
+          </cell>
+          <cell r="I7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="J7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>33.9</v>
+          </cell>
+          <cell r="L7">
+            <v>32.49</v>
+          </cell>
+          <cell r="M7">
+            <v>36.21</v>
+          </cell>
+          <cell r="N7">
+            <v>27.35</v>
+          </cell>
+          <cell r="O7">
+            <v>8.86</v>
+          </cell>
+          <cell r="P7">
+            <v>28.82</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.851063829787233</v>
+          </cell>
+          <cell r="R7">
+            <v>30.89</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>44539</v>
+          </cell>
+          <cell r="U7">
+            <v>37.75</v>
+          </cell>
+          <cell r="V7">
+            <v>100</v>
+          </cell>
+          <cell r="W7">
+            <v>5</v>
+          </cell>
+          <cell r="X7">
+            <v>3.775</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.0755</v>
+          </cell>
+          <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
+            <v>38.83</v>
+          </cell>
+          <cell r="AB7">
+            <v>36.3</v>
+          </cell>
+          <cell r="AC7">
+            <v>0.57312252964427</v>
+          </cell>
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AF7">
+            <v>0.569977426636569</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>JG_0000005</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>JH_00012</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>002932</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>明德生物</v>
+          </cell>
+          <cell r="E8">
+            <v>44526</v>
+          </cell>
+          <cell r="F8">
+            <v>72.07</v>
+          </cell>
+          <cell r="G8">
+            <v>100</v>
+          </cell>
+          <cell r="H8">
+            <v>5</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>7212</v>
+          </cell>
+          <cell r="K8">
+            <v>74.5</v>
+          </cell>
+          <cell r="L8">
+            <v>70.4</v>
+          </cell>
+          <cell r="M8">
+            <v>75.02</v>
+          </cell>
+          <cell r="N8">
+            <v>62.33</v>
+          </cell>
+          <cell r="O8">
+            <v>12.69</v>
+          </cell>
+          <cell r="P8">
+            <v>6.49</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.592682926829271</v>
+          </cell>
+          <cell r="R8">
+            <v>67.53</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.0299448384554775</v>
+          </cell>
+          <cell r="AG8" t="str">
+            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场
+2.跳空时，不要入场。不然就有可能入场太早。</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>JG_0000006</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>JH_00014</v>
+          </cell>
+          <cell r="C9">
+            <v>605016</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>百龙创园</v>
+          </cell>
+          <cell r="E9">
+            <v>44524</v>
+          </cell>
+          <cell r="F9">
+            <v>30.54</v>
+          </cell>
+          <cell r="G9">
+            <v>100</v>
+          </cell>
+          <cell r="H9">
+            <v>5</v>
+          </cell>
+          <cell r="I9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="J9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>30.72</v>
+          </cell>
+          <cell r="L9">
+            <v>29.33</v>
+          </cell>
+          <cell r="M9">
+            <v>32.43</v>
+          </cell>
+          <cell r="N9">
+            <v>26.16</v>
+          </cell>
+          <cell r="O9">
+            <v>6.27</v>
+          </cell>
+          <cell r="P9">
+            <v>38.46</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.129496402877698</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>44525</v>
+          </cell>
+          <cell r="U9">
+            <v>30.15</v>
+          </cell>
+          <cell r="V9">
+            <v>100</v>
+          </cell>
+          <cell r="W9">
+            <v>5</v>
+          </cell>
+          <cell r="X9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.0603</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AF9">
+            <v>-0.0622009569377991</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>JG_0000007</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>JH_00013</v>
+          </cell>
+          <cell r="C10">
+            <v>603010</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>万盛股份</v>
+          </cell>
+          <cell r="E10">
+            <v>44530</v>
+          </cell>
+          <cell r="F10">
+            <v>29.81</v>
+          </cell>
+          <cell r="G10">
+            <v>100</v>
+          </cell>
+          <cell r="H10">
+            <v>5</v>
+          </cell>
+          <cell r="I10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="J10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>30.32</v>
+          </cell>
+          <cell r="L10">
+            <v>28.81</v>
+          </cell>
+          <cell r="M10">
+            <v>31.18</v>
+          </cell>
+          <cell r="N10">
+            <v>21.1</v>
+          </cell>
+          <cell r="O10">
+            <v>10.08</v>
+          </cell>
+          <cell r="P10">
+            <v>17.95</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.337748344370862</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>44533</v>
+          </cell>
+          <cell r="U10">
+            <v>27.83</v>
+          </cell>
+          <cell r="V10">
+            <v>100</v>
+          </cell>
+          <cell r="W10">
+            <v>5</v>
+          </cell>
+          <cell r="X10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.05566</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AF10">
+            <v>-0.196428571428572</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>1.入场中枢点错误</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>JG_0000008</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>JH_00016</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>002585</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>双星新材</v>
+          </cell>
+          <cell r="E11">
+            <v>44536</v>
+          </cell>
+          <cell r="F11">
+            <v>28.37</v>
+          </cell>
+          <cell r="G11">
+            <v>100</v>
+          </cell>
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
+          <cell r="J11">
+            <v>2842</v>
+          </cell>
+          <cell r="K11">
+            <v>29.7</v>
+          </cell>
+          <cell r="L11">
+            <v>27.69</v>
+          </cell>
+          <cell r="M11">
+            <v>30.41</v>
+          </cell>
+          <cell r="N11">
+            <v>22.76</v>
+          </cell>
+          <cell r="O11">
+            <v>7.65</v>
+          </cell>
+          <cell r="P11">
+            <v>25.15</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="R11">
+            <v>26.31</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>44537</v>
+          </cell>
+          <cell r="U11">
+            <v>26.7</v>
+          </cell>
+          <cell r="V11">
+            <v>100</v>
+          </cell>
+          <cell r="W11">
+            <v>5</v>
+          </cell>
+          <cell r="X11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE11">
+            <v>-179.67</v>
+          </cell>
+          <cell r="AF11">
+            <v>-0.218300653594771</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>1.宁可错过，不要根据临时计划入场。
+2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
+3.作出出场决定是使用止损线倒逼出场。
+</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>JG_0000009</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C12">
+            <v>603867</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E12">
+            <v>44540</v>
+          </cell>
+          <cell r="F12">
+            <v>37.73</v>
+          </cell>
+          <cell r="G12">
+            <v>200</v>
+          </cell>
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>0.15092</v>
+          </cell>
+          <cell r="J12">
+            <v>7551.15092</v>
+          </cell>
+          <cell r="K12">
+            <v>38.32</v>
+          </cell>
+          <cell r="L12">
+            <v>37.15</v>
+          </cell>
+          <cell r="M12">
+            <v>40.11</v>
+          </cell>
+          <cell r="N12">
+            <v>30.85</v>
+          </cell>
+          <cell r="O12">
+            <v>9.26</v>
+          </cell>
+          <cell r="P12">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.504273504273506</v>
+          </cell>
+          <cell r="R12">
+            <v>34.68</v>
+          </cell>
+          <cell r="S12">
+            <v>620.150919999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>JG_0000010</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>JH_00011</v>
+          </cell>
+          <cell r="C13">
+            <v>603867</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>新化股份</v>
+          </cell>
+          <cell r="E13">
+            <v>44540</v>
+          </cell>
+          <cell r="F13">
+            <v>37.99</v>
+          </cell>
+          <cell r="G13">
+            <v>200</v>
+          </cell>
+          <cell r="H13">
+            <v>5</v>
+          </cell>
+          <cell r="I13">
+            <v>0.15196</v>
+          </cell>
+          <cell r="J13">
+            <v>7603.15196</v>
+          </cell>
+          <cell r="K13">
+            <v>38.32</v>
+          </cell>
+          <cell r="L13">
+            <v>37.15</v>
+          </cell>
+          <cell r="M13">
+            <v>40.11</v>
+          </cell>
+          <cell r="N13">
+            <v>30.85</v>
+          </cell>
+          <cell r="O13">
+            <v>9.26</v>
+          </cell>
+          <cell r="P13">
+            <v>33.58</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.28205128205128</v>
+          </cell>
+          <cell r="R13">
+            <v>34.68</v>
+          </cell>
+          <cell r="S13">
+            <v>672.15196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>JG_0000011</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>JH_00009</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>000733</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>振华科技</v>
+          </cell>
+          <cell r="E14">
+            <v>44540</v>
+          </cell>
+          <cell r="F14">
+            <v>115.97</v>
+          </cell>
+          <cell r="G14">
+            <v>100</v>
+          </cell>
+          <cell r="H14">
+            <v>5</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>11602</v>
+          </cell>
+          <cell r="K14">
+            <v>118</v>
+          </cell>
+          <cell r="L14">
+            <v>113.58</v>
+          </cell>
+          <cell r="M14">
+            <v>128.61</v>
+          </cell>
+          <cell r="N14">
+            <v>102.72</v>
+          </cell>
+          <cell r="O14">
+            <v>25.89</v>
+          </cell>
+          <cell r="P14">
+            <v>50.45</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.459276018099548</v>
+          </cell>
+          <cell r="R14">
+            <v>110.4</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>44543</v>
+          </cell>
+          <cell r="U14">
+            <v>111.66</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z14">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA14">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB14">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.267343485617597</v>
+          </cell>
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE14">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AF14">
+            <v>-0.166473541908073</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>1.对交易减少量缺乏关注；
+2.对网球行为缺乏关注；
+3.对低突破高交易量重回低位缺乏关注;</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>JG_0000012</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>JH_00008</v>
+          </cell>
+          <cell r="C15">
+            <v>601677</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E15">
+            <v>44540</v>
+          </cell>
+          <cell r="F15">
+            <v>39.15</v>
+          </cell>
+          <cell r="G15">
+            <v>100</v>
+          </cell>
+          <cell r="H15">
+            <v>5</v>
+          </cell>
+          <cell r="I15">
+            <v>0.0783</v>
+          </cell>
+          <cell r="J15">
+            <v>3920.0783</v>
+          </cell>
+          <cell r="K15">
+            <v>39.16</v>
+          </cell>
+          <cell r="L15">
+            <v>37.55</v>
+          </cell>
+          <cell r="M15">
+            <v>41.07</v>
+          </cell>
+          <cell r="N15">
+            <v>32.21</v>
+          </cell>
+          <cell r="O15">
+            <v>8.86</v>
+          </cell>
+          <cell r="P15">
+            <v>14.76</v>
+          </cell>
+          <cell r="Q15">
+            <v>0.00621118012422237</v>
+          </cell>
+          <cell r="R15">
+            <v>35.91</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>44547</v>
+          </cell>
+          <cell r="U15">
+            <v>35.9</v>
+          </cell>
+          <cell r="V15">
+            <v>100</v>
+          </cell>
+          <cell r="W15">
+            <v>5</v>
+          </cell>
+          <cell r="X15">
+            <v>3.59</v>
+          </cell>
+          <cell r="Y15">
+            <v>0.718</v>
+          </cell>
+          <cell r="Z15">
+            <v>3580.692</v>
+          </cell>
+          <cell r="AA15">
+            <v>36.86</v>
+          </cell>
+          <cell r="AB15">
+            <v>35.6</v>
+          </cell>
+          <cell r="AC15">
+            <v>0.238095238095236</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>-339.3863</v>
+          </cell>
+          <cell r="AF15">
+            <v>-0.366817155756208</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>JG_0000013</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>JH_00007</v>
+          </cell>
+          <cell r="C16">
+            <v>603688</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>石英股份</v>
+          </cell>
+          <cell r="E16">
+            <v>44540</v>
+          </cell>
+          <cell r="F16">
+            <v>64.3</v>
+          </cell>
+          <cell r="G16">
+            <v>100</v>
+          </cell>
+          <cell r="H16">
+            <v>5</v>
+          </cell>
+          <cell r="I16">
+            <v>0.1286</v>
+          </cell>
+          <cell r="J16">
+            <v>6435.1286</v>
+          </cell>
+          <cell r="K16">
+            <v>64.47</v>
+          </cell>
+          <cell r="L16">
+            <v>59.34</v>
+          </cell>
+          <cell r="M16">
+            <v>69.25</v>
+          </cell>
+          <cell r="N16">
+            <v>52.2</v>
+          </cell>
+          <cell r="O16">
+            <v>17.05</v>
+          </cell>
+          <cell r="P16">
+            <v>100.55</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.0331384015594546</v>
+          </cell>
+          <cell r="R16">
+            <v>58.51</v>
+          </cell>
+          <cell r="S16">
+            <v>589.1286</v>
+          </cell>
+          <cell r="T16">
+            <v>44545</v>
+          </cell>
+          <cell r="U16">
+            <v>60.67</v>
+          </cell>
+          <cell r="V16">
+            <v>100</v>
+          </cell>
+          <cell r="W16">
+            <v>5</v>
+          </cell>
+          <cell r="X16">
+            <v>6.067</v>
+          </cell>
+          <cell r="Y16">
+            <v>1.2134</v>
+          </cell>
+          <cell r="Z16">
+            <v>6054.7196</v>
+          </cell>
+          <cell r="AA16">
+            <v>64.29</v>
+          </cell>
+          <cell r="AB16">
+            <v>60.28</v>
+          </cell>
+          <cell r="AC16">
+            <v>0.0972568578553616</v>
+          </cell>
+          <cell r="AD16">
+            <v>0</v>
+          </cell>
+          <cell r="AE16">
+            <v>-380.409</v>
+          </cell>
+          <cell r="AF16">
+            <v>-0.212903225806451</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>JG_0000014</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C17">
+            <v>600032</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E17">
+            <v>44543</v>
+          </cell>
+          <cell r="F17">
+            <v>17.01</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J17">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K17">
+            <v>17.5</v>
+          </cell>
+          <cell r="L17">
+            <v>16.48</v>
+          </cell>
+          <cell r="M17">
+            <v>18.44</v>
+          </cell>
+          <cell r="N17">
+            <v>14.86</v>
+          </cell>
+          <cell r="O17">
+            <v>3.58</v>
+          </cell>
+          <cell r="P17">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R17">
+            <v>15.5</v>
+          </cell>
+          <cell r="S17">
+            <v>161.03402</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>JG_0000015</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.19</v>
+          </cell>
+          <cell r="G18">
+            <v>200</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J18">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>348.06876</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>JG_0000016</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>JH_00022</v>
+          </cell>
+          <cell r="C19">
+            <v>600976</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>健民集团</v>
+          </cell>
+          <cell r="E19">
+            <v>44547</v>
+          </cell>
+          <cell r="F19">
+            <v>64.75</v>
+          </cell>
+          <cell r="G19">
+            <v>100</v>
+          </cell>
+          <cell r="H19">
+            <v>5</v>
+          </cell>
+          <cell r="I19">
+            <v>0.1295</v>
+          </cell>
+          <cell r="J19">
+            <v>6480.1295</v>
+          </cell>
+          <cell r="K19">
+            <v>65.9</v>
+          </cell>
+          <cell r="L19">
+            <v>60.17</v>
+          </cell>
+          <cell r="M19">
+            <v>67.42</v>
+          </cell>
+          <cell r="N19">
+            <v>46.04</v>
+          </cell>
+          <cell r="O19">
+            <v>21.38</v>
+          </cell>
+          <cell r="P19">
+            <v>35.75</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.200698080279233</v>
+          </cell>
+          <cell r="R19">
+            <v>59.29</v>
+          </cell>
+          <cell r="S19">
+            <v>556.1295</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>JG_0000017</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>JH_00028</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>002889</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>东方嘉盛</v>
+          </cell>
+          <cell r="E20">
+            <v>44550</v>
+          </cell>
+          <cell r="F20">
+            <v>27.83</v>
+          </cell>
+          <cell r="G20">
+            <v>100</v>
+          </cell>
+          <cell r="H20">
+            <v>5</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>2788</v>
+          </cell>
+          <cell r="K20">
+            <v>28.87</v>
+          </cell>
+          <cell r="L20">
+            <v>26.48</v>
+          </cell>
+          <cell r="M20">
+            <v>28.31</v>
+          </cell>
+          <cell r="N20">
+            <v>22.8</v>
+          </cell>
+          <cell r="O20">
+            <v>5.51</v>
+          </cell>
+          <cell r="P20">
+            <v>16.09</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.435146443514645</v>
+          </cell>
+          <cell r="R20">
+            <v>26</v>
+          </cell>
+          <cell r="S20">
+            <v>193</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>JG_0000018</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>JH_00029</v>
+          </cell>
+          <cell r="C21">
+            <v>601677</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>明泰铝业</v>
+          </cell>
+          <cell r="E21">
+            <v>44551</v>
+          </cell>
+          <cell r="F21">
+            <v>39.1</v>
+          </cell>
+          <cell r="G21">
+            <v>100</v>
+          </cell>
+          <cell r="H21">
+            <v>5</v>
+          </cell>
+          <cell r="I21">
+            <v>0.0782</v>
+          </cell>
+          <cell r="J21">
+            <v>3915.0782</v>
+          </cell>
+          <cell r="K21">
+            <v>41.2</v>
+          </cell>
+          <cell r="L21">
+            <v>38</v>
+          </cell>
+          <cell r="M21">
+            <v>42.71</v>
+          </cell>
+          <cell r="N21">
+            <v>30.54</v>
+          </cell>
+          <cell r="O21">
+            <v>12.17</v>
+          </cell>
+          <cell r="P21">
+            <v>14.89</v>
+          </cell>
+          <cell r="Q21">
+            <v>0.65625</v>
+          </cell>
+          <cell r="R21">
+            <v>35.6</v>
+          </cell>
+          <cell r="S21">
+            <v>360.0782</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>JG_0000019</v>
           </cell>
         </row>
       </sheetData>
@@ -2849,14 +4365,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG502"/>
+  <dimension ref="A1:AG500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="Z13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="AG7" sqref="AG7:AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3232,7 +4748,7 @@
         <v>30.89</v>
       </c>
       <c r="AG6" s="65">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
+        <f>AF6-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3273,15 +4789,15 @@
         <v>0.0348623853211009</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" ref="L7:L21" si="0">I7/(ROW()-5)</f>
+        <f t="shared" ref="L7:L22" si="0">I7/(ROW()-5)</f>
         <v>1</v>
       </c>
       <c r="M7" s="29">
-        <f t="shared" ref="M7:M21" si="1">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
+        <f t="shared" ref="M7:M22" si="1">IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" ref="N7:N21" si="2">IF(B7&lt;F7,"是","否")</f>
+        <f t="shared" ref="N7:N22" si="2">IF(B7&lt;F7,"是","否")</f>
         <v>否</v>
       </c>
       <c r="O7" s="30" t="s">
@@ -3297,7 +4813,7 @@
         <v>42</v>
       </c>
       <c r="S7" s="41" t="str">
-        <f t="shared" ref="S7:S21" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" ref="S7:S22" si="3">IF(I7/(ROW()-5)&gt;0.5,"是","否")</f>
         <v>是</v>
       </c>
       <c r="T7" s="42" t="str">
@@ -3318,11 +4834,11 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="63">
-        <f>IF(AND(G7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
+        <f>IF(AND(G7-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10004,6,FALSE)&gt;0,G7&gt;G6),G7,AF6)</f>
         <v>30.89</v>
       </c>
       <c r="AG7" s="65">
-        <f>AF7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
+        <f>AF7-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3355,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" ref="J7:J21" si="4">(B8-B7)/B7</f>
+        <f t="shared" ref="J7:J22" si="4">(B8-B7)/B7</f>
         <v>-0.0121158392434989</v>
       </c>
       <c r="K8" s="19">
@@ -3408,11 +4924,11 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="63">
-        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <f>IF(AND(G8-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
         <v>30.89</v>
       </c>
       <c r="AG8" s="65">
-        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <f>AF8-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3498,11 +5014,11 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="63">
-        <f>IF(AND(G9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
+        <f>IF(AND(G9-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10006,6,FALSE)&gt;0,G9&gt;G8),G9,AF8)</f>
         <v>30.89</v>
       </c>
       <c r="AG9" s="65">
-        <f>AF9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <f>AF9-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3539,7 +5055,7 @@
         <v>0.045662100456621</v>
       </c>
       <c r="K10" s="19">
-        <f>(B10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <f>(B10-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>0.0504587155963302</v>
       </c>
       <c r="L10" s="20">
@@ -3588,11 +5104,11 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="63">
-        <f>IF(AND(G10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
+        <f>IF(AND(G10-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10007,6,FALSE)&gt;0,G10&gt;G9),G10,AF9)</f>
         <v>30.89</v>
       </c>
       <c r="AG10" s="65">
-        <f>AF10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <f>AF10-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3629,7 +5145,7 @@
         <v>-0.0087336244541486</v>
       </c>
       <c r="K11" s="19">
-        <f>(B11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <f>(B11-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
         <v>0.0412844036697246</v>
       </c>
       <c r="L11" s="20">
@@ -3678,11 +5194,11 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="63">
-        <f>IF(AND(G11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
+        <f>IF(AND(G11-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10008,6,FALSE)&gt;0,G11&gt;G10),G11,AF10)</f>
         <v>30.89</v>
       </c>
       <c r="AG11" s="65">
-        <f>AF11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <f>AF11-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3719,7 +5235,7 @@
         <v>0.0088105726872248</v>
       </c>
       <c r="K12" s="19">
-        <f>(B12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
+        <f>(B12-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10010,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
         <v>0.0504587155963302</v>
       </c>
       <c r="L12" s="20">
@@ -3768,11 +5284,11 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="63">
-        <f>IF(AND(G12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
+        <f>IF(AND(G12-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10009,6,FALSE)&gt;0,G12&gt;G11),G12,AF11)</f>
         <v>30.89</v>
       </c>
       <c r="AG12" s="65">
-        <f>AF12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <f>AF12-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3809,7 +5325,7 @@
         <v>0.0590975254730714</v>
       </c>
       <c r="K13" s="19">
-        <f>(B13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
+        <f>(B13-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10011,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
         <v>0.112538226299694</v>
       </c>
       <c r="L13" s="20">
@@ -3858,11 +5374,11 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="63">
-        <f>IF(AND(G13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
+        <f>IF(AND(G13-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10010,6,FALSE)&gt;0,G13&gt;G12),G13,AF12)</f>
         <v>30.89</v>
       </c>
       <c r="AG13" s="65">
-        <f>AF13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <f>AF13-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3899,7 +5415,7 @@
         <v>0.0101704233095106</v>
       </c>
       <c r="K14" s="19">
-        <f>(B14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
+        <f>(B14-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10012,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
         <v>0.123853211009174</v>
       </c>
       <c r="L14" s="20">
@@ -3948,11 +5464,11 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="63">
-        <f>IF(AND(G14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
+        <f>IF(AND(G14-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10011,6,FALSE)&gt;0,G14&gt;G13),G14,AF13)</f>
         <v>30.89</v>
       </c>
       <c r="AG14" s="65">
-        <f>AF14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
+        <f>AF14-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -3989,7 +5505,7 @@
         <v>0.00163265306122455</v>
       </c>
       <c r="K15" s="19">
-        <f>(B15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
+        <f>(B15-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10013,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
         <v>0.125688073394495</v>
       </c>
       <c r="L15" s="20">
@@ -4038,11 +5554,11 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="63">
-        <f>IF(AND(G15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
+        <f>IF(AND(G15-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10012,6,FALSE)&gt;0,G15&gt;G14),G15,AF14)</f>
         <v>30.89</v>
       </c>
       <c r="AG15" s="65">
-        <f>AF15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
+        <f>AF15-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
         <v>-1.81</v>
       </c>
     </row>
@@ -4079,7 +5595,7 @@
         <v>-0.00353164900842169</v>
       </c>
       <c r="K16" s="19">
-        <f>(B16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
+        <f>(B16-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10014,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
         <v>0.1217125382263</v>
       </c>
       <c r="L16" s="20">
@@ -4128,11 +5644,11 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="63">
-        <f>IF(AND(G16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
+        <f>IF(AND(G16-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10013,6,FALSE)&gt;0,G16&gt;G15),G16,AF15)</f>
         <v>32.77</v>
       </c>
       <c r="AG16" s="65">
-        <f>AF16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
+        <f>AF16-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
         <v>0.0700000000000003</v>
       </c>
     </row>
@@ -4169,7 +5685,7 @@
         <v>-0.0408942202835333</v>
       </c>
       <c r="K17" s="19">
-        <f>(B17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
+        <f>(B17-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10015,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
         <v>0.0758409785932721</v>
       </c>
       <c r="L17" s="20">
@@ -4218,11 +5734,11 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="63">
-        <f>IF(AND(G17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
+        <f>IF(AND(G17-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10014,6,FALSE)&gt;0,G17&gt;G16),G17,AF16)</f>
         <v>32.86</v>
       </c>
       <c r="AG17" s="65">
-        <f>AF17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
+        <f>AF17-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
         <v>0.159999999999997</v>
       </c>
     </row>
@@ -4259,7 +5775,7 @@
         <v>0.0471859010801593</v>
       </c>
       <c r="K18" s="19">
-        <f>(B18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
+        <f>(B18-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10016,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
         <v>0.126605504587156</v>
       </c>
       <c r="L18" s="20">
@@ -4308,11 +5824,11 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="63">
-        <f>IF(AND(G18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)&gt;0,G18&gt;G17),G18,AF17)</f>
+        <f>IF(AND(G18-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10015,6,FALSE)&gt;0,G18&gt;G17),G18,AF17)</f>
         <v>33.02</v>
       </c>
       <c r="AG18" s="65">
-        <f>AF18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
+        <f>AF18-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
         <v>0.32</v>
       </c>
     </row>
@@ -4349,7 +5865,7 @@
         <v>0.030401737242128</v>
       </c>
       <c r="K19" s="19">
-        <f>(B19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
+        <f>(B19-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10017,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
         <v>0.16085626911315</v>
       </c>
       <c r="L19" s="20">
@@ -4398,11 +5914,11 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="63">
-        <f>IF(AND(G19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)&gt;0,G19&gt;G18),G19,AF18)</f>
+        <f>IF(AND(G19-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10016,6,FALSE)&gt;0,G19&gt;G18),G19,AF18)</f>
         <v>33.21</v>
       </c>
       <c r="AG19" s="65">
-        <f>AF19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
+        <f>AF19-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
         <v>0.509999999999998</v>
       </c>
     </row>
@@ -4439,7 +5955,7 @@
         <v>-0.0147523709167545</v>
       </c>
       <c r="K20" s="19">
-        <f>(B20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
+        <f>(B20-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10018,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
         <v>0.143730886850153</v>
       </c>
       <c r="L20" s="20">
@@ -4488,11 +6004,11 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="63">
-        <f>IF(AND(G20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)&gt;0,G20&gt;G19),G20,AF19)</f>
+        <f>IF(AND(G20-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10017,6,FALSE)&gt;0,G20&gt;G19),G20,AF19)</f>
         <v>33.38</v>
       </c>
       <c r="AG20" s="65">
-        <f>AF20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
+        <f>AF20-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
         <v>0.68</v>
       </c>
     </row>
@@ -4529,7 +6045,7 @@
         <v>0.0128342245989306</v>
       </c>
       <c r="K21" s="19">
-        <f>(B21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
+        <f>(B21-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10019,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
         <v>0.158409785932722</v>
       </c>
       <c r="L21" s="20">
@@ -4578,11 +6094,12 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="63">
-        <v>34.68</v>
+        <f>IF(AND(G21-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10018,6,FALSE)&gt;0,G21&gt;G20),G21,AF20)</f>
+        <v>33.55</v>
       </c>
       <c r="AG21" s="65">
-        <f>AF21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
-        <v>1.98</v>
+        <f>AF21-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
+        <v>0.849999999999994</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:33">
@@ -4614,23 +6131,23 @@
         <v>11</v>
       </c>
       <c r="J22" s="23">
-        <f>(B22-B21)/B21</f>
+        <f t="shared" si="4"/>
         <v>0.0409186906019007</v>
       </c>
       <c r="K22" s="19">
-        <f>(B22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
+        <f>(B22-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10020,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
         <v>0.205810397553517</v>
       </c>
       <c r="L22" s="20">
-        <f>I22/(ROW()-5)</f>
+        <f t="shared" si="0"/>
         <v>0.647058823529412</v>
       </c>
       <c r="M22" s="29">
-        <f>IF(B22&gt;(D22-(D22-E22)/2),1,-1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N22" s="30" t="str">
-        <f>IF(B22&lt;F22,"是","否")</f>
+        <f t="shared" si="2"/>
         <v>否</v>
       </c>
       <c r="O22" s="13" t="s">
@@ -4646,7 +6163,7 @@
         <v>44</v>
       </c>
       <c r="S22" s="41" t="str">
-        <f>IF(I22/(ROW()-5)&gt;0.5,"是","否")</f>
+        <f t="shared" si="3"/>
         <v>是</v>
       </c>
       <c r="T22" s="42" t="str">
@@ -4667,33 +6184,68 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="63">
-        <f>IF(AND(G22-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)&gt;0,G22&gt;G21),G22,AF21)</f>
-        <v>34.68</v>
+        <f>IF(AND(G22-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10019,6,FALSE)&gt;0,G22&gt;G21),G22,AF21)</f>
+        <v>33.78</v>
       </c>
       <c r="AG22" s="65">
-        <f>AF22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE)</f>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
+        <f>AF22-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10021,6,FALSE)</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="12">
         <v>44545</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="B23" s="11">
+        <v>38.18</v>
+      </c>
+      <c r="C23" s="11">
+        <v>40</v>
+      </c>
+      <c r="D23" s="11">
+        <v>40.1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>38.05</v>
+      </c>
+      <c r="F23" s="11">
+        <v>35.93</v>
+      </c>
+      <c r="G23" s="11">
+        <v>33.96</v>
+      </c>
+      <c r="H23" s="11">
+        <v>34.88</v>
+      </c>
+      <c r="I23" s="13">
+        <v>11</v>
+      </c>
+      <c r="J23" s="22">
+        <f>(B23-B22)/B22</f>
+        <v>-0.0317017499365965</v>
+      </c>
+      <c r="K23" s="19">
+        <f>(B23-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10021,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10021,6,FALSE)</f>
+        <v>0.167584097859327</v>
+      </c>
+      <c r="L23" s="20">
+        <f>I23/(ROW()-5)</f>
+        <v>0.611111111111111</v>
+      </c>
+      <c r="M23" s="29">
+        <f>IF(B23&gt;(D23-(D23-E23)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N23" s="30" t="str">
+        <f>IF(B23&lt;F23,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4709,27 +6261,69 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="63"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AF23" s="63">
+        <f>IF(AND(G23-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10020,6,FALSE)&gt;0,G23&gt;G22),G23,AF22)</f>
+        <v>33.96</v>
+      </c>
+      <c r="AG23" s="65">
+        <f>AF23-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10022,6,FALSE)</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="12">
         <v>44546</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
+      <c r="B24" s="11">
+        <v>37.58</v>
+      </c>
+      <c r="C24" s="11">
+        <v>38.12</v>
+      </c>
+      <c r="D24" s="11">
+        <v>38.36</v>
+      </c>
+      <c r="E24" s="11">
+        <v>37.12</v>
+      </c>
+      <c r="F24" s="11">
+        <v>36.09</v>
+      </c>
+      <c r="G24" s="11">
+        <v>34.1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>33.78</v>
+      </c>
+      <c r="I24" s="13">
+        <v>11</v>
+      </c>
+      <c r="J24" s="23">
+        <f>(B24-B23)/B23</f>
+        <v>-0.0157150340492405</v>
+      </c>
+      <c r="K24" s="19">
+        <f>(B24-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10022,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10022,6,FALSE)</f>
+        <v>0.149235474006116</v>
+      </c>
+      <c r="L24" s="20">
+        <f>I24/(ROW()-5)</f>
+        <v>0.578947368421053</v>
+      </c>
+      <c r="M24" s="29">
+        <f>IF(B24&gt;(D24-(D24-E24)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="30" t="str">
+        <f>IF(B24&lt;F24,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
@@ -4745,27 +6339,69 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="63"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AF24" s="63">
+        <f>IF(AND(G24-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10021,6,FALSE)&gt;0,G24&gt;G23),G24,AF23)</f>
+        <v>34.1</v>
+      </c>
+      <c r="AG24" s="65">
+        <f>AF24-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10023,6,FALSE)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="12">
         <v>44547</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
+      <c r="B25" s="11">
+        <v>36</v>
+      </c>
+      <c r="C25" s="11">
+        <v>37.58</v>
+      </c>
+      <c r="D25" s="11">
+        <v>37.66</v>
+      </c>
+      <c r="E25" s="11">
+        <v>35.87</v>
+      </c>
+      <c r="F25" s="11">
+        <v>36.08</v>
+      </c>
+      <c r="G25" s="11">
+        <v>34.17</v>
+      </c>
+      <c r="H25" s="11">
+        <v>33.25</v>
+      </c>
+      <c r="I25" s="13">
+        <v>11</v>
+      </c>
+      <c r="J25" s="23">
+        <f>(B25-B24)/B24</f>
+        <v>-0.0420436402341671</v>
+      </c>
+      <c r="K25" s="19">
+        <f>(B25-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10023,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10023,6,FALSE)</f>
+        <v>0.10091743119266</v>
+      </c>
+      <c r="L25" s="20">
+        <f>I25/(ROW()-5)</f>
+        <v>0.55</v>
+      </c>
+      <c r="M25" s="29">
+        <f>IF(B25&gt;(D25-(D25-E25)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N25" s="33" t="str">
+        <f>IF(B25&lt;F25,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
@@ -4781,34 +6417,76 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="63"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AF25" s="63">
+        <f>IF(AND(G25-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10022,6,FALSE)&gt;0,G25&gt;G24),G25,AF24)</f>
+        <v>34.17</v>
+      </c>
+      <c r="AG25" s="65">
+        <f>AF25-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10024,6,FALSE)</f>
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="12">
-        <v>44548</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
+        <v>44550</v>
+      </c>
+      <c r="B26" s="11">
+        <v>36.38</v>
+      </c>
+      <c r="C26" s="11">
+        <v>35.42</v>
+      </c>
+      <c r="D26" s="11">
+        <v>37.25</v>
+      </c>
+      <c r="E26" s="11">
+        <v>34.55</v>
+      </c>
+      <c r="F26" s="11">
+        <v>36.11</v>
+      </c>
+      <c r="G26" s="11">
+        <v>34.26</v>
+      </c>
+      <c r="H26" s="13">
+        <v>31.85</v>
+      </c>
+      <c r="I26" s="13">
+        <v>12</v>
+      </c>
+      <c r="J26" s="23">
+        <f>(B26-B25)/B25</f>
+        <v>0.0105555555555556</v>
+      </c>
+      <c r="K26" s="19">
+        <f>(B26-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10024,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10024,6,FALSE)</f>
+        <v>0.112538226299694</v>
+      </c>
+      <c r="L26" s="20">
+        <f>I26/(ROW()-5)</f>
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M26" s="29">
+        <f>IF(B26&gt;(D26-(D26-E26)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="30" t="str">
+        <f>IF(B26&lt;F26,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
-      <c r="W26" s="11"/>
+      <c r="W26" s="13"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -4817,27 +6495,69 @@
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="63"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AF26" s="63">
+        <f>IF(AND(G26-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10023,6,FALSE)&gt;0,G26&gt;G25),G26,AF25)</f>
+        <v>34.26</v>
+      </c>
+      <c r="AG26" s="65">
+        <f>AF26-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10025,6,FALSE)</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="12">
-        <v>44549</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+        <v>44551</v>
+      </c>
+      <c r="B27" s="11">
+        <v>35.55</v>
+      </c>
+      <c r="C27" s="11">
+        <v>36.02</v>
+      </c>
+      <c r="D27" s="11">
+        <v>36.5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>35.36</v>
+      </c>
+      <c r="F27" s="11">
+        <v>36.06</v>
+      </c>
+      <c r="G27" s="11">
+        <v>34.31</v>
+      </c>
+      <c r="H27" s="13">
+        <v>32.19</v>
+      </c>
+      <c r="I27" s="13">
+        <v>12</v>
+      </c>
+      <c r="J27" s="23">
+        <f>(B27-B26)/B26</f>
+        <v>-0.0228147333699837</v>
+      </c>
+      <c r="K27" s="19">
+        <f>(B27-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10025,6,FALSE))/VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10025,6,FALSE)</f>
+        <v>0.0871559633027521</v>
+      </c>
+      <c r="L27" s="20">
+        <f>I27/(ROW()-5)</f>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="M27" s="29">
+        <f>IF(B27&gt;(D27-(D27-E27)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N27" s="33" t="str">
+        <f>IF(B27&lt;F27,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -4853,7 +6573,14 @@
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="63"/>
+      <c r="AF27" s="63">
+        <f>IF(AND(G27-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10024,6,FALSE)&gt;0,G27&gt;G26),G27,AF26)</f>
+        <v>34.31</v>
+      </c>
+      <c r="AG27" s="65">
+        <f>AF27-VLOOKUP([2]交易计划及执行表!$A$7,[2]交易计划及执行表!$A$4:$BL10026,6,FALSE)</f>
+        <v>1.61</v>
+      </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="12"/>
@@ -5231,17 +6958,17 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="11"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="34"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -5265,17 +6992,17 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="34"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -8323,73 +10050,49 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="63"/>
     </row>
-    <row r="130" spans="1:32">
-      <c r="A130" s="12"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="13"/>
-      <c r="O130" s="13"/>
-      <c r="P130" s="13"/>
-      <c r="Q130" s="13"/>
-      <c r="R130" s="13"/>
-      <c r="S130" s="13"/>
-      <c r="T130" s="45"/>
-      <c r="U130" s="13"/>
-      <c r="V130" s="13"/>
-      <c r="W130" s="13"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-      <c r="AD130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AF130" s="63"/>
-    </row>
-    <row r="131" spans="1:32">
-      <c r="A131" s="12"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="13"/>
-      <c r="O131" s="13"/>
-      <c r="P131" s="13"/>
-      <c r="Q131" s="13"/>
-      <c r="R131" s="13"/>
-      <c r="S131" s="13"/>
-      <c r="T131" s="45"/>
-      <c r="U131" s="13"/>
-      <c r="V131" s="13"/>
-      <c r="W131" s="13"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
-      <c r="AA131" s="5"/>
-      <c r="AB131" s="5"/>
-      <c r="AC131" s="5"/>
-      <c r="AD131" s="5"/>
-      <c r="AE131" s="5"/>
-      <c r="AF131" s="63"/>
+    <row r="130" spans="1:23">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="67"/>
+      <c r="W130" s="2"/>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="66"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="67"/>
+      <c r="W131" s="2"/>
     </row>
     <row r="132" spans="1:23">
       <c r="A132" s="2"/>
@@ -16508,50 +18211,6 @@
       <c r="S500" s="2"/>
       <c r="T500" s="67"/>
       <c r="W500" s="2"/>
-    </row>
-    <row r="501" spans="1:23">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-      <c r="E501" s="2"/>
-      <c r="F501" s="2"/>
-      <c r="G501" s="2"/>
-      <c r="I501" s="2"/>
-      <c r="J501" s="2"/>
-      <c r="K501" s="2"/>
-      <c r="L501" s="2"/>
-      <c r="M501" s="66"/>
-      <c r="N501" s="2"/>
-      <c r="O501" s="2"/>
-      <c r="P501" s="2"/>
-      <c r="Q501" s="2"/>
-      <c r="R501" s="2"/>
-      <c r="S501" s="2"/>
-      <c r="T501" s="67"/>
-      <c r="W501" s="2"/>
-    </row>
-    <row r="502" spans="1:23">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-      <c r="E502" s="2"/>
-      <c r="F502" s="2"/>
-      <c r="G502" s="2"/>
-      <c r="I502" s="2"/>
-      <c r="J502" s="2"/>
-      <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
-      <c r="M502" s="66"/>
-      <c r="N502" s="2"/>
-      <c r="O502" s="2"/>
-      <c r="P502" s="2"/>
-      <c r="Q502" s="2"/>
-      <c r="R502" s="2"/>
-      <c r="S502" s="2"/>
-      <c r="T502" s="67"/>
-      <c r="W502" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3195,11 +3195,11 @@
   <dimension ref="A1:AM500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="AG15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="AE13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
+      <selection pane="bottomRight" activeCell="AK26" sqref="AK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3630,8 +3630,8 @@
       <c r="AI6" s="69"/>
       <c r="AJ6" s="69"/>
       <c r="AK6" s="75">
-        <f>AH6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH6-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
@@ -3726,8 +3726,8 @@
       <c r="AI7" s="69"/>
       <c r="AJ7" s="69"/>
       <c r="AK7" s="75">
-        <f>AH7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH7-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL7" s="77"/>
       <c r="AM7" s="77"/>
@@ -3822,8 +3822,8 @@
       <c r="AI8" s="69"/>
       <c r="AJ8" s="69"/>
       <c r="AK8" s="75">
-        <f>AH8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH8-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -3918,8 +3918,8 @@
       <c r="AI9" s="69"/>
       <c r="AJ9" s="69"/>
       <c r="AK9" s="75">
-        <f>AH9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH9-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL9" s="77"/>
       <c r="AM9" s="77"/>
@@ -4014,8 +4014,8 @@
       <c r="AI10" s="69"/>
       <c r="AJ10" s="69"/>
       <c r="AK10" s="75">
-        <f>AH10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH10-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL10" s="77"/>
       <c r="AM10" s="77"/>
@@ -4110,8 +4110,8 @@
       <c r="AI11" s="69"/>
       <c r="AJ11" s="69"/>
       <c r="AK11" s="75">
-        <f>AH11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH11-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10010,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL11" s="77"/>
       <c r="AM11" s="77"/>
@@ -4206,8 +4206,8 @@
       <c r="AI12" s="69"/>
       <c r="AJ12" s="69"/>
       <c r="AK12" s="75">
-        <f>AH12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH12-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10011,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL12" s="77"/>
       <c r="AM12" s="77"/>
@@ -4302,8 +4302,8 @@
       <c r="AI13" s="69"/>
       <c r="AJ13" s="69"/>
       <c r="AK13" s="75">
-        <f>AH13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH13-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10012,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL13" s="77"/>
       <c r="AM13" s="77"/>
@@ -4398,8 +4398,8 @@
       <c r="AI14" s="69"/>
       <c r="AJ14" s="69"/>
       <c r="AK14" s="75">
-        <f>AH14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH14-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10013,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL14" s="77"/>
       <c r="AM14" s="77"/>
@@ -4494,8 +4494,8 @@
       <c r="AI15" s="69"/>
       <c r="AJ15" s="69"/>
       <c r="AK15" s="75">
-        <f>AH15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE)</f>
-        <v>-1.81</v>
+        <f>(AH15-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10014,6,FALSE))*100</f>
+        <v>-181</v>
       </c>
       <c r="AL15" s="77"/>
       <c r="AM15" s="77"/>
@@ -4590,8 +4590,8 @@
       <c r="AI16" s="69"/>
       <c r="AJ16" s="69"/>
       <c r="AK16" s="75">
-        <f>AH16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE)</f>
-        <v>0.0700000000000003</v>
+        <f>(AH16-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10015,6,FALSE))*100</f>
+        <v>7.00000000000003</v>
       </c>
       <c r="AL16" s="77"/>
       <c r="AM16" s="77"/>
@@ -4686,8 +4686,8 @@
       <c r="AI17" s="69"/>
       <c r="AJ17" s="69"/>
       <c r="AK17" s="75">
-        <f>AH17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE)</f>
-        <v>0.159999999999997</v>
+        <f>(AH17-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10016,6,FALSE))*100</f>
+        <v>15.9999999999997</v>
       </c>
       <c r="AL17" s="77"/>
       <c r="AM17" s="77"/>
@@ -4782,8 +4782,8 @@
       <c r="AI18" s="69"/>
       <c r="AJ18" s="69"/>
       <c r="AK18" s="75">
-        <f>AH18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE)</f>
-        <v>0.32</v>
+        <f>(AH18-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10017,6,FALSE))*100</f>
+        <v>32</v>
       </c>
       <c r="AL18" s="77"/>
       <c r="AM18" s="77"/>
@@ -4878,8 +4878,8 @@
       <c r="AI19" s="69"/>
       <c r="AJ19" s="69"/>
       <c r="AK19" s="75">
-        <f>AH19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)</f>
-        <v>0.509999999999998</v>
+        <f>(AH19-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE))*100</f>
+        <v>50.9999999999998</v>
       </c>
       <c r="AL19" s="77"/>
       <c r="AM19" s="77"/>
@@ -4984,8 +4984,8 @@
         <v>34.68</v>
       </c>
       <c r="AK20" s="75">
-        <f>AH20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)</f>
-        <v>0.68</v>
+        <f>(AH20-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))*100</f>
+        <v>68</v>
       </c>
       <c r="AL20" s="75">
         <f>(AI20-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))*100</f>
@@ -5098,8 +5098,8 @@
         <v>34.68</v>
       </c>
       <c r="AK21" s="75">
-        <f>AH21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)</f>
-        <v>0.849999999999994</v>
+        <f>(AH21-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))*100</f>
+        <v>84.9999999999994</v>
       </c>
       <c r="AL21" s="75">
         <f>(AI21-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))*100</f>
@@ -5212,8 +5212,8 @@
         <v>34.68</v>
       </c>
       <c r="AK22" s="75">
-        <f>AH22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE)</f>
-        <v>1.08</v>
+        <f>(AH22-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE))*100</f>
+        <v>108</v>
       </c>
       <c r="AL22" s="75">
         <f>(AI22-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE))*100</f>
@@ -5314,8 +5314,8 @@
         <v>34.68</v>
       </c>
       <c r="AK23" s="75">
-        <f>AH23-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE)</f>
-        <v>1.26</v>
+        <f>(AH23-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE))*100</f>
+        <v>126</v>
       </c>
       <c r="AL23" s="75">
         <f>(AI23-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE))*100</f>
@@ -5416,8 +5416,8 @@
         <v>34.68</v>
       </c>
       <c r="AK24" s="75">
-        <f>AH24-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE)</f>
-        <v>1.4</v>
+        <f>(AH24-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE))*100</f>
+        <v>140</v>
       </c>
       <c r="AL24" s="75">
         <f>(AI24-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE))*100</f>
@@ -5518,8 +5518,8 @@
         <v>34.68</v>
       </c>
       <c r="AK25" s="75">
-        <f>AH25-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE)</f>
-        <v>1.47</v>
+        <f>(AH25-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE))*100</f>
+        <v>147</v>
       </c>
       <c r="AL25" s="75">
         <f>(AI25-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE))*100</f>
@@ -5620,8 +5620,8 @@
         <v>34.68</v>
       </c>
       <c r="AK26" s="75">
-        <f>AH26-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10025,6,FALSE)</f>
-        <v>1.56</v>
+        <f>(AH26-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10025,6,FALSE))*100</f>
+        <v>156</v>
       </c>
       <c r="AL26" s="75">
         <f>(AI26-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10025,6,FALSE))*100</f>
@@ -5722,8 +5722,8 @@
         <v>34.68</v>
       </c>
       <c r="AK27" s="75">
-        <f>AH27-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10026,6,FALSE)</f>
-        <v>1.61</v>
+        <f>(AH27-VLOOKUP([1]交易计划及执行表!$A$7,[1]交易计划及执行表!$A$4:$BL10026,6,FALSE))*100</f>
+        <v>161</v>
       </c>
       <c r="AL27" s="75">
         <f>(AI27-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10026,6,FALSE))*100</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -2160,10 +2160,10 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>34.68</v>
+            <v>34.55</v>
           </cell>
           <cell r="S12">
-            <v>620.150919999999</v>
+            <v>646.15092</v>
           </cell>
         </row>
         <row r="12">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3169,7 +3169,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7:AH27"/>
+      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -4947,7 +4947,7 @@
         <v>33.38</v>
       </c>
       <c r="AI20" s="66">
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ20" s="66">
         <v>34.68</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="AL20" s="69">
         <f>(AI20-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM20" s="69">
         <f>(AJ20-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE))*200</f>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="AI21" s="66">
         <f>IF(AND(G21-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)&gt;0,G21&gt;G20),G21,AI20)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ21" s="66">
         <f>IF(AND(G21-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10018,6,FALSE)&gt;0,G21&gt;G20),G21,AJ20)</f>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="AL21" s="69">
         <f>(AI21-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM21" s="69">
         <f>(AJ21-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE))*200</f>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AI22" s="66">
         <f>IF(AND(G22-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)&gt;0,G22&gt;G21),G22,AI21)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ22" s="66">
         <f>IF(AND(G22-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10019,6,FALSE)&gt;0,G22&gt;G21),G22,AJ21)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="AL22" s="69">
         <f>(AI22-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM22" s="69">
         <f>(AJ22-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE))*200</f>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="AI23" s="66">
         <f>IF(AND(G23-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)&gt;0,G23&gt;G22),G23,AI22)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ23" s="66">
         <f>IF(AND(G23-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10020,6,FALSE)&gt;0,G23&gt;G22),G23,AJ22)</f>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="AL23" s="69">
         <f>(AI23-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM23" s="69">
         <f>(AJ23-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE))*200</f>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="AI24" s="66">
         <f>IF(AND(G24-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE)&gt;0,G24&gt;G23),G24,AI23)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ24" s="66">
         <f>IF(AND(G24-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10021,6,FALSE)&gt;0,G24&gt;G23),G24,AJ23)</f>
@@ -5390,7 +5390,7 @@
       </c>
       <c r="AL24" s="69">
         <f>(AI24-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM24" s="69">
         <f>(AJ24-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE))*200</f>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="AI25" s="66">
         <f>IF(AND(G25-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE)&gt;0,G25&gt;G24),G25,AI24)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ25" s="66">
         <f>IF(AND(G25-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10022,6,FALSE)&gt;0,G25&gt;G24),G25,AJ24)</f>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="AL25" s="69">
         <f>(AI25-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM25" s="69">
         <f>(AJ25-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE))*200</f>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="AI26" s="66">
         <f>IF(AND(G26-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE)&gt;0,G26&gt;G25),G26,AI25)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ26" s="66">
         <f>IF(AND(G26-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10023,6,FALSE)&gt;0,G26&gt;G25),G26,AJ25)</f>
@@ -5594,7 +5594,7 @@
       </c>
       <c r="AL26" s="69">
         <f>(AI26-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10025,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM26" s="69">
         <f>(AJ26-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10025,6,FALSE))*200</f>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="AI27" s="66">
         <f>IF(AND(G27-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE)&gt;0,G27&gt;G26),G27,AI26)</f>
-        <v>34.68</v>
+        <v>34.55</v>
       </c>
       <c r="AJ27" s="66">
         <f>IF(AND(G27-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10024,6,FALSE)&gt;0,G27&gt;G26),G27,AJ26)</f>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="AL27" s="69">
         <f>(AI27-VLOOKUP([1]交易计划及执行表!$A$12,[1]交易计划及执行表!$A$4:$BL10026,6,FALSE))*100</f>
-        <v>-305</v>
+        <v>-318</v>
       </c>
       <c r="AM27" s="69">
         <f>(AJ27-VLOOKUP([1]交易计划及执行表!$A$13,[1]交易计划及执行表!$A$4:$BL10026,6,FALSE))*200</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3169,7 +3169,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM27" sqref="AM27"/>
+      <selection pane="bottomRight" activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -247,16 +247,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -297,6 +297,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -304,14 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,18 +339,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,9 +363,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,20 +418,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,17 +425,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,38 +437,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,7 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +595,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +661,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,37 +703,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,73 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,44 +807,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,21 +827,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,153 +856,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,19 +1064,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1124,7 +1124,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1136,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,19 +1148,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,46 +1232,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3515,11 +3515,11 @@
   <dimension ref="A1:AM500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="T12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -5543,7 +5543,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" ht="18" spans="1:39">
       <c r="A23" s="14">
         <v>44545</v>
       </c>
@@ -5607,9 +5607,17 @@
       </c>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="17"/>
+      <c r="U23" s="43" t="str">
+        <f t="shared" ref="U23:U31" si="5">IF(I23/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="V23" s="53" t="str">
+        <f>IF(SUM($O$6:$O23)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="W23" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="X23" s="17"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="63"/>
@@ -5645,7 +5653,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" ht="18" spans="1:39">
       <c r="A24" s="14">
         <v>44546</v>
       </c>
@@ -5709,9 +5717,17 @@
       </c>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="58"/>
-      <c r="W24" s="17"/>
+      <c r="U24" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V24" s="53" t="str">
+        <f>IF(SUM($O$6:$O24)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="W24" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="X24" s="17"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="63"/>
@@ -5747,7 +5763,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" ht="18" spans="1:39">
       <c r="A25" s="14">
         <v>44547</v>
       </c>
@@ -5811,9 +5827,17 @@
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="17"/>
+      <c r="U25" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V25" s="57" t="str">
+        <f>IF(SUM($O$6:$O25)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="W25" s="54" t="s">
+        <v>53</v>
+      </c>
       <c r="X25" s="17"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="63"/>
@@ -5849,7 +5873,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" ht="18" spans="1:39">
       <c r="A26" s="14">
         <v>44550</v>
       </c>
@@ -5913,9 +5937,17 @@
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="17"/>
+      <c r="U26" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V26" s="53" t="str">
+        <f>IF(SUM($O$6:$O26)&gt;0,"是","否")</f>
+        <v>是</v>
+      </c>
+      <c r="W26" s="48" t="s">
+        <v>51</v>
+      </c>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
       <c r="Z26" s="63"/>
@@ -5951,7 +5983,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" ht="18" spans="1:39">
       <c r="A27" s="14">
         <v>44551</v>
       </c>
@@ -6015,8 +6047,14 @@
       </c>
       <c r="S27" s="17"/>
       <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="58"/>
+      <c r="U27" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V27" s="57" t="str">
+        <f>IF(SUM($O$6:$O27)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
@@ -6053,7 +6091,7 @@
         <v>-662</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" ht="18" spans="1:39">
       <c r="A28" s="14">
         <v>44552</v>
       </c>
@@ -6110,8 +6148,14 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="58"/>
+      <c r="U28" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V28" s="57" t="str">
+        <f>IF(SUM($O$6:$O28)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
@@ -6129,7 +6173,7 @@
       <c r="AL28" s="6"/>
       <c r="AM28" s="6"/>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" ht="18" spans="1:39">
       <c r="A29" s="14">
         <v>44553</v>
       </c>
@@ -6186,8 +6230,14 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="58"/>
+      <c r="U29" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V29" s="57" t="str">
+        <f>IF(SUM($O$6:$O29)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
@@ -6205,7 +6255,7 @@
       <c r="AL29" s="6"/>
       <c r="AM29" s="6"/>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" ht="18" spans="1:39">
       <c r="A30" s="14">
         <v>44554</v>
       </c>
@@ -6262,8 +6312,14 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="58"/>
+      <c r="U30" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>是</v>
+      </c>
+      <c r="V30" s="57" t="str">
+        <f>IF(SUM($O$6:$O30)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
@@ -6281,7 +6337,7 @@
       <c r="AL30" s="6"/>
       <c r="AM30" s="6"/>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" ht="18" spans="1:39">
       <c r="A31" s="14"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -6302,8 +6358,14 @@
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="58"/>
+      <c r="U31" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>否</v>
+      </c>
+      <c r="V31" s="57" t="str">
+        <f>IF(SUM($O$6:$O31)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3518,11 +3518,11 @@
   <dimension ref="A1:AM500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="N13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3518,11 +3518,11 @@
   <dimension ref="A1:AM500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -6120,7 +6120,7 @@
         <v>31.45</v>
       </c>
       <c r="I28" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="25">
         <f>(B28-B27)/B27</f>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="N28" s="34">
         <f>I28/(ROW()-5)</f>
-        <v>0.565217391304348</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="O28" s="37">
         <f>IF(B28&gt;(D28-(D28-E28)/2),1,-1)</f>
@@ -6202,7 +6202,7 @@
         <v>31.38</v>
       </c>
       <c r="I29" s="18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J29" s="25">
         <f>(B29-B28)/B28</f>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="N29" s="34">
         <f>I29/(ROW()-5)</f>
-        <v>0.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="37">
         <f>IF(B29&gt;(D29-(D29-E29)/2),1,-1)</f>
@@ -6235,7 +6235,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="44" t="str">
         <f t="shared" si="5"/>
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="V29" s="58" t="str">
         <f>IF(SUM($O$6:$O29)&gt;0,"是","否")</f>
@@ -6284,7 +6284,7 @@
         <v>30.8</v>
       </c>
       <c r="I30" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J30" s="25">
         <f>(B30-B29)/B29</f>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="N30" s="34">
         <f>I30/(ROW()-5)</f>
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="O30" s="37">
         <f>IF(B30&gt;(D30-(D30-E30)/2),1,-1)</f>
@@ -6317,7 +6317,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="44" t="str">
         <f t="shared" si="5"/>
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="V30" s="58" t="str">
         <f>IF(SUM($O$6:$O30)&gt;0,"是","否")</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/新化股份.xlsx
@@ -3576,7 +3576,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
